--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16096384-EDA6-42B8-A83E-5C5E8184ECFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68559227-5DD5-4FDA-B5B8-5F793B961EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>United States</t>
   </si>
@@ -231,9 +231,6 @@
     <t>13 countries &gt;= 2012</t>
   </si>
   <si>
-    <t>35 countries &gt;= 2012</t>
-  </si>
-  <si>
     <t>Manufacturing PMI</t>
   </si>
   <si>
@@ -241,6 +238,18 @@
   </si>
   <si>
     <t>Economics)</t>
+  </si>
+  <si>
+    <t>(Trading Economics)</t>
+  </si>
+  <si>
+    <t>07/2013 to 05/2023</t>
+  </si>
+  <si>
+    <t>o (FX Empire)</t>
+  </si>
+  <si>
+    <t>34 countries &gt;= 2012</t>
   </si>
 </sst>
 </file>
@@ -292,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +346,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,26 +416,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -738,8 +753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,6 +765,7 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
@@ -775,14 +792,14 @@
       <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="15" t="s">
+      <c r="I1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="21"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -794,30 +811,30 @@
       <c r="G2" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="16" t="s">
+      <c r="J2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="22" t="s">
-        <v>66</v>
+      <c r="L2" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="22" t="s">
-        <v>67</v>
+      <c r="I3" s="15"/>
+      <c r="J3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -832,14 +849,14 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>1999</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="16">
-        <v>2012</v>
-      </c>
-      <c r="L4" s="22"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="15">
+        <v>2012</v>
+      </c>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -853,14 +870,14 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>2008</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="16">
+      <c r="J5" s="18"/>
+      <c r="K5" s="15">
         <v>2019</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="18">
         <v>2013</v>
       </c>
     </row>
@@ -876,14 +893,14 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>2008</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="16">
+      <c r="J6" s="18"/>
+      <c r="K6" s="15">
         <v>2008</v>
       </c>
-      <c r="L6" s="22"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -897,14 +914,14 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>2021</v>
       </c>
-      <c r="J7" s="22">
-        <v>2011</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="22"/>
+      <c r="J7" s="24">
+        <v>2012</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -918,14 +935,14 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>2008</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="16">
+      <c r="J8" s="18"/>
+      <c r="K8" s="15">
         <v>2008</v>
       </c>
-      <c r="L8" s="22"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -938,12 +955,12 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="22">
-        <v>1999</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="22">
+      <c r="I9" s="15"/>
+      <c r="J9" s="24">
+        <v>2012</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="18">
         <v>2014</v>
       </c>
     </row>
@@ -959,14 +976,14 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>2008</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="25">
+      <c r="J10" s="18"/>
+      <c r="K10" s="15">
         <v>2008</v>
       </c>
-      <c r="L10" s="22"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -980,16 +997,16 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>2018</v>
       </c>
-      <c r="J11" s="22">
-        <v>2016</v>
-      </c>
-      <c r="K11" s="25">
+      <c r="J11" s="25">
+        <v>41426</v>
+      </c>
+      <c r="K11" s="15">
         <v>2018</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="18">
         <v>2016</v>
       </c>
     </row>
@@ -1004,12 +1021,12 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="22">
-        <v>2012</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="25">
+        <v>41548</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1027,10 +1044,12 @@
         <v>2001</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="22"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1048,14 +1067,14 @@
         <v>1999</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>1999</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="16">
+      <c r="J14" s="18"/>
+      <c r="K14" s="15">
         <v>2006</v>
       </c>
-      <c r="L14" s="22"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1069,14 +1088,14 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="17">
-        <v>2012</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="16">
-        <v>2012</v>
-      </c>
-      <c r="L15" s="22"/>
+      <c r="I15" s="16">
+        <v>2012</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="15">
+        <v>2012</v>
+      </c>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -1088,12 +1107,12 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="I16" s="17">
-        <v>2012</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="16">
+        <v>2012</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1107,14 +1126,14 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="17">
-        <v>2012</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="16">
-        <v>2012</v>
-      </c>
-      <c r="L17" s="22"/>
+      <c r="I17" s="16">
+        <v>2012</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="15">
+        <v>2012</v>
+      </c>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -1125,12 +1144,12 @@
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="I18" s="17">
+      <c r="I18" s="16">
         <v>1999</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="22"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1148,10 +1167,10 @@
         <v>2001</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="22"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1164,13 +1183,13 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="22"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="18"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="8">
@@ -1185,15 +1204,15 @@
         <v>1999</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="17">
+      <c r="I21" s="16">
         <v>2004</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="22"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="18"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="8">
@@ -1203,12 +1222,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="22">
-        <v>2003</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="22"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="24">
+        <v>2012</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="18"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1221,17 +1240,17 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="17">
-        <v>2012</v>
-      </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="16">
-        <v>2012</v>
-      </c>
-      <c r="L23" s="22"/>
+      <c r="I23" s="16">
+        <v>2012</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="15">
+        <v>2012</v>
+      </c>
+      <c r="L23" s="18"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="11">
@@ -1246,12 +1265,12 @@
         <v>2001</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="22">
-        <v>2003</v>
-      </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="22">
+      <c r="I24" s="15"/>
+      <c r="J24" s="24">
+        <v>2012</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="18">
         <v>2008</v>
       </c>
     </row>
@@ -1266,12 +1285,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="17">
-        <v>2012</v>
-      </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="22"/>
+      <c r="I25" s="16">
+        <v>2012</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1289,27 +1308,27 @@
         <v>2010</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="22"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="22"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="22"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1323,14 +1342,14 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="17">
+      <c r="I29" s="16">
         <v>2005</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="16">
-        <v>2012</v>
-      </c>
-      <c r="L29" s="22"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="15">
+        <v>2012</v>
+      </c>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -1340,12 +1359,12 @@
         <v>21</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="I30" s="17">
-        <v>2012</v>
-      </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="22"/>
+      <c r="I30" s="16">
+        <v>2012</v>
+      </c>
+      <c r="J30" s="18"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1359,14 +1378,14 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="17">
-        <v>2012</v>
-      </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="16">
-        <v>2012</v>
-      </c>
-      <c r="L31" s="22"/>
+      <c r="I31" s="16">
+        <v>2012</v>
+      </c>
+      <c r="J31" s="18"/>
+      <c r="K31" s="15">
+        <v>2012</v>
+      </c>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1380,12 +1399,12 @@
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="17">
-        <v>2012</v>
-      </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="22"/>
+      <c r="I32" s="16">
+        <v>2012</v>
+      </c>
+      <c r="J32" s="18"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="18"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -1399,14 +1418,14 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="17">
-        <v>2012</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="16">
-        <v>2012</v>
-      </c>
-      <c r="L33" s="22"/>
+      <c r="I33" s="16">
+        <v>2012</v>
+      </c>
+      <c r="J33" s="18"/>
+      <c r="K33" s="15">
+        <v>2012</v>
+      </c>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -1420,12 +1439,12 @@
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="22">
-        <v>2012</v>
-      </c>
-      <c r="K34" s="16"/>
-      <c r="L34" s="22"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="18">
+        <v>2012</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="18"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -1444,14 +1463,12 @@
         <v>1999</v>
       </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="17">
-        <v>2012</v>
-      </c>
-      <c r="J35" s="22">
-        <v>1999</v>
-      </c>
-      <c r="K35" s="16"/>
-      <c r="L35" s="22"/>
+      <c r="I35" s="16">
+        <v>2012</v>
+      </c>
+      <c r="J35" s="18"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="18"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -1465,12 +1482,12 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="17">
-        <v>2012</v>
-      </c>
-      <c r="J36" s="22"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="22"/>
+      <c r="I36" s="16">
+        <v>2012</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="18"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -1482,12 +1499,12 @@
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
       <c r="F37" s="2"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="22">
-        <v>2017</v>
-      </c>
-      <c r="K37" s="16"/>
-      <c r="L37" s="22"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="26">
+        <v>2016</v>
+      </c>
+      <c r="K37" s="15"/>
+      <c r="L37" s="18"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -1501,12 +1518,12 @@
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="17">
-        <v>2012</v>
-      </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="22"/>
+      <c r="I38" s="16">
+        <v>2012</v>
+      </c>
+      <c r="J38" s="18"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="18"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
@@ -1518,12 +1535,12 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="22">
+      <c r="I39" s="15"/>
+      <c r="J39" s="26">
         <v>2015</v>
       </c>
-      <c r="K39" s="16"/>
-      <c r="L39" s="22"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="18"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -1536,12 +1553,12 @@
       <c r="G40">
         <v>2004</v>
       </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="22">
-        <v>2012</v>
-      </c>
-      <c r="K40" s="16"/>
-      <c r="L40" s="22"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="26">
+        <v>2012</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="18"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -1554,12 +1571,12 @@
       <c r="G41">
         <v>2001</v>
       </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="22">
+      <c r="I41" s="15"/>
+      <c r="J41" s="26">
         <v>2017</v>
       </c>
-      <c r="K41" s="16"/>
-      <c r="L41" s="22"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="18"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
@@ -1572,10 +1589,10 @@
       <c r="G42">
         <v>2010</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="23"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="19"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -1589,14 +1606,14 @@
       <c r="E43" s="4"/>
       <c r="F43" s="2"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="18">
-        <v>2013</v>
-      </c>
-      <c r="J43" s="22">
-        <v>2012</v>
-      </c>
-      <c r="K43" s="16"/>
-      <c r="L43" s="22"/>
+      <c r="I43" s="17">
+        <v>2015</v>
+      </c>
+      <c r="J43" s="18">
+        <v>2012</v>
+      </c>
+      <c r="K43" s="15"/>
+      <c r="L43" s="18"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
@@ -1608,12 +1625,12 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="22">
-        <v>2016</v>
-      </c>
-      <c r="K44" s="16"/>
-      <c r="L44" s="22"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="18">
+        <v>2018</v>
+      </c>
+      <c r="K44" s="15"/>
+      <c r="L44" s="18"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -1628,12 +1645,12 @@
         <v>1999</v>
       </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="19">
-        <v>2012</v>
-      </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="22"/>
+      <c r="I45" s="16">
+        <v>2012</v>
+      </c>
+      <c r="J45" s="18"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="18"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -1648,10 +1665,10 @@
         <v>2002</v>
       </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="22"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="18"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -1664,12 +1681,12 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="17">
-        <v>2012</v>
-      </c>
-      <c r="J47" s="22"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="22"/>
+      <c r="I47" s="16">
+        <v>2012</v>
+      </c>
+      <c r="J47" s="18"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="18"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
@@ -1683,10 +1700,10 @@
       <c r="G48">
         <v>2011</v>
       </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="22"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="18"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -1701,12 +1718,12 @@
         <v>2011</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="17">
+      <c r="I49" s="16">
         <v>1999</v>
       </c>
-      <c r="J49" s="22"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="22"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="18"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -1721,12 +1738,12 @@
         <v>1999</v>
       </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="22">
-        <v>2012</v>
-      </c>
-      <c r="K50" s="16"/>
-      <c r="L50" s="22"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="18">
+        <v>2012</v>
+      </c>
+      <c r="K50" s="15"/>
+      <c r="L50" s="18"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
@@ -1739,12 +1756,12 @@
       <c r="G51">
         <v>1999</v>
       </c>
-      <c r="I51" s="16"/>
-      <c r="J51" s="22">
-        <v>2012</v>
-      </c>
-      <c r="K51" s="16"/>
-      <c r="L51" s="22"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="26">
+        <v>2013</v>
+      </c>
+      <c r="K51" s="15"/>
+      <c r="L51" s="18"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
@@ -1762,29 +1779,29 @@
         <v>2000</v>
       </c>
       <c r="H52" s="4"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="22">
+      <c r="I52" s="15"/>
+      <c r="J52" s="18">
         <v>2015</v>
       </c>
-      <c r="K52" s="16"/>
-      <c r="L52" s="22"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="18"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C53" s="9"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="22"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="18"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C54" s="9"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="22"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="18"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -1798,10 +1815,10 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="H55" s="14"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="22"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="18"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -1820,30 +1837,30 @@
         <v>1999</v>
       </c>
       <c r="H56" s="13"/>
-      <c r="I56" s="17">
-        <v>2012</v>
-      </c>
-      <c r="J56" s="22"/>
-      <c r="K56" s="16">
-        <v>2012</v>
-      </c>
-      <c r="L56" s="22"/>
+      <c r="I56" s="16">
+        <v>2012</v>
+      </c>
+      <c r="J56" s="18"/>
+      <c r="K56" s="15">
+        <v>2012</v>
+      </c>
+      <c r="L56" s="18"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I57" s="16"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="22"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="18"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I58" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="J58" s="24"/>
+        <v>70</v>
+      </c>
+      <c r="J58" s="21"/>
       <c r="K58" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="L58" s="24"/>
+      <c r="L58" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68559227-5DD5-4FDA-B5B8-5F793B961EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244F50E3-7A11-4631-8DEF-C67B4D53D8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
-    <sheet name="Sorted countries" sheetId="2" r:id="rId2"/>
+    <sheet name="Detailed indices" sheetId="3" r:id="rId2"/>
+    <sheet name="Sorted countries" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="72">
   <si>
     <t>United States</t>
   </si>
@@ -250,13 +251,16 @@
   </si>
   <si>
     <t>34 countries &gt;= 2012</t>
+  </si>
+  <si>
+    <t>32 from 2012 + 3 from 2013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,8 +304,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,8 +366,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -374,19 +390,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -396,11 +399,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -414,30 +418,49 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -751,11 +774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H33" sqref="H33"/>
+      <selection pane="topRight" activeCell="H51" sqref="H51:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,12 +788,12 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -792,16 +815,15 @@
       <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>57</v>
       </c>
@@ -811,33 +833,25 @@
       <c r="G2" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="18" t="s">
+      <c r="K2" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="18" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -849,16 +863,15 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="16">
+      <c r="I4" s="29">
         <v>1999</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="15">
-        <v>2012</v>
-      </c>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="26">
+        <v>2012</v>
+      </c>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -870,18 +883,17 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="16">
+      <c r="I5" s="29">
         <v>2008</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="15">
+      <c r="J5" s="26">
         <v>2019</v>
       </c>
-      <c r="L5" s="18">
+      <c r="K5" s="16">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -893,16 +905,15 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="16">
+      <c r="I6" s="29">
         <v>2008</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="15">
+      <c r="J6" s="26">
         <v>2008</v>
       </c>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -914,16 +925,13 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="17">
-        <v>2021</v>
-      </c>
-      <c r="J7" s="24">
-        <v>2012</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I7" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J7" s="26"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -935,16 +943,15 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="16">
+      <c r="I8" s="29">
         <v>2008</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="15">
+      <c r="J8" s="26">
         <v>2008</v>
       </c>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -955,16 +962,15 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="24">
-        <v>2012</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="18">
+      <c r="I9" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="16">
         <v>2014</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -976,16 +982,15 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="16">
+      <c r="I10" s="29">
         <v>2008</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="15">
+      <c r="J10" s="26">
         <v>2008</v>
       </c>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -997,20 +1002,17 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="17">
+      <c r="I11" s="30">
+        <v>41426</v>
+      </c>
+      <c r="J11" s="26">
         <v>2018</v>
       </c>
-      <c r="J11" s="25">
-        <v>41426</v>
-      </c>
-      <c r="K11" s="15">
-        <v>2018</v>
-      </c>
-      <c r="L11" s="18">
+      <c r="K11" s="16">
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1021,14 +1023,13 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="25">
+      <c r="I12" s="30">
         <v>41548</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="26"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -1044,14 +1045,13 @@
         <v>2001</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="25" t="s">
+      <c r="I13" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="26"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1067,16 +1067,15 @@
         <v>1999</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="16">
+      <c r="I14" s="29">
         <v>1999</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="15">
+      <c r="J14" s="26">
         <v>2006</v>
       </c>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1088,17 +1087,16 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="15">
-        <v>2012</v>
-      </c>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="I15" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J15" s="26">
+        <v>2012</v>
+      </c>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="10">
@@ -1107,14 +1105,13 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="I16" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="18"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I16" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1126,17 +1123,16 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="15">
-        <v>2012</v>
-      </c>
-      <c r="L17" s="18"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="I17" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J17" s="26">
+        <v>2012</v>
+      </c>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="8">
@@ -1144,14 +1140,13 @@
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="I18" s="16">
+      <c r="I18" s="29">
         <v>1999</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J18" s="26"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1167,12 +1162,11 @@
         <v>2001</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="15"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="26"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="18"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -1183,12 +1177,11 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="15"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="26"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="18"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1204,14 +1197,13 @@
         <v>1999</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="16">
+      <c r="I21" s="29">
         <v>2004</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="18"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J21" s="26"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1222,14 +1214,13 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="24">
-        <v>2012</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="18"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I22" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J22" s="26"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1240,16 +1231,15 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="15">
-        <v>2012</v>
-      </c>
-      <c r="L23" s="18"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I23" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J23" s="26">
+        <v>2012</v>
+      </c>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1265,16 +1255,15 @@
         <v>2001</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="24">
-        <v>2012</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="18">
+      <c r="I24" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="K24" s="16">
         <v>2008</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1285,14 +1274,13 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="18"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I25" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J25" s="26"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1308,30 +1296,27 @@
         <v>2010</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="15"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="18"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="18"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="18"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="5"/>
@@ -1341,33 +1326,32 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="16">
+      <c r="H29" s="34"/>
+      <c r="I29" s="29">
         <v>2005</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="15">
-        <v>2012</v>
-      </c>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="J29" s="26">
+        <v>2012</v>
+      </c>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="8">
         <v>21</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="I30" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J30" s="18"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="18"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="H30" s="26"/>
+      <c r="I30" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J30" s="26"/>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="5"/>
@@ -1377,18 +1361,17 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="15">
-        <v>2012</v>
-      </c>
-      <c r="L31" s="18"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="H31" s="34"/>
+      <c r="I31" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J31" s="26">
+        <v>2012</v>
+      </c>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="5"/>
@@ -1398,16 +1381,15 @@
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="18"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="H32" s="29"/>
+      <c r="I32" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J32" s="26"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="5"/>
@@ -1417,18 +1399,17 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J33" s="18"/>
-      <c r="K33" s="15">
-        <v>2012</v>
-      </c>
-      <c r="L33" s="18"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="H33" s="35"/>
+      <c r="I33" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J33" s="26">
+        <v>2012</v>
+      </c>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="5"/>
@@ -1438,16 +1419,15 @@
       <c r="D34" s="2"/>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="18">
-        <v>2012</v>
-      </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="18"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="H34" s="34"/>
+      <c r="I34" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="5"/>
@@ -1462,16 +1442,15 @@
       <c r="G35">
         <v>1999</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J35" s="18"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="18"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="H35" s="29"/>
+      <c r="I35" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J35" s="26"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="5"/>
@@ -1481,16 +1460,15 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J36" s="18"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="18"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="H36" s="29"/>
+      <c r="I36" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J36" s="26"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="8">
@@ -1499,15 +1477,13 @@
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
       <c r="F37" s="2"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="26">
-        <v>2016</v>
-      </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="18"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="5"/>
@@ -1517,16 +1493,15 @@
       <c r="D38" s="2"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J38" s="18"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="18"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="H38" s="34"/>
+      <c r="I38" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J38" s="26"/>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="10">
@@ -1535,15 +1510,13 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="26">
-        <v>2015</v>
-      </c>
-      <c r="K39" s="15"/>
-      <c r="L39" s="18"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="16"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="10">
@@ -1553,15 +1526,13 @@
       <c r="G40">
         <v>2004</v>
       </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="26">
-        <v>2012</v>
-      </c>
-      <c r="K40" s="15"/>
-      <c r="L40" s="18"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="16"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="11">
@@ -1571,15 +1542,13 @@
       <c r="G41">
         <v>2001</v>
       </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="26">
-        <v>2017</v>
-      </c>
-      <c r="K41" s="15"/>
-      <c r="L41" s="18"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="16"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="11">
@@ -1589,13 +1558,13 @@
       <c r="G42">
         <v>2010</v>
       </c>
-      <c r="I42" s="15"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="19"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="K42" s="17"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="5"/>
@@ -1605,17 +1574,14 @@
       <c r="D43" s="2"/>
       <c r="E43" s="4"/>
       <c r="F43" s="2"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="17">
-        <v>2015</v>
-      </c>
-      <c r="J43" s="18">
-        <v>2012</v>
-      </c>
-      <c r="K43" s="15"/>
-      <c r="L43" s="18"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H43" s="31"/>
+      <c r="I43" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J43" s="26"/>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -1625,15 +1591,13 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="18">
-        <v>2018</v>
-      </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="18"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="8">
@@ -1644,15 +1608,14 @@
       <c r="G45">
         <v>1999</v>
       </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J45" s="18"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="18"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H45" s="29"/>
+      <c r="I45" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J45" s="26"/>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
@@ -1664,14 +1627,13 @@
       <c r="F46" s="4">
         <v>2002</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="15"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="26"/>
       <c r="J46" s="26"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="18"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="11">
@@ -1680,16 +1642,15 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J47" s="18"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="18"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="H47" s="29"/>
+      <c r="I47" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J47" s="26"/>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="11">
@@ -1700,12 +1661,12 @@
       <c r="G48">
         <v>2011</v>
       </c>
-      <c r="I48" s="15"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
       <c r="J48" s="26"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="18"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K48" s="16"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
@@ -1717,15 +1678,14 @@
       <c r="G49">
         <v>2011</v>
       </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="16">
+      <c r="H49" s="29"/>
+      <c r="I49" s="29">
         <v>1999</v>
       </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="18"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J49" s="26"/>
+      <c r="K49" s="16"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>47</v>
       </c>
@@ -1737,16 +1697,15 @@
       <c r="G50">
         <v>1999</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="18">
-        <v>2012</v>
-      </c>
-      <c r="K50" s="15"/>
-      <c r="L50" s="18"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="H50" s="29"/>
+      <c r="I50" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J50" s="26"/>
+      <c r="K50" s="16"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="11">
@@ -1756,15 +1715,13 @@
       <c r="G51">
         <v>1999</v>
       </c>
-      <c r="I51" s="15"/>
-      <c r="J51" s="26">
-        <v>2013</v>
-      </c>
-      <c r="K51" s="15"/>
-      <c r="L51" s="18"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="16"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
         <v>43</v>
       </c>
       <c r="C52" s="11">
@@ -1778,33 +1735,30 @@
       <c r="G52">
         <v>2000</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="18">
-        <v>2015</v>
-      </c>
-      <c r="K52" s="15"/>
-      <c r="L52" s="18"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H52" s="31"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="16"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C53" s="9"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="18"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C54" s="9"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="18"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
         <v>44</v>
       </c>
       <c r="B55" s="5"/>
@@ -1814,13 +1768,12 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="26"/>
       <c r="J55" s="26"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="18"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>45</v>
       </c>
@@ -1836,38 +1789,33 @@
       <c r="G56">
         <v>1999</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J56" s="18"/>
-      <c r="K56" s="15">
-        <v>2012</v>
-      </c>
-      <c r="L56" s="18"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I57" s="15"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="18"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I58" s="20" t="s">
+      <c r="H56" s="34"/>
+      <c r="I56" s="29">
+        <v>2012</v>
+      </c>
+      <c r="J56" s="26">
+        <v>2012</v>
+      </c>
+      <c r="K56" s="16"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I58" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J58" s="21"/>
-      <c r="K58" s="20" t="s">
+      <c r="J58" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="L58" s="21"/>
+      <c r="K58" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+  <mergeCells count="2">
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1875,6 +1823,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
+  <dimension ref="A1:C58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1999</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14">
+        <v>2008</v>
+      </c>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2008</v>
+      </c>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>2021</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14">
+        <v>2008</v>
+      </c>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="18">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2008</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="19">
+        <v>41426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="19">
+        <v>41548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1999</v>
+      </c>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1999</v>
+      </c>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="14">
+        <v>2004</v>
+      </c>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="18">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="18">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="14">
+        <v>2005</v>
+      </c>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="18">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="20">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="20">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="20">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="20">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="15">
+        <v>2015</v>
+      </c>
+      <c r="C43" s="18">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C45" s="16"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="20"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="20"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="14">
+        <v>1999</v>
+      </c>
+      <c r="C49" s="16"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="18">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="20">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="20">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="13"/>
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="16"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="20"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C56" s="16"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="13"/>
+      <c r="C57" s="16"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B58:C58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A262C-BF3B-4D84-B60A-8947EF3BFC30}">
   <dimension ref="A1:A48"/>
   <sheetViews>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244F50E3-7A11-4631-8DEF-C67B4D53D8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C4438C-0EF3-4A16-898B-C324E454B803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="71">
   <si>
     <t>United States</t>
   </si>
@@ -229,18 +229,9 @@
     <t>Services PMI</t>
   </si>
   <si>
-    <t>13 countries &gt;= 2012</t>
-  </si>
-  <si>
     <t>Manufacturing PMI</t>
   </si>
   <si>
-    <t xml:space="preserve">(Trading </t>
-  </si>
-  <si>
-    <t>Economics)</t>
-  </si>
-  <si>
     <t>(Trading Economics)</t>
   </si>
   <si>
@@ -250,10 +241,16 @@
     <t>o (FX Empire)</t>
   </si>
   <si>
-    <t>34 countries &gt;= 2012</t>
-  </si>
-  <si>
     <t>32 from 2012 + 3 from 2013</t>
+  </si>
+  <si>
+    <t>13 full &amp; 3 partial</t>
+  </si>
+  <si>
+    <t>32 full &amp; 3 partial</t>
+  </si>
+  <si>
+    <t>12 from 2012 + 3 from 2013</t>
   </si>
 </sst>
 </file>
@@ -404,7 +401,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -426,38 +423,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -774,11 +768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H51" sqref="H51:I51"/>
+      <selection pane="topRight" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,12 +782,11 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -815,15 +808,14 @@
       <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="25" t="s">
+      <c r="I1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="24"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>57</v>
       </c>
@@ -833,25 +825,13 @@
       <c r="G2" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -863,15 +843,14 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="29">
+      <c r="I4" s="2">
         <v>1999</v>
       </c>
-      <c r="J4" s="26">
-        <v>2012</v>
-      </c>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -883,17 +862,14 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="29">
+      <c r="I5" s="2">
         <v>2008</v>
       </c>
-      <c r="J5" s="26">
-        <v>2019</v>
-      </c>
-      <c r="K5" s="16">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="23">
+        <v>41548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -905,15 +881,14 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="29">
+      <c r="I6" s="2">
         <v>2008</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="2">
         <v>2008</v>
       </c>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -925,13 +900,11 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -943,15 +916,14 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="29">
+      <c r="I8" s="2">
         <v>2008</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="2">
         <v>2008</v>
       </c>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -962,15 +934,14 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="16">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J9" s="23">
+        <v>41671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -982,15 +953,14 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="29">
+      <c r="I10" s="2">
         <v>2008</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="2">
         <v>2008</v>
       </c>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1002,17 +972,14 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="30">
+      <c r="I11" s="23">
         <v>41426</v>
       </c>
-      <c r="J11" s="26">
-        <v>2018</v>
-      </c>
-      <c r="K11" s="16">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="23">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1023,13 +990,11 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="30">
+      <c r="I12" s="23">
         <v>41548</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -1045,13 +1010,11 @@
         <v>2001</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1067,15 +1030,14 @@
         <v>1999</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="29">
+      <c r="I14" s="2">
         <v>1999</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="2">
         <v>2006</v>
       </c>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1087,16 +1049,15 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J15" s="26">
-        <v>2012</v>
-      </c>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="I15" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="10">
@@ -1105,13 +1066,11 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="I16" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1123,16 +1082,15 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J17" s="26">
-        <v>2012</v>
-      </c>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="I17" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="8">
@@ -1140,13 +1098,11 @@
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="I18" s="29">
+      <c r="I18" s="2">
         <v>1999</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1162,11 +1118,8 @@
         <v>2001</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -1177,11 +1130,8 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1197,13 +1147,11 @@
         <v>1999</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="29">
+      <c r="I21" s="2">
         <v>2004</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1214,13 +1162,11 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I22" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1231,15 +1177,14 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J23" s="26">
-        <v>2012</v>
-      </c>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I23" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1255,15 +1200,14 @@
         <v>2001</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="16">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I24" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1274,13 +1218,11 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I25" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1296,26 +1238,17 @@
         <v>2010</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -1326,31 +1259,27 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="29">
+      <c r="H29" s="25"/>
+      <c r="I29" s="2">
         <v>2005</v>
       </c>
-      <c r="J29" s="26">
-        <v>2012</v>
-      </c>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="J29" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="8">
         <v>21</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I30" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
@@ -1361,16 +1290,15 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J31" s="26">
-        <v>2012</v>
-      </c>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H31" s="25"/>
+      <c r="I31" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
@@ -1381,14 +1309,12 @@
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
@@ -1399,16 +1325,15 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J33" s="26">
-        <v>2012</v>
-      </c>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H33" s="26"/>
+      <c r="I33" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -1419,14 +1344,12 @@
       <c r="D34" s="2"/>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H34" s="25"/>
+      <c r="I34" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
@@ -1442,14 +1365,12 @@
       <c r="G35">
         <v>1999</v>
       </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="16"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>30</v>
       </c>
@@ -1460,15 +1381,13 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="16"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="8">
@@ -1477,12 +1396,8 @@
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
       <c r="F37" s="2"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="16"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
@@ -1493,15 +1408,13 @@
       <c r="D38" s="2"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="16"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="H38" s="25"/>
+      <c r="I38" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="10">
@@ -1510,13 +1423,9 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="16"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="10">
@@ -1526,13 +1435,9 @@
       <c r="G40">
         <v>2004</v>
       </c>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="16"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="11">
@@ -1542,13 +1447,9 @@
       <c r="G41">
         <v>2001</v>
       </c>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="16"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="11">
@@ -1558,12 +1459,8 @@
       <c r="G42">
         <v>2010</v>
       </c>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="17"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>48</v>
       </c>
@@ -1574,14 +1471,12 @@
       <c r="D43" s="2"/>
       <c r="E43" s="4"/>
       <c r="F43" s="2"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J43" s="26"/>
-      <c r="K43" s="16"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H43" s="4"/>
+      <c r="I43" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -1591,12 +1486,8 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="16"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
@@ -1608,14 +1499,12 @@
       <c r="G45">
         <v>1999</v>
       </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J45" s="26"/>
-      <c r="K45" s="16"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H45" s="2"/>
+      <c r="I45" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
@@ -1627,12 +1516,9 @@
       <c r="F46" s="4">
         <v>2002</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="16"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>39</v>
       </c>
@@ -1642,15 +1528,13 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="16"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="H47" s="2"/>
+      <c r="I47" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="11">
@@ -1661,12 +1545,8 @@
       <c r="G48">
         <v>2011</v>
       </c>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="16"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
@@ -1678,14 +1558,12 @@
       <c r="G49">
         <v>2011</v>
       </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29">
+      <c r="H49" s="2"/>
+      <c r="I49" s="2">
         <v>1999</v>
       </c>
-      <c r="J49" s="26"/>
-      <c r="K49" s="16"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>47</v>
       </c>
@@ -1697,15 +1575,13 @@
       <c r="G50">
         <v>1999</v>
       </c>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J50" s="26"/>
-      <c r="K50" s="16"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="11">
@@ -1715,13 +1591,9 @@
       <c r="G51">
         <v>1999</v>
       </c>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="16"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C52" s="11">
@@ -1735,30 +1607,19 @@
       <c r="G52">
         <v>2000</v>
       </c>
-      <c r="H52" s="31"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="16"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C53" s="9"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="16"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C54" s="9"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="16"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B55" s="5"/>
@@ -1768,12 +1629,9 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="16"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H55" s="27"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>45</v>
       </c>
@@ -1789,34 +1647,23 @@
       <c r="G56">
         <v>1999</v>
       </c>
-      <c r="H56" s="34"/>
-      <c r="I56" s="29">
-        <v>2012</v>
-      </c>
-      <c r="J56" s="26">
-        <v>2012</v>
-      </c>
-      <c r="K56" s="16"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="16"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I58" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="K58" s="22"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J56" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I58" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -1824,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,32 +1682,47 @@
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="24"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1868,8 +1730,12 @@
         <v>1999</v>
       </c>
       <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1877,8 +1743,14 @@
         <v>2008</v>
       </c>
       <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E5" s="19">
+        <v>41548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1886,8 +1758,12 @@
         <v>2008</v>
       </c>
       <c r="C6" s="16"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1897,8 +1773,9 @@
       <c r="C7" s="18">
         <v>2012</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1906,8 +1783,12 @@
         <v>2008</v>
       </c>
       <c r="C8" s="16"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1915,8 +1796,11 @@
       <c r="C9" s="18">
         <v>2012</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="19">
+        <v>41671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1924,8 +1808,12 @@
         <v>2008</v>
       </c>
       <c r="C10" s="16"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1935,8 +1823,14 @@
       <c r="C11" s="19">
         <v>41426</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="4">
+        <v>2018</v>
+      </c>
+      <c r="E11" s="19">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1944,17 +1838,19 @@
       <c r="C12" s="19">
         <v>41548</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1962,8 +1858,12 @@
         <v>1999</v>
       </c>
       <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <v>2006</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1971,17 +1871,22 @@
         <v>2012</v>
       </c>
       <c r="C15" s="16"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="D15" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="14">
         <v>2012</v>
       </c>
       <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1989,31 +1894,38 @@
         <v>2012</v>
       </c>
       <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="D17" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="14">
         <v>1999</v>
       </c>
       <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -2021,8 +1933,9 @@
         <v>2004</v>
       </c>
       <c r="C21" s="16"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2030,8 +1943,9 @@
       <c r="C22" s="18">
         <v>2012</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2039,8 +1953,12 @@
         <v>2012</v>
       </c>
       <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2048,8 +1966,11 @@
       <c r="C24" s="18">
         <v>2012</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" s="18">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2057,26 +1978,30 @@
         <v>2012</v>
       </c>
       <c r="C25" s="16"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="20"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="16"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="17"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -2084,17 +2009,22 @@
         <v>2005</v>
       </c>
       <c r="C29" s="16"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="D29" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="14">
         <v>2012</v>
       </c>
       <c r="C30" s="16"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
@@ -2102,8 +2032,12 @@
         <v>2012</v>
       </c>
       <c r="C31" s="16"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
@@ -2111,8 +2045,9 @@
         <v>2012</v>
       </c>
       <c r="C32" s="16"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
@@ -2120,8 +2055,12 @@
         <v>2012</v>
       </c>
       <c r="C33" s="16"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -2129,8 +2068,9 @@
       <c r="C34" s="18">
         <v>2012</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
@@ -2138,8 +2078,9 @@
         <v>2012</v>
       </c>
       <c r="C35" s="16"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>30</v>
       </c>
@@ -2147,17 +2088,19 @@
         <v>2012</v>
       </c>
       <c r="C36" s="16"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="20">
         <v>2016</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
@@ -2165,42 +2108,47 @@
         <v>2012</v>
       </c>
       <c r="C38" s="16"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="20">
         <v>2015</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="20">
         <v>2012</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
         <v>34</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="20">
         <v>2017</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="20"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2158,9 @@
       <c r="C43" s="18">
         <v>2012</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -2219,8 +2168,9 @@
       <c r="C44" s="20">
         <v>2018</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
@@ -2228,15 +2178,17 @@
         <v>2012</v>
       </c>
       <c r="C45" s="16"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="20"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>39</v>
       </c>
@@ -2244,15 +2196,17 @@
         <v>2012</v>
       </c>
       <c r="C47" s="16"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="20"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
@@ -2260,8 +2214,9 @@
         <v>1999</v>
       </c>
       <c r="C49" s="16"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>47</v>
       </c>
@@ -2269,44 +2224,50 @@
       <c r="C50" s="18">
         <v>2012</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="20">
         <v>2013</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="20">
         <v>2015</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="13"/>
       <c r="C53" s="16"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="16"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="20"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E55" s="16"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>45</v>
       </c>
@@ -2314,21 +2275,32 @@
         <v>2012</v>
       </c>
       <c r="C56" s="16"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
       <c r="C57" s="16"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="22"/>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D58:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2338,7 +2310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A262C-BF3B-4D84-B60A-8947EF3BFC30}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C4438C-0EF3-4A16-898B-C324E454B803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C97C7D3-8FA4-4743-B5C9-650F35D77853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
   <si>
     <t>United States</t>
   </si>
@@ -251,6 +251,99 @@
   </si>
   <si>
     <t>12 from 2012 + 3 from 2013</t>
+  </si>
+  <si>
+    <t>Eurozone</t>
+  </si>
+  <si>
+    <t>Bussiness</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>to 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer </t>
+  </si>
+  <si>
+    <t>2012 to 2020</t>
+  </si>
+  <si>
+    <t>Composite</t>
+  </si>
+  <si>
+    <t>Leading Ind</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>Interbank Rate</t>
+  </si>
+  <si>
+    <t>to 2020</t>
+  </si>
+  <si>
+    <t>to 2008</t>
+  </si>
+  <si>
+    <t>Short term</t>
+  </si>
+  <si>
+    <t>interest rate</t>
+  </si>
+  <si>
+    <t>Long term</t>
+  </si>
+  <si>
+    <t>to 2018</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>rate - monthly</t>
+  </si>
+  <si>
+    <t>rate - quaterly</t>
+  </si>
+  <si>
+    <t>Inflation</t>
+  </si>
+  <si>
+    <t>to 2021</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Consumtion</t>
+  </si>
+  <si>
+    <t>2004 to 2021</t>
+  </si>
+  <si>
+    <t>Quaterly</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>rate YoY</t>
   </si>
 </sst>
 </file>
@@ -309,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +461,12 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -401,7 +500,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -431,10 +530,19 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -443,15 +551,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -768,11 +886,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K52" sqref="K52"/>
+      <selection pane="topRight" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,16 +920,16 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="45" t="s">
         <v>46</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="26" t="s">
         <v>62</v>
       </c>
     </row>
@@ -822,14 +940,19 @@
       <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="16" t="s">
         <v>59</v>
       </c>
+      <c r="H2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -842,11 +965,12 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="2">
         <v>1999</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="18">
         <v>2012</v>
       </c>
     </row>
@@ -861,11 +985,12 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="2">
         <v>2008</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="19">
         <v>41548</v>
       </c>
     </row>
@@ -880,11 +1005,12 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="2">
         <v>2008</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="18">
         <v>2008</v>
       </c>
     </row>
@@ -899,10 +1025,12 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="2">
         <v>2012</v>
       </c>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -915,11 +1043,12 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="2">
         <v>2008</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="18">
         <v>2008</v>
       </c>
     </row>
@@ -933,11 +1062,12 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="2">
         <v>2012</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="19">
         <v>41671</v>
       </c>
     </row>
@@ -952,11 +1082,12 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="2">
         <v>2008</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="18">
         <v>2008</v>
       </c>
     </row>
@@ -971,11 +1102,12 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="23">
         <v>41426</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="19">
         <v>41395</v>
       </c>
     </row>
@@ -989,10 +1121,12 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="23">
         <v>41548</v>
       </c>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1006,13 +1140,14 @@
       <c r="F13" s="4">
         <v>2016</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="16">
         <v>2001</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="23" t="s">
         <v>65</v>
       </c>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1026,14 +1161,14 @@
       <c r="F14" s="4">
         <v>2008</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="16">
         <v>1999</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="2">
         <v>1999</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="18">
         <v>2006</v>
       </c>
     </row>
@@ -1048,11 +1183,12 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="2">
         <v>2012</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="18">
         <v>2012</v>
       </c>
     </row>
@@ -1066,9 +1202,12 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="2">
         <v>2012</v>
       </c>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1081,11 +1220,12 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="2">
         <v>2012</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="18">
         <v>2012</v>
       </c>
     </row>
@@ -1098,9 +1238,12 @@
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="2">
         <v>1999</v>
       </c>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1114,10 +1257,11 @@
       <c r="F19" s="4">
         <v>2013</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="16">
         <v>2001</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="18"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1129,7 +1273,9 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="18"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1143,13 +1289,14 @@
       <c r="F21" s="4">
         <v>2013</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="16">
         <v>1999</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="2">
         <v>2004</v>
       </c>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1161,10 +1308,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="2">
         <v>2012</v>
       </c>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1176,11 +1325,12 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="2">
         <v>2012</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="18">
         <v>2012</v>
       </c>
     </row>
@@ -1196,14 +1346,14 @@
       <c r="F24" s="4">
         <v>2003</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="16">
         <v>2001</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="2">
         <v>2012</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="18">
         <v>2012</v>
       </c>
     </row>
@@ -1217,10 +1367,12 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="2">
         <v>2012</v>
       </c>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1234,432 +1386,510 @@
       <c r="F26" s="4">
         <v>2013</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="16">
         <v>2010</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="18"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="9"/>
+      <c r="A27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="44"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="9"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="C29" s="9"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="7">
+      <c r="B30" s="5"/>
+      <c r="C30" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="2">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="2">
         <v>2005</v>
       </c>
-      <c r="J29" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="J30" s="18">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C31" s="8">
         <v>21</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="I30" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="7">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="H31" s="25"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="2">
         <v>2012</v>
       </c>
-      <c r="J31" s="2">
-        <v>2012</v>
-      </c>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="46"/>
       <c r="I32" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J32" s="18">
         <v>2012</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="2"/>
-      <c r="H33" s="26"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="2">
         <v>2012</v>
       </c>
-      <c r="J33" s="2">
-        <v>2012</v>
-      </c>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="H34" s="25"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J34" s="18">
         <v>2012</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="10">
-        <v>39</v>
+      <c r="C35" s="7">
+        <v>18</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="4">
-        <v>2014</v>
-      </c>
-      <c r="G35">
-        <v>1999</v>
-      </c>
-      <c r="H35" s="2"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="47"/>
       <c r="I35" s="2">
         <v>2012</v>
       </c>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="7">
-        <v>14</v>
+      <c r="C36" s="10">
+        <v>39</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="F36" s="4">
+        <v>2014</v>
+      </c>
+      <c r="G36" s="16">
+        <v>1999</v>
+      </c>
+      <c r="H36" s="44"/>
       <c r="I36" s="2">
         <v>2012</v>
       </c>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="7">
+        <v>14</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C38" s="8">
         <v>27</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="7">
-        <v>16</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="2">
-        <v>2012</v>
-      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="10">
-        <v>35</v>
+      <c r="A39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="7">
+        <v>16</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="2"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J39" s="16"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C40" s="10">
-        <v>33</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="G40">
-        <v>2004</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="J40" s="16"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="11">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="C41" s="10">
+        <v>33</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="G41">
-        <v>2001</v>
-      </c>
+      <c r="G41" s="16">
+        <v>2004</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="J41" s="16"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="11">
+        <v>54</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="G42" s="16">
+        <v>2001</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C43" s="11">
         <v>57</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="G42">
+      <c r="D43" s="2"/>
+      <c r="G43" s="16">
         <v>2010</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="H43" s="16"/>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="7">
+      <c r="B44" s="5"/>
+      <c r="C44" s="7">
         <v>19</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="2"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C45" s="10">
         <v>36</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="8">
-        <v>22</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="G45">
-        <v>1999</v>
-      </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2">
-        <v>2012</v>
-      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="J45" s="16"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="11">
-        <v>43</v>
+      <c r="A46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="8">
+        <v>22</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="4">
-        <v>2002</v>
-      </c>
-      <c r="H46" s="2"/>
+      <c r="G46" s="16">
+        <v>1999</v>
+      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J46" s="16"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>39</v>
+      <c r="A47" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C47" s="11">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2">
-        <v>2012</v>
-      </c>
+      <c r="F47" s="4">
+        <v>2002</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="18"/>
+      <c r="J47" s="16"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="11">
+        <v>53</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C49" s="11">
         <v>48</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="4"/>
-      <c r="G48">
+      <c r="D49" s="2"/>
+      <c r="E49" s="4"/>
+      <c r="G49" s="16">
         <v>2011</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="11">
-        <v>56</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="G49">
-        <v>2011</v>
-      </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2">
-        <v>1999</v>
-      </c>
+      <c r="H49" s="16"/>
+      <c r="J49" s="16"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C50" s="11">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="G50">
+      <c r="G50" s="16">
+        <v>2011</v>
+      </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="2">
         <v>1999</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2">
-        <v>2012</v>
-      </c>
+      <c r="J50" s="16"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>42</v>
+      <c r="A51" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C51" s="11">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="G51">
+      <c r="E51" s="2"/>
+      <c r="G51" s="16">
         <v>1999</v>
       </c>
+      <c r="H51" s="18"/>
+      <c r="I51" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J51" s="16"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="11">
+        <v>41</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="G52" s="16">
+        <v>1999</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C53" s="11">
         <v>45</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="4">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4">
         <v>2007</v>
       </c>
-      <c r="G52">
+      <c r="G53" s="16">
         <v>2000</v>
       </c>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C53" s="9"/>
+      <c r="H53" s="44"/>
+      <c r="J53" s="16"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="C54" s="9"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+      <c r="C55" s="9"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="8">
+      <c r="B56" s="5"/>
+      <c r="C56" s="8">
         <v>23</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="H55" s="27"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="7">
-        <v>11</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="4">
+      <c r="F56" s="2"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="48"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="7">
+        <v>11</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="4">
         <v>2013</v>
       </c>
-      <c r="G56">
+      <c r="G57" s="16">
         <v>1999</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J56" s="2">
+      <c r="H57" s="47"/>
+      <c r="I57" s="2">
+        <v>2012</v>
+      </c>
+      <c r="J57" s="18">
         <v>2012</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I58" s="22" t="s">
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="J58" s="22" t="s">
+      <c r="J59" s="25" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1671,10 +1901,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T55" sqref="T55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,19 +1915,32 @@
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="28"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="Q1" s="16"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>59</v>
       </c>
@@ -1709,8 +1953,47 @@
       <c r="E2" s="16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1721,8 +2004,47 @@
       <c r="E3" s="16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1734,8 +2056,21 @@
         <v>2012</v>
       </c>
       <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1749,8 +2084,25 @@
       <c r="E5" s="19">
         <v>41548</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="39">
+        <v>2002</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1762,8 +2114,21 @@
         <v>2008</v>
       </c>
       <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1774,8 +2139,21 @@
         <v>2012</v>
       </c>
       <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1787,8 +2165,21 @@
         <v>2008</v>
       </c>
       <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1799,8 +2190,23 @@
       <c r="E9" s="19">
         <v>41671</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="4">
+        <v>2011</v>
+      </c>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1812,8 +2218,21 @@
         <v>2008</v>
       </c>
       <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1829,8 +2248,21 @@
       <c r="E11" s="19">
         <v>41395</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1839,8 +2271,23 @@
         <v>41548</v>
       </c>
       <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="4">
+        <v>2003</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -1849,8 +2296,23 @@
         <v>65</v>
       </c>
       <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="4">
+        <v>2005</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1862,8 +2324,23 @@
         <v>2006</v>
       </c>
       <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1875,8 +2352,21 @@
         <v>2012</v>
       </c>
       <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>15</v>
       </c>
@@ -1885,8 +2375,14 @@
       </c>
       <c r="C16" s="16"/>
       <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I16" s="13"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="34"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1898,8 +2394,21 @@
         <v>2012</v>
       </c>
       <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>21</v>
       </c>
@@ -1908,24 +2417,58 @@
       </c>
       <c r="C18" s="16"/>
       <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I18" s="13"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="34"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="20"/>
       <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="20"/>
       <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="4">
+        <v>2003</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1934,8 +2477,21 @@
       </c>
       <c r="C21" s="16"/>
       <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1944,8 +2500,25 @@
         <v>2012</v>
       </c>
       <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+      <c r="G22" s="4">
+        <v>2011</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="4">
+        <v>2012</v>
+      </c>
+      <c r="M22" s="18"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1957,8 +2530,23 @@
         <v>2012</v>
       </c>
       <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="4">
+        <v>2002</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1969,8 +2557,21 @@
       <c r="E24" s="18">
         <v>2012</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1979,328 +2580,773 @@
       </c>
       <c r="C25" s="16"/>
       <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="20"/>
       <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="16"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="2">
+        <v>2012</v>
+      </c>
       <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="35"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="C28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="17"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="17"/>
+      <c r="E29" s="16"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B30" s="14">
         <v>2005</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="44">
+        <v>2014</v>
+      </c>
+      <c r="L30" s="35"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="39">
+        <v>2011</v>
+      </c>
+      <c r="K32" s="44">
+        <v>2011</v>
+      </c>
+      <c r="L32" s="35"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="44">
+        <v>2012</v>
+      </c>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="44">
+        <v>2000</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="35"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="18">
-        <v>2012</v>
-      </c>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="18">
+        <v>2012</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="4">
+        <v>2006</v>
+      </c>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B35" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="B36" s="14">
         <v>2012</v>
       </c>
       <c r="C36" s="16"/>
       <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="4">
+        <v>2001</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="44">
+        <v>2001</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="4">
+        <v>2006</v>
+      </c>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="20">
+      <c r="B38" s="13"/>
+      <c r="C38" s="20">
         <v>2016</v>
       </c>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="E38" s="16"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="Q38" s="16"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="B39" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="4">
+        <v>2002</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2001</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="44">
+        <v>2012</v>
+      </c>
+      <c r="L39" s="35"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="4">
+        <v>2004</v>
+      </c>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
         <v>33</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="20">
-        <v>2015</v>
-      </c>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="20">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="E40" s="16"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I40" s="13"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="Q40" s="16"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="20">
+        <v>2012</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="Q41" s="16"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="20">
         <v>2017</v>
       </c>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="E42" s="16"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="Q42" s="16"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="20"/>
-      <c r="E42" s="17"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="20"/>
+      <c r="E43" s="17"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="Q43" s="16"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B44" s="15">
         <v>2015</v>
       </c>
-      <c r="C43" s="18">
-        <v>2012</v>
-      </c>
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="C44" s="18">
+        <v>2012</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="4">
+        <v>2004</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="K44" s="20"/>
+      <c r="L44" s="4">
+        <v>2005</v>
+      </c>
+      <c r="M44" s="44">
+        <v>2005</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="20">
+      <c r="B45" s="13"/>
+      <c r="C45" s="20">
         <v>2018</v>
       </c>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="E45" s="16"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="Q45" s="16"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="B46" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="4">
+        <v>2001</v>
+      </c>
+      <c r="H46" s="35"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="44">
+        <v>2001</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="4">
+        <v>2004</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="20"/>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="20"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="4">
+        <v>2003</v>
+      </c>
+      <c r="G47" s="4">
+        <v>2002</v>
+      </c>
+      <c r="H47" s="35"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="44">
+        <v>2004</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="4">
+        <v>2003</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="E47" s="16"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="B48" s="14">
+        <v>2012</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="4">
+        <v>2002</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="20"/>
-      <c r="E48" s="16"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="B49" s="13"/>
+      <c r="C49" s="20"/>
+      <c r="E49" s="16"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="Q49" s="16"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B50" s="14">
         <v>1999</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="E49" s="16"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="C50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="18">
-        <v>2012</v>
-      </c>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
+      <c r="B51" s="13"/>
+      <c r="C51" s="18">
+        <v>2012</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="44">
+        <v>2000</v>
+      </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="2"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
-        <v>43</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="20">
+        <v>2013</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="Q52" s="16"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="20">
         <v>2015</v>
       </c>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="13"/>
-      <c r="C53" s="16"/>
       <c r="E53" s="16"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="4">
+        <v>2001</v>
+      </c>
+      <c r="H53" s="35"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="44">
+        <v>2003</v>
+      </c>
+      <c r="L53" s="4">
+        <v>2007</v>
+      </c>
+      <c r="M53" s="44">
+        <v>2007</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="39">
+        <v>2005</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="44">
+        <v>2006</v>
+      </c>
+      <c r="R53" s="39">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B54" s="13"/>
       <c r="C54" s="16"/>
       <c r="E54" s="16"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+      <c r="I54" s="13"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="Q54" s="16"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="Q55" s="16"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="20"/>
-      <c r="E55" s="16"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="B56" s="13"/>
+      <c r="C56" s="20"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="4">
+        <v>2017</v>
+      </c>
+      <c r="O56" s="4">
+        <v>2006</v>
+      </c>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="2"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="13"/>
+      <c r="B57" s="14">
+        <v>2012</v>
+      </c>
       <c r="C57" s="16"/>
+      <c r="D57" s="2">
+        <v>2012</v>
+      </c>
       <c r="E57" s="16"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="33" t="s">
+      <c r="F57" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="K57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="L57" s="35"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="O57" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="P57" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q57" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="R57" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="13"/>
+      <c r="C58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="Q58" s="16"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B59" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="28" t="s">
+      <c r="C59" s="30"/>
+      <c r="D59" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E58" s="29"/>
+      <c r="E59" s="30"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="Q59" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C97C7D3-8FA4-4743-B5C9-650F35D77853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6641E967-29C5-4BBF-B24A-4239D6D8FD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
+    <workbookView xWindow="16200" yWindow="0" windowWidth="12705" windowHeight="15585" activeTab="1" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="111">
   <si>
     <t>United States</t>
   </si>
@@ -340,10 +340,37 @@
     <t>Quaterly</t>
   </si>
   <si>
-    <t>GDP</t>
-  </si>
-  <si>
     <t>rate YoY</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>GDP YoY</t>
+  </si>
+  <si>
+    <t>GDP QoQ</t>
+  </si>
+  <si>
+    <t>2003 to 2021</t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t>Growth YoY</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>GDP per</t>
+  </si>
+  <si>
+    <t>Capita</t>
+  </si>
+  <si>
+    <t>2010 to 2020</t>
   </si>
 </sst>
 </file>
@@ -500,7 +527,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -536,6 +563,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,22 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -888,9 +909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H65" sqref="H65"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,10 +941,10 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="32" t="s">
         <v>46</v>
       </c>
       <c r="I1" s="21" t="s">
@@ -1401,7 +1422,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="4"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="44"/>
+      <c r="H27" s="31"/>
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1431,7 +1452,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="46"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="2">
         <v>2005</v>
       </c>
@@ -1466,7 +1487,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="46"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="2">
         <v>2012</v>
       </c>
@@ -1494,7 +1515,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="7">
@@ -1504,7 +1525,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="47"/>
+      <c r="H34" s="42"/>
       <c r="I34" s="2">
         <v>2012</v>
       </c>
@@ -1524,7 +1545,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="2"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="47"/>
+      <c r="H35" s="34"/>
       <c r="I35" s="2">
         <v>2012</v>
       </c>
@@ -1546,7 +1567,7 @@
       <c r="G36" s="16">
         <v>1999</v>
       </c>
-      <c r="H36" s="44"/>
+      <c r="H36" s="31"/>
       <c r="I36" s="2">
         <v>2012</v>
       </c>
@@ -1596,7 +1617,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="2"/>
       <c r="G39" s="16"/>
-      <c r="H39" s="46"/>
+      <c r="H39" s="33"/>
       <c r="I39" s="2">
         <v>2012</v>
       </c>
@@ -1670,7 +1691,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="44"/>
+      <c r="H44" s="31"/>
       <c r="I44" s="2">
         <v>2012</v>
       </c>
@@ -1821,7 +1842,7 @@
       <c r="G53" s="16">
         <v>2000</v>
       </c>
-      <c r="H53" s="44"/>
+      <c r="H53" s="31"/>
       <c r="J53" s="16"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -1851,7 +1872,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="16"/>
-      <c r="H56" s="48"/>
+      <c r="H56" s="35"/>
       <c r="J56" s="16"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -1870,7 +1891,7 @@
       <c r="G57" s="16">
         <v>1999</v>
       </c>
-      <c r="H57" s="47"/>
+      <c r="H57" s="34"/>
       <c r="I57" s="2">
         <v>2012</v>
       </c>
@@ -1901,11 +1922,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T55" sqref="T55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,25 +1943,24 @@
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B1" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="37"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="37"/>
       <c r="K1" s="16"/>
       <c r="M1" s="16"/>
       <c r="Q1" s="16"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>59</v>
       </c>
@@ -1953,47 +1973,59 @@
       <c r="E2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" t="s">
         <v>92</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -2004,47 +2036,59 @@
       <c r="E3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="N3" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" s="33" t="s">
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" t="s">
+        <v>106</v>
+      </c>
+      <c r="U3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2060,7 +2104,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="38"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="18"/>
       <c r="L4" s="2"/>
       <c r="M4" s="18"/>
@@ -2069,8 +2113,12 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2088,21 +2136,27 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="39">
+      <c r="J5" s="4">
         <v>2002</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="2"/>
       <c r="M5" s="18"/>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="28" t="s">
         <v>91</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="4">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2118,7 +2172,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="38"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
       <c r="M6" s="18"/>
@@ -2127,8 +2181,12 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2140,10 +2198,10 @@
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="35"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="2"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="38"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="18"/>
       <c r="L7" s="2"/>
       <c r="M7" s="18"/>
@@ -2152,8 +2210,12 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2169,7 +2231,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="38"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="18"/>
       <c r="L8" s="2"/>
       <c r="M8" s="18"/>
@@ -2178,8 +2240,12 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2192,11 +2258,11 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="35"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="38"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="35"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="18"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2205,8 +2271,12 @@
       </c>
       <c r="Q9" s="18"/>
       <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2222,7 +2292,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="38"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="18"/>
       <c r="L10" s="2"/>
       <c r="M10" s="18"/>
@@ -2231,8 +2301,12 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -2252,17 +2326,21 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="38"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="18"/>
       <c r="L11" s="2"/>
       <c r="M11" s="18"/>
-      <c r="N11" s="35"/>
+      <c r="N11" s="28"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="35"/>
+      <c r="P11" s="28"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -2273,9 +2351,9 @@
       <c r="E12" s="16"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="35"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="38"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="18"/>
       <c r="L12" s="2"/>
       <c r="M12" s="18"/>
@@ -2286,8 +2364,12 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -2298,9 +2380,9 @@
       <c r="E13" s="16"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="35"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="38"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="18"/>
       <c r="L13" s="2"/>
       <c r="M13" s="18"/>
@@ -2311,8 +2393,12 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -2326,11 +2412,11 @@
       <c r="E14" s="16"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="42" t="s">
+      <c r="H14" s="28"/>
+      <c r="I14" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="38"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="18"/>
       <c r="L14" s="2"/>
       <c r="M14" s="18"/>
@@ -2339,8 +2425,12 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2356,7 +2446,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="38"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="18"/>
       <c r="L15" s="2"/>
       <c r="M15" s="18"/>
@@ -2365,8 +2455,12 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>15</v>
       </c>
@@ -2376,13 +2470,12 @@
       <c r="C16" s="16"/>
       <c r="E16" s="16"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="34"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="27"/>
       <c r="Q16" s="16"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2398,7 +2491,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="38"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="18"/>
       <c r="L17" s="2"/>
       <c r="M17" s="18"/>
@@ -2407,8 +2500,12 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>21</v>
       </c>
@@ -2418,13 +2515,12 @@
       <c r="C18" s="16"/>
       <c r="E18" s="16"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="37"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="34"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="27"/>
       <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2433,9 +2529,9 @@
       <c r="E19" s="16"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="35"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="38"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="18"/>
       <c r="L19" s="2"/>
       <c r="M19" s="18"/>
@@ -2444,8 +2540,12 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -2454,9 +2554,9 @@
       <c r="E20" s="16"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="35"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="38"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="18"/>
       <c r="L20" s="2"/>
       <c r="M20" s="18"/>
@@ -2467,8 +2567,12 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -2478,10 +2582,10 @@
       <c r="C21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="38"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="18"/>
       <c r="L21" s="2"/>
       <c r="M21" s="18"/>
@@ -2490,8 +2594,12 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="18"/>
       <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2504,9 +2612,9 @@
       <c r="G22" s="4">
         <v>2011</v>
       </c>
-      <c r="H22" s="35"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="38"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="18"/>
       <c r="L22" s="4">
         <v>2012</v>
@@ -2517,8 +2625,12 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2532,9 +2644,9 @@
       <c r="E23" s="16"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="35"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="38"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="18"/>
       <c r="L23" s="2"/>
       <c r="M23" s="18"/>
@@ -2545,8 +2657,12 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2559,19 +2675,23 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="35"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="38"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="35"/>
+      <c r="L24" s="28"/>
       <c r="M24" s="18"/>
-      <c r="N24" s="35"/>
+      <c r="N24" s="28"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="35"/>
+      <c r="P24" s="28"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2582,9 +2702,9 @@
       <c r="E25" s="16"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="35"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="38"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="18"/>
       <c r="L25" s="2"/>
       <c r="M25" s="18"/>
@@ -2593,8 +2713,12 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -2603,9 +2727,9 @@
       <c r="E26" s="16"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="35"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="38"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="18"/>
       <c r="L26" s="2"/>
       <c r="M26" s="18"/>
@@ -2614,44 +2738,51 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="18"/>
       <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B27" s="14">
         <v>2012</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="2">
         <v>2012</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="35"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="38"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="18"/>
-      <c r="L27" s="35"/>
+      <c r="L27" s="28"/>
       <c r="M27" s="20"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="20"/>
-      <c r="R27" s="35"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="16"/>
       <c r="E28" s="16"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="37"/>
       <c r="K28" s="16"/>
       <c r="M28" s="16"/>
       <c r="Q28" s="16"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -2659,12 +2790,11 @@
       <c r="C29" s="17"/>
       <c r="E29" s="16"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="37"/>
       <c r="K29" s="16"/>
       <c r="M29" s="16"/>
       <c r="Q29" s="16"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -2682,19 +2812,25 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="44">
+      <c r="J30" s="2"/>
+      <c r="K30" s="31">
         <v>2014</v>
       </c>
-      <c r="L30" s="35"/>
+      <c r="L30" s="28"/>
       <c r="M30" s="20"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="35"/>
+      <c r="P30" s="28"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="4">
+        <v>2011</v>
+      </c>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>24</v>
       </c>
@@ -2704,12 +2840,11 @@
       <c r="C31" s="16"/>
       <c r="E31" s="16"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="37"/>
       <c r="K31" s="16"/>
       <c r="M31" s="16"/>
       <c r="Q31" s="16"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -2724,28 +2859,32 @@
       <c r="F32" s="4">
         <v>2000</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="28" t="s">
         <v>76</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="39">
+      <c r="J32" s="4">
         <v>2011</v>
       </c>
-      <c r="K32" s="44">
+      <c r="K32" s="31">
         <v>2011</v>
       </c>
-      <c r="L32" s="35"/>
+      <c r="L32" s="28"/>
       <c r="M32" s="20"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="44">
+      <c r="Q32" s="31">
         <v>2012</v>
       </c>
       <c r="R32" s="2"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="28"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -2758,8 +2897,8 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="44">
+      <c r="J33" s="2"/>
+      <c r="K33" s="31">
         <v>2000</v>
       </c>
       <c r="L33" s="2"/>
@@ -2769,10 +2908,14 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="18"/>
       <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B34" s="14">
         <v>2012</v>
@@ -2782,21 +2925,25 @@
         <v>2012</v>
       </c>
       <c r="E34" s="16"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="35"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="28"/>
       <c r="M34" s="20"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="35"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="28"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
@@ -2805,25 +2952,33 @@
         <v>2012</v>
       </c>
       <c r="E35" s="16"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="40"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="28"/>
       <c r="K35" s="20"/>
-      <c r="L35" s="35"/>
+      <c r="L35" s="28"/>
       <c r="M35" s="20"/>
       <c r="N35" s="2"/>
       <c r="O35" s="4">
         <v>2006</v>
       </c>
-      <c r="P35" s="35"/>
+      <c r="P35" s="28"/>
       <c r="Q35" s="20"/>
       <c r="R35" s="4">
         <v>2011</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="4">
+        <v>2010</v>
+      </c>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -2836,17 +2991,23 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="38"/>
+      <c r="J36" s="2"/>
       <c r="K36" s="18"/>
-      <c r="L36" s="35"/>
+      <c r="L36" s="28"/>
       <c r="M36" s="20"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="35"/>
+      <c r="P36" s="28"/>
       <c r="Q36" s="18"/>
       <c r="R36" s="2"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -2861,8 +3022,8 @@
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="44">
+      <c r="J37" s="2"/>
+      <c r="K37" s="31">
         <v>2001</v>
       </c>
       <c r="L37" s="2"/>
@@ -2871,11 +3032,17 @@
       <c r="O37" s="4">
         <v>2006</v>
       </c>
-      <c r="P37" s="35"/>
+      <c r="P37" s="28"/>
       <c r="Q37" s="18"/>
       <c r="R37" s="2"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>31</v>
       </c>
@@ -2885,12 +3052,11 @@
       </c>
       <c r="E38" s="16"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="37"/>
       <c r="K38" s="16"/>
       <c r="M38" s="16"/>
       <c r="Q38" s="16"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
@@ -2907,21 +3073,25 @@
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="44">
-        <v>2012</v>
-      </c>
-      <c r="L39" s="35"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="31">
+        <v>2012</v>
+      </c>
+      <c r="L39" s="28"/>
       <c r="M39" s="20"/>
       <c r="N39" s="2"/>
       <c r="O39" s="4">
         <v>2004</v>
       </c>
-      <c r="P39" s="35"/>
+      <c r="P39" s="28"/>
       <c r="Q39" s="18"/>
       <c r="R39" s="2"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="28"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>33</v>
       </c>
@@ -2931,12 +3101,11 @@
       </c>
       <c r="E40" s="16"/>
       <c r="I40" s="13"/>
-      <c r="J40" s="37"/>
       <c r="K40" s="16"/>
       <c r="M40" s="16"/>
       <c r="Q40" s="16"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>49</v>
       </c>
@@ -2946,12 +3115,11 @@
       </c>
       <c r="E41" s="16"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="37"/>
       <c r="K41" s="16"/>
       <c r="M41" s="16"/>
       <c r="Q41" s="16"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>34</v>
       </c>
@@ -2961,12 +3129,11 @@
       </c>
       <c r="E42" s="16"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="37"/>
       <c r="K42" s="16"/>
       <c r="M42" s="16"/>
       <c r="Q42" s="16"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>35</v>
       </c>
@@ -2974,12 +3141,11 @@
       <c r="C43" s="20"/>
       <c r="E43" s="17"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="37"/>
       <c r="K43" s="16"/>
       <c r="M43" s="16"/>
       <c r="Q43" s="16"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -2996,14 +3162,14 @@
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="14"/>
-      <c r="J44" s="40" t="s">
+      <c r="J44" s="28" t="s">
         <v>82</v>
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="4">
         <v>2005</v>
       </c>
-      <c r="M44" s="44">
+      <c r="M44" s="31">
         <v>2005</v>
       </c>
       <c r="N44" s="2"/>
@@ -3011,8 +3177,12 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="18"/>
       <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="28"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
@@ -3022,12 +3192,11 @@
       </c>
       <c r="E45" s="16"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="37"/>
       <c r="K45" s="16"/>
       <c r="M45" s="16"/>
       <c r="Q45" s="16"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
@@ -3040,10 +3209,10 @@
       <c r="G46" s="4">
         <v>2001</v>
       </c>
-      <c r="H46" s="35"/>
+      <c r="H46" s="28"/>
       <c r="I46" s="14"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="44">
+      <c r="J46" s="2"/>
+      <c r="K46" s="31">
         <v>2001</v>
       </c>
       <c r="L46" s="2"/>
@@ -3055,8 +3224,12 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="18"/>
       <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
@@ -3069,10 +3242,10 @@
       <c r="G47" s="4">
         <v>2002</v>
       </c>
-      <c r="H47" s="35"/>
+      <c r="H47" s="28"/>
       <c r="I47" s="14"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="44">
+      <c r="J47" s="2"/>
+      <c r="K47" s="31">
         <v>2004</v>
       </c>
       <c r="L47" s="2"/>
@@ -3084,8 +3257,12 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="18"/>
       <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
@@ -3096,9 +3273,9 @@
       <c r="E48" s="16"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="35"/>
+      <c r="H48" s="28"/>
       <c r="I48" s="14"/>
-      <c r="J48" s="38"/>
+      <c r="J48" s="2"/>
       <c r="K48" s="18"/>
       <c r="L48" s="2"/>
       <c r="M48" s="18"/>
@@ -3109,8 +3286,12 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="18"/>
       <c r="R48" s="2"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>40</v>
       </c>
@@ -3118,12 +3299,11 @@
       <c r="C49" s="20"/>
       <c r="E49" s="16"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="37"/>
       <c r="K49" s="16"/>
       <c r="M49" s="16"/>
       <c r="Q49" s="16"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>41</v>
       </c>
@@ -3134,9 +3314,9 @@
       <c r="E50" s="16"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="35"/>
+      <c r="H50" s="28"/>
       <c r="I50" s="14"/>
-      <c r="J50" s="38"/>
+      <c r="J50" s="2"/>
       <c r="K50" s="18"/>
       <c r="L50" s="2"/>
       <c r="M50" s="18"/>
@@ -3145,8 +3325,12 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="18"/>
       <c r="R50" s="2"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
@@ -3157,10 +3341,10 @@
       <c r="E51" s="16"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="35"/>
+      <c r="H51" s="28"/>
       <c r="I51" s="14"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="44">
+      <c r="J51" s="2"/>
+      <c r="K51" s="31">
         <v>2000</v>
       </c>
       <c r="L51" s="2"/>
@@ -3170,8 +3354,12 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="18"/>
       <c r="R51" s="2"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>42</v>
       </c>
@@ -3181,12 +3369,11 @@
       </c>
       <c r="E52" s="16"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="37"/>
       <c r="K52" s="16"/>
       <c r="M52" s="16"/>
       <c r="Q52" s="16"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>43</v>
       </c>
@@ -3199,41 +3386,52 @@
       <c r="G53" s="4">
         <v>2001</v>
       </c>
-      <c r="H53" s="35"/>
+      <c r="H53" s="28"/>
       <c r="I53" s="14"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="44">
+      <c r="J53" s="2"/>
+      <c r="K53" s="31">
         <v>2003</v>
       </c>
       <c r="L53" s="4">
         <v>2007</v>
       </c>
-      <c r="M53" s="44">
+      <c r="M53" s="31">
         <v>2007</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="39">
+      <c r="O53" s="4">
         <v>2005</v>
       </c>
       <c r="P53" s="2"/>
-      <c r="Q53" s="44">
+      <c r="Q53" s="31">
         <v>2006</v>
       </c>
-      <c r="R53" s="39">
+      <c r="R53" s="4">
         <v>2006</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53" s="4">
+        <v>2005</v>
+      </c>
+      <c r="T53" s="4">
+        <v>2006</v>
+      </c>
+      <c r="U53" s="4">
+        <v>2006</v>
+      </c>
+      <c r="V53" s="4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B54" s="13"/>
       <c r="C54" s="16"/>
       <c r="E54" s="16"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="37"/>
       <c r="K54" s="16"/>
       <c r="M54" s="16"/>
       <c r="Q54" s="16"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -3241,25 +3439,24 @@
       <c r="C55" s="16"/>
       <c r="E55" s="16"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="37"/>
       <c r="K55" s="16"/>
       <c r="M55" s="16"/>
       <c r="Q55" s="16"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="20"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="40"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="28"/>
       <c r="K56" s="20"/>
-      <c r="L56" s="35"/>
+      <c r="L56" s="28"/>
       <c r="M56" s="20"/>
       <c r="N56" s="4">
         <v>2017</v>
@@ -3267,11 +3464,19 @@
       <c r="O56" s="4">
         <v>2006</v>
       </c>
-      <c r="P56" s="35"/>
+      <c r="P56" s="28"/>
       <c r="Q56" s="20"/>
       <c r="R56" s="2"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56" s="2"/>
+      <c r="T56" s="4">
+        <v>2005</v>
+      </c>
+      <c r="U56" s="4">
+        <v>2005</v>
+      </c>
+      <c r="V56" s="28"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
@@ -3283,60 +3488,69 @@
         <v>2012</v>
       </c>
       <c r="E57" s="16"/>
-      <c r="F57" s="35" t="s">
+      <c r="F57" s="28" t="s">
         <v>74</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="42" t="s">
+      <c r="H57" s="28"/>
+      <c r="I57" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="J57" s="40" t="s">
+      <c r="J57" s="28" t="s">
         <v>74</v>
       </c>
       <c r="K57" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="L57" s="35"/>
+      <c r="L57" s="28"/>
       <c r="M57" s="20"/>
-      <c r="N57" s="35" t="s">
+      <c r="N57" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="O57" s="35" t="s">
+      <c r="O57" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="P57" s="35" t="s">
+      <c r="P57" s="28" t="s">
         <v>91</v>
       </c>
       <c r="Q57" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R57" s="35" t="s">
+      <c r="R57" s="28" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="T57" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="U57" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="V57" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B58" s="13"/>
       <c r="C58" s="16"/>
       <c r="E58" s="16"/>
       <c r="I58" s="13"/>
-      <c r="J58" s="37"/>
       <c r="K58" s="16"/>
       <c r="M58" s="16"/>
       <c r="Q58" s="16"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B59" s="29" t="s">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B59" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="32" t="s">
+      <c r="C59" s="39"/>
+      <c r="D59" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="30"/>
+      <c r="E59" s="39"/>
       <c r="H59" s="16"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
       <c r="K59" s="16"/>
       <c r="M59" s="16"/>
       <c r="Q59" s="16"/>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6641E967-29C5-4BBF-B24A-4239D6D8FD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E0C2D4-484C-4133-B032-44167C800B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16200" yWindow="0" windowWidth="12705" windowHeight="15585" activeTab="1" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E0C2D4-484C-4133-B032-44167C800B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482CFCB7-D6CD-49C0-B26D-5B31FE33A2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="0" windowWidth="12705" windowHeight="15585" activeTab="1" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="139">
   <si>
     <t>United States</t>
   </si>
@@ -319,9 +319,6 @@
     <t>Current</t>
   </si>
   <si>
-    <t>Account</t>
-  </si>
-  <si>
     <t>Industrial</t>
   </si>
   <si>
@@ -371,6 +368,93 @@
   </si>
   <si>
     <t>2010 to 2020</t>
+  </si>
+  <si>
+    <t>OECD Leading Indicators</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>Prices</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>GDP Current</t>
+  </si>
+  <si>
+    <t>Prices PPP</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrow </t>
+  </si>
+  <si>
+    <t>Money M1</t>
+  </si>
+  <si>
+    <t>Broad</t>
+  </si>
+  <si>
+    <t>Money M3</t>
+  </si>
+  <si>
+    <t>rate MoM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export </t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Net Trade</t>
+  </si>
+  <si>
+    <t>Account to GDP</t>
+  </si>
+  <si>
+    <t>Retail Sales</t>
+  </si>
+  <si>
+    <t>Value Index</t>
+  </si>
+  <si>
+    <t>2005 to 2016</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>Car Reg</t>
+  </si>
+  <si>
+    <t>2001 to 2018</t>
+  </si>
+  <si>
+    <t>2001 to 2022</t>
+  </si>
+  <si>
+    <t>Permits Issues</t>
+  </si>
+  <si>
+    <t>Residential Buildings</t>
   </si>
 </sst>
 </file>
@@ -527,7 +611,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -541,9 +625,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -566,12 +647,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -590,7 +672,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -909,9 +1003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H44" sqref="H44"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C47" sqref="C47:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,16 +1035,16 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -961,19 +1055,19 @@
       <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="H2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -986,12 +1080,12 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="2">
         <v>1999</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="15">
         <v>2012</v>
       </c>
     </row>
@@ -1006,12 +1100,12 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="2">
         <v>2008</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="16">
         <v>41548</v>
       </c>
     </row>
@@ -1026,12 +1120,12 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="2">
         <v>2008</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="15">
         <v>2008</v>
       </c>
     </row>
@@ -1046,12 +1140,12 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="2">
         <v>2012</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1064,12 +1158,12 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="2">
         <v>2008</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="15">
         <v>2008</v>
       </c>
     </row>
@@ -1083,12 +1177,12 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="2">
         <v>2012</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="16">
         <v>41671</v>
       </c>
     </row>
@@ -1103,12 +1197,12 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="2">
         <v>2008</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="15">
         <v>2008</v>
       </c>
     </row>
@@ -1123,12 +1217,12 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="23">
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="20">
         <v>41426</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="16">
         <v>41395</v>
       </c>
     </row>
@@ -1142,12 +1236,12 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="23">
+      <c r="G12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="20">
         <v>41548</v>
       </c>
-      <c r="J12" s="16"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1161,14 +1255,14 @@
       <c r="F13" s="4">
         <v>2016</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="13">
         <v>2001</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="23" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1182,14 +1276,14 @@
       <c r="F14" s="4">
         <v>2008</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="13">
         <v>1999</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2">
         <v>1999</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="15">
         <v>2006</v>
       </c>
     </row>
@@ -1204,17 +1298,17 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="2">
         <v>2012</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="15">
         <v>2012</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="10">
@@ -1223,12 +1317,12 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="2">
         <v>2012</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1241,17 +1335,17 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="18"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="2">
         <v>2012</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="15">
         <v>2012</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="8">
@@ -1259,12 +1353,12 @@
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="2">
         <v>1999</v>
       </c>
-      <c r="J18" s="16"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1278,11 +1372,11 @@
       <c r="F19" s="4">
         <v>2013</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="13">
         <v>2001</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="J19" s="16"/>
+      <c r="H19" s="15"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1294,9 +1388,9 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="18"/>
-      <c r="J20" s="16"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="15"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1310,14 +1404,14 @@
       <c r="F21" s="4">
         <v>2013</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="13">
         <v>1999</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="2">
         <v>2004</v>
       </c>
-      <c r="J21" s="16"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1329,12 +1423,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="18"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="2">
         <v>2012</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1346,12 +1440,12 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="18"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="2">
         <v>2012</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="15">
         <v>2012</v>
       </c>
     </row>
@@ -1367,14 +1461,14 @@
       <c r="F24" s="4">
         <v>2003</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="13">
         <v>2001</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="2">
         <v>2012</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="15">
         <v>2012</v>
       </c>
     </row>
@@ -1388,12 +1482,12 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="18"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="2">
         <v>2012</v>
       </c>
-      <c r="J25" s="16"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1407,11 +1501,11 @@
       <c r="F26" s="4">
         <v>2013</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="13">
         <v>2010</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="J26" s="16"/>
+      <c r="H26" s="15"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -1421,24 +1515,24 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="31"/>
-      <c r="J27" s="16"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="27"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1451,29 +1545,29 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="33"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="2">
         <v>2005</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="15">
         <v>2012</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="8">
         <v>21</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="2">
         <v>2012</v>
       </c>
-      <c r="J31" s="16"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1486,12 +1580,12 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="33"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="2">
         <v>2012</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="15">
         <v>2012</v>
       </c>
     </row>
@@ -1506,16 +1600,16 @@
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="18"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="15"/>
       <c r="I33" s="2">
         <v>2012</v>
       </c>
-      <c r="J33" s="16"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="7">
@@ -1524,17 +1618,17 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="42"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="32"/>
       <c r="I34" s="2">
         <v>2012</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="15">
         <v>2012</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="5"/>
@@ -1544,12 +1638,12 @@
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="34"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="2">
         <v>2012</v>
       </c>
-      <c r="J35" s="16"/>
+      <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1564,14 +1658,14 @@
       <c r="F36" s="4">
         <v>2014</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="13">
         <v>1999</v>
       </c>
-      <c r="H36" s="31"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="2">
         <v>2012</v>
       </c>
-      <c r="J36" s="16"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1584,15 +1678,15 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="18"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="15"/>
       <c r="I37" s="2">
         <v>2012</v>
       </c>
-      <c r="J37" s="16"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="8">
@@ -1601,9 +1695,9 @@
       <c r="D38" s="2"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="J38" s="16"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -1616,15 +1710,15 @@
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="33"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="29"/>
       <c r="I39" s="2">
         <v>2012</v>
       </c>
-      <c r="J39" s="16"/>
+      <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="10">
@@ -1633,51 +1727,51 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="J40" s="16"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="J40" s="13"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="10">
         <v>33</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="G41" s="16">
+      <c r="G41" s="13">
         <v>2004</v>
       </c>
-      <c r="H41" s="16"/>
-      <c r="J41" s="16"/>
+      <c r="H41" s="13"/>
+      <c r="J41" s="13"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="11">
         <v>54</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="G42" s="16">
+      <c r="G42" s="13">
         <v>2001</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="J42" s="16"/>
+      <c r="H42" s="13"/>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="11">
         <v>57</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="G43" s="16">
+      <c r="G43" s="13">
         <v>2010</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="J43" s="16"/>
+      <c r="H43" s="13"/>
+      <c r="J43" s="13"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1690,12 +1784,12 @@
       <c r="D44" s="2"/>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="31"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="2">
         <v>2012</v>
       </c>
-      <c r="J44" s="16"/>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
@@ -1707,9 +1801,9 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="J45" s="16"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1720,14 +1814,14 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="G46" s="16">
+      <c r="G46" s="13">
         <v>1999</v>
       </c>
-      <c r="H46" s="18"/>
+      <c r="H46" s="15"/>
       <c r="I46" s="2">
         <v>2012</v>
       </c>
-      <c r="J46" s="16"/>
+      <c r="J46" s="13"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -1741,9 +1835,9 @@
       <c r="F47" s="4">
         <v>2002</v>
       </c>
-      <c r="G47" s="16"/>
-      <c r="H47" s="18"/>
-      <c r="J47" s="16"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="15"/>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -1755,15 +1849,15 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="18"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="15"/>
       <c r="I48" s="2">
         <v>2012</v>
       </c>
-      <c r="J48" s="16"/>
+      <c r="J48" s="13"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C49" s="11">
@@ -1771,11 +1865,11 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="4"/>
-      <c r="G49" s="16">
+      <c r="G49" s="13">
         <v>2011</v>
       </c>
-      <c r="H49" s="16"/>
-      <c r="J49" s="16"/>
+      <c r="H49" s="13"/>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -1786,14 +1880,14 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="G50" s="16">
+      <c r="G50" s="13">
         <v>2011</v>
       </c>
-      <c r="H50" s="18"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="2">
         <v>1999</v>
       </c>
-      <c r="J50" s="16"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -1804,31 +1898,31 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="G51" s="16">
+      <c r="G51" s="13">
         <v>1999</v>
       </c>
-      <c r="H51" s="18"/>
+      <c r="H51" s="15"/>
       <c r="I51" s="2">
         <v>2012</v>
       </c>
-      <c r="J51" s="16"/>
+      <c r="J51" s="13"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="11">
         <v>41</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="G52" s="16">
+      <c r="G52" s="13">
         <v>1999</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="J52" s="16"/>
+      <c r="H52" s="13"/>
+      <c r="J52" s="13"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="33" t="s">
         <v>43</v>
       </c>
       <c r="C53" s="11">
@@ -1839,29 +1933,29 @@
       <c r="F53" s="4">
         <v>2007</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="13">
         <v>2000</v>
       </c>
-      <c r="H53" s="31"/>
-      <c r="J53" s="16"/>
+      <c r="H53" s="27"/>
+      <c r="J53" s="13"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="9"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="J54" s="16"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="J54" s="13"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="9"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="J55" s="16"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B56" s="5"/>
@@ -1871,9 +1965,9 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="35"/>
-      <c r="J56" s="16"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="31"/>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -1888,29 +1982,29 @@
       <c r="F57" s="4">
         <v>2013</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="13">
         <v>1999</v>
       </c>
-      <c r="H57" s="34"/>
+      <c r="H57" s="30"/>
       <c r="I57" s="2">
         <v>2012</v>
       </c>
-      <c r="J57" s="18">
+      <c r="J57" s="15">
         <v>2012</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="J58" s="16"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="J58" s="13"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="22" t="s">
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J59" s="25" t="s">
+      <c r="J59" s="22" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1922,55 +2016,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="13"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" style="40" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" style="13" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11.7109375" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="13" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="13" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="I1" s="13"/>
-      <c r="K1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="Q1" s="16"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="37"/>
+      <c r="P1" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>64</v>
       </c>
       <c r="F2" t="s">
@@ -1979,61 +2133,97 @@
       <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="S2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="U2" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="L2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="V2" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="W2" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="X2" t="s">
         <v>92</v>
       </c>
-      <c r="P2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="R2" t="s">
-        <v>99</v>
-      </c>
-      <c r="S2" t="s">
-        <v>99</v>
-      </c>
-      <c r="T2" t="s">
-        <v>105</v>
-      </c>
-      <c r="U2" t="s">
-        <v>107</v>
-      </c>
-      <c r="V2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="Y2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF2" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG2" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH2" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI2" s="49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>66</v>
       </c>
       <c r="F3" t="s">
@@ -2042,1525 +2232,1996 @@
       <c r="G3" t="s">
         <v>73</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="J3" t="s">
+      <c r="T3" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="U3" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="R3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S3" t="s">
-        <v>103</v>
-      </c>
-      <c r="T3" t="s">
-        <v>106</v>
-      </c>
-      <c r="U3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="V3" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="W3" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="X3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF3" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG3" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH3" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI3" s="49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="41">
         <v>1999</v>
       </c>
-      <c r="C4" s="16"/>
       <c r="D4" s="2">
         <v>2012</v>
       </c>
-      <c r="E4" s="16"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="18"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="18"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="O4" s="15"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="41"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="U4" s="41"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="W4" s="15"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="25"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="41">
         <v>2008</v>
       </c>
-      <c r="C5" s="16"/>
       <c r="D5" s="4">
         <v>2019</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <v>41548</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="4">
+      <c r="H5" s="15"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="42">
+        <v>2007</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" s="41"/>
+      <c r="T5" s="4">
         <v>2002</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="4">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="U5" s="41"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="2"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="25"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="41">
         <v>2008</v>
       </c>
-      <c r="C6" s="16"/>
       <c r="D6" s="2">
         <v>2008</v>
       </c>
-      <c r="E6" s="16"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="18"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="18"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="O6" s="15"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="41"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="U6" s="41"/>
       <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="W6" s="15"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="2"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="25"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="42">
         <v>2021</v>
       </c>
-      <c r="C7" s="18">
-        <v>2012</v>
-      </c>
-      <c r="E7" s="16"/>
+      <c r="C7" s="15">
+        <v>2012</v>
+      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="14"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="18"/>
+      <c r="K7" s="41"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="18"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="41"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="U7" s="41"/>
       <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="W7" s="15"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="2"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="41">
         <v>2008</v>
       </c>
-      <c r="C8" s="16"/>
       <c r="D8" s="2">
         <v>2008</v>
       </c>
-      <c r="E8" s="16"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="18"/>
+      <c r="K8" s="41"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="18"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="O8" s="15"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="41"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="U8" s="41"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="2"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="2"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="18">
-        <v>2012</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="B9" s="40"/>
+      <c r="C9" s="15">
+        <v>2012</v>
+      </c>
+      <c r="E9" s="16">
         <v>41671</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="4">
+      <c r="K9" s="41"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="4">
         <v>2011</v>
       </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="25"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="41">
         <v>2008</v>
       </c>
-      <c r="C10" s="16"/>
       <c r="D10" s="2">
         <v>2008</v>
       </c>
-      <c r="E10" s="16"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="18"/>
+      <c r="K10" s="41"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="18"/>
+      <c r="M10" s="15"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="O10" s="15"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="41"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="U10" s="41"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="2"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="42">
         <v>2018</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="16">
         <v>41426</v>
       </c>
       <c r="D11" s="4">
         <v>2018</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="16">
         <v>41395</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="18"/>
+      <c r="K11" s="41"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="41"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="U11" s="41"/>
       <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="W11" s="15"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="25"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="19">
+      <c r="B12" s="40"/>
+      <c r="C12" s="16">
         <v>41548</v>
       </c>
-      <c r="E12" s="16"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="14"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="18"/>
+      <c r="K12" s="41"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="18"/>
+      <c r="M12" s="15"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="4">
+      <c r="O12" s="15"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="4">
         <v>2003</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="2"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="16"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="14"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="41"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="18"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="4">
+      <c r="O13" s="15"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="4">
         <v>2005</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="2"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="25"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="41">
         <v>1999</v>
       </c>
-      <c r="C14" s="16"/>
       <c r="D14" s="2">
         <v>2006</v>
       </c>
-      <c r="E14" s="16"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="30" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="U14" s="41"/>
       <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="W14" s="15"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="2"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C15" s="16"/>
+      <c r="B15" s="41">
+        <v>2012</v>
+      </c>
       <c r="D15" s="2">
         <v>2012</v>
       </c>
-      <c r="E15" s="16"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="18"/>
+      <c r="K15" s="41"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="18"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="41"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="U15" s="41"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="2"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="I16" s="13"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="27"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="41">
+        <v>2012</v>
+      </c>
+      <c r="L16"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="24"/>
+      <c r="S16" s="40"/>
+      <c r="U16" s="47"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C17" s="16"/>
+      <c r="B17" s="41">
+        <v>2012</v>
+      </c>
       <c r="D17" s="2">
         <v>2012</v>
       </c>
-      <c r="E17" s="16"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="18"/>
+      <c r="K17" s="41"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="18"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="41"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="U17" s="41"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="2"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="25"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="41">
         <v>1999</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="I18" s="13"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="27"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="L18"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="24"/>
+      <c r="S18" s="40"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="20"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="17"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="14"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="41"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="18"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="41"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="U19" s="41"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="2"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="20"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="17"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="14"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="18"/>
+      <c r="K20" s="41"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="18"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="4">
+      <c r="O20" s="15"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="4">
         <v>2003</v>
       </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="2"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="41">
         <v>2004</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="E21" s="16"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="14"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="41"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="18"/>
+      <c r="M21" s="15"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" s="15"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="41"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
+      <c r="U21" s="41"/>
       <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="W21" s="15"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="2"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="18">
-        <v>2012</v>
-      </c>
-      <c r="E22" s="16"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="15">
+        <v>2012</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4">
         <v>2011</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="14"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="4">
-        <v>2012</v>
-      </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="4">
+        <v>2012</v>
+      </c>
+      <c r="O22" s="15"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="41"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
+      <c r="U22" s="41"/>
       <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="W22" s="15"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="2"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="4">
+        <v>2004</v>
+      </c>
+      <c r="AI22" s="2"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C23" s="16"/>
+      <c r="B23" s="41">
+        <v>2012</v>
+      </c>
       <c r="D23" s="2">
         <v>2012</v>
       </c>
-      <c r="E23" s="16"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="18"/>
+      <c r="K23" s="41"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="18"/>
+      <c r="M23" s="15"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="4">
+      <c r="O23" s="15"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="4">
         <v>2002</v>
       </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="2"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="4">
+        <v>2000</v>
+      </c>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="25"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="18">
-        <v>2012</v>
-      </c>
-      <c r="E24" s="18">
+      <c r="B24" s="40"/>
+      <c r="C24" s="15">
+        <v>2012</v>
+      </c>
+      <c r="E24" s="15">
         <v>2012</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="14"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="41"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
+      <c r="U24" s="41"/>
       <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="W24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="25"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="B25" s="41">
+        <v>2012</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="14"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="18"/>
+      <c r="K25" s="41"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="18"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" s="15"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="41"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="U25" s="41"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="2"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="25"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="20"/>
-      <c r="E26" s="16"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="17"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="14"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="18"/>
+      <c r="K26" s="41"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="18"/>
+      <c r="M26" s="15"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="15"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="41"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="U26" s="41"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="2"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C27" s="27"/>
+      <c r="B27" s="41">
+        <v>2012</v>
+      </c>
+      <c r="C27" s="24"/>
       <c r="D27" s="2">
         <v>2012</v>
       </c>
-      <c r="E27" s="16"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="I28" s="13"/>
-      <c r="K28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="Q28" s="16"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="H27" s="17"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="2"/>
+      <c r="AF27" s="46"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI27" s="2"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B28" s="40"/>
+      <c r="L28"/>
+      <c r="S28" s="40"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="17"/>
-      <c r="E29" s="16"/>
-      <c r="I29" s="13"/>
-      <c r="K29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="Q29" s="16"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="14"/>
+      <c r="L29"/>
+      <c r="S29" s="40"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="41">
         <v>2005</v>
       </c>
-      <c r="C30" s="16"/>
       <c r="D30" s="2">
         <v>2012</v>
       </c>
-      <c r="E30" s="16"/>
       <c r="F30" s="4">
         <v>2000</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="31">
+      <c r="H30" s="15"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="4">
+        <v>2011</v>
+      </c>
+      <c r="K30" s="46"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="42">
         <v>2014</v>
       </c>
-      <c r="L30" s="28"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="4">
-        <v>2011</v>
-      </c>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="V30" s="2"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="25"/>
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI30" s="25"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="I31" s="13"/>
-      <c r="K31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="Q31" s="16"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B31" s="41">
+        <v>2012</v>
+      </c>
+      <c r="L31"/>
+      <c r="S31" s="40"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C32" s="16"/>
+      <c r="B32" s="41">
+        <v>2012</v>
+      </c>
       <c r="D32" s="2">
         <v>2012</v>
       </c>
-      <c r="E32" s="16"/>
       <c r="F32" s="4">
         <v>2000</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="4">
+      <c r="H32" s="15"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N32" s="25"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="4">
         <v>2011</v>
       </c>
-      <c r="K32" s="31">
+      <c r="U32" s="42">
         <v>2011</v>
       </c>
-      <c r="L32" s="28"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="31">
-        <v>2012</v>
-      </c>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="28"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="V32" s="2"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="2"/>
+      <c r="AF32" s="42">
+        <v>2012</v>
+      </c>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI32" s="25"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="B33" s="41">
+        <v>2012</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="31">
+      <c r="K33" s="41"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="42">
         <v>2000</v>
       </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C34" s="16"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="2"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="41">
+        <v>2012</v>
+      </c>
       <c r="D34" s="2">
         <v>2012</v>
       </c>
-      <c r="E34" s="16"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N34" s="25"/>
+      <c r="O34" s="17"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="28"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="Q34" s="2"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="2"/>
+      <c r="AF34" s="41"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="25"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="18">
-        <v>2012</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="4">
+      <c r="B35" s="40"/>
+      <c r="C35" s="15">
+        <v>2012</v>
+      </c>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="4">
+        <v>2011</v>
+      </c>
+      <c r="J35" s="4">
+        <v>2010</v>
+      </c>
+      <c r="K35" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="N35" s="25"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="4">
         <v>2006</v>
       </c>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="4">
-        <v>2011</v>
-      </c>
-      <c r="S35" s="4">
-        <v>2010</v>
-      </c>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="4">
+        <v>2016</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>2014</v>
+      </c>
+      <c r="AC35" s="27">
+        <v>2016</v>
+      </c>
+      <c r="AD35" s="25"/>
+      <c r="AF35" s="46"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="25"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="B36" s="41">
+        <v>2012</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="14"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
+      <c r="K36" s="41">
+        <v>2008</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="41"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="U36" s="41"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="25"/>
+      <c r="AF36" s="41"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="2"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="E37" s="16"/>
+      <c r="B37" s="41">
+        <v>2012</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="4">
         <v>2001</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="14"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="31">
+      <c r="K37" s="41">
+        <v>2005</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="42">
         <v>2001</v>
       </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="4">
+      <c r="V37" s="2"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="4">
         <v>2006</v>
       </c>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="25"/>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="25"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="20">
+      <c r="B38" s="40"/>
+      <c r="C38" s="17">
         <v>2016</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="I38" s="13"/>
-      <c r="K38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="Q38" s="16"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="L38"/>
+      <c r="S38" s="40"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="41">
+        <v>2012</v>
+      </c>
       <c r="F39" s="4">
         <v>2002</v>
       </c>
       <c r="G39" s="4">
         <v>2001</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="14"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="31">
-        <v>2012</v>
-      </c>
-      <c r="L39" s="28"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="4">
+      <c r="K39" s="46"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="42">
+        <v>2012</v>
+      </c>
+      <c r="V39" s="2"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="4">
         <v>2004</v>
       </c>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="28"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="25"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="25"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="20">
+      <c r="B40" s="40"/>
+      <c r="C40" s="17">
         <v>2015</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="I40" s="13"/>
-      <c r="K40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="Q40" s="16"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="L40"/>
+      <c r="S40" s="40"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A41" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="20">
-        <v>2012</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="I41" s="13"/>
-      <c r="K41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="Q41" s="16"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="17">
+        <v>2012</v>
+      </c>
+      <c r="L41"/>
+      <c r="S41" s="40"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A42" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="20">
+      <c r="B42" s="40"/>
+      <c r="C42" s="17">
         <v>2017</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="I42" s="13"/>
-      <c r="K42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="Q42" s="16"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+      <c r="L42"/>
+      <c r="S42" s="40"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="20"/>
-      <c r="E43" s="17"/>
-      <c r="I43" s="13"/>
-      <c r="K43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="Q43" s="16"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B43" s="40"/>
+      <c r="C43" s="17"/>
+      <c r="E43" s="14"/>
+      <c r="L43"/>
+      <c r="S43" s="40"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="42">
         <v>2015</v>
       </c>
-      <c r="C44" s="18">
-        <v>2012</v>
-      </c>
-      <c r="E44" s="16"/>
+      <c r="C44" s="15">
+        <v>2012</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="4">
         <v>2004</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="28" t="s">
+      <c r="H44" s="15"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="4">
+        <v>2005</v>
+      </c>
+      <c r="O44" s="27">
+        <v>2005</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="20"/>
-      <c r="L44" s="4">
-        <v>2005</v>
-      </c>
-      <c r="M44" s="31">
-        <v>2005</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="28"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="U44" s="46"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="2"/>
+      <c r="AF44" s="41"/>
+      <c r="AG44" s="4">
+        <v>2010</v>
+      </c>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A45" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="20">
+      <c r="B45" s="40"/>
+      <c r="C45" s="17">
         <v>2018</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="I45" s="13"/>
-      <c r="K45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="Q45" s="16"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="L45"/>
+      <c r="S45" s="40"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="B46" s="41">
+        <v>2012</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="4">
         <v>2001</v>
       </c>
-      <c r="H46" s="28"/>
-      <c r="I46" s="14"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="31">
+      <c r="K46" s="41"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="42">
         <v>2001</v>
       </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="4">
+      <c r="V46" s="2"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="4">
         <v>2004</v>
       </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="2"/>
+      <c r="AF46" s="41"/>
+      <c r="AG46" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH46" s="4">
+        <v>2003</v>
+      </c>
+      <c r="AI46" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="20"/>
-      <c r="E47" s="16"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="17"/>
       <c r="F47" s="4">
         <v>2003</v>
       </c>
       <c r="G47" s="4">
         <v>2002</v>
       </c>
-      <c r="H47" s="28"/>
-      <c r="I47" s="14"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="31">
+      <c r="K47" s="41"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="42">
         <v>2004</v>
       </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="4">
+      <c r="V47" s="2"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="4">
         <v>2003</v>
       </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="2"/>
+      <c r="AF47" s="41"/>
+      <c r="AG47" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH47" s="25"/>
+      <c r="AI47" s="2"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="E48" s="16"/>
+      <c r="B48" s="41">
+        <v>2012</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="14"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="18"/>
+      <c r="K48" s="41"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="18"/>
+      <c r="M48" s="15"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="4">
+      <c r="O48" s="15"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="4">
         <v>2002</v>
       </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="2"/>
+      <c r="AF48" s="41"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A49" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="20"/>
-      <c r="E49" s="16"/>
-      <c r="I49" s="13"/>
-      <c r="K49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="Q49" s="16"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="B49" s="40"/>
+      <c r="C49" s="17"/>
+      <c r="L49"/>
+      <c r="S49" s="40"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="41">
         <v>1999</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="E50" s="16"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="14"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="18"/>
+      <c r="K50" s="41"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="18"/>
+      <c r="M50" s="15"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" s="15"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="41"/>
       <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
+      <c r="U50" s="41"/>
       <c r="V50" s="2"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="W50" s="15"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="2"/>
+      <c r="AF50" s="41"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="4">
+        <v>2003</v>
+      </c>
+      <c r="AI50" s="2"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="18">
-        <v>2012</v>
-      </c>
-      <c r="E51" s="16"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="15">
+        <v>2012</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="14"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="31">
+      <c r="K51" s="41"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="42">
         <v>2000</v>
       </c>
-      <c r="L51" s="2"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="V51" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="W51" s="15"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="2"/>
+      <c r="AF51" s="41"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="4">
+        <v>2003</v>
+      </c>
+      <c r="AI51" s="25"/>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="20">
+      <c r="B52" s="40"/>
+      <c r="C52" s="17">
         <v>2013</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="I52" s="13"/>
-      <c r="K52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="Q52" s="16"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
+      <c r="L52"/>
+      <c r="S52" s="40"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A53" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="20">
+      <c r="B53" s="40"/>
+      <c r="C53" s="17">
         <v>2015</v>
       </c>
-      <c r="E53" s="16"/>
       <c r="F53" s="2"/>
       <c r="G53" s="4">
         <v>2001</v>
       </c>
-      <c r="H53" s="28"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="31">
+      <c r="H53" s="17"/>
+      <c r="I53" s="4">
+        <v>2006</v>
+      </c>
+      <c r="J53" s="4">
+        <v>2005</v>
+      </c>
+      <c r="K53" s="42">
+        <v>2001</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O53" s="27">
+        <v>2007</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="42">
         <v>2003</v>
       </c>
-      <c r="L53" s="4">
-        <v>2007</v>
-      </c>
-      <c r="M53" s="31">
-        <v>2007</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="4">
+      <c r="V53" s="25"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="4">
         <v>2005</v>
       </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="31">
+      <c r="Y53" s="4">
         <v>2006</v>
       </c>
-      <c r="R53" s="4">
+      <c r="Z53" s="4">
         <v>2006</v>
       </c>
-      <c r="S53" s="4">
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="2"/>
+      <c r="AF53" s="42">
+        <v>2006</v>
+      </c>
+      <c r="AG53" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH53" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI53" s="2"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B54" s="40"/>
+      <c r="L54"/>
+      <c r="S54" s="40"/>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="40"/>
+      <c r="L55"/>
+      <c r="S55" s="40"/>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A56" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="40"/>
+      <c r="C56" s="17"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="4">
+        <v>2004</v>
+      </c>
+      <c r="M56" s="27">
+        <v>2004</v>
+      </c>
+      <c r="N56" s="25"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="4">
+        <v>2017</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>2017</v>
+      </c>
+      <c r="R56" s="17"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="4">
+        <v>2006</v>
+      </c>
+      <c r="Y56" s="4">
         <v>2005</v>
       </c>
-      <c r="T53" s="4">
-        <v>2006</v>
-      </c>
-      <c r="U53" s="4">
-        <v>2006</v>
-      </c>
-      <c r="V53" s="4">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B54" s="13"/>
-      <c r="C54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="I54" s="13"/>
-      <c r="K54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="Q54" s="16"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="I55" s="13"/>
-      <c r="K55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="Q55" s="16"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="20"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="4">
-        <v>2017</v>
-      </c>
-      <c r="O56" s="4">
-        <v>2006</v>
-      </c>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="4">
+      <c r="Z56" s="4">
         <v>2005</v>
       </c>
-      <c r="U56" s="4">
-        <v>2005</v>
-      </c>
-      <c r="V56" s="28"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="25"/>
+      <c r="AF56" s="46"/>
+      <c r="AG56" s="25"/>
+      <c r="AH56" s="25"/>
+      <c r="AI56" s="25"/>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="14">
-        <v>2012</v>
-      </c>
-      <c r="C57" s="16"/>
+      <c r="B57" s="41">
+        <v>2012</v>
+      </c>
       <c r="D57" s="2">
         <v>2012</v>
       </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="28" t="s">
+      <c r="F57" s="25" t="s">
         <v>74</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="30" t="s">
+      <c r="H57" s="17"/>
+      <c r="I57" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K57" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="L57" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="M57" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N57" s="25"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="J57" s="28" t="s">
+      <c r="Q57" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="K57" s="20" t="s">
+      <c r="R57" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="S57" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="T57" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="U57" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="L57" s="28"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="O57" s="28" t="s">
+      <c r="V57" s="2"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="P57" s="28" t="s">
+      <c r="Y57" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z57" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="15"/>
+      <c r="AD57" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="Q57" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="R57" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="S57" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="T57" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="U57" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="V57" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B58" s="13"/>
-      <c r="C58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="I58" s="13"/>
-      <c r="K58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="Q58" s="16"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B59" s="38" t="s">
+      <c r="AF57" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG57" s="25"/>
+      <c r="AH57" s="25"/>
+      <c r="AI57" s="25"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B58" s="40"/>
+      <c r="S58" s="40"/>
+      <c r="V58" s="40"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B59" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="41" t="s">
+      <c r="C59" s="37"/>
+      <c r="D59" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="39"/>
-      <c r="H59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="Q59" s="16"/>
+      <c r="E59" s="37"/>
+      <c r="V59" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AC1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:R1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482CFCB7-D6CD-49C0-B26D-5B31FE33A2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A08DD2D-B774-45DA-9A93-BB477EA09992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="141">
   <si>
     <t>United States</t>
   </si>
@@ -455,6 +455,12 @@
   </si>
   <si>
     <t>Residential Buildings</t>
+  </si>
+  <si>
+    <t>Central Bank</t>
+  </si>
+  <si>
+    <t>Policy Rates</t>
   </si>
 </sst>
 </file>
@@ -611,7 +617,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -654,6 +660,9 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -672,19 +681,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1003,9 +1003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C47" sqref="C47:C53"/>
+      <selection pane="topRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1314,7 @@
       <c r="C16" s="10">
         <v>40</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="13"/>
@@ -1437,7 +1437,7 @@
       <c r="C23" s="8">
         <v>26</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="13"/>
@@ -1479,7 +1479,7 @@
       <c r="C25" s="12">
         <v>31</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="13"/>
@@ -1598,7 +1598,9 @@
         <v>12</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="20">
+        <v>36281</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="13"/>
       <c r="H33" s="15"/>
@@ -1636,7 +1638,9 @@
         <v>18</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4">
+        <v>2000</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="13"/>
       <c r="H35" s="30"/>
@@ -1693,7 +1697,9 @@
         <v>27</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4">
+        <v>2000</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
@@ -1708,7 +1714,9 @@
         <v>16</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4">
+        <v>2005</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="13"/>
       <c r="H39" s="29"/>
@@ -1766,7 +1774,7 @@
       <c r="C43" s="11">
         <v>57</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="4"/>
       <c r="G43" s="13">
         <v>2010</v>
       </c>
@@ -1782,7 +1790,9 @@
         <v>19</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4">
+        <v>2002</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="13"/>
       <c r="H44" s="27"/>
@@ -1846,8 +1856,10 @@
       <c r="C48" s="11">
         <v>53</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4">
+        <v>2001</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="13"/>
       <c r="H48" s="15"/>
@@ -1864,7 +1876,9 @@
         <v>48</v>
       </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4">
+        <v>2003</v>
+      </c>
       <c r="G49" s="13">
         <v>2011</v>
       </c>
@@ -1962,7 +1976,7 @@
       <c r="C56" s="8">
         <v>23</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="13"/>
@@ -2016,11 +2030,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
-  <dimension ref="A1:AI59"/>
+  <dimension ref="A1:AJ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL13" sqref="AL13"/>
+      <selection pane="topRight" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,89 +2047,92 @@
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="13"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" style="40" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" style="13" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="11.7109375" customWidth="1"/>
-    <col min="29" max="29" width="11.7109375" style="13" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" style="13" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="13" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.7109375" customWidth="1"/>
+    <col min="30" max="30" width="11.7109375" style="13" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" style="13" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B1" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="34" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="34" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="34" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="34" t="s">
+      <c r="Q1" s="41"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="34" t="s">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="18" t="s">
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AG1" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -2142,13 +2159,13 @@
       <c r="J2" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="13" t="s">
         <v>117</v>
       </c>
       <c r="N2" t="s">
@@ -2166,60 +2183,62 @@
       <c r="R2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" t="s">
         <v>79</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="V2" t="s">
         <v>85</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="W2" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="X2" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>92</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>104</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>106</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>125</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>127</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AD2" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>93</v>
       </c>
-      <c r="AF2" s="40" t="s">
+      <c r="AG2" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="49" t="s">
+      <c r="AH2" t="s">
         <v>130</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="AI2" t="s">
         <v>133</v>
       </c>
-      <c r="AI2" s="49" t="s">
+      <c r="AJ2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="40"/>
       <c r="C3" s="13" t="s">
         <v>66</v>
       </c>
@@ -2241,13 +2260,13 @@
       <c r="J3" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="13" t="s">
         <v>118</v>
       </c>
       <c r="N3" t="s">
@@ -2262,60 +2281,63 @@
       <c r="Q3" t="s">
         <v>124</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="S3" t="s">
+        <v>140</v>
+      </c>
+      <c r="T3" t="s">
         <v>80</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="40" t="s">
+      <c r="V3" t="s">
         <v>84</v>
       </c>
-      <c r="V3" s="49" t="s">
+      <c r="W3" t="s">
         <v>121</v>
       </c>
-      <c r="W3" s="50" t="s">
+      <c r="X3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>129</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>105</v>
       </c>
       <c r="Z3" t="s">
         <v>105</v>
       </c>
       <c r="AA3" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AB3" t="s">
         <v>126</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AC3" t="s">
         <v>126</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE3" t="s">
         <v>94</v>
       </c>
-      <c r="AF3" s="40" t="s">
+      <c r="AG3" t="s">
         <v>96</v>
       </c>
-      <c r="AG3" s="49" t="s">
+      <c r="AH3" t="s">
         <v>131</v>
       </c>
-      <c r="AH3" s="49" t="s">
+      <c r="AI3" t="s">
         <v>134</v>
       </c>
-      <c r="AI3" s="49" t="s">
+      <c r="AJ3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="2">
         <v>1999</v>
       </c>
       <c r="D4" s="2">
@@ -2326,7 +2348,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="41"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="15"/>
       <c r="N4" s="2"/>
@@ -2334,28 +2356,29 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="15"/>
-      <c r="S4" s="41"/>
+      <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="41"/>
+      <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="15"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="2"/>
-      <c r="AF4" s="41"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
-      <c r="AI4" s="25"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="25"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="2">
         <v>2008</v>
       </c>
       <c r="D5" s="4">
@@ -2369,7 +2392,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="42">
+      <c r="K5" s="4">
         <v>2007</v>
       </c>
       <c r="L5" s="2"/>
@@ -2385,30 +2408,31 @@
       <c r="R5" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="S5" s="41"/>
-      <c r="T5" s="4">
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="4">
         <v>2002</v>
       </c>
-      <c r="U5" s="41"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="15"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="2"/>
-      <c r="AF5" s="41"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
-      <c r="AI5" s="25"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="25"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="2">
         <v>2008</v>
       </c>
       <c r="D6" s="2">
@@ -2419,7 +2443,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="41"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="15"/>
       <c r="N6" s="2"/>
@@ -2427,28 +2451,29 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="15"/>
-      <c r="S6" s="41"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="41"/>
+      <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="15"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="2"/>
-      <c r="AF6" s="41"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
-      <c r="AI6" s="25"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="25"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="4">
         <v>2021</v>
       </c>
       <c r="C7" s="15">
@@ -2459,7 +2484,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="41"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="15"/>
       <c r="N7" s="2"/>
@@ -2467,28 +2492,29 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="15"/>
-      <c r="S7" s="41"/>
+      <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="41"/>
+      <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="15"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="2"/>
-      <c r="AF7" s="41"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="2"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="2">
         <v>2008</v>
       </c>
       <c r="D8" s="2">
@@ -2499,7 +2525,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="41"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="15"/>
       <c r="N8" s="2"/>
@@ -2507,28 +2533,28 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="15"/>
-      <c r="S8" s="41"/>
+      <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="17"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="2"/>
-      <c r="AF8" s="41"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="2"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="2"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="40"/>
       <c r="C9" s="15">
         <v>2012</v>
       </c>
@@ -2540,7 +2566,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="41"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="15"/>
       <c r="N9" s="25"/>
@@ -2548,30 +2574,31 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="15"/>
-      <c r="S9" s="41"/>
+      <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="41"/>
+      <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="15"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="4">
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="4">
         <v>2011</v>
       </c>
-      <c r="AF9" s="41"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
-      <c r="AI9" s="25"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="25"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="2">
         <v>2008</v>
       </c>
       <c r="D10" s="2">
@@ -2582,7 +2609,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="41"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="15"/>
       <c r="N10" s="2"/>
@@ -2590,28 +2617,29 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="15"/>
-      <c r="S10" s="41"/>
+      <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="17"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="2"/>
-      <c r="AF10" s="41"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="2"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="4">
         <v>2018</v>
       </c>
       <c r="C11" s="16">
@@ -2628,7 +2656,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="41"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="15"/>
       <c r="N11" s="2"/>
@@ -2636,28 +2664,28 @@
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
       <c r="R11" s="17"/>
-      <c r="S11" s="41"/>
+      <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="41"/>
+      <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="15"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="25"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="25"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="25"/>
       <c r="AI11" s="2"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="2"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="40"/>
       <c r="C12" s="16">
         <v>41548</v>
       </c>
@@ -2666,7 +2694,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="41"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="15"/>
       <c r="N12" s="2"/>
@@ -2674,32 +2702,32 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="15"/>
-      <c r="S12" s="41"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="4">
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="4">
         <v>2003</v>
       </c>
-      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="2"/>
-      <c r="AF12" s="41"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
-      <c r="AI12" s="25" t="s">
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="40"/>
       <c r="C13" s="16" t="s">
         <v>65</v>
       </c>
@@ -2708,7 +2736,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="41"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="15"/>
       <c r="N13" s="2"/>
@@ -2716,30 +2744,31 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="15"/>
-      <c r="S13" s="41"/>
+      <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="41"/>
+      <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="4">
+      <c r="W13" s="2"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="4">
         <v>2005</v>
       </c>
-      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="2"/>
-      <c r="AF13" s="41"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
-      <c r="AI13" s="25"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="25"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="2">
         <v>1999</v>
       </c>
       <c r="D14" s="2">
@@ -2750,7 +2779,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="41"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="15"/>
       <c r="N14" s="2"/>
@@ -2758,30 +2787,31 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="15"/>
-      <c r="S14" s="46" t="s">
+      <c r="S14" s="2"/>
+      <c r="T14" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="41"/>
+      <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="15"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="2"/>
-      <c r="AF14" s="41"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="2"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="2">
         <v>2012</v>
       </c>
       <c r="D15" s="2">
@@ -2792,7 +2822,7 @@
       <c r="H15" s="15"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="41"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="15"/>
       <c r="N15" s="2"/>
@@ -2800,41 +2830,41 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="15"/>
-      <c r="S15" s="41"/>
+      <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="17"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="2"/>
-      <c r="AF15" s="41"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="AJ15" s="2"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="41">
-        <v>2012</v>
-      </c>
-      <c r="L16"/>
+      <c r="B16" s="2">
+        <v>2012</v>
+      </c>
       <c r="N16" s="26"/>
       <c r="O16" s="24"/>
-      <c r="S16" s="40"/>
-      <c r="U16" s="47"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="S16" s="2"/>
+      <c r="V16" s="26"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="2">
         <v>2012</v>
       </c>
       <c r="D17" s="2">
@@ -2845,7 +2875,7 @@
       <c r="H17" s="15"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="41"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="15"/>
       <c r="N17" s="2"/>
@@ -2853,47 +2883,45 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="15"/>
-      <c r="S17" s="41"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="17"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="2"/>
-      <c r="AF17" s="41"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
-      <c r="AI17" s="25"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="25"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="2">
         <v>1999</v>
       </c>
-      <c r="L18"/>
       <c r="N18" s="26"/>
       <c r="O18" s="24"/>
-      <c r="S18" s="40"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="40"/>
       <c r="C19" s="17"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="17"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="41"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="15"/>
       <c r="N19" s="2"/>
@@ -2901,35 +2929,35 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="15"/>
-      <c r="S19" s="41"/>
+      <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="17"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="2"/>
-      <c r="AF19" s="41"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="2"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="40"/>
       <c r="C20" s="17"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="17"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="41"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="15"/>
       <c r="N20" s="2"/>
@@ -2937,30 +2965,31 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="15"/>
-      <c r="S20" s="41"/>
+      <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="4">
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="4">
         <v>2003</v>
       </c>
-      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="2"/>
-      <c r="AF20" s="41"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="2"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="2">
         <v>2004</v>
       </c>
       <c r="F21" s="2"/>
@@ -2968,7 +2997,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="41"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="15"/>
       <c r="N21" s="2"/>
@@ -2976,28 +3005,28 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="15"/>
-      <c r="S21" s="41"/>
+      <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="41"/>
+      <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="15"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="2"/>
-      <c r="AF21" s="41"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ21" s="2"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="40"/>
       <c r="C22" s="15">
         <v>2012</v>
       </c>
@@ -3008,7 +3037,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="41"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="15"/>
       <c r="N22" s="4">
@@ -3018,30 +3047,31 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="15"/>
-      <c r="S22" s="41"/>
+      <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="41"/>
+      <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="15"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="2"/>
-      <c r="AF22" s="41"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="2"/>
       <c r="AG22" s="2"/>
-      <c r="AH22" s="4">
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="4">
         <v>2004</v>
       </c>
-      <c r="AI22" s="2"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="2"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="2">
         <v>2012</v>
       </c>
       <c r="D23" s="2">
@@ -3052,7 +3082,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="41"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="15"/>
       <c r="N23" s="2"/>
@@ -3060,32 +3090,32 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="15"/>
-      <c r="S23" s="41"/>
+      <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="4">
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="4">
         <v>2002</v>
       </c>
-      <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="2"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="4">
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="4">
         <v>2000</v>
       </c>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="25"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="25"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="40"/>
       <c r="C24" s="15">
         <v>2012</v>
       </c>
@@ -3097,7 +3127,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="41"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="15"/>
       <c r="N24" s="25"/>
@@ -3105,30 +3135,31 @@
       <c r="P24" s="25"/>
       <c r="Q24" s="25"/>
       <c r="R24" s="17"/>
-      <c r="S24" s="41"/>
+      <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="41"/>
+      <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="17" t="s">
+      <c r="W24" s="2"/>
+      <c r="X24" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="25"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="25"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="25"/>
       <c r="AI24" s="2"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ24" s="2"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="2">
         <v>2012</v>
       </c>
       <c r="F25" s="2"/>
@@ -3136,7 +3167,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="41"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="15"/>
       <c r="N25" s="2"/>
@@ -3144,35 +3175,35 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="15"/>
-      <c r="S25" s="41"/>
+      <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="17"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="2"/>
-      <c r="AF25" s="41"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
-      <c r="AI25" s="25"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="25"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="40"/>
       <c r="C26" s="17"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="17"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="41"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="15"/>
       <c r="N26" s="2"/>
@@ -3180,28 +3211,29 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="15"/>
-      <c r="S26" s="41"/>
+      <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="17"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="2"/>
-      <c r="AF26" s="41"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ26" s="2"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="2">
         <v>2012</v>
       </c>
       <c r="C27" s="24"/>
@@ -3213,7 +3245,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="46"/>
+      <c r="K27" s="25"/>
       <c r="L27" s="2"/>
       <c r="M27" s="15"/>
       <c r="N27" s="25"/>
@@ -3221,44 +3253,37 @@
       <c r="P27" s="25"/>
       <c r="Q27" s="25"/>
       <c r="R27" s="17"/>
-      <c r="S27" s="41"/>
+      <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="41"/>
+      <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="25"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="15"/>
       <c r="Y27" s="25"/>
       <c r="Z27" s="25"/>
       <c r="AA27" s="25"/>
       <c r="AB27" s="25"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="2"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="25" t="s">
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="2"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AI27" s="2"/>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B28" s="40"/>
-      <c r="L28"/>
-      <c r="S28" s="40"/>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ27" s="2"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="40"/>
       <c r="C29" s="14"/>
-      <c r="L29"/>
-      <c r="S29" s="40"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="2">
         <v>2005</v>
       </c>
       <c r="D30" s="2">
@@ -3273,7 +3298,7 @@
       <c r="J30" s="4">
         <v>2011</v>
       </c>
-      <c r="K30" s="46"/>
+      <c r="K30" s="25"/>
       <c r="L30" s="2"/>
       <c r="M30" s="15"/>
       <c r="N30" s="25"/>
@@ -3281,42 +3306,41 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="15"/>
-      <c r="S30" s="41"/>
+      <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="42">
+      <c r="U30" s="2"/>
+      <c r="V30" s="4">
         <v>2014</v>
       </c>
-      <c r="V30" s="2"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="25"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="2"/>
       <c r="Z30" s="25"/>
-      <c r="AA30" s="2"/>
+      <c r="AA30" s="25"/>
       <c r="AB30" s="2"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="25"/>
-      <c r="AF30" s="46"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="25"/>
       <c r="AG30" s="25"/>
-      <c r="AH30" s="25" t="s">
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="AI30" s="25"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="AJ30" s="25"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="41">
-        <v>2012</v>
-      </c>
-      <c r="L31"/>
-      <c r="S31" s="40"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="2">
         <v>2012</v>
       </c>
       <c r="D32" s="2">
@@ -3331,7 +3355,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="46"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="25" t="s">
         <v>81</v>
       </c>
@@ -3343,36 +3367,37 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="15"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="4">
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="4">
         <v>2011</v>
       </c>
-      <c r="U32" s="42">
+      <c r="V32" s="4">
         <v>2011</v>
       </c>
-      <c r="V32" s="2"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="15"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="2"/>
-      <c r="AF32" s="42">
-        <v>2012</v>
-      </c>
-      <c r="AG32" s="25"/>
-      <c r="AH32" s="25" t="s">
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="2"/>
+      <c r="AG32" s="4">
+        <v>2012</v>
+      </c>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="AI32" s="25"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ32" s="25"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="2">
         <v>2012</v>
       </c>
       <c r="F33" s="2"/>
@@ -3380,7 +3405,7 @@
       <c r="H33" s="15"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="41"/>
+      <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="15"/>
       <c r="N33" s="2"/>
@@ -3388,32 +3413,35 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="15"/>
-      <c r="S33" s="41"/>
+      <c r="S33" s="20">
+        <v>36281</v>
+      </c>
       <c r="T33" s="2"/>
-      <c r="U33" s="42">
+      <c r="U33" s="2"/>
+      <c r="V33" s="4">
         <v>2000</v>
       </c>
-      <c r="V33" s="2"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="15"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="2"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="25" t="s">
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="2">
         <v>2012</v>
       </c>
       <c r="D34" s="2">
@@ -3424,7 +3452,7 @@
       <c r="H34" s="15"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="46"/>
+      <c r="K34" s="25"/>
       <c r="L34" s="25" t="s">
         <v>81</v>
       </c>
@@ -3436,28 +3464,28 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="15"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="41"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="25"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="15"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="2"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="25"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="25"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="40"/>
       <c r="C35" s="15">
         <v>2012</v>
       </c>
@@ -3470,7 +3498,7 @@
       <c r="J35" s="4">
         <v>2010</v>
       </c>
-      <c r="K35" s="46" t="s">
+      <c r="K35" s="25" t="s">
         <v>109</v>
       </c>
       <c r="L35" s="25" t="s">
@@ -3484,36 +3512,39 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="15"/>
-      <c r="S35" s="46"/>
+      <c r="S35" s="4">
+        <v>2000</v>
+      </c>
       <c r="T35" s="25"/>
-      <c r="U35" s="46"/>
+      <c r="U35" s="25"/>
       <c r="V35" s="25"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="4">
+      <c r="W35" s="25"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="4">
         <v>2006</v>
       </c>
-      <c r="Y35" s="25"/>
       <c r="Z35" s="25"/>
-      <c r="AA35" s="4">
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="4">
         <v>2016</v>
       </c>
-      <c r="AB35" s="4">
+      <c r="AC35" s="4">
         <v>2014</v>
       </c>
-      <c r="AC35" s="27">
+      <c r="AD35" s="27">
         <v>2016</v>
       </c>
-      <c r="AD35" s="25"/>
-      <c r="AF35" s="46"/>
+      <c r="AE35" s="25"/>
       <c r="AG35" s="25"/>
       <c r="AH35" s="25"/>
       <c r="AI35" s="25"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ35" s="25"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36" s="2">
         <v>2012</v>
       </c>
       <c r="F36" s="2"/>
@@ -3521,7 +3552,7 @@
       <c r="H36" s="15"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="41">
+      <c r="K36" s="2">
         <v>2008</v>
       </c>
       <c r="L36" s="2"/>
@@ -3531,28 +3562,29 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="15"/>
-      <c r="S36" s="41"/>
+      <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="41"/>
+      <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="15"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="25"/>
-      <c r="AF36" s="41"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="25"/>
       <c r="AG36" s="2"/>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="2"/>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="2"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37" s="2">
         <v>2012</v>
       </c>
       <c r="F37" s="2"/>
@@ -3562,7 +3594,7 @@
       <c r="H37" s="15"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="41">
+      <c r="K37" s="2">
         <v>2005</v>
       </c>
       <c r="L37" s="2"/>
@@ -3572,43 +3604,44 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="15"/>
-      <c r="S37" s="41"/>
+      <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="42">
+      <c r="U37" s="2"/>
+      <c r="V37" s="4">
         <v>2001</v>
       </c>
-      <c r="V37" s="2"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="4">
+      <c r="W37" s="2"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="4">
         <v>2006</v>
       </c>
-      <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="25"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="25"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="25"/>
+      <c r="AG37" s="2"/>
       <c r="AH37" s="25"/>
       <c r="AI37" s="25"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="AJ37" s="25"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="40"/>
       <c r="C38" s="17">
         <v>2016</v>
       </c>
-      <c r="L38"/>
-      <c r="S38" s="40"/>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="S38" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="41">
+      <c r="B39" s="2">
         <v>2012</v>
       </c>
       <c r="F39" s="4">
@@ -3620,7 +3653,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="46"/>
+      <c r="K39" s="25"/>
       <c r="L39" s="2"/>
       <c r="M39" s="15"/>
       <c r="N39" s="25"/>
@@ -3628,75 +3661,67 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="15"/>
-      <c r="S39" s="41"/>
+      <c r="S39" s="4">
+        <v>2005</v>
+      </c>
       <c r="T39" s="2"/>
-      <c r="U39" s="42">
-        <v>2012</v>
-      </c>
-      <c r="V39" s="2"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="4">
+      <c r="U39" s="2"/>
+      <c r="V39" s="4">
+        <v>2012</v>
+      </c>
+      <c r="W39" s="2"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="4">
         <v>2004</v>
       </c>
-      <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="25"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="25"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="25"/>
+      <c r="AG39" s="2"/>
       <c r="AH39" s="25"/>
       <c r="AI39" s="25"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="AJ39" s="25"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="40"/>
       <c r="C40" s="17">
         <v>2015</v>
       </c>
-      <c r="L40"/>
-      <c r="S40" s="40"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="40"/>
       <c r="C41" s="17">
         <v>2012</v>
       </c>
-      <c r="L41"/>
-      <c r="S41" s="40"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="40"/>
       <c r="C42" s="17">
         <v>2017</v>
       </c>
-      <c r="L42"/>
-      <c r="S42" s="40"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="40"/>
       <c r="C43" s="17"/>
       <c r="E43" s="14"/>
-      <c r="L43"/>
-      <c r="S43" s="40"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="42">
+      <c r="B44" s="4">
         <v>2015</v>
       </c>
       <c r="C44" s="15">
@@ -3709,7 +3734,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="46"/>
+      <c r="K44" s="25"/>
       <c r="L44" s="2"/>
       <c r="M44" s="15"/>
       <c r="N44" s="4">
@@ -3721,45 +3746,46 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="15"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="25" t="s">
+      <c r="S44" s="4">
+        <v>2002</v>
+      </c>
+      <c r="T44" s="2"/>
+      <c r="U44" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="U44" s="46"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="2"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="15"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
-      <c r="AC44" s="15"/>
-      <c r="AD44" s="2"/>
-      <c r="AF44" s="41"/>
-      <c r="AG44" s="4">
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="4">
         <v>2010</v>
       </c>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="25" t="s">
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="40"/>
       <c r="C45" s="17">
         <v>2018</v>
       </c>
-      <c r="L45"/>
-      <c r="S45" s="40"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="41">
+      <c r="B46" s="2">
         <v>2012</v>
       </c>
       <c r="F46" s="2"/>
@@ -3769,7 +3795,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="41"/>
+      <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="15"/>
       <c r="N46" s="2"/>
@@ -3777,38 +3803,38 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="15"/>
-      <c r="S46" s="41"/>
+      <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="42">
+      <c r="U46" s="2"/>
+      <c r="V46" s="4">
         <v>2001</v>
       </c>
-      <c r="V46" s="2"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="4">
+      <c r="W46" s="2"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="4">
         <v>2004</v>
       </c>
-      <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="2"/>
-      <c r="AF46" s="41"/>
-      <c r="AG46" s="25" t="s">
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="AH46" s="4">
+      <c r="AI46" s="4">
         <v>2003</v>
       </c>
-      <c r="AI46" s="4">
+      <c r="AJ46" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="40"/>
       <c r="C47" s="17"/>
       <c r="F47" s="4">
         <v>2003</v>
@@ -3819,7 +3845,7 @@
       <c r="H47" s="17"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="41"/>
+      <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="15"/>
       <c r="N47" s="2"/>
@@ -3827,34 +3853,35 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="15"/>
-      <c r="S47" s="41"/>
+      <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-      <c r="U47" s="42">
+      <c r="U47" s="2"/>
+      <c r="V47" s="4">
         <v>2004</v>
       </c>
-      <c r="V47" s="2"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="4">
+      <c r="W47" s="2"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="4">
         <v>2003</v>
       </c>
-      <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
-      <c r="AC47" s="15"/>
-      <c r="AD47" s="2"/>
-      <c r="AF47" s="41"/>
-      <c r="AG47" s="25" t="s">
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="AH47" s="25"/>
-      <c r="AI47" s="2"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI47" s="25"/>
+      <c r="AJ47" s="2"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="41">
+      <c r="B48" s="2">
         <v>2012</v>
       </c>
       <c r="F48" s="2"/>
@@ -3862,7 +3889,7 @@
       <c r="H48" s="17"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="41"/>
+      <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="15"/>
       <c r="N48" s="2"/>
@@ -3870,39 +3897,42 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="15"/>
-      <c r="S48" s="41"/>
+      <c r="S48" s="4">
+        <v>2001</v>
+      </c>
       <c r="T48" s="2"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="4">
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="4">
         <v>2002</v>
       </c>
-      <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
-      <c r="AC48" s="15"/>
-      <c r="AD48" s="2"/>
-      <c r="AF48" s="41"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
+      <c r="AJ48" s="2"/>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="40"/>
       <c r="C49" s="17"/>
-      <c r="L49"/>
-      <c r="S49" s="40"/>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="S49" s="4">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="41">
+      <c r="B50" s="2">
         <v>1999</v>
       </c>
       <c r="F50" s="2"/>
@@ -3910,7 +3940,7 @@
       <c r="H50" s="17"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="41"/>
+      <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="15"/>
       <c r="N50" s="2"/>
@@ -3918,30 +3948,30 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="15"/>
-      <c r="S50" s="41"/>
+      <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-      <c r="U50" s="41"/>
+      <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="15"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
-      <c r="AC50" s="15"/>
-      <c r="AD50" s="2"/>
-      <c r="AF50" s="41"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="2"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="4">
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="4">
         <v>2003</v>
       </c>
-      <c r="AI50" s="2"/>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ50" s="2"/>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="40"/>
       <c r="C51" s="15">
         <v>2012</v>
       </c>
@@ -3950,7 +3980,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="41"/>
+      <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="15"/>
       <c r="N51" s="2"/>
@@ -3958,45 +3988,42 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="15"/>
-      <c r="S51" s="41"/>
+      <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-      <c r="U51" s="42">
+      <c r="U51" s="2"/>
+      <c r="V51" s="4">
         <v>2000</v>
       </c>
-      <c r="V51" s="25" t="s">
+      <c r="W51" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="W51" s="15"/>
-      <c r="X51" s="2"/>
+      <c r="X51" s="15"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
-      <c r="AC51" s="15"/>
-      <c r="AD51" s="2"/>
-      <c r="AF51" s="41"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="15"/>
+      <c r="AE51" s="2"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="4">
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="4">
         <v>2003</v>
       </c>
-      <c r="AI51" s="25"/>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
+      <c r="AJ51" s="25"/>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="40"/>
       <c r="C52" s="17">
         <v>2013</v>
       </c>
-      <c r="L52"/>
-      <c r="S52" s="40"/>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A53" s="45" t="s">
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="40"/>
       <c r="C53" s="17">
         <v>2015</v>
       </c>
@@ -4011,7 +4038,7 @@
       <c r="J53" s="4">
         <v>2005</v>
       </c>
-      <c r="K53" s="42">
+      <c r="K53" s="4">
         <v>2001</v>
       </c>
       <c r="L53" s="2"/>
@@ -4025,62 +4052,54 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="15"/>
-      <c r="S53" s="41"/>
+      <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="42">
+      <c r="U53" s="2"/>
+      <c r="V53" s="4">
         <v>2003</v>
       </c>
-      <c r="V53" s="25"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="4">
+      <c r="W53" s="25"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="4">
         <v>2005</v>
-      </c>
-      <c r="Y53" s="4">
-        <v>2006</v>
       </c>
       <c r="Z53" s="4">
         <v>2006</v>
       </c>
-      <c r="AA53" s="2"/>
+      <c r="AA53" s="4">
+        <v>2006</v>
+      </c>
       <c r="AB53" s="2"/>
-      <c r="AC53" s="15"/>
-      <c r="AD53" s="2"/>
-      <c r="AF53" s="42">
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="2"/>
+      <c r="AG53" s="4">
         <v>2006</v>
       </c>
-      <c r="AG53" s="25" t="s">
+      <c r="AH53" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="AH53" s="25" t="s">
+      <c r="AI53" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="AI53" s="2"/>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B54" s="40"/>
-      <c r="L54"/>
-      <c r="S54" s="40"/>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ53" s="2"/>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="40"/>
-      <c r="L55"/>
-      <c r="S55" s="40"/>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A56" s="43" t="s">
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A56" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="40"/>
       <c r="C56" s="17"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
       <c r="H56" s="17"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="46"/>
+      <c r="K56" s="25"/>
       <c r="L56" s="4">
         <v>2004</v>
       </c>
@@ -4096,34 +4115,35 @@
         <v>2017</v>
       </c>
       <c r="R56" s="17"/>
-      <c r="S56" s="46"/>
+      <c r="S56" s="2"/>
       <c r="T56" s="25"/>
-      <c r="U56" s="46"/>
+      <c r="U56" s="25"/>
       <c r="V56" s="25"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="4">
+      <c r="W56" s="25"/>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="4">
         <v>2006</v>
-      </c>
-      <c r="Y56" s="4">
-        <v>2005</v>
       </c>
       <c r="Z56" s="4">
         <v>2005</v>
       </c>
-      <c r="AA56" s="2"/>
+      <c r="AA56" s="4">
+        <v>2005</v>
+      </c>
       <c r="AB56" s="2"/>
-      <c r="AC56" s="15"/>
-      <c r="AD56" s="25"/>
-      <c r="AF56" s="46"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="25"/>
       <c r="AG56" s="25"/>
       <c r="AH56" s="25"/>
       <c r="AI56" s="25"/>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ56" s="25"/>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="41">
+      <c r="B57" s="2">
         <v>2012</v>
       </c>
       <c r="D57" s="2">
@@ -4140,10 +4160,10 @@
       <c r="J57" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="K57" s="46" t="s">
+      <c r="K57" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L57" s="46" t="s">
+      <c r="L57" s="25" t="s">
         <v>81</v>
       </c>
       <c r="M57" s="17" t="s">
@@ -4160,60 +4180,55 @@
       <c r="R57" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="S57" s="46" t="s">
-        <v>74</v>
-      </c>
+      <c r="S57" s="2"/>
       <c r="T57" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="U57" s="46" t="s">
+      <c r="U57" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="V57" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="2"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="25" t="s">
+      <c r="W57" s="2"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="25" t="s">
         <v>91</v>
-      </c>
-      <c r="Y57" s="25" t="s">
-        <v>97</v>
       </c>
       <c r="Z57" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="AA57" s="2"/>
+      <c r="AA57" s="25" t="s">
+        <v>97</v>
+      </c>
       <c r="AB57" s="2"/>
-      <c r="AC57" s="15"/>
-      <c r="AD57" s="25" t="s">
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="AF57" s="46" t="s">
+      <c r="AG57" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="AG57" s="25"/>
       <c r="AH57" s="25"/>
       <c r="AI57" s="25"/>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="V58" s="40"/>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B59" s="36" t="s">
+      <c r="AJ57" s="25"/>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B59" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="39" t="s">
+      <c r="C59" s="40"/>
+      <c r="D59" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="37"/>
-      <c r="V59" s="40"/>
+      <c r="E59" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AC1"/>
-    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:R1"/>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A08DD2D-B774-45DA-9A93-BB477EA09992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CB13CC-387A-4B5E-A985-9B8B8A6EF410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="140">
   <si>
     <t>United States</t>
   </si>
@@ -244,12 +244,6 @@
     <t>32 from 2012 + 3 from 2013</t>
   </si>
   <si>
-    <t>13 full &amp; 3 partial</t>
-  </si>
-  <si>
-    <t>32 full &amp; 3 partial</t>
-  </si>
-  <si>
     <t>12 from 2012 + 3 from 2013</t>
   </si>
   <si>
@@ -461,6 +455,9 @@
   </si>
   <si>
     <t>Policy Rates</t>
+  </si>
+  <si>
+    <t>Stock Index</t>
   </si>
 </sst>
 </file>
@@ -617,7 +614,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -625,12 +622,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -639,14 +630,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -663,28 +648,35 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1001,11 +993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N6" sqref="N6"/>
+      <selection pane="topRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,17 +1005,16 @@
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1032,995 +1023,904 @@
       <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="28" t="s">
+      <c r="F1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="G1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="H1" s="15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="7">
+      <c r="C4" s="36">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="2">
+      <c r="F4" s="9"/>
+      <c r="G4" s="2">
         <v>1999</v>
       </c>
-      <c r="J4" s="15">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="9">
+        <v>2012</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="7">
+      <c r="C5" s="36">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="2">
+      <c r="F5" s="9"/>
+      <c r="G5" s="2">
         <v>2008</v>
       </c>
-      <c r="J5" s="16">
+      <c r="H5" s="10">
         <v>41548</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="7">
+      <c r="C6" s="36">
         <v>6</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="2">
+      <c r="F6" s="9"/>
+      <c r="G6" s="2">
         <v>2008</v>
       </c>
-      <c r="J6" s="15">
+      <c r="H6" s="9">
         <v>2008</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="7">
+      <c r="C7" s="36">
         <v>9</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="9"/>
+      <c r="G7" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="7">
+      <c r="C8" s="36">
         <v>7</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="2">
+      <c r="F8" s="9"/>
+      <c r="G8" s="2">
         <v>2008</v>
       </c>
-      <c r="J8" s="15">
+      <c r="H8" s="9">
         <v>2008</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="36">
         <v>20</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J9" s="16">
+      <c r="F9" s="9"/>
+      <c r="G9" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H9" s="10">
         <v>41671</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="7">
+      <c r="C10" s="36">
         <v>4</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="2">
+      <c r="F10" s="9"/>
+      <c r="G10" s="2">
         <v>2008</v>
       </c>
-      <c r="J10" s="15">
+      <c r="H10" s="9">
         <v>2008</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="7">
+      <c r="C11" s="36">
         <v>13</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="20">
+      <c r="F11" s="9"/>
+      <c r="G11" s="13">
         <v>41426</v>
       </c>
-      <c r="J11" s="16">
+      <c r="H11" s="10">
         <v>41395</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="36">
         <v>17</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="20">
+      <c r="F12" s="9"/>
+      <c r="G12" s="13">
         <v>41548</v>
       </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="7"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="37">
         <v>38</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="4">
-        <v>2016</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="F13" s="9"/>
+      <c r="G13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="4">
         <v>2001</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="38">
         <v>25</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="4">
-        <v>2008</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="F14" s="9"/>
+      <c r="G14" s="2">
         <v>1999</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="2">
-        <v>1999</v>
-      </c>
-      <c r="J14" s="15">
+      <c r="H14" s="9">
         <v>2006</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="7">
+      <c r="C15" s="36">
         <v>15</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J15" s="15">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H15" s="9">
+        <v>2012</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="37">
         <v>40</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="7"/>
+      <c r="G16" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="7">
+      <c r="C17" s="36">
         <v>8</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J17" s="15">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2012</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="38">
         <v>30</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="2">
+      <c r="F18" s="7"/>
+      <c r="G18" s="2">
         <v>1999</v>
       </c>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="7"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="39">
         <v>47</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="4">
-        <v>2013</v>
-      </c>
-      <c r="G19" s="13">
+      <c r="F19" s="9"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="4">
         <v>2001</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="38">
         <v>24</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="15"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="9"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="38">
         <v>28</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="4">
-        <v>2013</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1999</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="2">
+      <c r="F21" s="9"/>
+      <c r="G21" s="2">
         <v>2004</v>
       </c>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="7"/>
+      <c r="I21" s="13">
+        <v>36404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="38">
         <v>29</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="9"/>
+      <c r="G22" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="38">
         <v>26</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J23" s="15">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+      <c r="G23" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H23" s="9">
+        <v>2012</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="39">
         <v>51</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="4">
-        <v>2003</v>
-      </c>
-      <c r="G24" s="13">
+      <c r="F24" s="9"/>
+      <c r="G24" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H24" s="9">
+        <v>2012</v>
+      </c>
+      <c r="I24" s="4">
         <v>2001</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J24" s="15">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="40">
         <v>31</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="9"/>
+      <c r="G25" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="39">
         <v>50</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="4">
-        <v>2013</v>
-      </c>
-      <c r="G26" s="13">
+      <c r="F26" s="9"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="4">
         <v>2010</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="C27" s="39"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="27"/>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="9"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F27" s="19"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="4">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="41"/>
+      <c r="F28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="41"/>
+      <c r="F29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="7">
+      <c r="C30" s="36">
         <v>2</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="2">
+      <c r="F30" s="21"/>
+      <c r="G30" s="2">
         <v>2005</v>
       </c>
-      <c r="J30" s="15">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="H30" s="9">
+        <v>2012</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="38">
         <v>21</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="7"/>
+      <c r="G31" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="7">
+      <c r="C32" s="36">
         <v>5</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J32" s="15">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F32" s="21"/>
+      <c r="G32" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H32" s="9">
+        <v>2012</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="7">
+      <c r="C33" s="36">
         <v>12</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="20">
+      <c r="E33" s="13">
         <v>36281</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="9"/>
+      <c r="G33" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="7">
+      <c r="C34" s="36">
         <v>10</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J34" s="15">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="24"/>
+      <c r="G34" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H34" s="9">
+        <v>2012</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="7">
+      <c r="C35" s="36">
         <v>18</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="4">
         <v>2000</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="22"/>
+      <c r="G35" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="10">
+      <c r="C36" s="37">
         <v>39</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="4">
-        <v>2014</v>
-      </c>
-      <c r="G36" s="13">
-        <v>1999</v>
-      </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="19"/>
+      <c r="G36" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="7">
+      <c r="C37" s="36">
         <v>14</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="F37" s="9"/>
+      <c r="G37" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="38">
         <v>27</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="4">
         <v>2000</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="J38" s="13"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="7">
+      <c r="C39" s="36">
         <v>16</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="4">
         <v>2005</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="F39" s="21"/>
+      <c r="G39" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="37">
         <v>35</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="J40" s="13"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="F40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="37">
         <v>33</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="G41" s="13">
-        <v>2004</v>
-      </c>
-      <c r="H41" s="13"/>
-      <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="F41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="39">
         <v>54</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="G42" s="13">
-        <v>2001</v>
-      </c>
-      <c r="H42" s="13"/>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="F42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="39">
         <v>57</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="G43" s="13">
-        <v>2010</v>
-      </c>
-      <c r="H43" s="13"/>
-      <c r="J43" s="13"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="7">
+      <c r="C44" s="36">
         <v>19</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="4">
         <v>2002</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J44" s="13"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F44" s="19"/>
+      <c r="G44" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="37">
         <v>36</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="J45" s="13"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="38">
         <v>22</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="G46" s="13">
-        <v>1999</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J46" s="13"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F46" s="9"/>
+      <c r="G46" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="39">
         <v>43</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="4">
-        <v>2002</v>
-      </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="15"/>
-      <c r="J47" s="13"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F47" s="9"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="39">
         <v>53</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4">
         <v>2001</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J48" s="13"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="39">
         <v>48</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="4">
         <v>2003</v>
       </c>
-      <c r="G49" s="13">
-        <v>2011</v>
-      </c>
-      <c r="H49" s="13"/>
-      <c r="J49" s="13"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="39">
         <v>56</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="G50" s="13">
-        <v>2011</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="2">
+      <c r="F50" s="9"/>
+      <c r="G50" s="2">
         <v>1999</v>
       </c>
-      <c r="J50" s="13"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H50" s="7"/>
+      <c r="I50" s="4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="39">
         <v>46</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="G51" s="13">
-        <v>1999</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J51" s="13"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="39">
         <v>41</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="G52" s="13">
-        <v>1999</v>
-      </c>
-      <c r="H52" s="13"/>
-      <c r="J52" s="13"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
+      <c r="F52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="39">
         <v>45</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="4">
-        <v>2007</v>
-      </c>
-      <c r="G53" s="13">
+      <c r="F53" s="19"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="4">
         <v>2000</v>
       </c>
-      <c r="H53" s="27"/>
-      <c r="J53" s="13"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C54" s="9"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="J54" s="13"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="41"/>
+      <c r="F54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="J55" s="13"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="C55" s="41"/>
+      <c r="F55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B56" s="5"/>
-      <c r="C56" s="8">
+      <c r="C56" s="38">
         <v>23</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="31"/>
-      <c r="J56" s="13"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F56" s="23"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="5"/>
-      <c r="C57" s="7">
+      <c r="C57" s="36">
         <v>11</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="4">
-        <v>2013</v>
-      </c>
-      <c r="G57" s="13">
-        <v>1999</v>
-      </c>
-      <c r="H57" s="30"/>
-      <c r="I57" s="2">
-        <v>2012</v>
-      </c>
-      <c r="J57" s="15">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="J58" s="13"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J59" s="22" t="s">
-        <v>68</v>
-      </c>
+      <c r="F57" s="22"/>
+      <c r="G57" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H57" s="9">
+        <v>2012</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2030,311 +1930,326 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
-  <dimension ref="A1:AJ59"/>
+  <dimension ref="A1:AM59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S18" sqref="S18"/>
+      <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="19" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="13"/>
+    <col min="18" max="18" width="9.140625" style="7"/>
     <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
     <col min="23" max="23" width="11.140625" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" style="13" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="7" customWidth="1"/>
     <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="11.7109375" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" style="13" customWidth="1"/>
+    <col min="30" max="30" width="11.7109375" style="7" customWidth="1"/>
     <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" style="13" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" style="7" customWidth="1"/>
     <col min="33" max="33" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B1" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="33"/>
+      <c r="P1" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="37" t="s">
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG1" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG1" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AL1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM1" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" t="s">
         <v>77</v>
       </c>
-      <c r="I2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="U2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" t="s">
+        <v>118</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R2" s="13" t="s">
+      <c r="P3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S3" t="s">
+        <v>138</v>
+      </c>
+      <c r="T3" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" t="s">
         <v>119</v>
       </c>
-      <c r="S2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" t="s">
-        <v>85</v>
-      </c>
-      <c r="W2" t="s">
-        <v>120</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="X3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE3" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" t="s">
-        <v>140</v>
-      </c>
-      <c r="T3" t="s">
-        <v>80</v>
-      </c>
-      <c r="U3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W3" t="s">
-        <v>121</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="AG3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH3" t="s">
         <v>129</v>
       </c>
-      <c r="Z3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>131</v>
-      </c>
       <c r="AI3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AJ3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM3" s="7"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2">
@@ -2345,37 +2260,39 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="15"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="15"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="15"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="15"/>
+      <c r="R4" s="9"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="15"/>
+      <c r="X4" s="9"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
-      <c r="AD4" s="15"/>
+      <c r="AD4" s="9"/>
       <c r="AE4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="25"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="AJ4" s="17"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="7"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2">
@@ -2384,29 +2301,29 @@
       <c r="D5" s="4">
         <v>2019</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="10">
         <v>41548</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="15"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="4">
         <v>2007</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="15"/>
+      <c r="M5" s="9"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>91</v>
+      <c r="O5" s="9"/>
+      <c r="P5" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -2415,21 +2332,23 @@
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="15"/>
+      <c r="X5" s="9"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
-      <c r="AD5" s="15"/>
+      <c r="AD5" s="9"/>
       <c r="AE5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="25"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="AJ5" s="17"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="7"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -2440,78 +2359,82 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="15"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="15"/>
+      <c r="M6" s="9"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="15"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="15"/>
+      <c r="R6" s="9"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="15"/>
+      <c r="X6" s="9"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-      <c r="AD6" s="15"/>
+      <c r="AD6" s="9"/>
       <c r="AE6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
-      <c r="AJ6" s="25"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="AJ6" s="17"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="7"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>2021</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="9">
         <v>2012</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="15"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="15"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="15"/>
+      <c r="R7" s="9"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="15"/>
+      <c r="X7" s="9"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="15"/>
+      <c r="AD7" s="9"/>
       <c r="AE7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="7"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -2522,80 +2445,84 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="15"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="15"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="15"/>
+      <c r="R8" s="9"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="11"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="15"/>
+      <c r="AD8" s="9"/>
       <c r="AE8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
-      <c r="AI8" s="25"/>
+      <c r="AI8" s="17"/>
       <c r="AJ8" s="2"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="7"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="15">
-        <v>2012</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="C9" s="9">
+        <v>2012</v>
+      </c>
+      <c r="E9" s="10">
         <v>41671</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="15"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="15"/>
+      <c r="R9" s="9"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="15"/>
+      <c r="X9" s="9"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="15"/>
+      <c r="AD9" s="9"/>
       <c r="AE9" s="4">
         <v>2011</v>
       </c>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="25"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="AJ9" s="17"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="7"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2">
@@ -2606,108 +2533,112 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="15"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="15"/>
+      <c r="M10" s="9"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="15"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="15"/>
+      <c r="R10" s="9"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="11"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="15"/>
+      <c r="AD10" s="9"/>
       <c r="AE10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="7"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4">
         <v>2018</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="10">
         <v>41426</v>
       </c>
       <c r="D11" s="4">
         <v>2018</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="10">
         <v>41395</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="15"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="15"/>
+      <c r="M11" s="9"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="17"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="11"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="15"/>
+      <c r="X11" s="9"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="25"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="17"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="25"/>
+      <c r="AH11" s="17"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="7"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="10">
         <v>41548</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="15"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="15"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="15"/>
+      <c r="R12" s="9"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="11"/>
       <c r="Y12" s="4">
         <v>2003</v>
       </c>
@@ -2715,41 +2646,43 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
-      <c r="AD12" s="15"/>
+      <c r="AD12" s="9"/>
       <c r="AE12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="AJ12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="7"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="10" t="s">
         <v>65</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="15"/>
+      <c r="M13" s="9"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="15"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="15"/>
+      <c r="R13" s="9"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="15"/>
+      <c r="X13" s="9"/>
       <c r="Y13" s="4">
         <v>2005</v>
       </c>
@@ -2757,15 +2690,18 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="15"/>
+      <c r="AD13" s="9"/>
       <c r="AE13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="25"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="AJ13" s="17"/>
+      <c r="AM13" s="19">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
@@ -2776,39 +2712,45 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="17"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="15"/>
+      <c r="M14" s="9"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="15"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="15"/>
+      <c r="R14" s="9"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="25" t="s">
-        <v>81</v>
+      <c r="T14" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="15"/>
+      <c r="X14" s="9"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
-      <c r="AD14" s="15"/>
+      <c r="AD14" s="9"/>
       <c r="AE14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="AL14" s="4">
+        <v>2008</v>
+      </c>
+      <c r="AM14" s="9">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="2">
@@ -2819,49 +2761,53 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="15"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="15"/>
+      <c r="M15" s="9"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="15"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="15"/>
+      <c r="R15" s="9"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="11"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
-      <c r="AD15" s="15"/>
+      <c r="AD15" s="9"/>
       <c r="AE15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="7"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>2012</v>
       </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="24"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="16"/>
       <c r="S16" s="2"/>
-      <c r="V16" s="26"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="V16" s="18"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="7"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2">
@@ -2872,105 +2818,115 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="15"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="15"/>
+      <c r="M17" s="9"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="15"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="15"/>
+      <c r="R17" s="9"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="11"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
-      <c r="AD17" s="15"/>
+      <c r="AD17" s="9"/>
       <c r="AE17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
-      <c r="AJ17" s="25"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="AJ17" s="17"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="7"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>1999</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="24"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="N18" s="18"/>
+      <c r="O18" s="16"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="7"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="11"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="17"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="15"/>
+      <c r="M19" s="9"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="15"/>
+      <c r="O19" s="9"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="15"/>
+      <c r="R19" s="9"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="11"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="15"/>
+      <c r="AD19" s="9"/>
       <c r="AE19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="AL19" s="4">
+        <v>2013</v>
+      </c>
+      <c r="AM19" s="19">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="11"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="17"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="15"/>
+      <c r="M20" s="9"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="15"/>
+      <c r="O20" s="9"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="15"/>
+      <c r="R20" s="9"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="11"/>
       <c r="Y20" s="4">
         <v>2003</v>
       </c>
@@ -2978,87 +2934,92 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="15"/>
+      <c r="AD20" s="9"/>
       <c r="AE20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="7"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="2">
         <v>2004</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="15"/>
+      <c r="M21" s="9"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="15"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="15"/>
+      <c r="R21" s="9"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="15"/>
+      <c r="X21" s="9"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="15"/>
+      <c r="AD21" s="9"/>
       <c r="AE21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="AM21" s="10">
+        <v>36404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="9">
         <v>2012</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4">
         <v>2011</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="15"/>
+      <c r="M22" s="9"/>
       <c r="N22" s="4">
         <v>2012</v>
       </c>
-      <c r="O22" s="15"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="15"/>
+      <c r="R22" s="9"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="15"/>
+      <c r="X22" s="9"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="15"/>
+      <c r="AD22" s="9"/>
       <c r="AE22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
@@ -3066,9 +3027,11 @@
         <v>2004</v>
       </c>
       <c r="AJ22" s="2"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="7"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="2">
@@ -3079,23 +3042,23 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="17"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="15"/>
+      <c r="M23" s="9"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="15"/>
+      <c r="O23" s="9"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="15"/>
+      <c r="R23" s="9"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="11"/>
       <c r="Y23" s="4">
         <v>2002</v>
       </c>
@@ -3103,60 +3066,68 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="15"/>
+      <c r="AD23" s="9"/>
       <c r="AE23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="4">
         <v>2000</v>
       </c>
       <c r="AI23" s="2"/>
-      <c r="AJ23" s="25"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="AJ23" s="17"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="7"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="15">
-        <v>2012</v>
-      </c>
-      <c r="E24" s="15">
+      <c r="C24" s="9">
+        <v>2012</v>
+      </c>
+      <c r="E24" s="9">
         <v>2012</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="17"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="17"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="11"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="17" t="s">
-        <v>86</v>
+      <c r="X24" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="25"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="17"/>
       <c r="AG24" s="2"/>
-      <c r="AH24" s="25"/>
+      <c r="AH24" s="17"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="AL24" s="4">
+        <v>2003</v>
+      </c>
+      <c r="AM24" s="19">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="2">
@@ -3164,123 +3135,139 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="17"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="15"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="15"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="15"/>
+      <c r="R25" s="9"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="11"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="15"/>
+      <c r="AD25" s="9"/>
       <c r="AE25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
-      <c r="AJ25" s="25"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="AJ25" s="17"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="7"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="11"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="17"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="15"/>
+      <c r="M26" s="9"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="15"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="15"/>
+      <c r="R26" s="9"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="11"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="15"/>
+      <c r="AD26" s="9"/>
       <c r="AE26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>71</v>
+      <c r="AL26" s="4">
+        <v>2013</v>
+      </c>
+      <c r="AM26" s="19">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="B27" s="2">
         <v>2012</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="2">
         <v>2012</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="17"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="11"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="17"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="11"/>
       <c r="AE27" s="2"/>
-      <c r="AG27" s="25"/>
+      <c r="AG27" s="17"/>
       <c r="AH27" s="2"/>
-      <c r="AI27" s="25" t="s">
-        <v>74</v>
+      <c r="AI27" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="AJ27" s="2"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="AL27" s="4">
+        <v>2007</v>
+      </c>
+      <c r="AM27" s="7"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM28" s="7"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="14"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="C29" s="8"/>
+      <c r="AM29" s="7"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="2">
@@ -3293,19 +3280,19 @@
         <v>2000</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="15"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="2"/>
       <c r="J30" s="4">
         <v>2011</v>
       </c>
-      <c r="K30" s="25"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="17"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="11"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="15"/>
+      <c r="R30" s="9"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -3313,31 +3300,35 @@
         <v>2014</v>
       </c>
       <c r="W30" s="2"/>
-      <c r="X30" s="15"/>
+      <c r="X30" s="9"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="25"/>
-      <c r="AG30" s="25"/>
-      <c r="AH30" s="25"/>
-      <c r="AI30" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ30" s="25"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ30" s="17"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="7"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="7"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="2">
@@ -3349,24 +3340,24 @@
       <c r="F32" s="4">
         <v>2000</v>
       </c>
-      <c r="G32" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="H32" s="15"/>
+      <c r="G32" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="9"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N32" s="25"/>
-      <c r="O32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N32" s="17"/>
+      <c r="O32" s="11"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="15"/>
+      <c r="R32" s="9"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="4">
@@ -3376,25 +3367,27 @@
         <v>2011</v>
       </c>
       <c r="W32" s="2"/>
-      <c r="X32" s="15"/>
+      <c r="X32" s="9"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
-      <c r="AD32" s="15"/>
+      <c r="AD32" s="9"/>
       <c r="AE32" s="2"/>
       <c r="AG32" s="4">
         <v>2012</v>
       </c>
-      <c r="AH32" s="25"/>
-      <c r="AI32" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ32" s="25"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ32" s="17"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="7"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="2">
@@ -3402,18 +3395,18 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="15"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="15"/>
+      <c r="M33" s="9"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="15"/>
+      <c r="O33" s="9"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="20">
+      <c r="R33" s="9"/>
+      <c r="S33" s="13">
         <v>36281</v>
       </c>
       <c r="T33" s="2"/>
@@ -3422,24 +3415,26 @@
         <v>2000</v>
       </c>
       <c r="W33" s="2"/>
-      <c r="X33" s="15"/>
+      <c r="X33" s="9"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
-      <c r="AD33" s="15"/>
+      <c r="AD33" s="9"/>
       <c r="AE33" s="2"/>
       <c r="AG33" s="2"/>
-      <c r="AH33" s="25"/>
+      <c r="AH33" s="17"/>
       <c r="AI33" s="2"/>
-      <c r="AJ33" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>100</v>
+      <c r="AJ33" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="7"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="B34" s="2">
         <v>2012</v>
@@ -3449,99 +3444,103 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="15"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N34" s="25"/>
-      <c r="O34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N34" s="17"/>
+      <c r="O34" s="11"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="15"/>
+      <c r="R34" s="9"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="25"/>
+      <c r="U34" s="17"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
-      <c r="X34" s="15"/>
+      <c r="X34" s="9"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
-      <c r="AD34" s="15"/>
+      <c r="AD34" s="9"/>
       <c r="AE34" s="2"/>
       <c r="AG34" s="2"/>
-      <c r="AH34" s="25"/>
+      <c r="AH34" s="17"/>
       <c r="AI34" s="2"/>
-      <c r="AJ34" s="25"/>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="AJ34" s="17"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="7"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="15">
-        <v>2012</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="17"/>
+      <c r="C35" s="9">
+        <v>2012</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="4">
         <v>2011</v>
       </c>
       <c r="J35" s="4">
         <v>2010</v>
       </c>
-      <c r="K35" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="N35" s="25"/>
-      <c r="O35" s="17"/>
+      <c r="K35" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="N35" s="17"/>
+      <c r="O35" s="11"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="15"/>
+      <c r="R35" s="9"/>
       <c r="S35" s="4">
         <v>2000</v>
       </c>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="11"/>
       <c r="Y35" s="4">
         <v>2006</v>
       </c>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="25"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
       <c r="AB35" s="4">
         <v>2016</v>
       </c>
       <c r="AC35" s="4">
         <v>2014</v>
       </c>
-      <c r="AD35" s="27">
+      <c r="AD35" s="19">
         <v>2016</v>
       </c>
-      <c r="AE35" s="25"/>
-      <c r="AG35" s="25"/>
-      <c r="AH35" s="25"/>
-      <c r="AI35" s="25"/>
-      <c r="AJ35" s="25"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="AE35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="7"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="2">
@@ -3549,39 +3548,42 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="15"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2">
         <v>2008</v>
       </c>
       <c r="L36" s="2"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="17"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="11"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="15"/>
+      <c r="R36" s="9"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
-      <c r="X36" s="15"/>
+      <c r="X36" s="9"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="25"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="17"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
-      <c r="AI36" s="25"/>
+      <c r="AI36" s="17"/>
       <c r="AJ36" s="2"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="AM36" s="9">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="2">
@@ -3591,19 +3593,19 @@
       <c r="G37" s="4">
         <v>2001</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2">
         <v>2005</v>
       </c>
       <c r="L37" s="2"/>
-      <c r="M37" s="15"/>
+      <c r="M37" s="9"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="15"/>
+      <c r="O37" s="9"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="15"/>
+      <c r="R37" s="9"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -3611,7 +3613,7 @@
         <v>2001</v>
       </c>
       <c r="W37" s="2"/>
-      <c r="X37" s="15"/>
+      <c r="X37" s="9"/>
       <c r="Y37" s="4">
         <v>2006</v>
       </c>
@@ -3619,26 +3621,30 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="25"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="17"/>
       <c r="AG37" s="2"/>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="25"/>
-      <c r="AJ37" s="25"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="7"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="11">
         <v>2016</v>
       </c>
       <c r="S38" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="7"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="2">
@@ -3650,17 +3656,17 @@
       <c r="G39" s="4">
         <v>2001</v>
       </c>
-      <c r="H39" s="15"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="25"/>
+      <c r="K39" s="17"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="17"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="11"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="15"/>
+      <c r="R39" s="9"/>
       <c r="S39" s="4">
         <v>2005</v>
       </c>
@@ -3670,7 +3676,7 @@
         <v>2012</v>
       </c>
       <c r="W39" s="2"/>
-      <c r="X39" s="15"/>
+      <c r="X39" s="9"/>
       <c r="Y39" s="4">
         <v>2004</v>
       </c>
@@ -3678,111 +3684,128 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="25"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="17"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="25"/>
-      <c r="AJ39" s="25"/>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="7"/>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="11">
         <v>2015</v>
       </c>
       <c r="S40" s="2"/>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="7"/>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="17">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="34" t="s">
+      <c r="C41" s="11">
+        <v>2012</v>
+      </c>
+      <c r="AM41" s="7">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="11">
         <v>2017</v>
       </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
+      <c r="AM42" s="7">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="C43" s="11"/>
+      <c r="E43" s="8"/>
+      <c r="AM43" s="7">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="4">
         <v>2015</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="9">
         <v>2012</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="4">
         <v>2004</v>
       </c>
-      <c r="H44" s="15"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="25"/>
+      <c r="K44" s="17"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="15"/>
+      <c r="M44" s="9"/>
       <c r="N44" s="4">
         <v>2005</v>
       </c>
-      <c r="O44" s="27">
+      <c r="O44" s="19">
         <v>2005</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="15"/>
+      <c r="R44" s="9"/>
       <c r="S44" s="4">
         <v>2002</v>
       </c>
       <c r="T44" s="2"/>
-      <c r="U44" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="V44" s="25"/>
+      <c r="U44" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="V44" s="17"/>
       <c r="W44" s="2"/>
-      <c r="X44" s="15"/>
+      <c r="X44" s="9"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
-      <c r="AD44" s="15"/>
+      <c r="AD44" s="9"/>
       <c r="AE44" s="2"/>
       <c r="AG44" s="2"/>
       <c r="AH44" s="4">
         <v>2010</v>
       </c>
       <c r="AI44" s="2"/>
-      <c r="AJ44" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
+      <c r="AJ44" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="7"/>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="11">
         <v>2018</v>
       </c>
       <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="AL45" s="2"/>
+      <c r="AM45" s="7"/>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="2">
@@ -3792,17 +3815,17 @@
       <c r="G46" s="4">
         <v>2001</v>
       </c>
-      <c r="H46" s="17"/>
+      <c r="H46" s="11"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="15"/>
+      <c r="M46" s="9"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="15"/>
+      <c r="O46" s="9"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="15"/>
+      <c r="R46" s="9"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
@@ -3810,7 +3833,7 @@
         <v>2001</v>
       </c>
       <c r="W46" s="2"/>
-      <c r="X46" s="15"/>
+      <c r="X46" s="9"/>
       <c r="Y46" s="4">
         <v>2004</v>
       </c>
@@ -3818,11 +3841,11 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
-      <c r="AD46" s="15"/>
+      <c r="AD46" s="9"/>
       <c r="AE46" s="2"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="25" t="s">
-        <v>86</v>
+      <c r="AH46" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="AI46" s="4">
         <v>2003</v>
@@ -3830,29 +3853,32 @@
       <c r="AJ46" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="AM46" s="9">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="17"/>
+      <c r="C47" s="11"/>
       <c r="F47" s="4">
         <v>2003</v>
       </c>
       <c r="G47" s="4">
         <v>2002</v>
       </c>
-      <c r="H47" s="17"/>
+      <c r="H47" s="11"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="15"/>
+      <c r="M47" s="9"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="15"/>
+      <c r="O47" s="9"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="15"/>
+      <c r="R47" s="9"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
@@ -3860,7 +3886,7 @@
         <v>2004</v>
       </c>
       <c r="W47" s="2"/>
-      <c r="X47" s="15"/>
+      <c r="X47" s="9"/>
       <c r="Y47" s="4">
         <v>2003</v>
       </c>
@@ -3868,17 +3894,20 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="15"/>
+      <c r="AD47" s="9"/>
       <c r="AE47" s="2"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI47" s="25"/>
+      <c r="AH47" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI47" s="17"/>
       <c r="AJ47" s="2"/>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="AM47" s="9">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B48" s="2">
@@ -3886,25 +3915,25 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="17"/>
+      <c r="H48" s="11"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="15"/>
+      <c r="M48" s="9"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="15"/>
+      <c r="O48" s="9"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="15"/>
+      <c r="R48" s="9"/>
       <c r="S48" s="4">
         <v>2001</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="11"/>
       <c r="Y48" s="4">
         <v>2002</v>
       </c>
@@ -3912,24 +3941,29 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
-      <c r="AD48" s="15"/>
+      <c r="AD48" s="9"/>
       <c r="AE48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="7"/>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="11"/>
       <c r="S49" s="4">
         <v>2003</v>
       </c>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="AM49" s="7">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B50" s="2">
@@ -3937,29 +3971,29 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="17"/>
+      <c r="H50" s="11"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="15"/>
+      <c r="M50" s="9"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="15"/>
+      <c r="O50" s="9"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="15"/>
+      <c r="R50" s="9"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
-      <c r="X50" s="15"/>
+      <c r="X50" s="9"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
-      <c r="AD50" s="15"/>
+      <c r="AD50" s="9"/>
       <c r="AE50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
@@ -3967,71 +4001,80 @@
         <v>2003</v>
       </c>
       <c r="AJ50" s="2"/>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="AM50" s="19">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="9">
         <v>2012</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="17"/>
+      <c r="H51" s="11"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="15"/>
+      <c r="M51" s="9"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="15"/>
+      <c r="O51" s="9"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="15"/>
+      <c r="R51" s="9"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="4">
         <v>2000</v>
       </c>
-      <c r="W51" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="X51" s="15"/>
+      <c r="W51" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="X51" s="9"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
-      <c r="AD51" s="15"/>
+      <c r="AD51" s="9"/>
       <c r="AE51" s="2"/>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="4">
         <v>2003</v>
       </c>
-      <c r="AJ51" s="25"/>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
+      <c r="AJ51" s="17"/>
+      <c r="AM51" s="9">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="11">
         <v>2013</v>
       </c>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+      <c r="AM52" s="7">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="11">
         <v>2015</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="4">
         <v>2001</v>
       </c>
-      <c r="H53" s="17"/>
+      <c r="H53" s="11"/>
       <c r="I53" s="4">
         <v>2006</v>
       </c>
@@ -4042,24 +4085,24 @@
         <v>2001</v>
       </c>
       <c r="L53" s="2"/>
-      <c r="M53" s="15"/>
+      <c r="M53" s="9"/>
       <c r="N53" s="4">
         <v>2007</v>
       </c>
-      <c r="O53" s="27">
+      <c r="O53" s="19">
         <v>2007</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="15"/>
+      <c r="R53" s="9"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="4">
         <v>2003</v>
       </c>
-      <c r="W53" s="25"/>
-      <c r="X53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="11"/>
       <c r="Y53" s="4">
         <v>2005</v>
       </c>
@@ -4071,56 +4114,63 @@
       </c>
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
-      <c r="AD53" s="15"/>
+      <c r="AD53" s="9"/>
       <c r="AE53" s="2"/>
       <c r="AG53" s="4">
         <v>2006</v>
       </c>
-      <c r="AH53" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI53" s="25" t="s">
-        <v>103</v>
+      <c r="AH53" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI53" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="AJ53" s="2"/>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+      <c r="AM53" s="19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM54" s="7"/>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
+      <c r="AM55" s="7"/>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="17"/>
+      <c r="C56" s="11"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="11"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="25"/>
+      <c r="K56" s="17"/>
       <c r="L56" s="4">
         <v>2004</v>
       </c>
-      <c r="M56" s="27">
+      <c r="M56" s="19">
         <v>2004</v>
       </c>
-      <c r="N56" s="25"/>
-      <c r="O56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="11"/>
       <c r="P56" s="4">
         <v>2017</v>
       </c>
       <c r="Q56" s="4">
         <v>2017</v>
       </c>
-      <c r="R56" s="17"/>
+      <c r="R56" s="11"/>
       <c r="S56" s="2"/>
-      <c r="T56" s="25"/>
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="25"/>
-      <c r="X56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="11"/>
       <c r="Y56" s="4">
         <v>2006</v>
       </c>
@@ -4132,15 +4182,17 @@
       </c>
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
-      <c r="AD56" s="15"/>
-      <c r="AE56" s="25"/>
-      <c r="AG56" s="25"/>
-      <c r="AH56" s="25"/>
-      <c r="AI56" s="25"/>
-      <c r="AJ56" s="25"/>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="17"/>
+      <c r="AG56" s="17"/>
+      <c r="AH56" s="17"/>
+      <c r="AI56" s="17"/>
+      <c r="AJ56" s="17"/>
+      <c r="AL56" s="2"/>
+      <c r="AM56" s="7"/>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="2">
@@ -4149,94 +4201,104 @@
       <c r="D57" s="2">
         <v>2012</v>
       </c>
-      <c r="F57" s="25" t="s">
-        <v>74</v>
+      <c r="F57" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="K57" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L57" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="M57" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N57" s="25"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q57" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="R57" s="17" t="s">
-        <v>74</v>
+      <c r="H57" s="11"/>
+      <c r="I57" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N57" s="17"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q57" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R57" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="S57" s="2"/>
-      <c r="T57" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="U57" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="V57" s="25" t="s">
-        <v>86</v>
+      <c r="T57" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="U57" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="V57" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="W57" s="2"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z57" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA57" s="25" t="s">
-        <v>97</v>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z57" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA57" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
-      <c r="AD57" s="15"/>
-      <c r="AE57" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG57" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH57" s="25"/>
-      <c r="AI57" s="25"/>
-      <c r="AJ57" s="25"/>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B59" s="39" t="s">
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG57" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH57" s="17"/>
+      <c r="AI57" s="17"/>
+      <c r="AJ57" s="17"/>
+      <c r="AL57" s="4">
+        <v>2013</v>
+      </c>
+      <c r="AM57" s="9">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM58" s="7"/>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B59" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" s="40"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="33"/>
+      <c r="AM59" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CB13CC-387A-4B5E-A985-9B8B8A6EF410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66394F1-6FC8-455D-AF2F-A5350D9F68D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
@@ -614,7 +614,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -649,21 +649,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,8 +658,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1056,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="36">
+      <c r="C4" s="31">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
@@ -1075,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="36">
+      <c r="C5" s="31">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
@@ -1094,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="36">
+      <c r="C6" s="31">
         <v>6</v>
       </c>
       <c r="D6" s="2"/>
@@ -1113,7 +1112,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="36">
+      <c r="C7" s="31">
         <v>9</v>
       </c>
       <c r="D7" s="2"/>
@@ -1130,7 +1129,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="36">
+      <c r="C8" s="31">
         <v>7</v>
       </c>
       <c r="D8" s="2"/>
@@ -1148,7 +1147,7 @@
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="31">
         <v>20</v>
       </c>
       <c r="D9" s="2"/>
@@ -1167,7 +1166,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="36">
+      <c r="C10" s="31">
         <v>4</v>
       </c>
       <c r="D10" s="2"/>
@@ -1186,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="36">
+      <c r="C11" s="31">
         <v>13</v>
       </c>
       <c r="D11" s="2"/>
@@ -1204,7 +1203,7 @@
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="31">
         <v>17</v>
       </c>
       <c r="D12" s="2"/>
@@ -1220,7 +1219,7 @@
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="32">
         <v>38</v>
       </c>
       <c r="D13" s="2"/>
@@ -1238,7 +1237,7 @@
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="33">
         <v>25</v>
       </c>
       <c r="D14" s="2"/>
@@ -1257,7 +1256,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="36">
+      <c r="C15" s="31">
         <v>15</v>
       </c>
       <c r="D15" s="2"/>
@@ -1275,7 +1274,7 @@
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="32">
         <v>40</v>
       </c>
       <c r="D16" s="4"/>
@@ -1292,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="36">
+      <c r="C17" s="31">
         <v>8</v>
       </c>
       <c r="D17" s="2"/>
@@ -1310,7 +1309,7 @@
       <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="33">
         <v>30</v>
       </c>
       <c r="D18" s="2"/>
@@ -1325,7 +1324,7 @@
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="34">
         <v>47</v>
       </c>
       <c r="D19" s="2"/>
@@ -1340,7 +1339,7 @@
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="33">
         <v>24</v>
       </c>
       <c r="D20" s="2"/>
@@ -1353,7 +1352,7 @@
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="33">
         <v>28</v>
       </c>
       <c r="D21" s="2"/>
@@ -1371,7 +1370,7 @@
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="33">
         <v>29</v>
       </c>
       <c r="D22" s="2"/>
@@ -1387,7 +1386,7 @@
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="33">
         <v>26</v>
       </c>
       <c r="D23" s="4"/>
@@ -1405,7 +1404,7 @@
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="34">
         <v>51</v>
       </c>
       <c r="D24" s="2"/>
@@ -1425,7 +1424,7 @@
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="35">
         <v>31</v>
       </c>
       <c r="D25" s="4"/>
@@ -1441,7 +1440,7 @@
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="34">
         <v>50</v>
       </c>
       <c r="D26" s="2"/>
@@ -1456,7 +1455,7 @@
       <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="39"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="19"/>
@@ -1466,7 +1465,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="41"/>
+      <c r="C28" s="36"/>
       <c r="F28" s="7"/>
       <c r="H28" s="7"/>
     </row>
@@ -1474,7 +1473,7 @@
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="41"/>
+      <c r="C29" s="36"/>
       <c r="F29" s="7"/>
       <c r="H29" s="7"/>
     </row>
@@ -1483,7 +1482,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="36">
+      <c r="C30" s="31">
         <v>2</v>
       </c>
       <c r="D30" s="2"/>
@@ -1501,7 +1500,7 @@
       <c r="A31" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="33">
         <v>21</v>
       </c>
       <c r="F31" s="7"/>
@@ -1516,7 +1515,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="36">
+      <c r="C32" s="31">
         <v>5</v>
       </c>
       <c r="D32" s="2"/>
@@ -1535,7 +1534,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="36">
+      <c r="C33" s="31">
         <v>12</v>
       </c>
       <c r="D33" s="2"/>
@@ -1554,7 +1553,7 @@
         <v>98</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="36">
+      <c r="C34" s="31">
         <v>10</v>
       </c>
       <c r="D34" s="2"/>
@@ -1573,7 +1572,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="36">
+      <c r="C35" s="31">
         <v>18</v>
       </c>
       <c r="D35" s="2"/>
@@ -1592,7 +1591,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="37">
+      <c r="C36" s="32">
         <v>39</v>
       </c>
       <c r="D36" s="2"/>
@@ -1609,7 +1608,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="36">
+      <c r="C37" s="31">
         <v>14</v>
       </c>
       <c r="D37" s="2"/>
@@ -1625,7 +1624,7 @@
       <c r="A38" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="33">
         <v>27</v>
       </c>
       <c r="D38" s="2"/>
@@ -1641,7 +1640,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="36">
+      <c r="C39" s="31">
         <v>16</v>
       </c>
       <c r="D39" s="2"/>
@@ -1659,7 +1658,7 @@
       <c r="A40" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="32">
         <v>35</v>
       </c>
       <c r="D40" s="2"/>
@@ -1672,7 +1671,7 @@
       <c r="A41" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="32">
         <v>33</v>
       </c>
       <c r="D41" s="4"/>
@@ -1683,7 +1682,7 @@
       <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="39">
+      <c r="C42" s="34">
         <v>54</v>
       </c>
       <c r="D42" s="4"/>
@@ -1694,7 +1693,7 @@
       <c r="A43" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="39">
+      <c r="C43" s="34">
         <v>57</v>
       </c>
       <c r="D43" s="4"/>
@@ -1706,7 +1705,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="36">
+      <c r="C44" s="31">
         <v>19</v>
       </c>
       <c r="D44" s="2"/>
@@ -1724,7 +1723,7 @@
       <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="32">
         <v>36</v>
       </c>
       <c r="D45" s="2"/>
@@ -1737,7 +1736,7 @@
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="38">
+      <c r="C46" s="33">
         <v>22</v>
       </c>
       <c r="D46" s="2"/>
@@ -1753,7 +1752,7 @@
       <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="34">
         <v>43</v>
       </c>
       <c r="D47" s="2"/>
@@ -1766,7 +1765,7 @@
       <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="39">
+      <c r="C48" s="34">
         <v>53</v>
       </c>
       <c r="D48" s="4"/>
@@ -1784,7 +1783,7 @@
       <c r="A49" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="34">
         <v>48</v>
       </c>
       <c r="D49" s="2"/>
@@ -1798,7 +1797,7 @@
       <c r="A50" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="34">
         <v>56</v>
       </c>
       <c r="D50" s="2"/>
@@ -1816,7 +1815,7 @@
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="34">
         <v>46</v>
       </c>
       <c r="D51" s="2"/>
@@ -1832,7 +1831,7 @@
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="34">
         <v>41</v>
       </c>
       <c r="D52" s="2"/>
@@ -1843,7 +1842,7 @@
       <c r="A53" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="34">
         <v>45</v>
       </c>
       <c r="D53" s="2"/>
@@ -1855,7 +1854,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="41"/>
+      <c r="C54" s="36"/>
       <c r="F54" s="7"/>
       <c r="H54" s="7"/>
     </row>
@@ -1863,7 +1862,7 @@
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="41"/>
+      <c r="C55" s="36"/>
       <c r="F55" s="7"/>
       <c r="H55" s="7"/>
     </row>
@@ -1872,7 +1871,7 @@
         <v>44</v>
       </c>
       <c r="B56" s="5"/>
-      <c r="C56" s="38">
+      <c r="C56" s="33">
         <v>23</v>
       </c>
       <c r="D56" s="4"/>
@@ -1886,7 +1885,7 @@
         <v>45</v>
       </c>
       <c r="B57" s="5"/>
-      <c r="C57" s="36">
+      <c r="C57" s="31">
         <v>11</v>
       </c>
       <c r="D57" s="2"/>
@@ -1900,27 +1899,9 @@
       </c>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-    </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="42"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1976,62 +1957,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="32" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
       <c r="S1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="32" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="31"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="38"/>
       <c r="AE1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="AG1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
       <c r="AL1" s="1" t="s">
         <v>54</v>
       </c>
@@ -4276,29 +4257,29 @@
       <c r="AM58" s="7"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="35" t="s">
+      <c r="C59" s="40"/>
+      <c r="D59" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="33"/>
+      <c r="E59" s="40"/>
       <c r="AM59" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:R1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66394F1-6FC8-455D-AF2F-A5350D9F68D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEE112D-5FF1-4321-9D00-F3BE1C9C748A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="146">
   <si>
     <t>United States</t>
   </si>
@@ -457,7 +457,25 @@
     <t>Policy Rates</t>
   </si>
   <si>
-    <t>Stock Index</t>
+    <t xml:space="preserve">Currency </t>
+  </si>
+  <si>
+    <t>Rates</t>
+  </si>
+  <si>
+    <t>Currency Rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Yahoo y </t>
+  </si>
+  <si>
+    <t>Investing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock </t>
+  </si>
+  <si>
+    <t>Indices</t>
   </si>
 </sst>
 </file>
@@ -614,7 +632,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -658,24 +676,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -992,11 +1012,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K25" sqref="K25"/>
+      <selection pane="topRight" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,10 +1026,11 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1032,17 +1053,26 @@
         <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="43" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="7"/>
       <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1050,7 +1080,7 @@
       <c r="F3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1068,8 +1098,9 @@
         <v>2012</v>
       </c>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1087,8 +1118,9 @@
         <v>41548</v>
       </c>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1106,8 +1138,9 @@
         <v>2008</v>
       </c>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1123,8 +1156,9 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1142,8 +1176,9 @@
         <v>2008</v>
       </c>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1195,9 @@
         <v>41671</v>
       </c>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1179,8 +1215,9 @@
         <v>2008</v>
       </c>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1198,8 +1235,9 @@
         <v>41395</v>
       </c>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1214,8 +1252,9 @@
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -1232,8 +1271,9 @@
       <c r="I13" s="4">
         <v>2001</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1250,8 +1290,9 @@
         <v>2006</v>
       </c>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1269,8 +1310,9 @@
         <v>2012</v>
       </c>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1285,8 +1327,9 @@
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1304,8 +1347,9 @@
         <v>2012</v>
       </c>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
@@ -1319,8 +1363,9 @@
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1334,8 +1379,9 @@
       <c r="I19" s="4">
         <v>2001</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -1347,8 +1393,9 @@
       <c r="F20" s="9"/>
       <c r="H20" s="7"/>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1365,8 +1412,9 @@
       <c r="I21" s="13">
         <v>36404</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1381,8 +1429,9 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1399,8 +1448,9 @@
         <v>2012</v>
       </c>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1419,8 +1469,9 @@
       <c r="I24" s="4">
         <v>2001</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1435,8 +1486,9 @@
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1450,8 +1502,9 @@
       <c r="I26" s="4">
         <v>2010</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
@@ -1463,13 +1516,14 @@
       <c r="I27" s="4">
         <v>2007</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="36"/>
       <c r="F28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -1477,7 +1531,7 @@
       <c r="F29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -1495,8 +1549,9 @@
         <v>2012</v>
       </c>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>24</v>
       </c>
@@ -1509,8 +1564,9 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1584,9 @@
         <v>2012</v>
       </c>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -1547,8 +1604,9 @@
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
@@ -1566,8 +1624,9 @@
         <v>2012</v>
       </c>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
@@ -1585,8 +1644,9 @@
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -1602,8 +1662,9 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -1619,8 +1680,9 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>31</v>
       </c>
@@ -1634,8 +1696,9 @@
       <c r="F38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
@@ -1653,8 +1716,9 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>33</v>
       </c>
@@ -1666,8 +1730,9 @@
       <c r="F40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>49</v>
       </c>
@@ -1677,8 +1742,11 @@
       <c r="D41" s="4"/>
       <c r="F41" s="7"/>
       <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="13">
+        <v>36192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
@@ -1688,8 +1756,9 @@
       <c r="D42" s="4"/>
       <c r="F42" s="7"/>
       <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>35</v>
       </c>
@@ -1699,8 +1768,9 @@
       <c r="D43" s="4"/>
       <c r="F43" s="7"/>
       <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -1718,8 +1788,9 @@
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
@@ -1731,8 +1802,9 @@
       <c r="F45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
@@ -1747,8 +1819,9 @@
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
@@ -1760,8 +1833,11 @@
       <c r="F47" s="9"/>
       <c r="H47" s="7"/>
       <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
@@ -1778,8 +1854,11 @@
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>40</v>
       </c>
@@ -1792,8 +1871,9 @@
       </c>
       <c r="F49" s="7"/>
       <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>41</v>
       </c>
@@ -1810,8 +1890,9 @@
       <c r="I50" s="4">
         <v>2001</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
@@ -1826,8 +1907,9 @@
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
@@ -1837,8 +1919,9 @@
       <c r="D52" s="2"/>
       <c r="F52" s="7"/>
       <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>43</v>
       </c>
@@ -1852,13 +1935,14 @@
       <c r="I53" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="36"/>
       <c r="F54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -1866,7 +1950,7 @@
       <c r="F55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>44</v>
       </c>
@@ -1879,8 +1963,11 @@
       <c r="F56" s="23"/>
       <c r="H56" s="7"/>
       <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
@@ -1898,8 +1985,9 @@
         <v>2012</v>
       </c>
       <c r="I57" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
     </row>
@@ -1911,11 +1999,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
-  <dimension ref="A1:AM59"/>
+  <dimension ref="A1:AN59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,73 +2042,77 @@
     <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11.7109375" customWidth="1"/>
+    <col min="40" max="40" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="38"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="37" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="41"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="38"/>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
       <c r="M1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="39" t="s">
         <v>111</v>
       </c>
       <c r="O1" s="40"/>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
       <c r="S1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
       <c r="X1" s="38"/>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
       <c r="AD1" s="38"/>
       <c r="AE1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AG1" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
       <c r="AL1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="AM1" s="20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN1" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -2129,8 +2221,11 @@
       <c r="AM2" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN2" s="44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>51</v>
       </c>
@@ -2228,8 +2323,11 @@
         <v>136</v>
       </c>
       <c r="AM3" s="7"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -2271,8 +2369,9 @@
       <c r="AJ4" s="17"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="7"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN4" s="2"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -2327,8 +2426,9 @@
       <c r="AJ5" s="17"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="7"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN5" s="2"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2470,9 @@
       <c r="AJ6" s="17"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="7"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN6" s="2"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -2413,8 +2514,9 @@
       <c r="AJ7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="7"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN7" s="2"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2456,8 +2558,9 @@
       <c r="AJ8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="7"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN8" s="2"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -2501,8 +2604,9 @@
       <c r="AJ9" s="17"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="7"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN9" s="2"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -2544,8 +2648,9 @@
       <c r="AJ10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="7"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN10" s="2"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
@@ -2593,8 +2698,9 @@
       <c r="AJ11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="7"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN11" s="2"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -2637,8 +2743,9 @@
       </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="7"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN12" s="2"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2680,8 +2787,9 @@
       <c r="AM13" s="19">
         <v>2001</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN13" s="2"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -2729,8 +2837,9 @@
       <c r="AM14" s="9">
         <v>1999</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN14" s="2"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -2772,8 +2881,9 @@
       <c r="AJ15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="7"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN15" s="2"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
@@ -2786,8 +2896,9 @@
       <c r="V16" s="18"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="7"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN16" s="2"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
@@ -2829,8 +2940,9 @@
       <c r="AJ17" s="17"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="7"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN17" s="2"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>21</v>
       </c>
@@ -2841,8 +2953,9 @@
       <c r="O18" s="16"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="7"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN18" s="2"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>17</v>
       </c>
@@ -2883,8 +2996,9 @@
       <c r="AM19" s="19">
         <v>2001</v>
       </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN19" s="2"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>12</v>
       </c>
@@ -2923,8 +3037,9 @@
       <c r="AJ20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="7"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN20" s="2"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>16</v>
       </c>
@@ -2964,8 +3079,9 @@
       <c r="AM21" s="10">
         <v>36404</v>
       </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN21" s="2"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
@@ -3010,8 +3126,9 @@
       <c r="AJ22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="7"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN22" s="2"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
@@ -3057,8 +3174,9 @@
       <c r="AJ23" s="17"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="7"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN23" s="2"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
@@ -3106,8 +3224,9 @@
       <c r="AM24" s="19">
         <v>2001</v>
       </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN24" s="2"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>13</v>
       </c>
@@ -3146,8 +3265,9 @@
       <c r="AJ25" s="17"/>
       <c r="AL25" s="2"/>
       <c r="AM25" s="7"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN25" s="2"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>18</v>
       </c>
@@ -3188,8 +3308,9 @@
       <c r="AM26" s="19">
         <v>2010</v>
       </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN26" s="2"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>69</v>
       </c>
@@ -3236,18 +3357,19 @@
         <v>2007</v>
       </c>
       <c r="AM27" s="7"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN27" s="2"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AM28" s="7"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="8"/>
       <c r="AM29" s="7"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
@@ -3297,8 +3419,9 @@
       <c r="AJ30" s="17"/>
       <c r="AL30" s="2"/>
       <c r="AM30" s="7"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN30" s="2"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>24</v>
       </c>
@@ -3307,8 +3430,9 @@
       </c>
       <c r="AL31" s="2"/>
       <c r="AM31" s="7"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN31" s="2"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>25</v>
       </c>
@@ -3366,8 +3490,9 @@
       <c r="AJ32" s="17"/>
       <c r="AL32" s="2"/>
       <c r="AM32" s="7"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN32" s="2"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>26</v>
       </c>
@@ -3412,8 +3537,9 @@
       </c>
       <c r="AL33" s="2"/>
       <c r="AM33" s="7"/>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN33" s="2"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>98</v>
       </c>
@@ -3459,8 +3585,9 @@
       <c r="AJ34" s="17"/>
       <c r="AL34" s="2"/>
       <c r="AM34" s="7"/>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN34" s="2"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>28</v>
       </c>
@@ -3519,8 +3646,9 @@
       <c r="AJ35" s="17"/>
       <c r="AL35" s="2"/>
       <c r="AM35" s="7"/>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN35" s="2"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>29</v>
       </c>
@@ -3562,8 +3690,9 @@
       <c r="AM36" s="9">
         <v>1999</v>
       </c>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN36" s="2"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>30</v>
       </c>
@@ -3610,8 +3739,9 @@
       <c r="AJ37" s="17"/>
       <c r="AL37" s="2"/>
       <c r="AM37" s="7"/>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN37" s="2"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>31</v>
       </c>
@@ -3623,8 +3753,9 @@
       </c>
       <c r="AL38" s="2"/>
       <c r="AM38" s="7"/>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN38" s="2"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>32</v>
       </c>
@@ -3673,8 +3804,9 @@
       <c r="AJ39" s="17"/>
       <c r="AL39" s="2"/>
       <c r="AM39" s="7"/>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN39" s="2"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>33</v>
       </c>
@@ -3684,8 +3816,9 @@
       <c r="S40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" s="7"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN40" s="2"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>49</v>
       </c>
@@ -3695,8 +3828,11 @@
       <c r="AM41" s="7">
         <v>2004</v>
       </c>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN41" s="13">
+        <v>36192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>34</v>
       </c>
@@ -3706,8 +3842,9 @@
       <c r="AM42" s="7">
         <v>2001</v>
       </c>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN42" s="2"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>35</v>
       </c>
@@ -3716,8 +3853,9 @@
       <c r="AM43" s="7">
         <v>2010</v>
       </c>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN43" s="2"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>48</v>
       </c>
@@ -3773,8 +3911,9 @@
       </c>
       <c r="AL44" s="2"/>
       <c r="AM44" s="7"/>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN44" s="2"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>36</v>
       </c>
@@ -3784,8 +3923,9 @@
       <c r="S45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" s="7"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN45" s="2"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>37</v>
       </c>
@@ -3837,8 +3977,9 @@
       <c r="AM46" s="9">
         <v>1999</v>
       </c>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN46" s="2"/>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>38</v>
       </c>
@@ -3886,8 +4027,11 @@
       <c r="AM47" s="9">
         <v>1999</v>
       </c>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN47" s="4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>39</v>
       </c>
@@ -3930,8 +4074,11 @@
       <c r="AJ48" s="2"/>
       <c r="AL48" s="2"/>
       <c r="AM48" s="7"/>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN48" s="4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>40</v>
       </c>
@@ -3942,8 +4089,9 @@
       <c r="AM49" s="7">
         <v>2011</v>
       </c>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN49" s="2"/>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>41</v>
       </c>
@@ -3985,8 +4133,9 @@
       <c r="AM50" s="19">
         <v>2001</v>
       </c>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN50" s="2"/>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>47</v>
       </c>
@@ -4032,8 +4181,9 @@
       <c r="AM51" s="9">
         <v>1999</v>
       </c>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN51" s="2"/>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>42</v>
       </c>
@@ -4043,8 +4193,9 @@
       <c r="AM52" s="7">
         <v>1999</v>
       </c>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN52" s="2"/>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>43</v>
       </c>
@@ -4110,17 +4261,18 @@
       <c r="AM53" s="19">
         <v>2000</v>
       </c>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN53" s="2"/>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AM54" s="7"/>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>61</v>
       </c>
       <c r="AM55" s="7"/>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>44</v>
       </c>
@@ -4171,8 +4323,11 @@
       <c r="AJ56" s="17"/>
       <c r="AL56" s="2"/>
       <c r="AM56" s="7"/>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN56" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>45</v>
       </c>
@@ -4252,12 +4407,13 @@
       <c r="AM57" s="9">
         <v>1999</v>
       </c>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN57" s="2"/>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AM58" s="7"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B59" s="39" t="s">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B59" s="41" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="40"/>
@@ -4269,17 +4425,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEE112D-5FF1-4321-9D00-F3BE1C9C748A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFD5CBE-A183-4671-B18D-8314D109E41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
     <sheet name="Detailed indices" sheetId="3" r:id="rId2"/>
-    <sheet name="Sorted countries" sheetId="2" r:id="rId3"/>
+    <sheet name="ETFs" sheetId="4" r:id="rId3"/>
+    <sheet name="Sorted countries" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="189">
   <si>
     <t>United States</t>
   </si>
@@ -476,6 +477,135 @@
   </si>
   <si>
     <t>Indices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code </t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Biggest/Oldest</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P 500 ETF Trust (SPY)</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>SXR8.DE</t>
+  </si>
+  <si>
+    <t>iShares Core S&amp;P 500 UCITS ETF</t>
+  </si>
+  <si>
+    <t>EWJ</t>
+  </si>
+  <si>
+    <t>iShares MSCI Japan ETF</t>
+  </si>
+  <si>
+    <t>iShares MSCI Japan EUR Hedged UCITS ETF (Acc)</t>
+  </si>
+  <si>
+    <t>IJPE.L</t>
+  </si>
+  <si>
+    <t>SXRW.DE</t>
+  </si>
+  <si>
+    <t>iShares Core FTSE 100 UCITS ETF</t>
+  </si>
+  <si>
+    <t>EWC</t>
+  </si>
+  <si>
+    <t>iShares MSCI Canada ETF</t>
+  </si>
+  <si>
+    <t>ACC (in EUR if possible)</t>
+  </si>
+  <si>
+    <t>SXR2.DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShares MSCI Canada UCITS ETF </t>
+  </si>
+  <si>
+    <t>ISF.L</t>
+  </si>
+  <si>
+    <t>EWQ</t>
+  </si>
+  <si>
+    <t>iShares MSCI France ETF</t>
+  </si>
+  <si>
+    <t>CAC.PA</t>
+  </si>
+  <si>
+    <t>Lyxor CAC 40 (DR) UCITS ETF</t>
+  </si>
+  <si>
+    <t>Xtrackers Switzerland UCITS ETF</t>
+  </si>
+  <si>
+    <t>XSMI.MI</t>
+  </si>
+  <si>
+    <t>EWL</t>
+  </si>
+  <si>
+    <t>iShares MSCI Switzerland ETF</t>
+  </si>
+  <si>
+    <t>Other option</t>
+  </si>
+  <si>
+    <t>EWU</t>
+  </si>
+  <si>
+    <t>iShares MSCI United Kingdom ETF</t>
+  </si>
+  <si>
+    <t>EWG</t>
+  </si>
+  <si>
+    <t>iShares MSCI Germany ETF </t>
+  </si>
+  <si>
+    <t>DBXD.DE</t>
+  </si>
+  <si>
+    <t>Xtrackers DAX UCITS ETF</t>
+  </si>
+  <si>
+    <t>EWA</t>
+  </si>
+  <si>
+    <t>iShares MSCI Australia ETF</t>
+  </si>
+  <si>
+    <t>IBC6.DE</t>
+  </si>
+  <si>
+    <t>iShares MSCI Australia UCITS ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUR </t>
   </si>
 </sst>
 </file>
@@ -632,7 +762,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -676,26 +806,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1014,9 +1142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L56" sqref="L56"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1183,7 @@
       <c r="I1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2046,69 +2174,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="38"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="41" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="38"/>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="38"/>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="37" t="s">
         <v>111</v>
       </c>
       <c r="O1" s="40"/>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
       <c r="S1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
       <c r="X1" s="38"/>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
       <c r="AD1" s="38"/>
       <c r="AE1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="39" t="s">
+      <c r="AG1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
       <c r="AL1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="AM1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AN1" s="43" t="s">
+      <c r="AN1" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2221,7 +2349,7 @@
       <c r="AM2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AN2" s="44" t="s">
+      <c r="AN2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4413,7 +4541,7 @@
       <c r="AM58" s="7"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="39" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="40"/>
@@ -4425,23 +4553,565 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:R1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC8819E-4998-4293-AE91-8A38F68283E5}">
+  <dimension ref="A1:P57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="H1" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="M1" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4">
+        <v>1999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5">
+        <v>1999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6">
+        <v>1999</v>
+      </c>
+      <c r="H6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6">
+        <v>2010</v>
+      </c>
+      <c r="M6" t="s">
+        <v>168</v>
+      </c>
+      <c r="N6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7">
+        <v>1999</v>
+      </c>
+      <c r="H7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K7">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8">
+        <v>1999</v>
+      </c>
+      <c r="H8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9">
+        <v>1999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10">
+        <v>1999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11">
+        <v>1999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A262C-BF3B-4D84-B60A-8947EF3BFC30}">
   <dimension ref="A1:A48"/>
   <sheetViews>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFD5CBE-A183-4671-B18D-8314D109E41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33845727-74C4-4514-A98D-442D1C251463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="242">
   <si>
     <t>United States</t>
   </si>
@@ -536,9 +536,6 @@
     <t>iShares MSCI Canada ETF</t>
   </si>
   <si>
-    <t>ACC (in EUR if possible)</t>
-  </si>
-  <si>
     <t>SXR2.DE</t>
   </si>
   <si>
@@ -572,9 +569,6 @@
     <t>iShares MSCI Switzerland ETF</t>
   </si>
   <si>
-    <t>Other option</t>
-  </si>
-  <si>
     <t>EWU</t>
   </si>
   <si>
@@ -606,6 +600,171 @@
   </si>
   <si>
     <t xml:space="preserve">EUR </t>
+  </si>
+  <si>
+    <t>EWN</t>
+  </si>
+  <si>
+    <t>iShares MSCI Neatherlands ETF</t>
+  </si>
+  <si>
+    <t>iShares AEX UCITS ETF</t>
+  </si>
+  <si>
+    <t>IAEX.AS</t>
+  </si>
+  <si>
+    <t>EDEN</t>
+  </si>
+  <si>
+    <t>iShares MSCI Denmark ETF</t>
+  </si>
+  <si>
+    <t>SLG-OMXH25.HE</t>
+  </si>
+  <si>
+    <t>Seligson &amp; Co OMX Helsinki 25 ETF</t>
+  </si>
+  <si>
+    <t>EWD</t>
+  </si>
+  <si>
+    <t>iShares MSCI Sweden ETF</t>
+  </si>
+  <si>
+    <t>EWP</t>
+  </si>
+  <si>
+    <t>iShares MSCI Spain ETF</t>
+  </si>
+  <si>
+    <t>XESP.DE</t>
+  </si>
+  <si>
+    <t>Xtrackers Spain UCITS ETF</t>
+  </si>
+  <si>
+    <t>EWH</t>
+  </si>
+  <si>
+    <t>iShares MSCI Hong Kong ETF</t>
+  </si>
+  <si>
+    <t>UBS (Lux) Fund Solutions – MSCI Hong Kong UCITS ETF</t>
+  </si>
+  <si>
+    <t>HKDE.AS</t>
+  </si>
+  <si>
+    <t>iShares MSCI Italy ETF</t>
+  </si>
+  <si>
+    <t>EWI</t>
+  </si>
+  <si>
+    <t>ETFMIB.MI</t>
+  </si>
+  <si>
+    <t>Lyxor FTSE MIB (DR) UCITS ETF</t>
+  </si>
+  <si>
+    <t>ACC in EUR</t>
+  </si>
+  <si>
+    <t>EWS</t>
+  </si>
+  <si>
+    <t>iShares MSCI Singapore ETF</t>
+  </si>
+  <si>
+    <t>XBAS.DE</t>
+  </si>
+  <si>
+    <t>Xtrackers MSCI Singapore UCITS ETF</t>
+  </si>
+  <si>
+    <t>EFNL</t>
+  </si>
+  <si>
+    <t>iShares MSCI Finland ETF</t>
+  </si>
+  <si>
+    <t>EWK</t>
+  </si>
+  <si>
+    <t>iShares MSCI Belgium ETF</t>
+  </si>
+  <si>
+    <t>BEL.BR</t>
+  </si>
+  <si>
+    <t>Lyxor BEL 20 TR (DR) UCITS ETF</t>
+  </si>
+  <si>
+    <t>Alternative option</t>
+  </si>
+  <si>
+    <t>Global X MSCI Norway ETF</t>
+  </si>
+  <si>
+    <t>NORW</t>
+  </si>
+  <si>
+    <t>OBXEDNB.OL</t>
+  </si>
+  <si>
+    <t>DNB OBX ETF</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>EIS</t>
+  </si>
+  <si>
+    <t>iShares MSCI Israel ETF</t>
+  </si>
+  <si>
+    <t>EIRL</t>
+  </si>
+  <si>
+    <t>iShares MSCI Irland ETF</t>
+  </si>
+  <si>
+    <t>ENZL</t>
+  </si>
+  <si>
+    <t>iShares MSCI New Zealand ETF</t>
+  </si>
+  <si>
+    <t>EWO</t>
+  </si>
+  <si>
+    <t>iShares MSCI Austria ETF</t>
+  </si>
+  <si>
+    <t>EXXX.DE</t>
+  </si>
+  <si>
+    <t>iShares ATX UCITS ETF</t>
+  </si>
+  <si>
+    <t>PGAL</t>
+  </si>
+  <si>
+    <t>Global X MSCI Portugal ETF</t>
+  </si>
+  <si>
+    <t>FEZ</t>
+  </si>
+  <si>
+    <t>SPDR EURO STOXX 50 ETF </t>
+  </si>
+  <si>
+    <t>Amundi EURO STOXX 50</t>
+  </si>
+  <si>
+    <t>C50.PA</t>
   </si>
 </sst>
 </file>
@@ -806,19 +965,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2174,62 +2333,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="38"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="37" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="41"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="38"/>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
       <c r="M1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="39" t="s">
         <v>111</v>
       </c>
       <c r="O1" s="40"/>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
       <c r="S1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
       <c r="X1" s="38"/>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
       <c r="AD1" s="38"/>
       <c r="AE1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AG1" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
       <c r="AL1" s="1" t="s">
         <v>54</v>
       </c>
@@ -4541,7 +4700,7 @@
       <c r="AM58" s="7"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="41" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="40"/>
@@ -4553,17 +4712,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4574,60 +4733,78 @@
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="H1" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="M1" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4699,10 +4876,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" t="s">
         <v>154</v>
@@ -4723,7 +4900,7 @@
         <v>2010</v>
       </c>
       <c r="M6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N6" t="s">
         <v>162</v>
@@ -4752,10 +4929,10 @@
         <v>1999</v>
       </c>
       <c r="H7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" t="s">
         <v>166</v>
-      </c>
-      <c r="I7" t="s">
-        <v>167</v>
       </c>
       <c r="J7" t="s">
         <v>151</v>
@@ -4769,10 +4946,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
         <v>169</v>
-      </c>
-      <c r="D8" t="s">
-        <v>170</v>
       </c>
       <c r="E8" t="s">
         <v>154</v>
@@ -4781,10 +4958,10 @@
         <v>1999</v>
       </c>
       <c r="H8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" t="s">
         <v>171</v>
-      </c>
-      <c r="I8" t="s">
-        <v>172</v>
       </c>
       <c r="J8" t="s">
         <v>151</v>
@@ -4798,10 +4975,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" t="s">
         <v>175</v>
-      </c>
-      <c r="D9" t="s">
-        <v>176</v>
       </c>
       <c r="E9" t="s">
         <v>154</v>
@@ -4810,10 +4987,10 @@
         <v>1999</v>
       </c>
       <c r="H9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J9" t="s">
         <v>151</v>
@@ -4827,10 +5004,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
         <v>154</v>
@@ -4839,10 +5016,10 @@
         <v>1999</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J10" t="s">
         <v>151</v>
@@ -4856,10 +5033,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E11" t="s">
         <v>154</v>
@@ -4868,13 +5045,13 @@
         <v>1999</v>
       </c>
       <c r="H11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" t="s">
+        <v>185</v>
+      </c>
+      <c r="J11" t="s">
         <v>186</v>
-      </c>
-      <c r="I11" t="s">
-        <v>187</v>
-      </c>
-      <c r="J11" t="s">
-        <v>188</v>
       </c>
       <c r="K11">
         <v>2010</v>
@@ -4884,98 +5061,410 @@
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12">
+        <v>1999</v>
+      </c>
+      <c r="H12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12">
+        <v>2008</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13">
+        <v>2012</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14">
+        <v>1999</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15">
+        <v>1999</v>
+      </c>
+      <c r="H15" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" t="s">
+        <v>200</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15">
+        <v>2011</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16">
+        <v>1999</v>
+      </c>
+      <c r="H16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" t="s">
+        <v>203</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17">
+        <v>1999</v>
+      </c>
+      <c r="H17" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18">
+        <v>1999</v>
+      </c>
+      <c r="H18" t="s">
+        <v>212</v>
+      </c>
+      <c r="I18" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19">
+        <v>2012</v>
+      </c>
+      <c r="H19" t="s">
+        <v>193</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20">
+        <v>1999</v>
+      </c>
+      <c r="H20" t="s">
+        <v>218</v>
+      </c>
+      <c r="I20" t="s">
+        <v>219</v>
+      </c>
+      <c r="J20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21">
+        <v>2009</v>
+      </c>
+      <c r="M21" t="s">
+        <v>223</v>
+      </c>
+      <c r="N21" t="s">
+        <v>224</v>
+      </c>
+      <c r="O21" t="s">
+        <v>225</v>
+      </c>
+      <c r="P21">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25">
+        <v>1999</v>
+      </c>
+      <c r="H25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I25" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" t="s">
+        <v>151</v>
+      </c>
+      <c r="K25">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" t="s">
+        <v>237</v>
+      </c>
+      <c r="E26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27">
+        <v>2002</v>
+      </c>
+      <c r="H27" t="s">
+        <v>241</v>
+      </c>
+      <c r="I27" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" t="s">
+        <v>151</v>
+      </c>
+      <c r="K27">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33845727-74C4-4514-A98D-442D1C251463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD41B215-D43D-489F-B5DD-227A253FE906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="297">
   <si>
     <t>United States</t>
   </si>
@@ -491,9 +491,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Biggest/Oldest</t>
-  </si>
-  <si>
     <t>EUR</t>
   </si>
   <si>
@@ -668,9 +665,6 @@
     <t>Lyxor FTSE MIB (DR) UCITS ETF</t>
   </si>
   <si>
-    <t>ACC in EUR</t>
-  </si>
-  <si>
     <t>EWS</t>
   </si>
   <si>
@@ -765,6 +759,177 @@
   </si>
   <si>
     <t>C50.PA</t>
+  </si>
+  <si>
+    <t>MCHI</t>
+  </si>
+  <si>
+    <t>iShares MSCI China ETF</t>
+  </si>
+  <si>
+    <t>Xtrackers MSCI China UCITS ETF </t>
+  </si>
+  <si>
+    <t>XCS6.DE</t>
+  </si>
+  <si>
+    <t>EWT</t>
+  </si>
+  <si>
+    <t>iShares MSCI Taiwan ETF</t>
+  </si>
+  <si>
+    <t>IQQT.DE</t>
+  </si>
+  <si>
+    <t>iShares MSCI Taiwan UCITS ETF</t>
+  </si>
+  <si>
+    <t>INDI.MI</t>
+  </si>
+  <si>
+    <t>Lyxor MSCI India UCITS ETF</t>
+  </si>
+  <si>
+    <t>INDA</t>
+  </si>
+  <si>
+    <t>iShares MSCI India ETF</t>
+  </si>
+  <si>
+    <t>LYKRW.SW</t>
+  </si>
+  <si>
+    <t>Lyxor MSCI Korea UCITS ETF</t>
+  </si>
+  <si>
+    <t>XMKO.MI</t>
+  </si>
+  <si>
+    <t>Xtrackers MSCI Korea UCITS ETF</t>
+  </si>
+  <si>
+    <t>EWZ</t>
+  </si>
+  <si>
+    <t>iShares MSCI Brazil ETF</t>
+  </si>
+  <si>
+    <t>XMBR.DE</t>
+  </si>
+  <si>
+    <t>Xtrackers MSCI Brazil UCITS ETF</t>
+  </si>
+  <si>
+    <t>Biggest/Oldest in USD</t>
+  </si>
+  <si>
+    <t>In EUR</t>
+  </si>
+  <si>
+    <t>KSA</t>
+  </si>
+  <si>
+    <t>iShares MSCI Saudi Arabia ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD </t>
+  </si>
+  <si>
+    <t>iShares MSCI Saudi Arabia Capped UCITS ETF</t>
+  </si>
+  <si>
+    <t>IUSW.DE</t>
+  </si>
+  <si>
+    <t>IBC4.DE</t>
+  </si>
+  <si>
+    <t>iShares MSCI South Africa UCITS ETF</t>
+  </si>
+  <si>
+    <t>EZA</t>
+  </si>
+  <si>
+    <t>EWW</t>
+  </si>
+  <si>
+    <t>iShares MSCI Mexico ETF</t>
+  </si>
+  <si>
+    <t>iShares MSCI South Africa ETF</t>
+  </si>
+  <si>
+    <t>XMEX.MI</t>
+  </si>
+  <si>
+    <t>Xtrackers MSCI Mexico UCITS ETF</t>
+  </si>
+  <si>
+    <t>EIDO</t>
+  </si>
+  <si>
+    <t>iShares MSCI Indonesia ETF</t>
+  </si>
+  <si>
+    <t>INDO.PA</t>
+  </si>
+  <si>
+    <t>Lyxor MSCI Indonesia UCITS ETF</t>
+  </si>
+  <si>
+    <t>iShares MSCI Poland UCITS ETF</t>
+  </si>
+  <si>
+    <t>IBCJ.DE</t>
+  </si>
+  <si>
+    <t>EPOL</t>
+  </si>
+  <si>
+    <t>iShares MSCI Poland ETF</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>iShares MSCI Turkey ETF</t>
+  </si>
+  <si>
+    <t>ITKY.AS</t>
+  </si>
+  <si>
+    <t>iShares MSCI Turkey UCITS ETF</t>
+  </si>
+  <si>
+    <t>ECH</t>
+  </si>
+  <si>
+    <t>iShares MSCI Chile ETF</t>
+  </si>
+  <si>
+    <t>GRE.PA</t>
+  </si>
+  <si>
+    <t>Lyxor MSCI Greece UCITS ETF</t>
+  </si>
+  <si>
+    <t>GREK</t>
+  </si>
+  <si>
+    <t>Global X MSCI Greece ETF</t>
+  </si>
+  <si>
+    <t>CZX.DE</t>
+  </si>
+  <si>
+    <t>Expat Czech PX UCITS ETF</t>
+  </si>
+  <si>
+    <t>GXG</t>
+  </si>
+  <si>
+    <t>Global X MSCI Colombia ETF</t>
   </si>
 </sst>
 </file>
@@ -965,19 +1130,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1303,7 +1468,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,7 +2454,7 @@
   <dimension ref="A1:AN59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
@@ -2333,62 +2498,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="38"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="41" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="38"/>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="38"/>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="37" t="s">
         <v>111</v>
       </c>
       <c r="O1" s="40"/>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
       <c r="S1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
       <c r="X1" s="38"/>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
       <c r="AD1" s="38"/>
       <c r="AE1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="39" t="s">
+      <c r="AG1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
       <c r="AL1" s="1" t="s">
         <v>54</v>
       </c>
@@ -4700,7 +4865,7 @@
       <c r="AM58" s="7"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="39" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="40"/>
@@ -4712,17 +4877,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:R1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4732,13 +4897,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC8819E-4998-4293-AE91-8A38F68283E5}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49.140625" bestFit="1" customWidth="1"/>
@@ -4747,26 +4913,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="C1" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="H1" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="M1" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
@@ -4818,25 +4984,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" t="s">
         <v>152</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>153</v>
-      </c>
-      <c r="E4" t="s">
-        <v>154</v>
       </c>
       <c r="F4">
         <v>1999</v>
       </c>
       <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
         <v>155</v>
       </c>
-      <c r="I4" t="s">
-        <v>156</v>
-      </c>
       <c r="J4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K4">
         <v>2010</v>
@@ -4847,25 +5013,25 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
         <v>157</v>
       </c>
-      <c r="D5" t="s">
-        <v>158</v>
-      </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5">
         <v>1999</v>
       </c>
       <c r="H5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K5">
         <v>2010</v>
@@ -4876,34 +5042,34 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s">
         <v>176</v>
       </c>
-      <c r="D6" t="s">
-        <v>177</v>
-      </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6">
         <v>1999</v>
       </c>
       <c r="H6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" t="s">
         <v>161</v>
       </c>
-      <c r="I6" t="s">
-        <v>162</v>
-      </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K6">
         <v>2010</v>
       </c>
       <c r="M6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O6" t="s">
         <v>109</v>
@@ -4917,25 +5083,25 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" t="s">
         <v>163</v>
       </c>
-      <c r="D7" t="s">
-        <v>164</v>
-      </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F7">
         <v>1999</v>
       </c>
       <c r="H7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" t="s">
         <v>165</v>
       </c>
-      <c r="I7" t="s">
-        <v>166</v>
-      </c>
       <c r="J7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K7">
         <v>2010</v>
@@ -4946,25 +5112,25 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" t="s">
         <v>168</v>
       </c>
-      <c r="D8" t="s">
-        <v>169</v>
-      </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8">
         <v>1999</v>
       </c>
       <c r="H8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" t="s">
         <v>170</v>
       </c>
-      <c r="I8" t="s">
-        <v>171</v>
-      </c>
       <c r="J8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K8">
         <v>2008</v>
@@ -4975,25 +5141,25 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" t="s">
         <v>174</v>
       </c>
-      <c r="D9" t="s">
-        <v>175</v>
-      </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9">
         <v>1999</v>
       </c>
       <c r="H9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K9">
         <v>2008</v>
@@ -5004,25 +5170,25 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
         <v>178</v>
       </c>
-      <c r="D10" t="s">
-        <v>179</v>
-      </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10">
         <v>1999</v>
       </c>
       <c r="H10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" t="s">
         <v>180</v>
       </c>
-      <c r="I10" t="s">
-        <v>181</v>
-      </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K10">
         <v>2008</v>
@@ -5033,25 +5199,25 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" t="s">
         <v>182</v>
       </c>
-      <c r="D11" t="s">
-        <v>183</v>
-      </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F11">
         <v>1999</v>
       </c>
       <c r="H11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I11" t="s">
         <v>184</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>185</v>
-      </c>
-      <c r="J11" t="s">
-        <v>186</v>
       </c>
       <c r="K11">
         <v>2010</v>
@@ -5062,25 +5228,25 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" t="s">
         <v>187</v>
       </c>
-      <c r="D12" t="s">
-        <v>188</v>
-      </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F12">
         <v>1999</v>
       </c>
       <c r="H12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K12">
         <v>2008</v>
@@ -5091,59 +5257,61 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" t="s">
         <v>191</v>
       </c>
-      <c r="D13" t="s">
-        <v>192</v>
-      </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F13">
         <v>2012</v>
       </c>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" t="s">
         <v>195</v>
       </c>
-      <c r="D14" t="s">
-        <v>196</v>
-      </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F14">
         <v>1999</v>
       </c>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s">
         <v>197</v>
       </c>
-      <c r="D15" t="s">
-        <v>198</v>
-      </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F15">
         <v>1999</v>
       </c>
       <c r="H15" t="s">
+        <v>198</v>
+      </c>
+      <c r="I15" t="s">
         <v>199</v>
       </c>
-      <c r="I15" t="s">
-        <v>200</v>
-      </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K15">
         <v>2011</v>
@@ -5154,27 +5322,27 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" t="s">
         <v>201</v>
       </c>
-      <c r="D16" t="s">
-        <v>202</v>
-      </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16">
         <v>1999</v>
       </c>
-      <c r="H16" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="J16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16">
+      <c r="I16" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="17">
         <v>2016</v>
       </c>
     </row>
@@ -5183,25 +5351,25 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F17">
         <v>1999</v>
       </c>
       <c r="H17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" t="s">
         <v>207</v>
       </c>
-      <c r="I17" t="s">
-        <v>208</v>
-      </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K17">
         <v>2008</v>
@@ -5212,25 +5380,25 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F18">
         <v>1999</v>
       </c>
       <c r="H18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K18">
         <v>2011</v>
@@ -5241,25 +5409,25 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F19">
         <v>2012</v>
       </c>
       <c r="H19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" t="s">
         <v>193</v>
       </c>
-      <c r="I19" t="s">
-        <v>194</v>
-      </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K19">
         <v>2008</v>
@@ -5270,25 +5438,25 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F20">
         <v>1999</v>
       </c>
       <c r="H20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K20">
         <v>2008</v>
@@ -5299,25 +5467,26 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F21">
         <v>2009</v>
       </c>
+      <c r="H21" s="17"/>
       <c r="M21" t="s">
+        <v>221</v>
+      </c>
+      <c r="N21" t="s">
+        <v>222</v>
+      </c>
+      <c r="O21" t="s">
         <v>223</v>
-      </c>
-      <c r="N21" t="s">
-        <v>224</v>
-      </c>
-      <c r="O21" t="s">
-        <v>225</v>
       </c>
       <c r="P21">
         <v>2008</v>
@@ -5328,76 +5497,79 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22">
         <v>2008</v>
       </c>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F23">
         <v>2010</v>
       </c>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F24">
         <v>2010</v>
       </c>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F25">
         <v>1999</v>
       </c>
       <c r="H25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K25">
         <v>2008</v>
@@ -5408,42 +5580,43 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F26">
         <v>2013</v>
       </c>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F27">
         <v>2002</v>
       </c>
       <c r="H27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K27">
         <v>2008</v>
@@ -5458,133 +5631,462 @@
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30">
+        <v>2011</v>
+      </c>
+      <c r="H30" t="s">
+        <v>243</v>
+      </c>
+      <c r="I30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30">
+        <v>2011</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>24</v>
       </c>
+      <c r="C31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E31" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31">
+        <v>2000</v>
+      </c>
+      <c r="H31" t="s">
+        <v>246</v>
+      </c>
+      <c r="I31" t="s">
+        <v>247</v>
+      </c>
+      <c r="J31" t="s">
+        <v>150</v>
+      </c>
+      <c r="K31">
+        <v>2008</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32">
+        <v>2012</v>
+      </c>
+      <c r="H32" t="s">
+        <v>248</v>
+      </c>
+      <c r="I32" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33">
+        <v>2008</v>
+      </c>
+      <c r="H33" t="s">
+        <v>254</v>
+      </c>
+      <c r="I33" t="s">
+        <v>255</v>
+      </c>
+      <c r="J33" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" t="s">
+        <v>257</v>
+      </c>
+      <c r="E34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34">
+        <v>2000</v>
+      </c>
+      <c r="H34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I34" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C35" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="F35" s="17">
+        <v>2015</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="K35" s="17">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36">
+        <v>2003</v>
+      </c>
+      <c r="H36" t="s">
+        <v>267</v>
+      </c>
+      <c r="I36" t="s">
+        <v>268</v>
+      </c>
+      <c r="J36" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D37" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37">
+        <v>1999</v>
+      </c>
+      <c r="H37" t="s">
+        <v>273</v>
+      </c>
+      <c r="I37" t="s">
+        <v>274</v>
+      </c>
+      <c r="J37" t="s">
+        <v>150</v>
+      </c>
+      <c r="K37">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39">
+        <v>2010</v>
+      </c>
+      <c r="H39" t="s">
+        <v>277</v>
+      </c>
+      <c r="I39" t="s">
+        <v>278</v>
+      </c>
+      <c r="J39" t="s">
+        <v>150</v>
+      </c>
+      <c r="K39">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" t="s">
+        <v>284</v>
+      </c>
+      <c r="E44" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44">
+        <v>2008</v>
+      </c>
+      <c r="H44" t="s">
+        <v>285</v>
+      </c>
+      <c r="I44" t="s">
+        <v>286</v>
+      </c>
+      <c r="J44" t="s">
+        <v>150</v>
+      </c>
+      <c r="K44">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" t="s">
+        <v>282</v>
+      </c>
+      <c r="E46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46">
+        <v>2010</v>
+      </c>
+      <c r="H46" t="s">
+        <v>280</v>
+      </c>
+      <c r="I46" t="s">
+        <v>279</v>
+      </c>
+      <c r="J46" t="s">
+        <v>150</v>
+      </c>
+      <c r="K46">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>287</v>
+      </c>
+      <c r="D47" t="s">
+        <v>288</v>
+      </c>
+      <c r="E47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47">
+        <v>2007</v>
+      </c>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" t="s">
+        <v>292</v>
+      </c>
+      <c r="E48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48">
+        <v>2011</v>
+      </c>
+      <c r="H48" t="s">
+        <v>289</v>
+      </c>
+      <c r="I48" t="s">
+        <v>290</v>
+      </c>
+      <c r="J48" t="s">
+        <v>150</v>
+      </c>
+      <c r="K48">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C51" s="17"/>
+      <c r="H51" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K51" s="17">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>295</v>
+      </c>
+      <c r="D53" t="s">
+        <v>296</v>
+      </c>
+      <c r="E53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53">
+        <v>2009</v>
+      </c>
+      <c r="H53" s="17"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>45</v>
       </c>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD41B215-D43D-489F-B5DD-227A253FE906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128BE9CD-9AF7-4B4F-9CD7-C0401907DB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="359">
   <si>
     <t>United States</t>
   </si>
@@ -515,12 +515,6 @@
     <t>iShares MSCI Japan ETF</t>
   </si>
   <si>
-    <t>iShares MSCI Japan EUR Hedged UCITS ETF (Acc)</t>
-  </si>
-  <si>
-    <t>IJPE.L</t>
-  </si>
-  <si>
     <t>SXRW.DE</t>
   </si>
   <si>
@@ -539,9 +533,6 @@
     <t xml:space="preserve">iShares MSCI Canada UCITS ETF </t>
   </si>
   <si>
-    <t>ISF.L</t>
-  </si>
-  <si>
     <t>EWQ</t>
   </si>
   <si>
@@ -695,18 +686,12 @@
     <t>Lyxor BEL 20 TR (DR) UCITS ETF</t>
   </si>
   <si>
-    <t>Alternative option</t>
-  </si>
-  <si>
     <t>Global X MSCI Norway ETF</t>
   </si>
   <si>
     <t>NORW</t>
   </si>
   <si>
-    <t>OBXEDNB.OL</t>
-  </si>
-  <si>
     <t>DNB OBX ETF</t>
   </si>
   <si>
@@ -930,6 +915,207 @@
   </si>
   <si>
     <t>Global X MSCI Colombia ETF</t>
+  </si>
+  <si>
+    <t>ARGT</t>
+  </si>
+  <si>
+    <t>Global X MSCI Argentina ETF</t>
+  </si>
+  <si>
+    <t>ERUS</t>
+  </si>
+  <si>
+    <t>iShares MSCI Russia ETF</t>
+  </si>
+  <si>
+    <t>RUS.PA</t>
+  </si>
+  <si>
+    <t>Lyxor MSCI Russia UCITS ETF Acc</t>
+  </si>
+  <si>
+    <t>2008 to 2022</t>
+  </si>
+  <si>
+    <t>OBXD.OL</t>
+  </si>
+  <si>
+    <t>Index Fund (IronIA)</t>
+  </si>
+  <si>
+    <t>THD</t>
+  </si>
+  <si>
+    <t>iShares MSCI Thailand ETF</t>
+  </si>
+  <si>
+    <t>XCS4.DE</t>
+  </si>
+  <si>
+    <t>Xtrackers MSCI Thailand UCITS ETF</t>
+  </si>
+  <si>
+    <t>XCS3.DE</t>
+  </si>
+  <si>
+    <t>EWM</t>
+  </si>
+  <si>
+    <t>Xtrackers MSCI Malaysia UCITS ETF </t>
+  </si>
+  <si>
+    <t>iShares MSCI Malaysia ETF</t>
+  </si>
+  <si>
+    <t>iShares Core MSCI Japan IMI UCITS ETF</t>
+  </si>
+  <si>
+    <t>IJPA.AS</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>iShares MSCI UAE ETF</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>iShares MSCI Qatar ETF</t>
+  </si>
+  <si>
+    <t>KWT</t>
+  </si>
+  <si>
+    <t>iShares MSCI Kuwait ETF</t>
+  </si>
+  <si>
+    <t>EPHE</t>
+  </si>
+  <si>
+    <t>iShares MSCI Philippines ETF</t>
+  </si>
+  <si>
+    <t>XPQP.DE</t>
+  </si>
+  <si>
+    <t>Xtrackers MSCI Philippines UCITS ETF</t>
+  </si>
+  <si>
+    <t>EPU</t>
+  </si>
+  <si>
+    <t>iShares MSCI Peru ETF</t>
+  </si>
+  <si>
+    <t>EGPT</t>
+  </si>
+  <si>
+    <t>VanEck Egypt Index ETF</t>
+  </si>
+  <si>
+    <t>ETFs</t>
+  </si>
+  <si>
+    <t>LU1419797524</t>
+  </si>
+  <si>
+    <t>ISIN</t>
+  </si>
+  <si>
+    <t>CSIF (LUX) EQUITY CAN "QB" (EUR)</t>
+  </si>
+  <si>
+    <t>IE0032126645</t>
+  </si>
+  <si>
+    <t>VANGUARD U.S. 500 STOCK INDEX (EUR) ACC</t>
+  </si>
+  <si>
+    <t>IE0008248803</t>
+  </si>
+  <si>
+    <t>VANGUARD EUROZONE STOCK INDEX (EUR) ACC</t>
+  </si>
+  <si>
+    <t>IE0007286036</t>
+  </si>
+  <si>
+    <t>VANGUARD JAPAN STOCK INDEX (EUR) ACC</t>
+  </si>
+  <si>
+    <t>LU0625737910</t>
+  </si>
+  <si>
+    <t>PICTET CHINA INDEX "P" (EUR)</t>
+  </si>
+  <si>
+    <t>LU0248271941</t>
+  </si>
+  <si>
+    <t>BGF INDIA "A2" (EUR)</t>
+  </si>
+  <si>
+    <t>LU0301637293</t>
+  </si>
+  <si>
+    <t>JPM KOREA EQUITY "A" (EUR) ACC</t>
+  </si>
+  <si>
+    <t>LU0616857586</t>
+  </si>
+  <si>
+    <t>DWS INVEST BRAZILIAN EQ "FC" (EUR) ACC</t>
+  </si>
+  <si>
+    <t>PICTET RUSSIA INDEX "I" (EUR)</t>
+  </si>
+  <si>
+    <t>LU0625742670</t>
+  </si>
+  <si>
+    <t>ES0149051007</t>
+  </si>
+  <si>
+    <t>LU0087656855</t>
+  </si>
+  <si>
+    <t>AXA WF ITALY EQUITY "F" (EUR)</t>
+  </si>
+  <si>
+    <t>LU0823428189</t>
+  </si>
+  <si>
+    <t>BNP GER MULTI-FACTOR EQ "P" (EUR) ACC</t>
+  </si>
+  <si>
+    <t>LU0823433775</t>
+  </si>
+  <si>
+    <t>BNP PARIBAS TURKEY EQUITY "I" (EUR) ACC</t>
+  </si>
+  <si>
+    <t>ABANCA IBEX 35 "D" (EUR)</t>
+  </si>
+  <si>
+    <t>IE00B7MSLV86</t>
+  </si>
+  <si>
+    <t>ISHARES UK INDEX (IE) "I" (EUR) ACC</t>
+  </si>
+  <si>
+    <t>LU1240788064</t>
+  </si>
+  <si>
+    <t>UBS (LUX) EQUITY SICA "Q" (EUR) A</t>
+  </si>
+  <si>
+    <t>FR0012806578</t>
+  </si>
+  <si>
+    <t>ODDO BHF AVENIR "CN" (EUR) ACC</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1272,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1130,22 +1316,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2451,11 +2644,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
-  <dimension ref="A1:AN59"/>
+  <dimension ref="A1:AP59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP4" sqref="AP4"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO25" sqref="AO25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2492,69 +2685,71 @@
     <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11.7109375" customWidth="1"/>
-    <col min="40" max="40" width="13.7109375" customWidth="1"/>
+    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.28515625" style="43" customWidth="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="38"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="37" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="41"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="38"/>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
       <c r="M1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="39" t="s">
         <v>111</v>
       </c>
       <c r="O1" s="40"/>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
       <c r="S1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
       <c r="X1" s="38"/>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
       <c r="AD1" s="38"/>
       <c r="AE1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AG1" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AL1" s="1" t="s">
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AL1" s="29" t="s">
         <v>54</v>
       </c>
       <c r="AM1" s="20" t="s">
@@ -2563,8 +2758,12 @@
       <c r="AN1" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO1" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="AP1" s="47"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -2667,7 +2866,7 @@
       <c r="AJ2" t="s">
         <v>135</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" s="43" t="s">
         <v>55</v>
       </c>
       <c r="AM2" s="7" t="s">
@@ -2676,8 +2875,14 @@
       <c r="AN2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO2" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>51</v>
       </c>
@@ -2779,7 +2984,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -2819,11 +3024,17 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="17"/>
-      <c r="AL4" s="2"/>
+      <c r="AL4" s="44"/>
       <c r="AM4" s="7"/>
       <c r="AN4" s="2"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO4" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -2876,11 +3087,17 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="17"/>
-      <c r="AL5" s="2"/>
+      <c r="AL5" s="44"/>
       <c r="AM5" s="7"/>
       <c r="AN5" s="2"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO5" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -2920,11 +3137,17 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="17"/>
-      <c r="AL6" s="2"/>
+      <c r="AL6" s="44"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="2"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO6" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -2964,11 +3187,17 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-      <c r="AL7" s="2"/>
+      <c r="AL7" s="44"/>
       <c r="AM7" s="7"/>
       <c r="AN7" s="2"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO7" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -3008,11 +3237,17 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="17"/>
       <c r="AJ8" s="2"/>
-      <c r="AL8" s="2"/>
+      <c r="AL8" s="44"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="2"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO8" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -3054,11 +3289,17 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="17"/>
-      <c r="AL9" s="2"/>
+      <c r="AL9" s="44"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="2"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO9" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -3098,11 +3339,17 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
-      <c r="AL10" s="2"/>
+      <c r="AL10" s="44"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="2"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO10" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
@@ -3148,11 +3395,17 @@
       <c r="AH11" s="17"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
-      <c r="AL11" s="2"/>
+      <c r="AL11" s="44"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="2"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO11" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -3193,11 +3446,17 @@
       <c r="AJ12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AL12" s="2"/>
+      <c r="AL12" s="44"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="2"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO12" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
@@ -3240,8 +3499,12 @@
         <v>2001</v>
       </c>
       <c r="AN13" s="2"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO13" s="46">
+        <v>2012</v>
+      </c>
+      <c r="AP13" s="17"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -3283,15 +3546,19 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
-      <c r="AL14" s="4">
+      <c r="AL14" s="46">
         <v>2008</v>
       </c>
       <c r="AM14" s="9">
         <v>1999</v>
       </c>
       <c r="AN14" s="2"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO14" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP14" s="17"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -3331,11 +3598,17 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
-      <c r="AL15" s="2"/>
+      <c r="AL15" s="44"/>
       <c r="AM15" s="7"/>
       <c r="AN15" s="2"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO15" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
@@ -3346,11 +3619,17 @@
       <c r="O16" s="16"/>
       <c r="S16" s="2"/>
       <c r="V16" s="18"/>
-      <c r="AL16" s="2"/>
+      <c r="AL16" s="44"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="2"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO16" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP16" s="17">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
@@ -3390,11 +3669,17 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="17"/>
-      <c r="AL17" s="2"/>
+      <c r="AL17" s="44"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="2"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO17" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>21</v>
       </c>
@@ -3403,11 +3688,17 @@
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="16"/>
-      <c r="AL18" s="2"/>
+      <c r="AL18" s="44"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="2"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO18" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>17</v>
       </c>
@@ -3442,15 +3733,21 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
-      <c r="AL19" s="4">
+      <c r="AL19" s="46">
         <v>2013</v>
       </c>
       <c r="AM19" s="19">
         <v>2001</v>
       </c>
       <c r="AN19" s="2"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO19" s="46">
+        <v>2012</v>
+      </c>
+      <c r="AP19" s="17">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>12</v>
       </c>
@@ -3487,11 +3784,17 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
-      <c r="AL20" s="2"/>
+      <c r="AL20" s="44"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="2"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO20" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>16</v>
       </c>
@@ -3532,8 +3835,14 @@
         <v>36404</v>
       </c>
       <c r="AN21" s="2"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO21" s="46">
+        <v>2009</v>
+      </c>
+      <c r="AP21" s="17">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
@@ -3576,11 +3885,15 @@
         <v>2004</v>
       </c>
       <c r="AJ22" s="2"/>
-      <c r="AL22" s="2"/>
+      <c r="AL22" s="44"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="2"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO22" s="46">
+        <v>2008</v>
+      </c>
+      <c r="AP22" s="17"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
@@ -3624,11 +3937,15 @@
       </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="17"/>
-      <c r="AL23" s="2"/>
+      <c r="AL23" s="44"/>
       <c r="AM23" s="7"/>
       <c r="AN23" s="2"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO23" s="46">
+        <v>2010</v>
+      </c>
+      <c r="AP23" s="17"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
@@ -3670,15 +3987,19 @@
       <c r="AH24" s="17"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
-      <c r="AL24" s="4">
+      <c r="AL24" s="46">
         <v>2003</v>
       </c>
       <c r="AM24" s="19">
         <v>2001</v>
       </c>
       <c r="AN24" s="2"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO24" s="46">
+        <v>2010</v>
+      </c>
+      <c r="AP24" s="17"/>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>13</v>
       </c>
@@ -3715,11 +4036,17 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="17"/>
-      <c r="AL25" s="2"/>
+      <c r="AL25" s="44"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="2"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO25" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>18</v>
       </c>
@@ -3754,15 +4081,19 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
-      <c r="AL26" s="4">
+      <c r="AL26" s="46">
         <v>2013</v>
       </c>
       <c r="AM26" s="19">
         <v>2010</v>
       </c>
       <c r="AN26" s="2"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO26" s="46">
+        <v>2013</v>
+      </c>
+      <c r="AP26" s="17"/>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>69</v>
       </c>
@@ -3805,23 +4136,29 @@
         <v>72</v>
       </c>
       <c r="AJ27" s="2"/>
-      <c r="AL27" s="4">
+      <c r="AL27" s="46">
         <v>2007</v>
       </c>
       <c r="AM27" s="7"/>
       <c r="AN27" s="2"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO27" s="46">
+        <v>2002</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AM28" s="7"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="8"/>
       <c r="AM29" s="7"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
@@ -3869,22 +4206,34 @@
         <v>133</v>
       </c>
       <c r="AJ30" s="17"/>
-      <c r="AL30" s="2"/>
+      <c r="AL30" s="44"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="2"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO30" s="46">
+        <v>2011</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="2">
         <v>2012</v>
       </c>
-      <c r="AL31" s="2"/>
+      <c r="AL31" s="44"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="2"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO31" s="46">
+        <v>2000</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>25</v>
       </c>
@@ -3940,11 +4289,17 @@
         <v>134</v>
       </c>
       <c r="AJ32" s="17"/>
-      <c r="AL32" s="2"/>
+      <c r="AL32" s="44"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="2"/>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO32" s="46">
+        <v>2012</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>26</v>
       </c>
@@ -3987,11 +4342,17 @@
       <c r="AJ33" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AL33" s="2"/>
+      <c r="AL33" s="44"/>
       <c r="AM33" s="7"/>
       <c r="AN33" s="2"/>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO33" s="46">
+        <v>2008</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>98</v>
       </c>
@@ -4035,11 +4396,17 @@
       <c r="AH34" s="17"/>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="17"/>
-      <c r="AL34" s="2"/>
+      <c r="AL34" s="44"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="2"/>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO34" s="46">
+        <v>2000</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>28</v>
       </c>
@@ -4096,11 +4463,17 @@
       <c r="AH35" s="17"/>
       <c r="AI35" s="17"/>
       <c r="AJ35" s="17"/>
-      <c r="AL35" s="2"/>
+      <c r="AL35" s="44"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="2"/>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO35" s="45">
+        <v>2015</v>
+      </c>
+      <c r="AP35" s="17">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>29</v>
       </c>
@@ -4143,8 +4516,14 @@
         <v>1999</v>
       </c>
       <c r="AN36" s="2"/>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO36" s="46">
+        <v>2003</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>30</v>
       </c>
@@ -4189,11 +4568,17 @@
       <c r="AH37" s="17"/>
       <c r="AI37" s="17"/>
       <c r="AJ37" s="17"/>
-      <c r="AL37" s="2"/>
+      <c r="AL37" s="44"/>
       <c r="AM37" s="7"/>
       <c r="AN37" s="2"/>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO37" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>31</v>
       </c>
@@ -4203,11 +4588,17 @@
       <c r="S38" s="4">
         <v>2000</v>
       </c>
-      <c r="AL38" s="2"/>
+      <c r="AL38" s="44"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="2"/>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO38" s="46">
+        <v>2008</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>32</v>
       </c>
@@ -4254,11 +4645,17 @@
       <c r="AH39" s="17"/>
       <c r="AI39" s="17"/>
       <c r="AJ39" s="17"/>
-      <c r="AL39" s="2"/>
+      <c r="AL39" s="44"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="2"/>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO39" s="46">
+        <v>2010</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>33</v>
       </c>
@@ -4266,11 +4663,17 @@
         <v>2015</v>
       </c>
       <c r="S40" s="2"/>
-      <c r="AL40" s="2"/>
+      <c r="AL40" s="44"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="2"/>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO40" s="44">
+        <v>1999</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>49</v>
       </c>
@@ -4283,8 +4686,12 @@
       <c r="AN41" s="13">
         <v>36192</v>
       </c>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO41" s="45">
+        <v>2014</v>
+      </c>
+      <c r="AP41" s="17"/>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>34</v>
       </c>
@@ -4295,8 +4702,12 @@
         <v>2001</v>
       </c>
       <c r="AN42" s="2"/>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO42" s="45">
+        <v>2014</v>
+      </c>
+      <c r="AP42" s="17"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>35</v>
       </c>
@@ -4306,8 +4717,12 @@
         <v>2010</v>
       </c>
       <c r="AN43" s="2"/>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO43" s="45">
+        <v>2020</v>
+      </c>
+      <c r="AP43" s="17"/>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>48</v>
       </c>
@@ -4361,11 +4776,17 @@
       <c r="AJ44" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AL44" s="2"/>
+      <c r="AL44" s="44"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="2"/>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO44" s="46">
+        <v>2008</v>
+      </c>
+      <c r="AP44" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>36</v>
       </c>
@@ -4373,11 +4794,17 @@
         <v>2018</v>
       </c>
       <c r="S45" s="2"/>
-      <c r="AL45" s="2"/>
+      <c r="AL45" s="44"/>
       <c r="AM45" s="7"/>
       <c r="AN45" s="2"/>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO45" s="46">
+        <v>2010</v>
+      </c>
+      <c r="AP45" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>37</v>
       </c>
@@ -4430,8 +4857,14 @@
         <v>1999</v>
       </c>
       <c r="AN46" s="2"/>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO46" s="46">
+        <v>2010</v>
+      </c>
+      <c r="AP46" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>38</v>
       </c>
@@ -4482,8 +4915,12 @@
       <c r="AN47" s="4">
         <v>2002</v>
       </c>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO47" s="46">
+        <v>2007</v>
+      </c>
+      <c r="AP47" s="17"/>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>39</v>
       </c>
@@ -4524,13 +4961,19 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
-      <c r="AL48" s="2"/>
+      <c r="AL48" s="44"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="4">
         <v>2001</v>
       </c>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO48" s="46">
+        <v>2011</v>
+      </c>
+      <c r="AP48" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>40</v>
       </c>
@@ -4542,8 +4985,12 @@
         <v>2011</v>
       </c>
       <c r="AN49" s="2"/>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO49" s="46">
+        <v>2009</v>
+      </c>
+      <c r="AP49" s="17"/>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>41</v>
       </c>
@@ -4586,8 +5033,10 @@
         <v>2001</v>
       </c>
       <c r="AN50" s="2"/>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO50" s="45"/>
+      <c r="AP50" s="17"/>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>47</v>
       </c>
@@ -4634,8 +5083,12 @@
         <v>1999</v>
       </c>
       <c r="AN51" s="2"/>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO51" s="45"/>
+      <c r="AP51" s="17">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>42</v>
       </c>
@@ -4646,8 +5099,12 @@
         <v>1999</v>
       </c>
       <c r="AN52" s="2"/>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO52" s="46">
+        <v>2010</v>
+      </c>
+      <c r="AP52" s="17"/>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>43</v>
       </c>
@@ -4714,17 +5171,21 @@
         <v>2000</v>
       </c>
       <c r="AN53" s="2"/>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO53" s="46">
+        <v>2009</v>
+      </c>
+      <c r="AP53" s="17"/>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AM54" s="7"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>61</v>
       </c>
       <c r="AM55" s="7"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>44</v>
       </c>
@@ -4773,13 +5234,17 @@
       <c r="AH56" s="17"/>
       <c r="AI56" s="17"/>
       <c r="AJ56" s="17"/>
-      <c r="AL56" s="2"/>
+      <c r="AL56" s="44"/>
       <c r="AM56" s="7"/>
       <c r="AN56" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO56" s="46">
+        <v>2011</v>
+      </c>
+      <c r="AP56" s="17"/>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>45</v>
       </c>
@@ -4853,19 +5318,25 @@
       <c r="AH57" s="17"/>
       <c r="AI57" s="17"/>
       <c r="AJ57" s="17"/>
-      <c r="AL57" s="4">
+      <c r="AL57" s="46">
         <v>2013</v>
       </c>
       <c r="AM57" s="9">
         <v>1999</v>
       </c>
       <c r="AN57" s="2"/>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO57" s="46">
+        <v>2010</v>
+      </c>
+      <c r="AP57" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AM58" s="7"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B59" s="39" t="s">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B59" s="41" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="40"/>
@@ -4876,18 +5347,19 @@
       <c r="AM59" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4897,8 +5369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC8819E-4998-4293-AE91-8A38F68283E5}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4908,31 +5381,32 @@
     <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="C1" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="H1" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="M1" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
@@ -4962,7 +5436,7 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>146</v>
+        <v>327</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>147</v>
@@ -5007,6 +5481,18 @@
       <c r="K4">
         <v>2010</v>
       </c>
+      <c r="M4" t="s">
+        <v>329</v>
+      </c>
+      <c r="N4" t="s">
+        <v>330</v>
+      </c>
+      <c r="O4" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4">
+        <v>2002</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -5025,16 +5511,28 @@
         <v>1999</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>309</v>
       </c>
       <c r="J5" t="s">
         <v>150</v>
       </c>
       <c r="K5">
-        <v>2010</v>
+        <v>2009</v>
+      </c>
+      <c r="M5" t="s">
+        <v>333</v>
+      </c>
+      <c r="N5" t="s">
+        <v>334</v>
+      </c>
+      <c r="O5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P5">
+        <v>2006</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -5042,10 +5540,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
         <v>153</v>
@@ -5054,10 +5552,10 @@
         <v>1999</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J6" t="s">
         <v>150</v>
@@ -5066,16 +5564,16 @@
         <v>2010</v>
       </c>
       <c r="M6" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="N6" t="s">
-        <v>161</v>
+        <v>354</v>
       </c>
       <c r="O6" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="P6">
-        <v>2008</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -5083,10 +5581,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
         <v>153</v>
@@ -5095,16 +5593,28 @@
         <v>1999</v>
       </c>
       <c r="H7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
         <v>150</v>
       </c>
       <c r="K7">
         <v>2010</v>
+      </c>
+      <c r="M7" t="s">
+        <v>326</v>
+      </c>
+      <c r="N7" t="s">
+        <v>328</v>
+      </c>
+      <c r="O7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7">
+        <v>2016</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -5112,10 +5622,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
         <v>153</v>
@@ -5124,16 +5634,28 @@
         <v>1999</v>
       </c>
       <c r="H8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J8" t="s">
         <v>150</v>
       </c>
       <c r="K8">
         <v>2008</v>
+      </c>
+      <c r="M8" t="s">
+        <v>357</v>
+      </c>
+      <c r="N8" t="s">
+        <v>358</v>
+      </c>
+      <c r="O8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8">
+        <v>2015</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -5141,10 +5663,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
         <v>153</v>
@@ -5153,16 +5675,28 @@
         <v>1999</v>
       </c>
       <c r="H9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J9" t="s">
         <v>150</v>
       </c>
       <c r="K9">
         <v>2008</v>
+      </c>
+      <c r="M9" t="s">
+        <v>355</v>
+      </c>
+      <c r="N9" t="s">
+        <v>356</v>
+      </c>
+      <c r="O9" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9">
+        <v>2015</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -5170,10 +5704,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
         <v>153</v>
@@ -5182,16 +5716,28 @@
         <v>1999</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J10" t="s">
         <v>150</v>
       </c>
       <c r="K10">
         <v>2008</v>
+      </c>
+      <c r="M10" t="s">
+        <v>348</v>
+      </c>
+      <c r="N10" t="s">
+        <v>349</v>
+      </c>
+      <c r="O10" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10">
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -5199,10 +5745,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
         <v>153</v>
@@ -5211,13 +5757,13 @@
         <v>1999</v>
       </c>
       <c r="H11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K11">
         <v>2010</v>
@@ -5228,10 +5774,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
         <v>153</v>
@@ -5240,10 +5786,10 @@
         <v>1999</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J12" t="s">
         <v>150</v>
@@ -5257,10 +5803,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
         <v>153</v>
@@ -5275,10 +5821,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
         <v>153</v>
@@ -5293,10 +5839,10 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E15" t="s">
         <v>153</v>
@@ -5305,16 +5851,28 @@
         <v>1999</v>
       </c>
       <c r="H15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J15" t="s">
         <v>150</v>
       </c>
       <c r="K15">
         <v>2011</v>
+      </c>
+      <c r="M15" t="s">
+        <v>345</v>
+      </c>
+      <c r="N15" t="s">
+        <v>352</v>
+      </c>
+      <c r="O15" t="s">
+        <v>150</v>
+      </c>
+      <c r="P15">
+        <v>2016</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -5322,10 +5880,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E16" t="s">
         <v>153</v>
@@ -5334,10 +5892,10 @@
         <v>1999</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>150</v>
@@ -5351,10 +5909,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E17" t="s">
         <v>153</v>
@@ -5363,16 +5921,28 @@
         <v>1999</v>
       </c>
       <c r="H17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J17" t="s">
         <v>150</v>
       </c>
       <c r="K17">
         <v>2008</v>
+      </c>
+      <c r="M17" t="s">
+        <v>346</v>
+      </c>
+      <c r="N17" t="s">
+        <v>347</v>
+      </c>
+      <c r="O17" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17">
+        <v>1999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -5380,10 +5950,10 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E18" t="s">
         <v>153</v>
@@ -5392,10 +5962,10 @@
         <v>1999</v>
       </c>
       <c r="H18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J18" t="s">
         <v>150</v>
@@ -5409,10 +5979,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E19" t="s">
         <v>153</v>
@@ -5420,16 +5990,16 @@
       <c r="F19">
         <v>2012</v>
       </c>
-      <c r="H19" t="s">
-        <v>192</v>
-      </c>
-      <c r="I19" t="s">
-        <v>193</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="H19" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="17">
         <v>2008</v>
       </c>
     </row>
@@ -5438,10 +6008,10 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
         <v>153</v>
@@ -5450,10 +6020,10 @@
         <v>1999</v>
       </c>
       <c r="H20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J20" t="s">
         <v>150</v>
@@ -5467,10 +6037,10 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E21" t="s">
         <v>153</v>
@@ -5478,17 +6048,16 @@
       <c r="F21">
         <v>2009</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="M21" t="s">
-        <v>221</v>
-      </c>
-      <c r="N21" t="s">
-        <v>222</v>
-      </c>
-      <c r="O21" t="s">
-        <v>223</v>
-      </c>
-      <c r="P21">
+      <c r="H21" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="K21" s="17">
         <v>2008</v>
       </c>
     </row>
@@ -5497,10 +6066,10 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D22" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E22" t="s">
         <v>153</v>
@@ -5515,10 +6084,10 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E23" t="s">
         <v>153</v>
@@ -5533,10 +6102,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E24" t="s">
         <v>153</v>
@@ -5551,10 +6120,10 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E25" t="s">
         <v>153</v>
@@ -5563,10 +6132,10 @@
         <v>1999</v>
       </c>
       <c r="H25" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J25" t="s">
         <v>150</v>
@@ -5580,10 +6149,10 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E26" t="s">
         <v>153</v>
@@ -5598,10 +6167,10 @@
         <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E27" t="s">
         <v>153</v>
@@ -5610,16 +6179,28 @@
         <v>2002</v>
       </c>
       <c r="H27" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
         <v>150</v>
       </c>
       <c r="K27">
         <v>2008</v>
+      </c>
+      <c r="M27" t="s">
+        <v>331</v>
+      </c>
+      <c r="N27" t="s">
+        <v>332</v>
+      </c>
+      <c r="O27" t="s">
+        <v>150</v>
+      </c>
+      <c r="P27">
+        <v>2001</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -5632,10 +6213,10 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E30" t="s">
         <v>153</v>
@@ -5644,15 +6225,27 @@
         <v>2011</v>
       </c>
       <c r="H30" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J30" t="s">
         <v>150</v>
       </c>
       <c r="K30">
+        <v>2011</v>
+      </c>
+      <c r="M30" t="s">
+        <v>335</v>
+      </c>
+      <c r="N30" t="s">
+        <v>336</v>
+      </c>
+      <c r="O30" t="s">
+        <v>150</v>
+      </c>
+      <c r="P30">
         <v>2011</v>
       </c>
     </row>
@@ -5661,10 +6254,10 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
         <v>153</v>
@@ -5673,10 +6266,10 @@
         <v>2000</v>
       </c>
       <c r="H31" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J31" t="s">
         <v>150</v>
@@ -5690,10 +6283,10 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D32" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -5702,10 +6295,10 @@
         <v>2012</v>
       </c>
       <c r="H32" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I32" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J32" t="s">
         <v>150</v>
@@ -5713,16 +6306,28 @@
       <c r="K32">
         <v>2008</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>337</v>
+      </c>
+      <c r="N32" t="s">
+        <v>338</v>
+      </c>
+      <c r="O32" t="s">
+        <v>150</v>
+      </c>
+      <c r="P32">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D33" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E33" t="s">
         <v>153</v>
@@ -5731,10 +6336,10 @@
         <v>2008</v>
       </c>
       <c r="H33" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I33" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J33" t="s">
         <v>150</v>
@@ -5742,16 +6347,28 @@
       <c r="K33">
         <v>2008</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>339</v>
+      </c>
+      <c r="N33" t="s">
+        <v>340</v>
+      </c>
+      <c r="O33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P33">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D34" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E34" t="s">
         <v>153</v>
@@ -5760,10 +6377,10 @@
         <v>2000</v>
       </c>
       <c r="H34" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I34" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J34" t="s">
         <v>150</v>
@@ -5771,45 +6388,57 @@
       <c r="K34">
         <v>2008</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>341</v>
+      </c>
+      <c r="N34" t="s">
+        <v>342</v>
+      </c>
+      <c r="O34" t="s">
+        <v>150</v>
+      </c>
+      <c r="P34">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F35" s="17">
         <v>2015</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K35" s="17">
         <v>2019</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E36" t="s">
         <v>153</v>
@@ -5818,10 +6447,10 @@
         <v>2003</v>
       </c>
       <c r="H36" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I36" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J36" t="s">
         <v>150</v>
@@ -5830,15 +6459,15 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D37" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E37" t="s">
         <v>153</v>
@@ -5847,10 +6476,10 @@
         <v>1999</v>
       </c>
       <c r="H37" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I37" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="J37" t="s">
         <v>150</v>
@@ -5859,20 +6488,44 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" t="s">
+        <v>302</v>
+      </c>
+      <c r="E38" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38">
+        <v>2008</v>
+      </c>
+      <c r="H38" t="s">
+        <v>303</v>
+      </c>
+      <c r="I38" t="s">
+        <v>304</v>
+      </c>
+      <c r="J38" t="s">
+        <v>150</v>
+      </c>
+      <c r="K38">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D39" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E39" t="s">
         <v>153</v>
@@ -5881,10 +6534,10 @@
         <v>2010</v>
       </c>
       <c r="H39" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I39" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J39" t="s">
         <v>150</v>
@@ -5893,35 +6546,98 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>306</v>
+      </c>
+      <c r="D40" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40">
+        <v>1999</v>
+      </c>
+      <c r="H40" t="s">
+        <v>305</v>
+      </c>
+      <c r="I40" t="s">
+        <v>307</v>
+      </c>
+      <c r="J40" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" s="17">
+        <v>2014</v>
+      </c>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="17">
+        <v>2014</v>
+      </c>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="17">
+        <v>2020</v>
+      </c>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D44" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E44" t="s">
         <v>153</v>
@@ -5930,10 +6646,10 @@
         <v>2008</v>
       </c>
       <c r="H44" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I44" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J44" t="s">
         <v>150</v>
@@ -5941,21 +6657,57 @@
       <c r="K44">
         <v>2008</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="M44" t="s">
+        <v>350</v>
+      </c>
+      <c r="N44" t="s">
+        <v>351</v>
+      </c>
+      <c r="O44" t="s">
+        <v>150</v>
+      </c>
+      <c r="P44">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>317</v>
+      </c>
+      <c r="D45" t="s">
+        <v>318</v>
+      </c>
+      <c r="E45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45">
+        <v>2010</v>
+      </c>
+      <c r="H45" t="s">
+        <v>319</v>
+      </c>
+      <c r="I45" t="s">
+        <v>320</v>
+      </c>
+      <c r="J45" t="s">
+        <v>150</v>
+      </c>
+      <c r="K45">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D46" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E46" t="s">
         <v>153</v>
@@ -5964,10 +6716,10 @@
         <v>2010</v>
       </c>
       <c r="H46" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I46" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J46" t="s">
         <v>150</v>
@@ -5976,15 +6728,15 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D47" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E47" t="s">
         <v>153</v>
@@ -5994,15 +6746,15 @@
       </c>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D48" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E48" t="s">
         <v>153</v>
@@ -6011,10 +6763,10 @@
         <v>2011</v>
       </c>
       <c r="H48" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I48" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J48" t="s">
         <v>150</v>
@@ -6023,28 +6775,41 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>321</v>
+      </c>
+      <c r="D49" t="s">
+        <v>322</v>
+      </c>
+      <c r="E49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49">
+        <v>2009</v>
+      </c>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="17"/>
       <c r="H50" s="17"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="17"/>
       <c r="H51" s="17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J51" s="17" t="s">
         <v>150</v>
@@ -6053,20 +6818,33 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>323</v>
+      </c>
+      <c r="D52" t="s">
+        <v>324</v>
+      </c>
+      <c r="E52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52">
+        <v>2010</v>
+      </c>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D53" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E53" t="s">
         <v>153</v>
@@ -6076,19 +6854,68 @@
       </c>
       <c r="H53" s="17"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>292</v>
+      </c>
+      <c r="D56" t="s">
+        <v>293</v>
+      </c>
+      <c r="E56" t="s">
+        <v>259</v>
+      </c>
+      <c r="F56">
+        <v>2011</v>
+      </c>
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="C57" t="s">
+        <v>294</v>
+      </c>
+      <c r="D57" t="s">
+        <v>295</v>
+      </c>
+      <c r="E57" t="s">
+        <v>153</v>
+      </c>
+      <c r="F57">
+        <v>2010</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="M57" t="s">
+        <v>344</v>
+      </c>
+      <c r="N57" t="s">
+        <v>343</v>
+      </c>
+      <c r="O57" t="s">
+        <v>150</v>
+      </c>
+      <c r="P57">
+        <v>2018</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128BE9CD-9AF7-4B4F-9CD7-C0401907DB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE973B6-6476-4820-B98F-C672366BF741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
@@ -1019,9 +1019,6 @@
     <t>ETFs</t>
   </si>
   <si>
-    <t>LU1419797524</t>
-  </si>
-  <si>
     <t>ISIN</t>
   </si>
   <si>
@@ -1070,12 +1067,6 @@
     <t>DWS INVEST BRAZILIAN EQ "FC" (EUR) ACC</t>
   </si>
   <si>
-    <t>PICTET RUSSIA INDEX "I" (EUR)</t>
-  </si>
-  <si>
-    <t>LU0625742670</t>
-  </si>
-  <si>
     <t>ES0149051007</t>
   </si>
   <si>
@@ -1106,16 +1097,25 @@
     <t>ISHARES UK INDEX (IE) "I" (EUR) ACC</t>
   </si>
   <si>
-    <t>LU1240788064</t>
-  </si>
-  <si>
-    <t>UBS (LUX) EQUITY SICA "Q" (EUR) A</t>
-  </si>
-  <si>
-    <t>FR0012806578</t>
-  </si>
-  <si>
-    <t>ODDO BHF AVENIR "CN" (EUR) ACC</t>
+    <t>UBS (LUX) EQ - SWISS OPP P (EUR) ACC</t>
+  </si>
+  <si>
+    <t>LU0546268359</t>
+  </si>
+  <si>
+    <t>PICTET RUSSIA INDEX "P" (EUR)</t>
+  </si>
+  <si>
+    <t>LU0625742753</t>
+  </si>
+  <si>
+    <t>LU1419797797</t>
+  </si>
+  <si>
+    <t>CANDRIAM EQS L AUSTRALIA "I" (EUR)</t>
+  </si>
+  <si>
+    <t>LU0256781096</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1272,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1316,29 +1316,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2685,70 +2682,70 @@
     <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" style="37" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11.7109375" customWidth="1"/>
     <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.28515625" style="43" customWidth="1"/>
+    <col min="41" max="41" width="10.28515625" style="37" customWidth="1"/>
     <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39" t="s">
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="39" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
       <c r="S1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="39" t="s">
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="38"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="43"/>
       <c r="AE1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="39" t="s">
+      <c r="AG1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
       <c r="AL1" s="29" t="s">
         <v>54</v>
       </c>
@@ -2758,10 +2755,10 @@
       <c r="AN1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AO1" s="39" t="s">
+      <c r="AO1" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="AP1" s="47"/>
+      <c r="AP1" s="42"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -2866,7 +2863,7 @@
       <c r="AJ2" t="s">
         <v>135</v>
       </c>
-      <c r="AL2" s="43" t="s">
+      <c r="AL2" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AM2" s="7" t="s">
@@ -3024,10 +3021,10 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="17"/>
-      <c r="AL4" s="44"/>
+      <c r="AL4" s="38"/>
       <c r="AM4" s="7"/>
       <c r="AN4" s="2"/>
-      <c r="AO4" s="44">
+      <c r="AO4" s="38">
         <v>1999</v>
       </c>
       <c r="AP4" s="2">
@@ -3087,10 +3084,10 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="17"/>
-      <c r="AL5" s="44"/>
+      <c r="AL5" s="38"/>
       <c r="AM5" s="7"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="44">
+      <c r="AO5" s="38">
         <v>1999</v>
       </c>
       <c r="AP5" s="2">
@@ -3137,10 +3134,10 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="17"/>
-      <c r="AL6" s="44"/>
+      <c r="AL6" s="38"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="2"/>
-      <c r="AO6" s="44">
+      <c r="AO6" s="38">
         <v>1999</v>
       </c>
       <c r="AP6" s="2">
@@ -3187,10 +3184,10 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-      <c r="AL7" s="44"/>
+      <c r="AL7" s="38"/>
       <c r="AM7" s="7"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="44">
+      <c r="AO7" s="38">
         <v>1999</v>
       </c>
       <c r="AP7" s="2">
@@ -3237,10 +3234,10 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="17"/>
       <c r="AJ8" s="2"/>
-      <c r="AL8" s="44"/>
+      <c r="AL8" s="38"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="44">
+      <c r="AO8" s="38">
         <v>1999</v>
       </c>
       <c r="AP8" s="2">
@@ -3289,10 +3286,10 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="17"/>
-      <c r="AL9" s="44"/>
+      <c r="AL9" s="38"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="2"/>
-      <c r="AO9" s="44">
+      <c r="AO9" s="38">
         <v>1999</v>
       </c>
       <c r="AP9" s="2">
@@ -3339,10 +3336,10 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
-      <c r="AL10" s="44"/>
+      <c r="AL10" s="38"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="44">
+      <c r="AO10" s="38">
         <v>1999</v>
       </c>
       <c r="AP10" s="2">
@@ -3395,10 +3392,10 @@
       <c r="AH11" s="17"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
-      <c r="AL11" s="44"/>
+      <c r="AL11" s="38"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="2"/>
-      <c r="AO11" s="44">
+      <c r="AO11" s="38">
         <v>1999</v>
       </c>
       <c r="AP11" s="2">
@@ -3446,10 +3443,10 @@
       <c r="AJ12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AL12" s="44"/>
+      <c r="AL12" s="38"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="2"/>
-      <c r="AO12" s="44">
+      <c r="AO12" s="38">
         <v>1999</v>
       </c>
       <c r="AP12" s="2">
@@ -3499,7 +3496,7 @@
         <v>2001</v>
       </c>
       <c r="AN13" s="2"/>
-      <c r="AO13" s="46">
+      <c r="AO13" s="40">
         <v>2012</v>
       </c>
       <c r="AP13" s="17"/>
@@ -3546,14 +3543,14 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
-      <c r="AL14" s="46">
+      <c r="AL14" s="40">
         <v>2008</v>
       </c>
       <c r="AM14" s="9">
         <v>1999</v>
       </c>
       <c r="AN14" s="2"/>
-      <c r="AO14" s="44">
+      <c r="AO14" s="38">
         <v>1999</v>
       </c>
       <c r="AP14" s="17"/>
@@ -3598,10 +3595,10 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
-      <c r="AL15" s="44"/>
+      <c r="AL15" s="38"/>
       <c r="AM15" s="7"/>
       <c r="AN15" s="2"/>
-      <c r="AO15" s="44">
+      <c r="AO15" s="38">
         <v>1999</v>
       </c>
       <c r="AP15" s="2">
@@ -3619,10 +3616,10 @@
       <c r="O16" s="16"/>
       <c r="S16" s="2"/>
       <c r="V16" s="18"/>
-      <c r="AL16" s="44"/>
+      <c r="AL16" s="38"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="2"/>
-      <c r="AO16" s="44">
+      <c r="AO16" s="38">
         <v>1999</v>
       </c>
       <c r="AP16" s="17">
@@ -3669,10 +3666,10 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="17"/>
-      <c r="AL17" s="44"/>
+      <c r="AL17" s="38"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="2"/>
-      <c r="AO17" s="44">
+      <c r="AO17" s="38">
         <v>1999</v>
       </c>
       <c r="AP17" s="2">
@@ -3688,10 +3685,10 @@
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="16"/>
-      <c r="AL18" s="44"/>
+      <c r="AL18" s="38"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="2"/>
-      <c r="AO18" s="44">
+      <c r="AO18" s="38">
         <v>1999</v>
       </c>
       <c r="AP18" s="2">
@@ -3733,14 +3730,14 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
-      <c r="AL19" s="46">
+      <c r="AL19" s="40">
         <v>2013</v>
       </c>
       <c r="AM19" s="19">
         <v>2001</v>
       </c>
       <c r="AN19" s="2"/>
-      <c r="AO19" s="46">
+      <c r="AO19" s="40">
         <v>2012</v>
       </c>
       <c r="AP19" s="17">
@@ -3784,10 +3781,10 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
-      <c r="AL20" s="44"/>
+      <c r="AL20" s="38"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="2"/>
-      <c r="AO20" s="44">
+      <c r="AO20" s="38">
         <v>1999</v>
       </c>
       <c r="AP20" s="2">
@@ -3835,7 +3832,7 @@
         <v>36404</v>
       </c>
       <c r="AN21" s="2"/>
-      <c r="AO21" s="46">
+      <c r="AO21" s="40">
         <v>2009</v>
       </c>
       <c r="AP21" s="17">
@@ -3885,10 +3882,10 @@
         <v>2004</v>
       </c>
       <c r="AJ22" s="2"/>
-      <c r="AL22" s="44"/>
+      <c r="AL22" s="38"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="2"/>
-      <c r="AO22" s="46">
+      <c r="AO22" s="40">
         <v>2008</v>
       </c>
       <c r="AP22" s="17"/>
@@ -3937,10 +3934,10 @@
       </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="17"/>
-      <c r="AL23" s="44"/>
+      <c r="AL23" s="38"/>
       <c r="AM23" s="7"/>
       <c r="AN23" s="2"/>
-      <c r="AO23" s="46">
+      <c r="AO23" s="40">
         <v>2010</v>
       </c>
       <c r="AP23" s="17"/>
@@ -3987,14 +3984,14 @@
       <c r="AH24" s="17"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
-      <c r="AL24" s="46">
+      <c r="AL24" s="40">
         <v>2003</v>
       </c>
       <c r="AM24" s="19">
         <v>2001</v>
       </c>
       <c r="AN24" s="2"/>
-      <c r="AO24" s="46">
+      <c r="AO24" s="40">
         <v>2010</v>
       </c>
       <c r="AP24" s="17"/>
@@ -4036,10 +4033,10 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="17"/>
-      <c r="AL25" s="44"/>
+      <c r="AL25" s="38"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="2"/>
-      <c r="AO25" s="44">
+      <c r="AO25" s="38">
         <v>1999</v>
       </c>
       <c r="AP25" s="2">
@@ -4081,14 +4078,14 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
-      <c r="AL26" s="46">
+      <c r="AL26" s="40">
         <v>2013</v>
       </c>
       <c r="AM26" s="19">
         <v>2010</v>
       </c>
       <c r="AN26" s="2"/>
-      <c r="AO26" s="46">
+      <c r="AO26" s="40">
         <v>2013</v>
       </c>
       <c r="AP26" s="17"/>
@@ -4136,12 +4133,12 @@
         <v>72</v>
       </c>
       <c r="AJ27" s="2"/>
-      <c r="AL27" s="46">
+      <c r="AL27" s="40">
         <v>2007</v>
       </c>
       <c r="AM27" s="7"/>
       <c r="AN27" s="2"/>
-      <c r="AO27" s="46">
+      <c r="AO27" s="40">
         <v>2002</v>
       </c>
       <c r="AP27" s="2">
@@ -4206,10 +4203,10 @@
         <v>133</v>
       </c>
       <c r="AJ30" s="17"/>
-      <c r="AL30" s="44"/>
+      <c r="AL30" s="38"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="2"/>
-      <c r="AO30" s="46">
+      <c r="AO30" s="40">
         <v>2011</v>
       </c>
       <c r="AP30" s="2">
@@ -4223,10 +4220,10 @@
       <c r="B31" s="2">
         <v>2012</v>
       </c>
-      <c r="AL31" s="44"/>
+      <c r="AL31" s="38"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="2"/>
-      <c r="AO31" s="46">
+      <c r="AO31" s="40">
         <v>2000</v>
       </c>
       <c r="AP31" s="2">
@@ -4289,10 +4286,10 @@
         <v>134</v>
       </c>
       <c r="AJ32" s="17"/>
-      <c r="AL32" s="44"/>
+      <c r="AL32" s="38"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="2"/>
-      <c r="AO32" s="46">
+      <c r="AO32" s="40">
         <v>2012</v>
       </c>
       <c r="AP32" s="2">
@@ -4342,10 +4339,10 @@
       <c r="AJ33" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AL33" s="44"/>
+      <c r="AL33" s="38"/>
       <c r="AM33" s="7"/>
       <c r="AN33" s="2"/>
-      <c r="AO33" s="46">
+      <c r="AO33" s="40">
         <v>2008</v>
       </c>
       <c r="AP33" s="2">
@@ -4396,10 +4393,10 @@
       <c r="AH34" s="17"/>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="17"/>
-      <c r="AL34" s="44"/>
+      <c r="AL34" s="38"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="2"/>
-      <c r="AO34" s="46">
+      <c r="AO34" s="40">
         <v>2000</v>
       </c>
       <c r="AP34" s="2">
@@ -4463,10 +4460,10 @@
       <c r="AH35" s="17"/>
       <c r="AI35" s="17"/>
       <c r="AJ35" s="17"/>
-      <c r="AL35" s="44"/>
+      <c r="AL35" s="38"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="2"/>
-      <c r="AO35" s="45">
+      <c r="AO35" s="39">
         <v>2015</v>
       </c>
       <c r="AP35" s="17">
@@ -4516,7 +4513,7 @@
         <v>1999</v>
       </c>
       <c r="AN36" s="2"/>
-      <c r="AO36" s="46">
+      <c r="AO36" s="40">
         <v>2003</v>
       </c>
       <c r="AP36" s="2">
@@ -4568,10 +4565,10 @@
       <c r="AH37" s="17"/>
       <c r="AI37" s="17"/>
       <c r="AJ37" s="17"/>
-      <c r="AL37" s="44"/>
+      <c r="AL37" s="38"/>
       <c r="AM37" s="7"/>
       <c r="AN37" s="2"/>
-      <c r="AO37" s="44">
+      <c r="AO37" s="38">
         <v>1999</v>
       </c>
       <c r="AP37" s="2">
@@ -4588,10 +4585,10 @@
       <c r="S38" s="4">
         <v>2000</v>
       </c>
-      <c r="AL38" s="44"/>
+      <c r="AL38" s="38"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="2"/>
-      <c r="AO38" s="46">
+      <c r="AO38" s="40">
         <v>2008</v>
       </c>
       <c r="AP38" s="2">
@@ -4645,10 +4642,10 @@
       <c r="AH39" s="17"/>
       <c r="AI39" s="17"/>
       <c r="AJ39" s="17"/>
-      <c r="AL39" s="44"/>
+      <c r="AL39" s="38"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="2"/>
-      <c r="AO39" s="46">
+      <c r="AO39" s="40">
         <v>2010</v>
       </c>
       <c r="AP39" s="2">
@@ -4663,10 +4660,10 @@
         <v>2015</v>
       </c>
       <c r="S40" s="2"/>
-      <c r="AL40" s="44"/>
+      <c r="AL40" s="38"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="2"/>
-      <c r="AO40" s="44">
+      <c r="AO40" s="38">
         <v>1999</v>
       </c>
       <c r="AP40" s="2">
@@ -4686,7 +4683,7 @@
       <c r="AN41" s="13">
         <v>36192</v>
       </c>
-      <c r="AO41" s="45">
+      <c r="AO41" s="39">
         <v>2014</v>
       </c>
       <c r="AP41" s="17"/>
@@ -4702,7 +4699,7 @@
         <v>2001</v>
       </c>
       <c r="AN42" s="2"/>
-      <c r="AO42" s="45">
+      <c r="AO42" s="39">
         <v>2014</v>
       </c>
       <c r="AP42" s="17"/>
@@ -4717,7 +4714,7 @@
         <v>2010</v>
       </c>
       <c r="AN43" s="2"/>
-      <c r="AO43" s="45">
+      <c r="AO43" s="39">
         <v>2020</v>
       </c>
       <c r="AP43" s="17"/>
@@ -4776,10 +4773,10 @@
       <c r="AJ44" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AL44" s="44"/>
+      <c r="AL44" s="38"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="2"/>
-      <c r="AO44" s="46">
+      <c r="AO44" s="40">
         <v>2008</v>
       </c>
       <c r="AP44" s="2">
@@ -4794,10 +4791,10 @@
         <v>2018</v>
       </c>
       <c r="S45" s="2"/>
-      <c r="AL45" s="44"/>
+      <c r="AL45" s="38"/>
       <c r="AM45" s="7"/>
       <c r="AN45" s="2"/>
-      <c r="AO45" s="46">
+      <c r="AO45" s="40">
         <v>2010</v>
       </c>
       <c r="AP45" s="2">
@@ -4857,7 +4854,7 @@
         <v>1999</v>
       </c>
       <c r="AN46" s="2"/>
-      <c r="AO46" s="46">
+      <c r="AO46" s="40">
         <v>2010</v>
       </c>
       <c r="AP46" s="2">
@@ -4915,7 +4912,7 @@
       <c r="AN47" s="4">
         <v>2002</v>
       </c>
-      <c r="AO47" s="46">
+      <c r="AO47" s="40">
         <v>2007</v>
       </c>
       <c r="AP47" s="17"/>
@@ -4961,12 +4958,12 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
-      <c r="AL48" s="44"/>
+      <c r="AL48" s="38"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="4">
         <v>2001</v>
       </c>
-      <c r="AO48" s="46">
+      <c r="AO48" s="40">
         <v>2011</v>
       </c>
       <c r="AP48" s="2">
@@ -4985,7 +4982,7 @@
         <v>2011</v>
       </c>
       <c r="AN49" s="2"/>
-      <c r="AO49" s="46">
+      <c r="AO49" s="40">
         <v>2009</v>
       </c>
       <c r="AP49" s="17"/>
@@ -5033,7 +5030,7 @@
         <v>2001</v>
       </c>
       <c r="AN50" s="2"/>
-      <c r="AO50" s="45"/>
+      <c r="AO50" s="39"/>
       <c r="AP50" s="17"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
@@ -5083,7 +5080,7 @@
         <v>1999</v>
       </c>
       <c r="AN51" s="2"/>
-      <c r="AO51" s="45"/>
+      <c r="AO51" s="39"/>
       <c r="AP51" s="17">
         <v>2018</v>
       </c>
@@ -5099,7 +5096,7 @@
         <v>1999</v>
       </c>
       <c r="AN52" s="2"/>
-      <c r="AO52" s="46">
+      <c r="AO52" s="40">
         <v>2010</v>
       </c>
       <c r="AP52" s="17"/>
@@ -5171,7 +5168,7 @@
         <v>2000</v>
       </c>
       <c r="AN53" s="2"/>
-      <c r="AO53" s="46">
+      <c r="AO53" s="40">
         <v>2009</v>
       </c>
       <c r="AP53" s="17"/>
@@ -5234,12 +5231,12 @@
       <c r="AH56" s="17"/>
       <c r="AI56" s="17"/>
       <c r="AJ56" s="17"/>
-      <c r="AL56" s="44"/>
+      <c r="AL56" s="38"/>
       <c r="AM56" s="7"/>
       <c r="AN56" s="4">
         <v>2000</v>
       </c>
-      <c r="AO56" s="46">
+      <c r="AO56" s="40">
         <v>2011</v>
       </c>
       <c r="AP56" s="17"/>
@@ -5318,14 +5315,14 @@
       <c r="AH57" s="17"/>
       <c r="AI57" s="17"/>
       <c r="AJ57" s="17"/>
-      <c r="AL57" s="46">
+      <c r="AL57" s="40">
         <v>2013</v>
       </c>
       <c r="AM57" s="9">
         <v>1999</v>
       </c>
       <c r="AN57" s="2"/>
-      <c r="AO57" s="46">
+      <c r="AO57" s="40">
         <v>2010</v>
       </c>
       <c r="AP57" s="17" t="s">
@@ -5336,14 +5333,14 @@
       <c r="AM58" s="7"/>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="42" t="s">
+      <c r="C59" s="45"/>
+      <c r="D59" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="40"/>
+      <c r="E59" s="45"/>
       <c r="AM59" s="7"/>
     </row>
   </sheetData>
@@ -5367,11 +5364,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC8819E-4998-4293-AE91-8A38F68283E5}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S10" sqref="S10"/>
+      <selection pane="topRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5386,29 +5383,29 @@
     <col min="14" max="14" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="37" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C1" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>146</v>
       </c>
@@ -5436,7 +5433,7 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>147</v>
@@ -5447,13 +5444,14 @@
       <c r="P2" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5482,10 +5480,10 @@
         <v>2010</v>
       </c>
       <c r="M4" t="s">
+        <v>328</v>
+      </c>
+      <c r="N4" t="s">
         <v>329</v>
-      </c>
-      <c r="N4" t="s">
-        <v>330</v>
       </c>
       <c r="O4" t="s">
         <v>150</v>
@@ -5494,7 +5492,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -5523,10 +5521,10 @@
         <v>2009</v>
       </c>
       <c r="M5" t="s">
+        <v>332</v>
+      </c>
+      <c r="N5" t="s">
         <v>333</v>
-      </c>
-      <c r="N5" t="s">
-        <v>334</v>
       </c>
       <c r="O5" t="s">
         <v>150</v>
@@ -5535,7 +5533,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5564,10 +5562,10 @@
         <v>2010</v>
       </c>
       <c r="M6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O6" t="s">
         <v>150</v>
@@ -5576,7 +5574,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -5605,10 +5603,10 @@
         <v>2010</v>
       </c>
       <c r="M7" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="N7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O7" t="s">
         <v>150</v>
@@ -5617,7 +5615,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -5645,20 +5643,8 @@
       <c r="K8">
         <v>2008</v>
       </c>
-      <c r="M8" t="s">
-        <v>357</v>
-      </c>
-      <c r="N8" t="s">
-        <v>358</v>
-      </c>
-      <c r="O8" t="s">
-        <v>150</v>
-      </c>
-      <c r="P8">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -5687,19 +5673,19 @@
         <v>2008</v>
       </c>
       <c r="M9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="O9" t="s">
         <v>150</v>
       </c>
       <c r="P9">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -5728,10 +5714,10 @@
         <v>2008</v>
       </c>
       <c r="M10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O10" t="s">
         <v>150</v>
@@ -5740,7 +5726,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5768,8 +5754,20 @@
       <c r="K11">
         <v>2010</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>358</v>
+      </c>
+      <c r="N11" t="s">
+        <v>357</v>
+      </c>
+      <c r="O11" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -5798,7 +5796,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -5816,7 +5814,7 @@
       </c>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -5834,7 +5832,7 @@
       </c>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -5863,10 +5861,10 @@
         <v>2011</v>
       </c>
       <c r="M15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O15" t="s">
         <v>150</v>
@@ -5875,7 +5873,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -5933,10 +5931,10 @@
         <v>2008</v>
       </c>
       <c r="M17" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N17" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O17" t="s">
         <v>150</v>
@@ -6191,10 +6189,10 @@
         <v>2008</v>
       </c>
       <c r="M27" t="s">
+        <v>330</v>
+      </c>
+      <c r="N27" t="s">
         <v>331</v>
-      </c>
-      <c r="N27" t="s">
-        <v>332</v>
       </c>
       <c r="O27" t="s">
         <v>150</v>
@@ -6237,10 +6235,10 @@
         <v>2011</v>
       </c>
       <c r="M30" t="s">
+        <v>334</v>
+      </c>
+      <c r="N30" t="s">
         <v>335</v>
-      </c>
-      <c r="N30" t="s">
-        <v>336</v>
       </c>
       <c r="O30" t="s">
         <v>150</v>
@@ -6307,10 +6305,10 @@
         <v>2008</v>
       </c>
       <c r="M32" t="s">
+        <v>336</v>
+      </c>
+      <c r="N32" t="s">
         <v>337</v>
-      </c>
-      <c r="N32" t="s">
-        <v>338</v>
       </c>
       <c r="O32" t="s">
         <v>150</v>
@@ -6348,10 +6346,10 @@
         <v>2008</v>
       </c>
       <c r="M33" t="s">
+        <v>338</v>
+      </c>
+      <c r="N33" t="s">
         <v>339</v>
-      </c>
-      <c r="N33" t="s">
-        <v>340</v>
       </c>
       <c r="O33" t="s">
         <v>150</v>
@@ -6389,10 +6387,10 @@
         <v>2008</v>
       </c>
       <c r="M34" t="s">
+        <v>340</v>
+      </c>
+      <c r="N34" t="s">
         <v>341</v>
-      </c>
-      <c r="N34" t="s">
-        <v>342</v>
       </c>
       <c r="O34" t="s">
         <v>150</v>
@@ -6658,10 +6656,10 @@
         <v>2008</v>
       </c>
       <c r="M44" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="N44" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O44" t="s">
         <v>150</v>
@@ -6906,16 +6904,16 @@
         <v>298</v>
       </c>
       <c r="M57" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="N57" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="O57" t="s">
         <v>150</v>
       </c>
       <c r="P57">
-        <v>2018</v>
+        <v>2011</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE973B6-6476-4820-B98F-C672366BF741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DA1822-AA1E-43E0-96BF-DB35E0ACE7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="363">
   <si>
     <t>United States</t>
   </si>
@@ -941,9 +941,6 @@
     <t>OBXD.OL</t>
   </si>
   <si>
-    <t>Index Fund (IronIA)</t>
-  </si>
-  <si>
     <t>THD</t>
   </si>
   <si>
@@ -1076,12 +1073,6 @@
     <t>AXA WF ITALY EQUITY "F" (EUR)</t>
   </si>
   <si>
-    <t>LU0823428189</t>
-  </si>
-  <si>
-    <t>BNP GER MULTI-FACTOR EQ "P" (EUR) ACC</t>
-  </si>
-  <si>
     <t>LU0823433775</t>
   </si>
   <si>
@@ -1091,24 +1082,12 @@
     <t>ABANCA IBEX 35 "D" (EUR)</t>
   </si>
   <si>
-    <t>IE00B7MSLV86</t>
-  </si>
-  <si>
-    <t>ISHARES UK INDEX (IE) "I" (EUR) ACC</t>
-  </si>
-  <si>
     <t>UBS (LUX) EQ - SWISS OPP P (EUR) ACC</t>
   </si>
   <si>
     <t>LU0546268359</t>
   </si>
   <si>
-    <t>PICTET RUSSIA INDEX "P" (EUR)</t>
-  </si>
-  <si>
-    <t>LU0625742753</t>
-  </si>
-  <si>
     <t>LU1419797797</t>
   </si>
   <si>
@@ -1116,6 +1095,39 @@
   </si>
   <si>
     <t>LU0256781096</t>
+  </si>
+  <si>
+    <t>IE00B1W56R86</t>
+  </si>
+  <si>
+    <t>ISHARES UK INDEX (IE) "I" (GBP) ACC</t>
+  </si>
+  <si>
+    <t>LU0740823785</t>
+  </si>
+  <si>
+    <t>DWS INVEST GERMAN EQ "FC" (EUR) ACC</t>
+  </si>
+  <si>
+    <t>LU0399027704</t>
+  </si>
+  <si>
+    <t>UBS (LUX) EQ RUSS "Q" (USD) ACC</t>
+  </si>
+  <si>
+    <t>2011 to 2022</t>
+  </si>
+  <si>
+    <t>Index Funds (IronIA)</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Funds</t>
+  </si>
+  <si>
+    <t>(IronIA)</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1284,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1338,6 +1350,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1654,11 +1673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="topRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,9 +1689,10 @@
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1700,8 +1720,11 @@
       <c r="J1" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="47" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
         <v>57</v>
       </c>
@@ -1713,8 +1736,11 @@
       <c r="J2" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="50" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1722,7 +1748,7 @@
       <c r="F3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1741,8 +1767,11 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="51">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1761,8 +1790,11 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="51">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1781,8 +1813,11 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="52">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1799,8 +1834,11 @@
       <c r="H7" s="7"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="53">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1820,7 +1858,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1838,8 +1876,11 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="51">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1858,8 +1899,11 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="51">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1878,8 +1922,11 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="51">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1896,7 +1943,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -1915,7 +1962,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1934,7 +1981,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1953,8 +2000,11 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="53">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1971,7 +2021,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1990,8 +2040,11 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="51">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
@@ -2007,7 +2060,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2023,7 +2076,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -2037,7 +2090,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -2056,7 +2109,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2073,7 +2126,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2092,7 +2145,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2113,7 +2166,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2130,7 +2183,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -2146,7 +2199,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
@@ -2159,13 +2212,16 @@
         <v>2007</v>
       </c>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="51">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C28" s="36"/>
       <c r="F28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -2173,7 +2229,7 @@
       <c r="F29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -2192,8 +2248,11 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="51">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>24</v>
       </c>
@@ -2208,7 +2267,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -2227,8 +2286,11 @@
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="51">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -2247,8 +2309,11 @@
       <c r="H33" s="7"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="51">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
@@ -2267,8 +2332,11 @@
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="51">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
@@ -2288,7 +2356,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -2306,7 +2374,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -2324,7 +2392,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>31</v>
       </c>
@@ -2340,7 +2408,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
@@ -2360,7 +2428,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>33</v>
       </c>
@@ -2374,7 +2442,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>49</v>
       </c>
@@ -2388,7 +2456,7 @@
         <v>36192</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
@@ -2400,7 +2468,7 @@
       <c r="H42" s="7"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>35</v>
       </c>
@@ -2412,7 +2480,7 @@
       <c r="H43" s="7"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -2431,8 +2499,11 @@
       <c r="H44" s="7"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="51">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
@@ -2446,7 +2517,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
@@ -2463,7 +2534,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
@@ -2479,7 +2550,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
@@ -2500,7 +2571,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>40</v>
       </c>
@@ -2515,7 +2586,7 @@
       <c r="H49" s="7"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>41</v>
       </c>
@@ -2534,7 +2605,7 @@
       </c>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
@@ -2551,7 +2622,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
@@ -2563,7 +2634,7 @@
       <c r="H52" s="7"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>43</v>
       </c>
@@ -2579,12 +2650,12 @@
       </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C54" s="36"/>
       <c r="F54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -2592,7 +2663,7 @@
       <c r="F55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>44</v>
       </c>
@@ -2609,7 +2680,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
@@ -2628,8 +2699,11 @@
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
     </row>
@@ -2641,11 +2715,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
-  <dimension ref="A1:AP59"/>
+  <dimension ref="A1:AQ59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO25" sqref="AO25"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,9 +2761,10 @@
     <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="10.28515625" style="37" customWidth="1"/>
     <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
         <v>63</v>
       </c>
@@ -2756,11 +2831,14 @@
         <v>141</v>
       </c>
       <c r="AO1" s="41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AP1" s="42"/>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ1" s="49" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -2878,8 +2956,11 @@
       <c r="AP2" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ2" s="20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3061,17 @@
       <c r="AN3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO3" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP3" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -3030,8 +3120,11 @@
       <c r="AP4" s="2">
         <v>2010</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ4" s="9">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -3093,8 +3186,11 @@
       <c r="AP5" s="2">
         <v>2009</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ5" s="9">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -3143,8 +3239,11 @@
       <c r="AP6" s="2">
         <v>2010</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ6" s="11">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -3193,8 +3292,11 @@
       <c r="AP7" s="2">
         <v>2010</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ7" s="19">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -3243,8 +3345,9 @@
       <c r="AP8" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ8" s="11"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -3295,8 +3398,11 @@
       <c r="AP9" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ9" s="9">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -3345,8 +3451,11 @@
       <c r="AP10" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ10" s="9">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
@@ -3401,8 +3510,11 @@
       <c r="AP11" s="2">
         <v>2010</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ11" s="9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -3452,8 +3564,9 @@
       <c r="AP12" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ12" s="11"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
@@ -3500,8 +3613,9 @@
         <v>2012</v>
       </c>
       <c r="AP13" s="17"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ13" s="11"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -3554,8 +3668,9 @@
         <v>1999</v>
       </c>
       <c r="AP14" s="17"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ14" s="11"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -3604,8 +3719,11 @@
       <c r="AP15" s="2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ15" s="19">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
@@ -3625,8 +3743,9 @@
       <c r="AP16" s="17">
         <v>2016</v>
       </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ16" s="11"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
@@ -3675,8 +3794,11 @@
       <c r="AP17" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ17" s="9">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>21</v>
       </c>
@@ -3694,8 +3816,9 @@
       <c r="AP18" s="2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ18" s="11"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>17</v>
       </c>
@@ -3743,8 +3866,9 @@
       <c r="AP19" s="17">
         <v>2008</v>
       </c>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ19" s="11"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>12</v>
       </c>
@@ -3790,8 +3914,9 @@
       <c r="AP20" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ20" s="11"/>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>16</v>
       </c>
@@ -3838,8 +3963,9 @@
       <c r="AP21" s="17">
         <v>2008</v>
       </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ21" s="11"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
@@ -3889,8 +4015,9 @@
         <v>2008</v>
       </c>
       <c r="AP22" s="17"/>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ22" s="11"/>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
@@ -3941,8 +4068,9 @@
         <v>2010</v>
       </c>
       <c r="AP23" s="17"/>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ23" s="11"/>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
@@ -3995,8 +4123,9 @@
         <v>2010</v>
       </c>
       <c r="AP24" s="17"/>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ24" s="11"/>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>13</v>
       </c>
@@ -4042,8 +4171,9 @@
       <c r="AP25" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ25" s="11"/>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>18</v>
       </c>
@@ -4089,8 +4219,9 @@
         <v>2013</v>
       </c>
       <c r="AP26" s="17"/>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ26" s="11"/>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>69</v>
       </c>
@@ -4144,18 +4275,21 @@
       <c r="AP27" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ27" s="9">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AM28" s="7"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="8"/>
       <c r="AM29" s="7"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
@@ -4212,8 +4346,11 @@
       <c r="AP30" s="2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ30" s="9">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>24</v>
       </c>
@@ -4229,8 +4366,9 @@
       <c r="AP31" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ31" s="11"/>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>25</v>
       </c>
@@ -4295,8 +4433,11 @@
       <c r="AP32" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ32" s="9">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>26</v>
       </c>
@@ -4348,8 +4489,11 @@
       <c r="AP33" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ33" s="9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>98</v>
       </c>
@@ -4402,8 +4546,11 @@
       <c r="AP34" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ34" s="9">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>28</v>
       </c>
@@ -4469,8 +4616,9 @@
       <c r="AP35" s="17">
         <v>2019</v>
       </c>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ35" s="11"/>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>29</v>
       </c>
@@ -4519,8 +4667,9 @@
       <c r="AP36" s="2">
         <v>2010</v>
       </c>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ36" s="11"/>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>30</v>
       </c>
@@ -4574,8 +4723,9 @@
       <c r="AP37" s="2">
         <v>2010</v>
       </c>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ37" s="11"/>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>31</v>
       </c>
@@ -4594,8 +4744,9 @@
       <c r="AP38" s="2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ38" s="11"/>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>32</v>
       </c>
@@ -4651,8 +4802,9 @@
       <c r="AP39" s="2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ39" s="11"/>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>33</v>
       </c>
@@ -4669,8 +4821,9 @@
       <c r="AP40" s="2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ40" s="11"/>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>49</v>
       </c>
@@ -4687,8 +4840,9 @@
         <v>2014</v>
       </c>
       <c r="AP41" s="17"/>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ41" s="11"/>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>34</v>
       </c>
@@ -4703,8 +4857,9 @@
         <v>2014</v>
       </c>
       <c r="AP42" s="17"/>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ42" s="11"/>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>35</v>
       </c>
@@ -4718,8 +4873,9 @@
         <v>2020</v>
       </c>
       <c r="AP43" s="17"/>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ43" s="11"/>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>48</v>
       </c>
@@ -4782,8 +4938,11 @@
       <c r="AP44" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ44" s="9">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>36</v>
       </c>
@@ -4800,8 +4959,9 @@
       <c r="AP45" s="2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ45" s="11"/>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>37</v>
       </c>
@@ -4860,8 +5020,9 @@
       <c r="AP46" s="2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ46" s="11"/>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>38</v>
       </c>
@@ -4916,8 +5077,9 @@
         <v>2007</v>
       </c>
       <c r="AP47" s="17"/>
-    </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ47" s="11"/>
+    </row>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>39</v>
       </c>
@@ -4969,8 +5131,9 @@
       <c r="AP48" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ48" s="11"/>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>40</v>
       </c>
@@ -4986,8 +5149,9 @@
         <v>2009</v>
       </c>
       <c r="AP49" s="17"/>
-    </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ49" s="11"/>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>41</v>
       </c>
@@ -5032,8 +5196,9 @@
       <c r="AN50" s="2"/>
       <c r="AO50" s="39"/>
       <c r="AP50" s="17"/>
-    </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ50" s="11"/>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>47</v>
       </c>
@@ -5084,8 +5249,9 @@
       <c r="AP51" s="17">
         <v>2018</v>
       </c>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ51" s="11"/>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>42</v>
       </c>
@@ -5100,8 +5266,9 @@
         <v>2010</v>
       </c>
       <c r="AP52" s="17"/>
-    </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ52" s="11"/>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>43</v>
       </c>
@@ -5172,17 +5339,18 @@
         <v>2009</v>
       </c>
       <c r="AP53" s="17"/>
-    </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ53" s="11"/>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AM54" s="7"/>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>61</v>
       </c>
       <c r="AM55" s="7"/>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>44</v>
       </c>
@@ -5240,8 +5408,9 @@
         <v>2011</v>
       </c>
       <c r="AP56" s="17"/>
-    </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ56" s="11"/>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>45</v>
       </c>
@@ -5328,11 +5497,14 @@
       <c r="AP57" s="17" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ57" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AM58" s="7"/>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B59" s="44" t="s">
         <v>67</v>
       </c>
@@ -5367,8 +5539,8 @@
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T5" sqref="T5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5381,6 +5553,7 @@
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="44.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -5399,7 +5572,7 @@
       <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="42" t="s">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
@@ -5433,7 +5606,7 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>147</v>
@@ -5480,10 +5653,10 @@
         <v>2010</v>
       </c>
       <c r="M4" t="s">
+        <v>327</v>
+      </c>
+      <c r="N4" t="s">
         <v>328</v>
-      </c>
-      <c r="N4" t="s">
-        <v>329</v>
       </c>
       <c r="O4" t="s">
         <v>150</v>
@@ -5509,10 +5682,10 @@
         <v>1999</v>
       </c>
       <c r="H5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J5" t="s">
         <v>150</v>
@@ -5521,10 +5694,10 @@
         <v>2009</v>
       </c>
       <c r="M5" t="s">
+        <v>331</v>
+      </c>
+      <c r="N5" t="s">
         <v>332</v>
-      </c>
-      <c r="N5" t="s">
-        <v>333</v>
       </c>
       <c r="O5" t="s">
         <v>150</v>
@@ -5561,17 +5734,17 @@
       <c r="K6">
         <v>2010</v>
       </c>
-      <c r="M6" t="s">
-        <v>350</v>
-      </c>
-      <c r="N6" t="s">
-        <v>351</v>
-      </c>
-      <c r="O6" t="s">
-        <v>150</v>
-      </c>
-      <c r="P6">
-        <v>1999</v>
+      <c r="M6" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="17">
+        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -5602,16 +5775,16 @@
       <c r="K7">
         <v>2010</v>
       </c>
-      <c r="M7" t="s">
-        <v>356</v>
-      </c>
-      <c r="N7" t="s">
-        <v>327</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="M7" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="O7" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="17">
         <v>2016</v>
       </c>
     </row>
@@ -5643,6 +5816,7 @@
       <c r="K8">
         <v>2008</v>
       </c>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -5673,10 +5847,10 @@
         <v>2008</v>
       </c>
       <c r="M9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="N9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="O9" t="s">
         <v>150</v>
@@ -5714,16 +5888,16 @@
         <v>2008</v>
       </c>
       <c r="M10" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="N10" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="O10" t="s">
         <v>150</v>
       </c>
       <c r="P10">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -5755,10 +5929,10 @@
         <v>2010</v>
       </c>
       <c r="M11" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="N11" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="O11" t="s">
         <v>150</v>
@@ -5795,6 +5969,7 @@
       <c r="K12">
         <v>2008</v>
       </c>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -5813,6 +5988,7 @@
         <v>2012</v>
       </c>
       <c r="H13" s="17"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -5831,6 +6007,7 @@
         <v>1999</v>
       </c>
       <c r="H14" s="17"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -5860,16 +6037,16 @@
       <c r="K15">
         <v>2011</v>
       </c>
-      <c r="M15" t="s">
-        <v>342</v>
-      </c>
-      <c r="N15" t="s">
-        <v>349</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="M15" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="O15" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="17">
         <v>2016</v>
       </c>
     </row>
@@ -5901,6 +6078,7 @@
       <c r="K16" s="17">
         <v>2016</v>
       </c>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -5931,10 +6109,10 @@
         <v>2008</v>
       </c>
       <c r="M17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N17" t="s">
         <v>343</v>
-      </c>
-      <c r="N17" t="s">
-        <v>344</v>
       </c>
       <c r="O17" t="s">
         <v>150</v>
@@ -5971,6 +6149,7 @@
       <c r="K18">
         <v>2011</v>
       </c>
+      <c r="M18" s="17"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -6000,6 +6179,7 @@
       <c r="K19" s="17">
         <v>2008</v>
       </c>
+      <c r="M19" s="17"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -6029,6 +6209,7 @@
       <c r="K20">
         <v>2008</v>
       </c>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -6058,6 +6239,7 @@
       <c r="K21" s="17">
         <v>2008</v>
       </c>
+      <c r="M21" s="17"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -6076,6 +6258,7 @@
         <v>2008</v>
       </c>
       <c r="H22" s="17"/>
+      <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -6094,6 +6277,7 @@
         <v>2010</v>
       </c>
       <c r="H23" s="17"/>
+      <c r="M23" s="17"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -6112,6 +6296,7 @@
         <v>2010</v>
       </c>
       <c r="H24" s="17"/>
+      <c r="M24" s="17"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -6141,6 +6326,7 @@
       <c r="K25">
         <v>2008</v>
       </c>
+      <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -6159,6 +6345,7 @@
         <v>2013</v>
       </c>
       <c r="H26" s="17"/>
+      <c r="M26" s="17"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -6189,10 +6376,10 @@
         <v>2008</v>
       </c>
       <c r="M27" t="s">
+        <v>329</v>
+      </c>
+      <c r="N27" t="s">
         <v>330</v>
-      </c>
-      <c r="N27" t="s">
-        <v>331</v>
       </c>
       <c r="O27" t="s">
         <v>150</v>
@@ -6235,10 +6422,10 @@
         <v>2011</v>
       </c>
       <c r="M30" t="s">
+        <v>333</v>
+      </c>
+      <c r="N30" t="s">
         <v>334</v>
-      </c>
-      <c r="N30" t="s">
-        <v>335</v>
       </c>
       <c r="O30" t="s">
         <v>150</v>
@@ -6275,6 +6462,7 @@
       <c r="K31">
         <v>2008</v>
       </c>
+      <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -6305,10 +6493,10 @@
         <v>2008</v>
       </c>
       <c r="M32" t="s">
+        <v>335</v>
+      </c>
+      <c r="N32" t="s">
         <v>336</v>
-      </c>
-      <c r="N32" t="s">
-        <v>337</v>
       </c>
       <c r="O32" t="s">
         <v>150</v>
@@ -6346,10 +6534,10 @@
         <v>2008</v>
       </c>
       <c r="M33" t="s">
+        <v>337</v>
+      </c>
+      <c r="N33" t="s">
         <v>338</v>
-      </c>
-      <c r="N33" t="s">
-        <v>339</v>
       </c>
       <c r="O33" t="s">
         <v>150</v>
@@ -6387,10 +6575,10 @@
         <v>2008</v>
       </c>
       <c r="M34" t="s">
+        <v>339</v>
+      </c>
+      <c r="N34" t="s">
         <v>340</v>
-      </c>
-      <c r="N34" t="s">
-        <v>341</v>
       </c>
       <c r="O34" t="s">
         <v>150</v>
@@ -6427,6 +6615,7 @@
       <c r="K35" s="17">
         <v>2019</v>
       </c>
+      <c r="M35" s="17"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -6456,6 +6645,7 @@
       <c r="K36">
         <v>2010</v>
       </c>
+      <c r="M36" s="17"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -6485,16 +6675,17 @@
       <c r="K37">
         <v>2010</v>
       </c>
+      <c r="M37" s="17"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C38" t="s">
+        <v>300</v>
+      </c>
+      <c r="D38" t="s">
         <v>301</v>
-      </c>
-      <c r="D38" t="s">
-        <v>302</v>
       </c>
       <c r="E38" t="s">
         <v>153</v>
@@ -6503,10 +6694,10 @@
         <v>2008</v>
       </c>
       <c r="H38" t="s">
+        <v>302</v>
+      </c>
+      <c r="I38" t="s">
         <v>303</v>
-      </c>
-      <c r="I38" t="s">
-        <v>304</v>
       </c>
       <c r="J38" t="s">
         <v>150</v>
@@ -6514,6 +6705,7 @@
       <c r="K38">
         <v>2011</v>
       </c>
+      <c r="M38" s="17"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -6543,16 +6735,17 @@
       <c r="K39">
         <v>2011</v>
       </c>
+      <c r="M39" s="17"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E40" t="s">
         <v>153</v>
@@ -6561,10 +6754,10 @@
         <v>1999</v>
       </c>
       <c r="H40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J40" t="s">
         <v>150</v>
@@ -6572,16 +6765,17 @@
       <c r="K40">
         <v>2011</v>
       </c>
+      <c r="M40" s="17"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>311</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>312</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>153</v>
@@ -6590,16 +6784,17 @@
         <v>2014</v>
       </c>
       <c r="H41" s="17"/>
+      <c r="M41" s="17"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>313</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>314</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>153</v>
@@ -6608,16 +6803,17 @@
         <v>2014</v>
       </c>
       <c r="H42" s="17"/>
+      <c r="M42" s="17"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>315</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>316</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>153</v>
@@ -6626,6 +6822,7 @@
         <v>2020</v>
       </c>
       <c r="H43" s="17"/>
+      <c r="M43" s="17"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -6656,10 +6853,10 @@
         <v>2008</v>
       </c>
       <c r="M44" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N44" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O44" t="s">
         <v>150</v>
@@ -6673,10 +6870,10 @@
         <v>36</v>
       </c>
       <c r="C45" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" t="s">
         <v>317</v>
-      </c>
-      <c r="D45" t="s">
-        <v>318</v>
       </c>
       <c r="E45" t="s">
         <v>153</v>
@@ -6685,10 +6882,10 @@
         <v>2010</v>
       </c>
       <c r="H45" t="s">
+        <v>318</v>
+      </c>
+      <c r="I45" t="s">
         <v>319</v>
-      </c>
-      <c r="I45" t="s">
-        <v>320</v>
       </c>
       <c r="J45" t="s">
         <v>150</v>
@@ -6696,6 +6893,7 @@
       <c r="K45">
         <v>2011</v>
       </c>
+      <c r="M45" s="17"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -6725,6 +6923,7 @@
       <c r="K46">
         <v>2011</v>
       </c>
+      <c r="M46" s="17"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -6743,6 +6942,7 @@
         <v>2007</v>
       </c>
       <c r="H47" s="17"/>
+      <c r="M47" s="17"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -6772,16 +6972,17 @@
       <c r="K48">
         <v>2008</v>
       </c>
+      <c r="M48" s="17"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C49" t="s">
+        <v>320</v>
+      </c>
+      <c r="D49" t="s">
         <v>321</v>
-      </c>
-      <c r="D49" t="s">
-        <v>322</v>
       </c>
       <c r="E49" t="s">
         <v>153</v>
@@ -6790,6 +6991,7 @@
         <v>2009</v>
       </c>
       <c r="H49" s="17"/>
+      <c r="M49" s="17"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -6797,6 +6999,7 @@
       </c>
       <c r="C50" s="17"/>
       <c r="H50" s="17"/>
+      <c r="M50" s="17"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -6815,16 +7018,17 @@
       <c r="K51" s="17">
         <v>2018</v>
       </c>
+      <c r="M51" s="17"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C52" t="s">
+        <v>322</v>
+      </c>
+      <c r="D52" t="s">
         <v>323</v>
-      </c>
-      <c r="D52" t="s">
-        <v>324</v>
       </c>
       <c r="E52" t="s">
         <v>153</v>
@@ -6833,6 +7037,7 @@
         <v>2010</v>
       </c>
       <c r="H52" s="17"/>
+      <c r="M52" s="17"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
@@ -6851,6 +7056,10 @@
         <v>2009</v>
       </c>
       <c r="H53" s="17"/>
+      <c r="M53" s="17"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M54" s="17"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -6874,6 +7083,7 @@
         <v>2011</v>
       </c>
       <c r="H56" s="17"/>
+      <c r="M56" s="17"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -6903,17 +7113,17 @@
       <c r="K57" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="M57" t="s">
-        <v>355</v>
-      </c>
-      <c r="N57" t="s">
-        <v>354</v>
-      </c>
-      <c r="O57" t="s">
-        <v>150</v>
-      </c>
-      <c r="P57">
-        <v>2011</v>
+      <c r="M57" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="N57" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="O57" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="P57" s="17" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DA1822-AA1E-43E0-96BF-DB35E0ACE7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AAA6AC-B274-4BC6-879C-740BBCBF94A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="365">
   <si>
     <t>United States</t>
   </si>
@@ -782,12 +782,6 @@
     <t>iShares MSCI India ETF</t>
   </si>
   <si>
-    <t>LYKRW.SW</t>
-  </si>
-  <si>
-    <t>Lyxor MSCI Korea UCITS ETF</t>
-  </si>
-  <si>
     <t>XMKO.MI</t>
   </si>
   <si>
@@ -1128,6 +1122,18 @@
   </si>
   <si>
     <t>(IronIA)</t>
+  </si>
+  <si>
+    <t>EWY</t>
+  </si>
+  <si>
+    <t>iShares MSCI South Korea ETF</t>
+  </si>
+  <si>
+    <t>USD ETFs</t>
+  </si>
+  <si>
+    <t>EUR ETFs</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1290,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1350,13 +1356,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1673,11 +1678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O6" sqref="O6"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,10 +1694,12 @@
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1720,11 +1727,17 @@
       <c r="J1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="47" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K1" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
         <v>57</v>
       </c>
@@ -1736,11 +1749,13 @@
       <c r="J2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="50" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="47"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="47" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1748,7 +1763,7 @@
       <c r="F3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1767,11 +1782,15 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="51">
+      <c r="K4" s="49"/>
+      <c r="L4" s="4">
+        <v>2010</v>
+      </c>
+      <c r="M4" s="49">
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1790,11 +1809,15 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="51">
+      <c r="K5" s="49"/>
+      <c r="L5" s="4">
+        <v>2009</v>
+      </c>
+      <c r="M5" s="49">
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1813,11 +1836,15 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="52">
+      <c r="K6" s="49"/>
+      <c r="L6" s="4">
+        <v>2010</v>
+      </c>
+      <c r="M6" s="51">
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1834,11 +1861,15 @@
       <c r="H7" s="7"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="53">
+      <c r="K7" s="49"/>
+      <c r="L7" s="4">
+        <v>2010</v>
+      </c>
+      <c r="M7" s="50">
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1857,8 +1888,12 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="49"/>
+      <c r="L8" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1876,11 +1911,15 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="51">
+      <c r="K9" s="49"/>
+      <c r="L9" s="2">
+        <v>2008</v>
+      </c>
+      <c r="M9" s="49">
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1899,11 +1938,15 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="51">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="49"/>
+      <c r="L10" s="2">
+        <v>2008</v>
+      </c>
+      <c r="M10" s="49">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1922,11 +1965,15 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="51">
+      <c r="K11" s="49"/>
+      <c r="L11" s="4">
+        <v>2010</v>
+      </c>
+      <c r="M11" s="49">
         <v>2007</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1942,8 +1989,12 @@
       <c r="H12" s="7"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="49"/>
+      <c r="L12" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -1961,8 +2012,11 @@
         <v>2001</v>
       </c>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="50">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1980,8 +2034,9 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="49"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2000,11 +2055,15 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="53">
+      <c r="K15" s="49"/>
+      <c r="L15" s="4">
+        <v>2011</v>
+      </c>
+      <c r="M15" s="50">
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -2020,8 +2079,12 @@
       <c r="H16" s="7"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="49"/>
+      <c r="L16" s="17">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2040,11 +2103,15 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="51">
+      <c r="K17" s="49"/>
+      <c r="L17" s="2">
+        <v>2008</v>
+      </c>
+      <c r="M17" s="49">
         <v>1999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
@@ -2059,8 +2126,12 @@
       <c r="H18" s="7"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="49"/>
+      <c r="L18" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2075,8 +2146,14 @@
         <v>2001</v>
       </c>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="50">
+        <v>2012</v>
+      </c>
+      <c r="L19" s="17">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -2089,8 +2166,12 @@
       <c r="H20" s="7"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="49"/>
+      <c r="L20" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -2108,8 +2189,14 @@
         <v>36404</v>
       </c>
       <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="50">
+        <v>2009</v>
+      </c>
+      <c r="L21" s="17">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2125,8 +2212,11 @@
       <c r="H22" s="7"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="50">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2144,8 +2234,11 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="50">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2165,8 +2258,11 @@
         <v>2001</v>
       </c>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="50">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2182,8 +2278,12 @@
       <c r="H25" s="7"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="49"/>
+      <c r="L25" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -2198,8 +2298,11 @@
         <v>2010</v>
       </c>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="50">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
@@ -2212,16 +2315,22 @@
         <v>2007</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="51">
+      <c r="K27" s="50">
+        <v>2002</v>
+      </c>
+      <c r="L27" s="2">
+        <v>2008</v>
+      </c>
+      <c r="M27" s="49">
         <v>2001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" s="36"/>
       <c r="F28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -2229,7 +2338,7 @@
       <c r="F29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -2248,11 +2357,17 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="51">
+      <c r="K30" s="50">
         <v>2011</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="4">
+        <v>2011</v>
+      </c>
+      <c r="M30" s="49">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>24</v>
       </c>
@@ -2266,8 +2381,14 @@
       <c r="H31" s="7"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="50">
+        <v>2000</v>
+      </c>
+      <c r="L31" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -2286,11 +2407,17 @@
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="51">
+      <c r="K32" s="50">
+        <v>2012</v>
+      </c>
+      <c r="L32" s="2">
+        <v>2008</v>
+      </c>
+      <c r="M32" s="49">
         <v>2005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -2309,11 +2436,17 @@
       <c r="H33" s="7"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="51">
+      <c r="K33" s="50">
+        <v>2000</v>
+      </c>
+      <c r="L33" s="2">
+        <v>2008</v>
+      </c>
+      <c r="M33" s="49">
         <v>2007</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
@@ -2332,11 +2465,17 @@
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="51">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="50">
+        <v>2000</v>
+      </c>
+      <c r="L34" s="2">
+        <v>2008</v>
+      </c>
+      <c r="M34" s="49">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
@@ -2355,8 +2494,14 @@
       <c r="H35" s="7"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="51">
+        <v>2015</v>
+      </c>
+      <c r="L35" s="17">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -2373,8 +2518,14 @@
       <c r="H36" s="7"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="50">
+        <v>2003</v>
+      </c>
+      <c r="L36" s="4">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -2391,8 +2542,12 @@
       <c r="H37" s="7"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="49"/>
+      <c r="L37" s="4">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>31</v>
       </c>
@@ -2407,8 +2562,14 @@
       <c r="H38" s="7"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="50">
+        <v>2008</v>
+      </c>
+      <c r="L38" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
@@ -2427,8 +2588,14 @@
       <c r="H39" s="7"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="50">
+        <v>2010</v>
+      </c>
+      <c r="L39" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>33</v>
       </c>
@@ -2441,8 +2608,12 @@
       <c r="H40" s="7"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="49"/>
+      <c r="L40" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>49</v>
       </c>
@@ -2455,8 +2626,11 @@
       <c r="J41" s="13">
         <v>36192</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="51">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
@@ -2467,8 +2641,11 @@
       <c r="F42" s="7"/>
       <c r="H42" s="7"/>
       <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="51">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>35</v>
       </c>
@@ -2479,8 +2656,11 @@
       <c r="F43" s="7"/>
       <c r="H43" s="7"/>
       <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="51">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -2499,11 +2679,17 @@
       <c r="H44" s="7"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="51">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="50">
+        <v>2008</v>
+      </c>
+      <c r="L44" s="2">
+        <v>2008</v>
+      </c>
+      <c r="M44" s="49">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
@@ -2516,8 +2702,14 @@
       <c r="H45" s="7"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="50">
+        <v>2010</v>
+      </c>
+      <c r="L45" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
@@ -2533,8 +2725,14 @@
       <c r="H46" s="7"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="50">
+        <v>2010</v>
+      </c>
+      <c r="L46" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
@@ -2549,8 +2747,11 @@
       <c r="J47" s="4">
         <v>2002</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="50">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
@@ -2570,8 +2771,14 @@
       <c r="J48" s="4">
         <v>2001</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="50">
+        <v>2011</v>
+      </c>
+      <c r="L48" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>40</v>
       </c>
@@ -2585,8 +2792,11 @@
       <c r="F49" s="7"/>
       <c r="H49" s="7"/>
       <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="50">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>41</v>
       </c>
@@ -2604,8 +2814,9 @@
         <v>2001</v>
       </c>
       <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="51"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
@@ -2621,8 +2832,12 @@
       <c r="H51" s="7"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="51"/>
+      <c r="L51" s="17">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
@@ -2633,8 +2848,11 @@
       <c r="F52" s="7"/>
       <c r="H52" s="7"/>
       <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="50">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>43</v>
       </c>
@@ -2649,13 +2867,16 @@
         <v>2000</v>
       </c>
       <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="50">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C54" s="36"/>
       <c r="F54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,7 +2884,7 @@
       <c r="F55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>44</v>
       </c>
@@ -2679,8 +2900,11 @@
       <c r="J56" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="50">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
@@ -2699,11 +2923,17 @@
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="52" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="50">
+        <v>2010</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="M57" s="51" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
     </row>
@@ -2718,8 +2948,8 @@
   <dimension ref="A1:AQ59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR1" sqref="AR1"/>
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,6 +2992,7 @@
     <col min="41" max="41" width="10.28515625" style="37" customWidth="1"/>
     <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -2831,11 +3062,11 @@
         <v>141</v>
       </c>
       <c r="AO1" s="41" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AP1" s="42"/>
-      <c r="AQ1" s="49" t="s">
-        <v>360</v>
+      <c r="AQ1" s="20" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -2957,7 +3188,7 @@
         <v>150</v>
       </c>
       <c r="AQ2" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -3064,11 +3295,11 @@
       <c r="AO3" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AP3" s="48" t="s">
+      <c r="AP3" t="s">
         <v>55</v>
       </c>
       <c r="AQ3" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -3117,7 +3348,7 @@
       <c r="AO4" s="38">
         <v>1999</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AP4" s="4">
         <v>2010</v>
       </c>
       <c r="AQ4" s="9">
@@ -3183,7 +3414,7 @@
       <c r="AO5" s="38">
         <v>1999</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AP5" s="4">
         <v>2009</v>
       </c>
       <c r="AQ5" s="9">
@@ -3236,7 +3467,7 @@
       <c r="AO6" s="38">
         <v>1999</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AP6" s="4">
         <v>2010</v>
       </c>
       <c r="AQ6" s="11">
@@ -3289,7 +3520,7 @@
       <c r="AO7" s="38">
         <v>1999</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AP7" s="4">
         <v>2010</v>
       </c>
       <c r="AQ7" s="19">
@@ -3507,7 +3738,7 @@
       <c r="AO11" s="38">
         <v>1999</v>
       </c>
-      <c r="AP11" s="2">
+      <c r="AP11" s="4">
         <v>2010</v>
       </c>
       <c r="AQ11" s="9">
@@ -3716,7 +3947,7 @@
       <c r="AO15" s="38">
         <v>1999</v>
       </c>
-      <c r="AP15" s="2">
+      <c r="AP15" s="4">
         <v>2011</v>
       </c>
       <c r="AQ15" s="19">
@@ -3813,7 +4044,7 @@
       <c r="AO18" s="38">
         <v>1999</v>
       </c>
-      <c r="AP18" s="2">
+      <c r="AP18" s="4">
         <v>2011</v>
       </c>
       <c r="AQ18" s="11"/>
@@ -4343,7 +4574,7 @@
       <c r="AO30" s="40">
         <v>2011</v>
       </c>
-      <c r="AP30" s="2">
+      <c r="AP30" s="4">
         <v>2011</v>
       </c>
       <c r="AQ30" s="9">
@@ -4484,7 +4715,7 @@
       <c r="AM33" s="7"/>
       <c r="AN33" s="2"/>
       <c r="AO33" s="40">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="AP33" s="2">
         <v>2008</v>
@@ -4664,7 +4895,7 @@
       <c r="AO36" s="40">
         <v>2003</v>
       </c>
-      <c r="AP36" s="2">
+      <c r="AP36" s="4">
         <v>2010</v>
       </c>
       <c r="AQ36" s="11"/>
@@ -4720,7 +4951,7 @@
       <c r="AO37" s="38">
         <v>1999</v>
       </c>
-      <c r="AP37" s="2">
+      <c r="AP37" s="4">
         <v>2010</v>
       </c>
       <c r="AQ37" s="11"/>
@@ -4741,7 +4972,7 @@
       <c r="AO38" s="40">
         <v>2008</v>
       </c>
-      <c r="AP38" s="2">
+      <c r="AP38" s="4">
         <v>2011</v>
       </c>
       <c r="AQ38" s="11"/>
@@ -4799,7 +5030,7 @@
       <c r="AO39" s="40">
         <v>2010</v>
       </c>
-      <c r="AP39" s="2">
+      <c r="AP39" s="4">
         <v>2011</v>
       </c>
       <c r="AQ39" s="11"/>
@@ -4818,7 +5049,7 @@
       <c r="AO40" s="38">
         <v>1999</v>
       </c>
-      <c r="AP40" s="2">
+      <c r="AP40" s="4">
         <v>2011</v>
       </c>
       <c r="AQ40" s="11"/>
@@ -4956,7 +5187,7 @@
       <c r="AO45" s="40">
         <v>2010</v>
       </c>
-      <c r="AP45" s="2">
+      <c r="AP45" s="4">
         <v>2011</v>
       </c>
       <c r="AQ45" s="11"/>
@@ -5017,7 +5248,7 @@
       <c r="AO46" s="40">
         <v>2010</v>
       </c>
-      <c r="AP46" s="2">
+      <c r="AP46" s="4">
         <v>2011</v>
       </c>
       <c r="AQ46" s="11"/>
@@ -5495,10 +5726,10 @@
         <v>2010</v>
       </c>
       <c r="AP57" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AQ57" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
@@ -5538,41 +5769,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC8819E-4998-4293-AE91-8A38F68283E5}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R21" sqref="R21"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C1" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D1" s="42"/>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
       <c r="G1" s="1"/>
       <c r="H1" s="42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I1" s="42"/>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="42" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
@@ -5606,7 +5843,7 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>147</v>
@@ -5653,10 +5890,10 @@
         <v>2010</v>
       </c>
       <c r="M4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O4" t="s">
         <v>150</v>
@@ -5682,10 +5919,10 @@
         <v>1999</v>
       </c>
       <c r="H5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J5" t="s">
         <v>150</v>
@@ -5694,10 +5931,10 @@
         <v>2009</v>
       </c>
       <c r="M5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O5" t="s">
         <v>150</v>
@@ -5735,10 +5972,10 @@
         <v>2010</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>109</v>
@@ -5776,10 +6013,10 @@
         <v>2010</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O7" s="17" t="s">
         <v>150</v>
@@ -5847,10 +6084,10 @@
         <v>2008</v>
       </c>
       <c r="M9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O9" t="s">
         <v>150</v>
@@ -5888,10 +6125,10 @@
         <v>2008</v>
       </c>
       <c r="M10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O10" t="s">
         <v>150</v>
@@ -5929,10 +6166,10 @@
         <v>2010</v>
       </c>
       <c r="M11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O11" t="s">
         <v>150</v>
@@ -6038,10 +6275,10 @@
         <v>2011</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O15" s="17" t="s">
         <v>150</v>
@@ -6109,10 +6346,10 @@
         <v>2008</v>
       </c>
       <c r="M17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O17" t="s">
         <v>150</v>
@@ -6228,7 +6465,7 @@
         <v>2009</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>217</v>
@@ -6376,10 +6613,10 @@
         <v>2008</v>
       </c>
       <c r="M27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O27" t="s">
         <v>150</v>
@@ -6422,10 +6659,10 @@
         <v>2011</v>
       </c>
       <c r="M30" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N30" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O30" t="s">
         <v>150</v>
@@ -6493,10 +6730,10 @@
         <v>2008</v>
       </c>
       <c r="M32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O32" t="s">
         <v>150</v>
@@ -6510,22 +6747,22 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>247</v>
+        <v>361</v>
       </c>
       <c r="D33" t="s">
-        <v>248</v>
+        <v>362</v>
       </c>
       <c r="E33" t="s">
         <v>153</v>
       </c>
       <c r="F33">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="H33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J33" t="s">
         <v>150</v>
@@ -6534,10 +6771,10 @@
         <v>2008</v>
       </c>
       <c r="M33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O33" t="s">
         <v>150</v>
@@ -6551,10 +6788,10 @@
         <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E34" t="s">
         <v>153</v>
@@ -6563,10 +6800,10 @@
         <v>2000</v>
       </c>
       <c r="H34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J34" t="s">
         <v>150</v>
@@ -6575,10 +6812,10 @@
         <v>2008</v>
       </c>
       <c r="M34" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N34" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O34" t="s">
         <v>150</v>
@@ -6592,22 +6829,22 @@
         <v>28</v>
       </c>
       <c r="C35" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>259</v>
       </c>
       <c r="F35" s="17">
         <v>2015</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J35" s="17" t="s">
         <v>182</v>
@@ -6622,10 +6859,10 @@
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D36" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E36" t="s">
         <v>153</v>
@@ -6634,10 +6871,10 @@
         <v>2003</v>
       </c>
       <c r="H36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I36" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J36" t="s">
         <v>150</v>
@@ -6652,10 +6889,10 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E37" t="s">
         <v>153</v>
@@ -6664,10 +6901,10 @@
         <v>1999</v>
       </c>
       <c r="H37" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J37" t="s">
         <v>150</v>
@@ -6682,10 +6919,10 @@
         <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D38" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E38" t="s">
         <v>153</v>
@@ -6694,10 +6931,10 @@
         <v>2008</v>
       </c>
       <c r="H38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J38" t="s">
         <v>150</v>
@@ -6712,10 +6949,10 @@
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E39" t="s">
         <v>153</v>
@@ -6724,10 +6961,10 @@
         <v>2010</v>
       </c>
       <c r="H39" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J39" t="s">
         <v>150</v>
@@ -6742,10 +6979,10 @@
         <v>33</v>
       </c>
       <c r="C40" t="s">
+        <v>303</v>
+      </c>
+      <c r="D40" t="s">
         <v>305</v>
-      </c>
-      <c r="D40" t="s">
-        <v>307</v>
       </c>
       <c r="E40" t="s">
         <v>153</v>
@@ -6754,10 +6991,10 @@
         <v>1999</v>
       </c>
       <c r="H40" t="s">
+        <v>302</v>
+      </c>
+      <c r="I40" t="s">
         <v>304</v>
-      </c>
-      <c r="I40" t="s">
-        <v>306</v>
       </c>
       <c r="J40" t="s">
         <v>150</v>
@@ -6772,10 +7009,10 @@
         <v>49</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>153</v>
@@ -6791,10 +7028,10 @@
         <v>34</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>153</v>
@@ -6810,10 +7047,10 @@
         <v>35</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>153</v>
@@ -6829,10 +7066,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E44" t="s">
         <v>153</v>
@@ -6841,10 +7078,10 @@
         <v>2008</v>
       </c>
       <c r="H44" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J44" t="s">
         <v>150</v>
@@ -6853,10 +7090,10 @@
         <v>2008</v>
       </c>
       <c r="M44" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="N44" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O44" t="s">
         <v>150</v>
@@ -6870,10 +7107,10 @@
         <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D45" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E45" t="s">
         <v>153</v>
@@ -6882,10 +7119,10 @@
         <v>2010</v>
       </c>
       <c r="H45" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I45" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J45" t="s">
         <v>150</v>
@@ -6900,10 +7137,10 @@
         <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E46" t="s">
         <v>153</v>
@@ -6912,10 +7149,10 @@
         <v>2010</v>
       </c>
       <c r="H46" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J46" t="s">
         <v>150</v>
@@ -6930,10 +7167,10 @@
         <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D47" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E47" t="s">
         <v>153</v>
@@ -6949,10 +7186,10 @@
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D48" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E48" t="s">
         <v>153</v>
@@ -6961,10 +7198,10 @@
         <v>2011</v>
       </c>
       <c r="H48" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J48" t="s">
         <v>150</v>
@@ -6979,10 +7216,10 @@
         <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D49" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E49" t="s">
         <v>153</v>
@@ -7007,10 +7244,10 @@
       </c>
       <c r="C51" s="17"/>
       <c r="H51" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J51" s="17" t="s">
         <v>150</v>
@@ -7025,10 +7262,10 @@
         <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D52" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E52" t="s">
         <v>153</v>
@@ -7044,10 +7281,10 @@
         <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D53" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E53" t="s">
         <v>153</v>
@@ -7071,13 +7308,13 @@
         <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D56" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F56">
         <v>2011</v>
@@ -7090,10 +7327,10 @@
         <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D57" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E57" t="s">
         <v>153</v>
@@ -7102,28 +7339,28 @@
         <v>2010</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J57" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M57" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O57" s="17" t="s">
         <v>153</v>
       </c>
       <c r="P57" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -7141,9 +7378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A262C-BF3B-4D84-B60A-8947EF3BFC30}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AAA6AC-B274-4BC6-879C-740BBCBF94A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8542091-9588-44DA-9CE5-430018722231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="375">
   <si>
     <t>United States</t>
   </si>
@@ -1134,6 +1134,36 @@
   </si>
   <si>
     <t>EUR ETFs</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Total industry</t>
+  </si>
+  <si>
+    <t>ex Construction</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>PPI</t>
+  </si>
+  <si>
+    <t>PPI Manufacture</t>
+  </si>
+  <si>
+    <t>of Food Products</t>
+  </si>
+  <si>
+    <t>to 2019</t>
+  </si>
+  <si>
+    <t>2001 to 2019</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1320,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1356,12 +1386,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1694,9 +1730,8 @@
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1727,13 +1762,13 @@
       <c r="J1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="1" t="s">
         <v>358</v>
       </c>
     </row>
@@ -1749,9 +1784,9 @@
       <c r="J2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="47"/>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="1" t="s">
         <v>359</v>
       </c>
     </row>
@@ -1782,11 +1817,11 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="49"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="4">
         <v>2010</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="2">
         <v>2002</v>
       </c>
     </row>
@@ -1809,11 +1844,11 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="49"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="4">
         <v>2009</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="2">
         <v>2006</v>
       </c>
     </row>
@@ -1836,11 +1871,11 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="49"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="4">
         <v>2010</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="17">
         <v>2011</v>
       </c>
     </row>
@@ -1861,11 +1896,11 @@
       <c r="H7" s="7"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="49"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="4">
         <v>2010</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="4">
         <v>2016</v>
       </c>
     </row>
@@ -1888,7 +1923,7 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="49"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="2">
         <v>2008</v>
       </c>
@@ -1911,11 +1946,11 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="49"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2">
         <v>2008</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="2">
         <v>2010</v>
       </c>
     </row>
@@ -1938,11 +1973,11 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="49"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="2">
         <v>2008</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="2">
         <v>2012</v>
       </c>
     </row>
@@ -1965,11 +2000,11 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="49"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="4">
         <v>2010</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="2">
         <v>2007</v>
       </c>
     </row>
@@ -1989,7 +2024,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="49"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="2">
         <v>2008</v>
       </c>
@@ -2012,7 +2047,7 @@
         <v>2001</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="50">
+      <c r="K13" s="4">
         <v>2012</v>
       </c>
     </row>
@@ -2034,7 +2069,7 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="49"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -2055,11 +2090,11 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="49"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="4">
         <v>2011</v>
       </c>
-      <c r="M15" s="50">
+      <c r="M15" s="4">
         <v>2016</v>
       </c>
     </row>
@@ -2079,7 +2114,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="49"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="17">
         <v>2016</v>
       </c>
@@ -2103,11 +2138,11 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="49"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2">
         <v>2008</v>
       </c>
-      <c r="M17" s="49">
+      <c r="M17" s="2">
         <v>1999</v>
       </c>
     </row>
@@ -2126,7 +2161,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="49"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="4">
         <v>2011</v>
       </c>
@@ -2146,7 +2181,7 @@
         <v>2001</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="50">
+      <c r="K19" s="4">
         <v>2012</v>
       </c>
       <c r="L19" s="17">
@@ -2166,7 +2201,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="49"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="2">
         <v>2008</v>
       </c>
@@ -2189,7 +2224,7 @@
         <v>36404</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="50">
+      <c r="K21" s="4">
         <v>2009</v>
       </c>
       <c r="L21" s="17">
@@ -2212,7 +2247,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="50">
+      <c r="K22" s="4">
         <v>2008</v>
       </c>
     </row>
@@ -2234,7 +2269,7 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="50">
+      <c r="K23" s="4">
         <v>2010</v>
       </c>
     </row>
@@ -2258,7 +2293,7 @@
         <v>2001</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="50">
+      <c r="K24" s="4">
         <v>2010</v>
       </c>
     </row>
@@ -2278,7 +2313,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="49"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="2">
         <v>2008</v>
       </c>
@@ -2298,7 +2333,7 @@
         <v>2010</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="50">
+      <c r="K26" s="4">
         <v>2013</v>
       </c>
     </row>
@@ -2315,13 +2350,13 @@
         <v>2007</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="50">
+      <c r="K27" s="4">
         <v>2002</v>
       </c>
       <c r="L27" s="2">
         <v>2008</v>
       </c>
-      <c r="M27" s="49">
+      <c r="M27" s="2">
         <v>2001</v>
       </c>
     </row>
@@ -2357,13 +2392,13 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="50">
+      <c r="K30" s="4">
         <v>2011</v>
       </c>
       <c r="L30" s="4">
         <v>2011</v>
       </c>
-      <c r="M30" s="49">
+      <c r="M30" s="2">
         <v>2011</v>
       </c>
     </row>
@@ -2381,7 +2416,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="50">
+      <c r="K31" s="4">
         <v>2000</v>
       </c>
       <c r="L31" s="2">
@@ -2407,13 +2442,13 @@
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="50">
+      <c r="K32" s="4">
         <v>2012</v>
       </c>
       <c r="L32" s="2">
         <v>2008</v>
       </c>
-      <c r="M32" s="49">
+      <c r="M32" s="2">
         <v>2005</v>
       </c>
     </row>
@@ -2436,13 +2471,13 @@
       <c r="H33" s="7"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="50">
+      <c r="K33" s="4">
         <v>2000</v>
       </c>
       <c r="L33" s="2">
         <v>2008</v>
       </c>
-      <c r="M33" s="49">
+      <c r="M33" s="2">
         <v>2007</v>
       </c>
     </row>
@@ -2465,13 +2500,13 @@
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="50">
+      <c r="K34" s="4">
         <v>2000</v>
       </c>
       <c r="L34" s="2">
         <v>2008</v>
       </c>
-      <c r="M34" s="49">
+      <c r="M34" s="2">
         <v>2012</v>
       </c>
     </row>
@@ -2494,7 +2529,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="51">
+      <c r="K35" s="17">
         <v>2015</v>
       </c>
       <c r="L35" s="17">
@@ -2518,7 +2553,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="50">
+      <c r="K36" s="4">
         <v>2003</v>
       </c>
       <c r="L36" s="4">
@@ -2542,7 +2577,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="49"/>
+      <c r="K37" s="2"/>
       <c r="L37" s="4">
         <v>2010</v>
       </c>
@@ -2562,7 +2597,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="50">
+      <c r="K38" s="4">
         <v>2008</v>
       </c>
       <c r="L38" s="4">
@@ -2588,7 +2623,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="50">
+      <c r="K39" s="4">
         <v>2010</v>
       </c>
       <c r="L39" s="4">
@@ -2608,7 +2643,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="49"/>
+      <c r="K40" s="2"/>
       <c r="L40" s="4">
         <v>2011</v>
       </c>
@@ -2626,7 +2661,7 @@
       <c r="J41" s="13">
         <v>36192</v>
       </c>
-      <c r="K41" s="51">
+      <c r="K41" s="17">
         <v>2014</v>
       </c>
     </row>
@@ -2641,7 +2676,7 @@
       <c r="F42" s="7"/>
       <c r="H42" s="7"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="51">
+      <c r="K42" s="17">
         <v>2014</v>
       </c>
     </row>
@@ -2656,7 +2691,7 @@
       <c r="F43" s="7"/>
       <c r="H43" s="7"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="51">
+      <c r="K43" s="17">
         <v>2020</v>
       </c>
     </row>
@@ -2679,13 +2714,13 @@
       <c r="H44" s="7"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="50">
+      <c r="K44" s="4">
         <v>2008</v>
       </c>
       <c r="L44" s="2">
         <v>2008</v>
       </c>
-      <c r="M44" s="49">
+      <c r="M44" s="2">
         <v>2012</v>
       </c>
     </row>
@@ -2702,7 +2737,7 @@
       <c r="H45" s="7"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="50">
+      <c r="K45" s="4">
         <v>2010</v>
       </c>
       <c r="L45" s="4">
@@ -2725,7 +2760,7 @@
       <c r="H46" s="7"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="50">
+      <c r="K46" s="4">
         <v>2010</v>
       </c>
       <c r="L46" s="4">
@@ -2747,7 +2782,7 @@
       <c r="J47" s="4">
         <v>2002</v>
       </c>
-      <c r="K47" s="50">
+      <c r="K47" s="4">
         <v>2007</v>
       </c>
     </row>
@@ -2771,7 +2806,7 @@
       <c r="J48" s="4">
         <v>2001</v>
       </c>
-      <c r="K48" s="50">
+      <c r="K48" s="4">
         <v>2011</v>
       </c>
       <c r="L48" s="2">
@@ -2792,7 +2827,7 @@
       <c r="F49" s="7"/>
       <c r="H49" s="7"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="50">
+      <c r="K49" s="4">
         <v>2009</v>
       </c>
     </row>
@@ -2814,7 +2849,7 @@
         <v>2001</v>
       </c>
       <c r="J50" s="2"/>
-      <c r="K50" s="51"/>
+      <c r="K50" s="17"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -2832,7 +2867,7 @@
       <c r="H51" s="7"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="51"/>
+      <c r="K51" s="17"/>
       <c r="L51" s="17">
         <v>2018</v>
       </c>
@@ -2848,7 +2883,7 @@
       <c r="F52" s="7"/>
       <c r="H52" s="7"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="50">
+      <c r="K52" s="4">
         <v>2010</v>
       </c>
     </row>
@@ -2867,7 +2902,7 @@
         <v>2000</v>
       </c>
       <c r="J53" s="2"/>
-      <c r="K53" s="50">
+      <c r="K53" s="4">
         <v>2009</v>
       </c>
     </row>
@@ -2900,7 +2935,7 @@
       <c r="J56" s="4">
         <v>2000</v>
       </c>
-      <c r="K56" s="50">
+      <c r="K56" s="4">
         <v>2011</v>
       </c>
     </row>
@@ -2923,13 +2958,13 @@
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="50">
+      <c r="K57" s="4">
         <v>2010</v>
       </c>
       <c r="L57" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="M57" s="51" t="s">
+      <c r="M57" s="17" t="s">
         <v>356</v>
       </c>
     </row>
@@ -2945,11 +2980,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
-  <dimension ref="A1:AQ59"/>
+  <dimension ref="A1:AT59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS1" sqref="AS1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2969,33 +3004,37 @@
     <col min="15" max="15" width="15" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="7"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" style="7" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.7109375" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" style="7" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" style="7" customWidth="1"/>
-    <col min="33" max="33" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.7109375" customWidth="1"/>
-    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.28515625" style="37" customWidth="1"/>
-    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="47" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" style="7" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="11.7109375" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" style="7" customWidth="1"/>
+    <col min="33" max="33" width="12" customWidth="1"/>
+    <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15" style="7" customWidth="1"/>
+    <col min="37" max="37" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.7109375" customWidth="1"/>
+    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.28515625" style="37" customWidth="1"/>
+    <col min="45" max="45" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
         <v>63</v>
       </c>
@@ -3020,56 +3059,61 @@
         <v>111</v>
       </c>
       <c r="O1" s="45"/>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="29" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="V1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
       <c r="W1" s="42"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="41" t="s">
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
       <c r="AB1" s="42"/>
       <c r="AC1" s="42"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="12" t="s">
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="41" t="s">
         <v>70</v>
-      </c>
-      <c r="AG1" s="41" t="s">
-        <v>114</v>
       </c>
       <c r="AH1" s="42"/>
       <c r="AI1" s="42"/>
       <c r="AJ1" s="42"/>
-      <c r="AL1" s="29" t="s">
+      <c r="AK1" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="20" t="s">
+      <c r="AP1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AO1" s="41" t="s">
+      <c r="AR1" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="20" t="s">
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="20" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -3118,80 +3162,95 @@
       <c r="Q2" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="T2" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="U2" t="s">
         <v>137</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>77</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>81</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>83</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>118</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>90</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>102</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>104</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>123</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>125</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK2" t="s">
         <v>93</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>128</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>131</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
         <v>135</v>
       </c>
-      <c r="AL2" s="37" t="s">
+      <c r="AO2" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AP2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>142</v>
       </c>
-      <c r="AO2" s="29" t="s">
+      <c r="AR2" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AQ2" s="20" t="s">
+      <c r="AT2" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>51</v>
       </c>
@@ -3237,72 +3296,87 @@
       <c r="Q3" t="s">
         <v>122</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="T3" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="U3" t="s">
         <v>138</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>78</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>82</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>82</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>119</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>127</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>103</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>103</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>124</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>124</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>92</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK3" t="s">
         <v>94</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>129</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AM3" t="s">
         <v>132</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AN3" t="s">
         <v>136</v>
       </c>
-      <c r="AM3" s="7"/>
-      <c r="AN3" t="s">
+      <c r="AP3" s="7"/>
+      <c r="AQ3" t="s">
         <v>143</v>
       </c>
-      <c r="AO3" s="37" t="s">
+      <c r="AR3" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AS3" t="s">
         <v>55</v>
       </c>
-      <c r="AQ3" s="7" t="s">
+      <c r="AT3" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -3324,38 +3398,43 @@
       <c r="O4" s="9"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="9"/>
+      <c r="R4" s="51"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="T4" s="9"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="9"/>
+      <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="Z4" s="9"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
-      <c r="AD4" s="9"/>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
+      <c r="AF4" s="9"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="17"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="38">
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="38">
         <v>1999</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AS4" s="4">
         <v>2010</v>
       </c>
-      <c r="AQ4" s="9">
+      <c r="AT4" s="9">
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -3386,42 +3465,47 @@
       <c r="Q5" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="4">
+      <c r="S5" s="17"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="4">
         <v>2002</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="9"/>
+      <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
+      <c r="Z5" s="9"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
-      <c r="AD5" s="9"/>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
+      <c r="AF5" s="9"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="17"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="38">
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="38">
         <v>1999</v>
       </c>
-      <c r="AP5" s="4">
+      <c r="AS5" s="4">
         <v>2009</v>
       </c>
-      <c r="AQ5" s="9">
+      <c r="AT5" s="9">
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -3443,38 +3527,49 @@
       <c r="O6" s="9"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="4">
+        <v>2008</v>
+      </c>
+      <c r="T6" s="19">
+        <v>2008</v>
+      </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="9"/>
+      <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
+      <c r="Z6" s="9"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-      <c r="AD6" s="9"/>
+      <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
+      <c r="AF6" s="9"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
-      <c r="AJ6" s="17"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="38">
+      <c r="AJ6" s="19">
+        <v>2010</v>
+      </c>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="38">
         <v>1999</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="AS6" s="4">
         <v>2010</v>
       </c>
-      <c r="AQ6" s="11">
+      <c r="AT6" s="11">
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -3496,38 +3591,43 @@
       <c r="O7" s="9"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="9"/>
+      <c r="R7" s="51"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="T7" s="9"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="9"/>
+      <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
+      <c r="Z7" s="9"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="9"/>
+      <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
+      <c r="AF7" s="9"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="7"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="38">
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="38">
         <v>1999</v>
       </c>
-      <c r="AP7" s="4">
+      <c r="AS7" s="4">
         <v>2010</v>
       </c>
-      <c r="AQ7" s="19">
+      <c r="AT7" s="19">
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -3549,36 +3649,41 @@
       <c r="O8" s="9"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="9"/>
+      <c r="R8" s="51"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="T8" s="9"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="19"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="9"/>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
+      <c r="AF8" s="9"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="2"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="7"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="17"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="38">
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="38">
         <v>1999</v>
       </c>
-      <c r="AP8" s="2">
+      <c r="AS8" s="2">
         <v>2008</v>
       </c>
-      <c r="AQ8" s="11"/>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT8" s="11"/>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -3600,40 +3705,53 @@
       <c r="O9" s="9"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="4">
+        <v>2002</v>
+      </c>
+      <c r="T9" s="19">
+        <v>2002</v>
+      </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="9"/>
+      <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
+      <c r="Z9" s="9"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="4">
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="4">
         <v>2011</v>
       </c>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="17"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="38">
+      <c r="AH9" s="4">
+        <v>2010</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>2010</v>
+      </c>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="38">
         <v>1999</v>
       </c>
-      <c r="AP9" s="2">
+      <c r="AS9" s="2">
         <v>2008</v>
       </c>
-      <c r="AQ9" s="9">
+      <c r="AT9" s="9">
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -3655,38 +3773,43 @@
       <c r="O10" s="9"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="9"/>
+      <c r="R10" s="51"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="T10" s="9"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="19"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="9"/>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
+      <c r="AF10" s="9"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="7"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="38">
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="38">
         <v>1999</v>
       </c>
-      <c r="AP10" s="2">
+      <c r="AS10" s="2">
         <v>2008</v>
       </c>
-      <c r="AQ10" s="9">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT10" s="9">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
@@ -3714,38 +3837,43 @@
       <c r="O11" s="9"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="11"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="9"/>
+      <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
+      <c r="Z11" s="9"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="17"/>
-      <c r="AG11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="17"/>
       <c r="AH11" s="17"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="7"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
-      <c r="AO11" s="38">
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="38">
         <v>1999</v>
       </c>
-      <c r="AP11" s="4">
+      <c r="AS11" s="4">
         <v>2010</v>
       </c>
-      <c r="AQ11" s="9">
+      <c r="AT11" s="9">
         <v>2007</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -3764,40 +3892,47 @@
       <c r="O12" s="9"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="9"/>
+      <c r="R12" s="51"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="T12" s="9"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="4">
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="4">
         <v>2003</v>
       </c>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
-      <c r="AD12" s="9"/>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
+      <c r="AF12" s="9"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="17" t="s">
+      <c r="AJ12" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="2"/>
-      <c r="AO12" s="38">
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="38">
         <v>1999</v>
       </c>
-      <c r="AP12" s="2">
+      <c r="AS12" s="2">
         <v>2008</v>
       </c>
-      <c r="AQ12" s="11"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT12" s="11"/>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
@@ -3816,37 +3951,44 @@
       <c r="O13" s="9"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="T13" s="9"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="4">
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="4">
         <v>2005</v>
       </c>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="9"/>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
+      <c r="AF13" s="9"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="17"/>
-      <c r="AM13" s="19">
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="17"/>
+      <c r="AP13" s="19">
         <v>2001</v>
       </c>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="40">
-        <v>2012</v>
-      </c>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="11"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="40">
+        <v>2012</v>
+      </c>
+      <c r="AS13" s="17"/>
+      <c r="AT13" s="11"/>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -3868,40 +4010,45 @@
       <c r="O14" s="9"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="17" t="s">
+      <c r="R14" s="51"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="9"/>
+      <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="Z14" s="9"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
-      <c r="AD14" s="9"/>
+      <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
+      <c r="AF14" s="9"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AL14" s="40">
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="40">
         <v>2008</v>
       </c>
-      <c r="AM14" s="9">
+      <c r="AP14" s="9">
         <v>1999</v>
       </c>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="38">
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="38">
         <v>1999</v>
       </c>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="11"/>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS14" s="17"/>
+      <c r="AT14" s="11"/>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -3923,38 +4070,45 @@
       <c r="O15" s="9"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="19">
+        <v>2000</v>
+      </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="19"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
-      <c r="AD15" s="9"/>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
+      <c r="AF15" s="9"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="7"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
-      <c r="AO15" s="38">
+      <c r="AO15" s="38"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="38">
         <v>1999</v>
       </c>
-      <c r="AP15" s="4">
+      <c r="AS15" s="4">
         <v>2011</v>
       </c>
-      <c r="AQ15" s="19">
+      <c r="AT15" s="19">
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
@@ -3963,20 +4117,20 @@
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="16"/>
-      <c r="S16" s="2"/>
-      <c r="V16" s="18"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="38">
+      <c r="U16" s="2"/>
+      <c r="X16" s="18"/>
+      <c r="AO16" s="38"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="38">
         <v>1999</v>
       </c>
-      <c r="AP16" s="17">
+      <c r="AS16" s="17">
         <v>2016</v>
       </c>
-      <c r="AQ16" s="11"/>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT16" s="11"/>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
@@ -3998,38 +4152,47 @@
       <c r="O17" s="9"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="4">
+        <v>2000</v>
+      </c>
+      <c r="T17" s="19">
+        <v>2000</v>
+      </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="19"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
-      <c r="AD17" s="9"/>
+      <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
+      <c r="AF17" s="9"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
-      <c r="AJ17" s="17"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="38">
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="38">
         <v>1999</v>
       </c>
-      <c r="AP17" s="2">
+      <c r="AS17" s="2">
         <v>2008</v>
       </c>
-      <c r="AQ17" s="9">
+      <c r="AT17" s="9">
         <v>1999</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>21</v>
       </c>
@@ -4038,18 +4201,18 @@
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="16"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="38">
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="38">
         <v>1999</v>
       </c>
-      <c r="AP18" s="4">
+      <c r="AS18" s="4">
         <v>2011</v>
       </c>
-      <c r="AQ18" s="11"/>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT18" s="11"/>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>17</v>
       </c>
@@ -4066,40 +4229,45 @@
       <c r="O19" s="9"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="9"/>
+      <c r="R19" s="51"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="T19" s="9"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="19"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="9"/>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
+      <c r="AF19" s="9"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AL19" s="40">
-        <v>2013</v>
-      </c>
-      <c r="AM19" s="19">
-        <v>2001</v>
-      </c>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="40">
-        <v>2012</v>
-      </c>
-      <c r="AP19" s="17">
+        <v>2013</v>
+      </c>
+      <c r="AP19" s="19">
+        <v>2001</v>
+      </c>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="40">
+        <v>2012</v>
+      </c>
+      <c r="AS19" s="17">
         <v>2008</v>
       </c>
-      <c r="AQ19" s="11"/>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT19" s="11"/>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>12</v>
       </c>
@@ -4116,38 +4284,49 @@
       <c r="O20" s="9"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="T20" s="19">
+        <v>2001</v>
+      </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="4">
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="4">
         <v>2003</v>
       </c>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="9"/>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
+      <c r="AF20" s="9"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="7"/>
+      <c r="AJ20" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
-      <c r="AO20" s="38">
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="38">
         <v>1999</v>
       </c>
-      <c r="AP20" s="2">
+      <c r="AS20" s="2">
         <v>2008</v>
       </c>
-      <c r="AQ20" s="11"/>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT20" s="11"/>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>16</v>
       </c>
@@ -4166,37 +4345,42 @@
       <c r="O21" s="9"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="9"/>
+      <c r="R21" s="51"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="T21" s="9"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="9"/>
+      <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+      <c r="Z21" s="9"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="9"/>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
+      <c r="AF21" s="9"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
-      <c r="AM21" s="10">
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AP21" s="10">
         <v>36404</v>
       </c>
-      <c r="AN21" s="2"/>
-      <c r="AO21" s="40">
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="40">
         <v>2009</v>
       </c>
-      <c r="AP21" s="17">
+      <c r="AS21" s="17">
         <v>2008</v>
       </c>
-      <c r="AQ21" s="11"/>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT21" s="11"/>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
@@ -4219,36 +4403,41 @@
       <c r="O22" s="9"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="11"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="9"/>
+      <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+      <c r="Z22" s="9"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="9"/>
+      <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
+      <c r="AF22" s="9"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
-      <c r="AI22" s="4">
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="4">
         <v>2004</v>
       </c>
-      <c r="AJ22" s="2"/>
-      <c r="AL22" s="38"/>
-      <c r="AM22" s="7"/>
       <c r="AN22" s="2"/>
-      <c r="AO22" s="40">
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="40">
         <v>2008</v>
       </c>
-      <c r="AP22" s="17"/>
-      <c r="AQ22" s="11"/>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="11"/>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
@@ -4270,38 +4459,43 @@
       <c r="O23" s="9"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="9"/>
+      <c r="R23" s="51"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
+      <c r="T23" s="9"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="4">
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="4">
         <v>2002</v>
       </c>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="9"/>
+      <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
+      <c r="AF23" s="9"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="4">
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="4">
         <v>2000</v>
       </c>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="17"/>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="40">
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="40">
         <v>2010</v>
       </c>
-      <c r="AP23" s="17"/>
-      <c r="AQ23" s="11"/>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS23" s="17"/>
+      <c r="AT23" s="11"/>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
@@ -4323,40 +4517,45 @@
       <c r="O24" s="9"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="11"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="11" t="s">
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="17"/>
-      <c r="AG24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="17"/>
       <c r="AH24" s="17"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AL24" s="40">
-        <v>2003</v>
-      </c>
-      <c r="AM24" s="19">
-        <v>2001</v>
-      </c>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
       <c r="AO24" s="40">
+        <v>2003</v>
+      </c>
+      <c r="AP24" s="19">
+        <v>2001</v>
+      </c>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="40">
         <v>2010</v>
       </c>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="11"/>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="11"/>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>13</v>
       </c>
@@ -4375,36 +4574,45 @@
       <c r="O25" s="9"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="4">
+        <v>2000</v>
+      </c>
+      <c r="T25" s="19">
+        <v>2000</v>
+      </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="19"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="9"/>
+      <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
+      <c r="AF25" s="9"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
-      <c r="AJ25" s="17"/>
-      <c r="AL25" s="38"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="38">
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="38">
         <v>1999</v>
       </c>
-      <c r="AP25" s="2">
+      <c r="AS25" s="2">
         <v>2008</v>
       </c>
-      <c r="AQ25" s="11"/>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT25" s="11"/>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>18</v>
       </c>
@@ -4421,38 +4629,45 @@
       <c r="O26" s="9"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="9"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="19"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="9"/>
+      <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
+      <c r="AF26" s="9"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
-      <c r="AL26" s="40">
-        <v>2013</v>
-      </c>
-      <c r="AM26" s="19">
-        <v>2010</v>
-      </c>
+      <c r="AJ26" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
       <c r="AO26" s="40">
         <v>2013</v>
       </c>
-      <c r="AP26" s="17"/>
-      <c r="AQ26" s="11"/>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AP26" s="19">
+        <v>2010</v>
+      </c>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="40">
+        <v>2013</v>
+      </c>
+      <c r="AS26" s="17"/>
+      <c r="AT26" s="11"/>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>69</v>
       </c>
@@ -4475,52 +4690,61 @@
       <c r="O27" s="11"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="4">
+        <v>2000</v>
+      </c>
+      <c r="T27" s="19">
+        <v>2000</v>
+      </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="9"/>
       <c r="AA27" s="17"/>
       <c r="AB27" s="17"/>
       <c r="AC27" s="17"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="2"/>
-      <c r="AG27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
-      <c r="AI27" s="17" t="s">
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="AJ27" s="2"/>
-      <c r="AL27" s="40">
-        <v>2007</v>
-      </c>
-      <c r="AM27" s="7"/>
       <c r="AN27" s="2"/>
       <c r="AO27" s="40">
+        <v>2007</v>
+      </c>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="40">
         <v>2002</v>
       </c>
-      <c r="AP27" s="2">
+      <c r="AS27" s="2">
         <v>2008</v>
       </c>
-      <c r="AQ27" s="9">
+      <c r="AT27" s="9">
         <v>2001</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AM28" s="7"/>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AP28" s="7"/>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="AM29" s="7"/>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AP29" s="7"/>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
@@ -4546,60 +4770,65 @@
       <c r="O30" s="11"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="11"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="4">
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="4">
         <v>2014</v>
       </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="9"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="17"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="9"/>
       <c r="AG30" s="17"/>
       <c r="AH30" s="17"/>
-      <c r="AI30" s="17" t="s">
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="AJ30" s="17"/>
-      <c r="AL30" s="38"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="2"/>
-      <c r="AO30" s="40">
+      <c r="AN30" s="17"/>
+      <c r="AO30" s="38"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="40">
         <v>2011</v>
       </c>
-      <c r="AP30" s="4">
+      <c r="AS30" s="4">
         <v>2011</v>
       </c>
-      <c r="AQ30" s="9">
+      <c r="AT30" s="9">
         <v>2011</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="2">
         <v>2012</v>
       </c>
-      <c r="AL31" s="38"/>
-      <c r="AM31" s="7"/>
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="40">
+      <c r="AO31" s="38"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="40">
         <v>2000</v>
       </c>
-      <c r="AP31" s="2">
+      <c r="AS31" s="2">
         <v>2008</v>
       </c>
-      <c r="AQ31" s="11"/>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT31" s="11"/>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>25</v>
       </c>
@@ -4629,46 +4858,51 @@
       <c r="O32" s="11"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="4">
+      <c r="R32" s="51"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="4">
         <v>2011</v>
       </c>
-      <c r="V32" s="4">
+      <c r="X32" s="4">
         <v>2011</v>
       </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="9"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
+      <c r="Z32" s="9"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
-      <c r="AD32" s="9"/>
+      <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
-      <c r="AG32" s="4">
-        <v>2012</v>
-      </c>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17" t="s">
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="4">
+        <v>2012</v>
+      </c>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AJ32" s="17"/>
-      <c r="AL32" s="38"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="2"/>
-      <c r="AO32" s="40">
-        <v>2012</v>
-      </c>
-      <c r="AP32" s="2">
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="38"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="40">
+        <v>2012</v>
+      </c>
+      <c r="AS32" s="2">
         <v>2008</v>
       </c>
-      <c r="AQ32" s="9">
+      <c r="AT32" s="9">
         <v>2005</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>26</v>
       </c>
@@ -4687,44 +4921,51 @@
       <c r="O33" s="9"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="13">
+      <c r="R33" s="51"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="13">
         <v>36281</v>
       </c>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="4">
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="4">
         <v>2000</v>
       </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="9"/>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
+      <c r="Z33" s="9"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
-      <c r="AD33" s="9"/>
+      <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
+      <c r="AF33" s="9"/>
       <c r="AG33" s="2"/>
-      <c r="AH33" s="17"/>
+      <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
-      <c r="AJ33" s="17" t="s">
+      <c r="AJ33" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AL33" s="38"/>
-      <c r="AM33" s="7"/>
-      <c r="AN33" s="2"/>
-      <c r="AO33" s="40">
+      <c r="AO33" s="38"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="40">
         <v>2000</v>
       </c>
-      <c r="AP33" s="2">
+      <c r="AS33" s="2">
         <v>2008</v>
       </c>
-      <c r="AQ33" s="9">
+      <c r="AT33" s="9">
         <v>2007</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>98</v>
       </c>
@@ -4750,38 +4991,43 @@
       <c r="O34" s="11"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="17"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="9"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
+      <c r="Z34" s="9"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
-      <c r="AD34" s="9"/>
+      <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
+      <c r="AF34" s="9"/>
       <c r="AG34" s="2"/>
-      <c r="AH34" s="17"/>
+      <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
-      <c r="AJ34" s="17"/>
-      <c r="AL34" s="38"/>
-      <c r="AM34" s="7"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="40">
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="38"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="40">
         <v>2000</v>
       </c>
-      <c r="AP34" s="2">
+      <c r="AS34" s="2">
         <v>2008</v>
       </c>
-      <c r="AQ34" s="9">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT34" s="9">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>28</v>
       </c>
@@ -4810,46 +5056,51 @@
       <c r="O35" s="11"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="4">
+      <c r="R35" s="51"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="4">
         <v>2000</v>
       </c>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
       <c r="V35" s="17"/>
       <c r="W35" s="17"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="4">
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="4">
         <v>2006</v>
       </c>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="4">
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="4">
         <v>2016</v>
       </c>
-      <c r="AC35" s="4">
+      <c r="AE35" s="4">
         <v>2014</v>
       </c>
-      <c r="AD35" s="19">
+      <c r="AF35" s="19">
         <v>2016</v>
       </c>
-      <c r="AE35" s="17"/>
       <c r="AG35" s="17"/>
       <c r="AH35" s="17"/>
       <c r="AI35" s="17"/>
-      <c r="AJ35" s="17"/>
-      <c r="AL35" s="38"/>
-      <c r="AM35" s="7"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="39">
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="38"/>
+      <c r="AP35" s="7"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="39">
         <v>2015</v>
       </c>
-      <c r="AP35" s="17">
+      <c r="AS35" s="17">
         <v>2019</v>
       </c>
-      <c r="AQ35" s="11"/>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT35" s="11"/>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>29</v>
       </c>
@@ -4870,37 +5121,42 @@
       <c r="O36" s="11"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="11"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
-      <c r="X36" s="9"/>
+      <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
+      <c r="Z36" s="9"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="17"/>
-      <c r="AG36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="17"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="17"/>
-      <c r="AJ36" s="2"/>
-      <c r="AM36" s="9">
+      <c r="AJ36" s="9"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="2"/>
+      <c r="AP36" s="9">
         <v>1999</v>
       </c>
-      <c r="AN36" s="2"/>
-      <c r="AO36" s="40">
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="40">
         <v>2003</v>
       </c>
-      <c r="AP36" s="4">
+      <c r="AS36" s="4">
         <v>2010</v>
       </c>
-      <c r="AQ36" s="11"/>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT36" s="11"/>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>30</v>
       </c>
@@ -4923,61 +5179,68 @@
       <c r="O37" s="9"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="11"/>
       <c r="U37" s="2"/>
-      <c r="V37" s="4">
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="4">
         <v>2001</v>
       </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="4">
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="4">
         <v>2006</v>
       </c>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="17"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="17"/>
-      <c r="AI37" s="17"/>
-      <c r="AJ37" s="17"/>
-      <c r="AL37" s="38"/>
-      <c r="AM37" s="7"/>
-      <c r="AN37" s="2"/>
-      <c r="AO37" s="38">
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ37" s="9"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="38"/>
+      <c r="AP37" s="7"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="38">
         <v>1999</v>
       </c>
-      <c r="AP37" s="4">
+      <c r="AS37" s="4">
         <v>2010</v>
       </c>
-      <c r="AQ37" s="11"/>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT37" s="11"/>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="11">
         <v>2016</v>
       </c>
-      <c r="S38" s="4">
+      <c r="U38" s="4">
         <v>2000</v>
       </c>
-      <c r="AL38" s="38"/>
-      <c r="AM38" s="7"/>
-      <c r="AN38" s="2"/>
-      <c r="AO38" s="40">
+      <c r="AO38" s="38"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="40">
         <v>2008</v>
       </c>
-      <c r="AP38" s="4">
+      <c r="AS38" s="4">
         <v>2011</v>
       </c>
-      <c r="AQ38" s="11"/>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT38" s="11"/>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>32</v>
       </c>
@@ -5000,113 +5263,118 @@
       <c r="O39" s="11"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="4">
+      <c r="R39" s="51"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="4">
         <v>2005</v>
       </c>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="4">
-        <v>2012</v>
-      </c>
+      <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="4">
+      <c r="X39" s="4">
+        <v>2012</v>
+      </c>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="4">
         <v>2004</v>
       </c>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="17"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="17"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="2"/>
       <c r="AI39" s="17"/>
-      <c r="AJ39" s="17"/>
-      <c r="AL39" s="38"/>
-      <c r="AM39" s="7"/>
-      <c r="AN39" s="2"/>
-      <c r="AO39" s="40">
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="17"/>
+      <c r="AM39" s="17"/>
+      <c r="AN39" s="17"/>
+      <c r="AO39" s="38"/>
+      <c r="AP39" s="7"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="40">
         <v>2010</v>
       </c>
-      <c r="AP39" s="4">
+      <c r="AS39" s="4">
         <v>2011</v>
       </c>
-      <c r="AQ39" s="11"/>
-    </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT39" s="11"/>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="11">
         <v>2015</v>
       </c>
-      <c r="S40" s="2"/>
-      <c r="AL40" s="38"/>
-      <c r="AM40" s="7"/>
-      <c r="AN40" s="2"/>
-      <c r="AO40" s="38">
+      <c r="U40" s="2"/>
+      <c r="AO40" s="38"/>
+      <c r="AP40" s="7"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="38">
         <v>1999</v>
       </c>
-      <c r="AP40" s="4">
+      <c r="AS40" s="4">
         <v>2011</v>
       </c>
-      <c r="AQ40" s="11"/>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT40" s="11"/>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="11">
         <v>2012</v>
       </c>
-      <c r="AM41" s="7">
+      <c r="AP41" s="7">
         <v>2004</v>
       </c>
-      <c r="AN41" s="13">
+      <c r="AQ41" s="13">
         <v>36192</v>
       </c>
-      <c r="AO41" s="39">
+      <c r="AR41" s="39">
         <v>2014</v>
       </c>
-      <c r="AP41" s="17"/>
-      <c r="AQ41" s="11"/>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS41" s="17"/>
+      <c r="AT41" s="11"/>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="11">
         <v>2017</v>
       </c>
-      <c r="AM42" s="7">
+      <c r="AP42" s="7">
         <v>2001</v>
       </c>
-      <c r="AN42" s="2"/>
-      <c r="AO42" s="39">
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="39">
         <v>2014</v>
       </c>
-      <c r="AP42" s="17"/>
-      <c r="AQ42" s="11"/>
-    </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS42" s="17"/>
+      <c r="AT42" s="11"/>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="11"/>
       <c r="E43" s="8"/>
-      <c r="AM43" s="7">
+      <c r="AP43" s="7">
         <v>2010</v>
       </c>
-      <c r="AN43" s="2"/>
-      <c r="AO43" s="39">
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="39">
         <v>2020</v>
       </c>
-      <c r="AP43" s="17"/>
-      <c r="AQ43" s="11"/>
-    </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS43" s="17"/>
+      <c r="AT43" s="11"/>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>48</v>
       </c>
@@ -5134,65 +5402,70 @@
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="4">
+      <c r="R44" s="51"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="4">
         <v>2002</v>
       </c>
-      <c r="T44" s="2"/>
-      <c r="U44" s="17" t="s">
+      <c r="V44" s="2"/>
+      <c r="W44" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="V44" s="17"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="9"/>
+      <c r="X44" s="17"/>
       <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
+      <c r="Z44" s="9"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
-      <c r="AD44" s="9"/>
+      <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
+      <c r="AF44" s="9"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="4">
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="4">
         <v>2010</v>
       </c>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="17" t="s">
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AL44" s="38"/>
-      <c r="AM44" s="7"/>
-      <c r="AN44" s="2"/>
-      <c r="AO44" s="40">
+      <c r="AO44" s="38"/>
+      <c r="AP44" s="7"/>
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="40">
         <v>2008</v>
       </c>
-      <c r="AP44" s="2">
+      <c r="AS44" s="2">
         <v>2008</v>
       </c>
-      <c r="AQ44" s="9">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT44" s="9">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C45" s="11">
         <v>2018</v>
       </c>
-      <c r="S45" s="2"/>
-      <c r="AL45" s="38"/>
-      <c r="AM45" s="7"/>
-      <c r="AN45" s="2"/>
-      <c r="AO45" s="40">
+      <c r="U45" s="2"/>
+      <c r="AO45" s="38"/>
+      <c r="AP45" s="7"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="40">
         <v>2010</v>
       </c>
-      <c r="AP45" s="4">
+      <c r="AS45" s="4">
         <v>2011</v>
       </c>
-      <c r="AQ45" s="11"/>
-    </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT45" s="11"/>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>37</v>
       </c>
@@ -5213,47 +5486,54 @@
       <c r="O46" s="9"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="4">
+        <v>2000</v>
+      </c>
+      <c r="T46" s="9"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="4">
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="4">
         <v>2001</v>
       </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="4">
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="4">
         <v>2004</v>
       </c>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
-      <c r="AD46" s="9"/>
+      <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
+      <c r="AF46" s="9"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="17" t="s">
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="9"/>
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AI46" s="4">
+      <c r="AM46" s="4">
         <v>2003</v>
       </c>
-      <c r="AJ46" s="4">
+      <c r="AN46" s="4">
         <v>2000</v>
       </c>
-      <c r="AM46" s="9">
+      <c r="AP46" s="9">
         <v>1999</v>
       </c>
-      <c r="AN46" s="2"/>
-      <c r="AO46" s="40">
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="40">
         <v>2010</v>
       </c>
-      <c r="AP46" s="4">
+      <c r="AS46" s="4">
         <v>2011</v>
       </c>
-      <c r="AQ46" s="11"/>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT46" s="11"/>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>38</v>
       </c>
@@ -5274,43 +5554,52 @@
       <c r="O47" s="9"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="4">
+        <v>2009</v>
+      </c>
+      <c r="T47" s="19">
+        <v>2003</v>
+      </c>
       <c r="U47" s="2"/>
-      <c r="V47" s="4">
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="4">
         <v>2004</v>
       </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="4">
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="4">
         <v>2003</v>
       </c>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="9"/>
+      <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
+      <c r="AF47" s="9"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="17" t="s">
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="9"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="AI47" s="17"/>
-      <c r="AJ47" s="2"/>
-      <c r="AM47" s="9">
+      <c r="AM47" s="17"/>
+      <c r="AN47" s="2"/>
+      <c r="AP47" s="9">
         <v>1999</v>
       </c>
-      <c r="AN47" s="4">
+      <c r="AQ47" s="4">
         <v>2002</v>
       </c>
-      <c r="AO47" s="40">
+      <c r="AR47" s="40">
         <v>2007</v>
       </c>
-      <c r="AP47" s="17"/>
-      <c r="AQ47" s="11"/>
-    </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS47" s="17"/>
+      <c r="AT47" s="11"/>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>39</v>
       </c>
@@ -5329,60 +5618,65 @@
       <c r="O48" s="9"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="4">
+      <c r="R48" s="51"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="4">
         <v>2001</v>
       </c>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="4">
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="4">
         <v>2002</v>
       </c>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
-      <c r="AD48" s="9"/>
+      <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
+      <c r="AF48" s="9"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
-      <c r="AJ48" s="2"/>
-      <c r="AL48" s="38"/>
-      <c r="AM48" s="7"/>
-      <c r="AN48" s="4">
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" s="38"/>
+      <c r="AP48" s="7"/>
+      <c r="AQ48" s="4">
         <v>2001</v>
       </c>
-      <c r="AO48" s="40">
+      <c r="AR48" s="40">
         <v>2011</v>
       </c>
-      <c r="AP48" s="2">
+      <c r="AS48" s="2">
         <v>2008</v>
       </c>
-      <c r="AQ48" s="11"/>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT48" s="11"/>
+    </row>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C49" s="11"/>
-      <c r="S49" s="4">
+      <c r="U49" s="4">
         <v>2003</v>
       </c>
-      <c r="AM49" s="7">
+      <c r="AP49" s="7">
         <v>2011</v>
       </c>
-      <c r="AN49" s="2"/>
-      <c r="AO49" s="40">
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="40">
         <v>2009</v>
       </c>
-      <c r="AP49" s="17"/>
-      <c r="AQ49" s="11"/>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS49" s="17"/>
+      <c r="AT49" s="11"/>
+    </row>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>41</v>
       </c>
@@ -5401,35 +5695,40 @@
       <c r="O50" s="9"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="9"/>
+      <c r="R50" s="51"/>
       <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
+      <c r="T50" s="9"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
-      <c r="X50" s="9"/>
+      <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
+      <c r="Z50" s="9"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
-      <c r="AD50" s="9"/>
+      <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
+      <c r="AF50" s="9"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
-      <c r="AI50" s="4">
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="9"/>
+      <c r="AK50" s="2"/>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="4">
         <v>2003</v>
       </c>
-      <c r="AJ50" s="2"/>
-      <c r="AM50" s="19">
+      <c r="AN50" s="2"/>
+      <c r="AP50" s="19">
         <v>2001</v>
       </c>
-      <c r="AN50" s="2"/>
-      <c r="AO50" s="39"/>
-      <c r="AP50" s="17"/>
-      <c r="AQ50" s="11"/>
-    </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AQ50" s="2"/>
+      <c r="AR50" s="39"/>
+      <c r="AS50" s="17"/>
+      <c r="AT50" s="11"/>
+    </row>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>47</v>
       </c>
@@ -5448,58 +5747,63 @@
       <c r="O51" s="9"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="9"/>
+      <c r="R51" s="51"/>
       <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
+      <c r="T51" s="9"/>
       <c r="U51" s="2"/>
-      <c r="V51" s="4">
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="4">
         <v>2000</v>
       </c>
-      <c r="W51" s="17" t="s">
+      <c r="Y51" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
+      <c r="Z51" s="9"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
-      <c r="AD51" s="9"/>
+      <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
+      <c r="AF51" s="9"/>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
-      <c r="AI51" s="4">
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="9"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="4">
         <v>2003</v>
       </c>
-      <c r="AJ51" s="17"/>
-      <c r="AM51" s="9">
+      <c r="AN51" s="17"/>
+      <c r="AP51" s="9">
         <v>1999</v>
       </c>
-      <c r="AN51" s="2"/>
-      <c r="AO51" s="39"/>
-      <c r="AP51" s="17">
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="39"/>
+      <c r="AS51" s="17">
         <v>2018</v>
       </c>
-      <c r="AQ51" s="11"/>
-    </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT51" s="11"/>
+    </row>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="11">
         <v>2013</v>
       </c>
-      <c r="AM52" s="7">
+      <c r="AP52" s="7">
         <v>1999</v>
       </c>
-      <c r="AN52" s="2"/>
-      <c r="AO52" s="40">
+      <c r="AQ52" s="2"/>
+      <c r="AR52" s="40">
         <v>2010</v>
       </c>
-      <c r="AP52" s="17"/>
-      <c r="AQ52" s="11"/>
-    </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS52" s="17"/>
+      <c r="AT52" s="11"/>
+    </row>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>43</v>
       </c>
@@ -5530,58 +5834,63 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="9"/>
       <c r="U53" s="2"/>
-      <c r="V53" s="4">
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="4">
         <v>2003</v>
       </c>
-      <c r="W53" s="17"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="4">
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="4">
         <v>2005</v>
       </c>
-      <c r="Z53" s="4">
+      <c r="AB53" s="4">
         <v>2006</v>
       </c>
-      <c r="AA53" s="4">
+      <c r="AC53" s="4">
         <v>2006</v>
       </c>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="9"/>
+      <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
-      <c r="AG53" s="4">
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="4">
         <v>2006</v>
       </c>
-      <c r="AH53" s="17" t="s">
+      <c r="AL53" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AI53" s="17" t="s">
+      <c r="AM53" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="AJ53" s="2"/>
-      <c r="AM53" s="19">
+      <c r="AN53" s="2"/>
+      <c r="AP53" s="19">
         <v>2000</v>
       </c>
-      <c r="AN53" s="2"/>
-      <c r="AO53" s="40">
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="40">
         <v>2009</v>
       </c>
-      <c r="AP53" s="17"/>
-      <c r="AQ53" s="11"/>
-    </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AM54" s="7"/>
-    </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS53" s="17"/>
+      <c r="AT53" s="11"/>
+    </row>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AP54" s="7"/>
+    </row>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="AM55" s="7"/>
-    </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AP55" s="7"/>
+    </row>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>44</v>
       </c>
@@ -5606,42 +5915,47 @@
       <c r="Q56" s="4">
         <v>2017</v>
       </c>
-      <c r="R56" s="11"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
+      <c r="R56" s="52"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="2"/>
       <c r="V56" s="17"/>
       <c r="W56" s="17"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="4">
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="4">
         <v>2006</v>
       </c>
-      <c r="Z56" s="4">
+      <c r="AB56" s="4">
         <v>2005</v>
       </c>
-      <c r="AA56" s="4">
+      <c r="AC56" s="4">
         <v>2005</v>
       </c>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="2"/>
-      <c r="AD56" s="9"/>
-      <c r="AE56" s="17"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="9"/>
       <c r="AG56" s="17"/>
       <c r="AH56" s="17"/>
       <c r="AI56" s="17"/>
-      <c r="AJ56" s="17"/>
-      <c r="AL56" s="38"/>
-      <c r="AM56" s="7"/>
-      <c r="AN56" s="4">
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="17"/>
+      <c r="AL56" s="17"/>
+      <c r="AM56" s="17"/>
+      <c r="AN56" s="17"/>
+      <c r="AO56" s="38"/>
+      <c r="AP56" s="7"/>
+      <c r="AQ56" s="4">
         <v>2000</v>
       </c>
-      <c r="AO56" s="40">
+      <c r="AR56" s="40">
         <v>2011</v>
       </c>
-      <c r="AP56" s="17"/>
-      <c r="AQ56" s="11"/>
-    </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS56" s="17"/>
+      <c r="AT56" s="11"/>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>45</v>
       </c>
@@ -5679,63 +5993,72 @@
       <c r="Q57" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R57" s="11" t="s">
+      <c r="R57" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="S57" s="2"/>
-      <c r="T57" s="17" t="s">
+      <c r="S57" s="17"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="U57" s="17" t="s">
+      <c r="W57" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="V57" s="17" t="s">
+      <c r="X57" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="W57" s="2"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="17" t="s">
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="Z57" s="17" t="s">
+      <c r="AB57" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="AA57" s="17" t="s">
+      <c r="AC57" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="9"/>
-      <c r="AE57" s="17" t="s">
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="9"/>
+      <c r="AG57" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AG57" s="17" t="s">
+      <c r="AH57" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI57" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ57" s="11"/>
+      <c r="AK57" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="AH57" s="17"/>
-      <c r="AI57" s="17"/>
-      <c r="AJ57" s="17"/>
-      <c r="AL57" s="40">
+      <c r="AL57" s="17"/>
+      <c r="AM57" s="17"/>
+      <c r="AN57" s="17"/>
+      <c r="AO57" s="40">
         <v>2013</v>
       </c>
-      <c r="AM57" s="9">
+      <c r="AP57" s="9">
         <v>1999</v>
       </c>
-      <c r="AN57" s="2"/>
-      <c r="AO57" s="40">
+      <c r="AQ57" s="2"/>
+      <c r="AR57" s="40">
         <v>2010</v>
       </c>
-      <c r="AP57" s="17" t="s">
+      <c r="AS57" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="AQ57" s="11" t="s">
+      <c r="AT57" s="11" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AM58" s="7"/>
-    </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AP58" s="7"/>
+    </row>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B59" s="44" t="s">
         <v>67</v>
       </c>
@@ -5744,22 +6067,22 @@
         <v>68</v>
       </c>
       <c r="E59" s="45"/>
-      <c r="AM59" s="7"/>
+      <c r="AP59" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AF1"/>
+    <mergeCell ref="AK1:AN1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="AG1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8542091-9588-44DA-9CE5-430018722231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BE9A1E-6874-434C-B261-FC54EE5B740E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="388">
   <si>
     <t>United States</t>
   </si>
@@ -1164,6 +1164,45 @@
   </si>
   <si>
     <t>2001 to 2019</t>
+  </si>
+  <si>
+    <t>QoQ - IMF</t>
+  </si>
+  <si>
+    <t>2013 to 2021</t>
+  </si>
+  <si>
+    <t>2008 to 2021</t>
+  </si>
+  <si>
+    <t>2002 to 2020</t>
+  </si>
+  <si>
+    <t>2014 to 2019</t>
+  </si>
+  <si>
+    <t>2002 to 2021</t>
+  </si>
+  <si>
+    <t>YoY - IMF</t>
+  </si>
+  <si>
+    <t>2012 to 2021</t>
+  </si>
+  <si>
+    <t>2015 to 2021</t>
+  </si>
+  <si>
+    <t>2000 to 2021</t>
+  </si>
+  <si>
+    <t>2013 to 2019</t>
+  </si>
+  <si>
+    <t>2001 to 2021</t>
+  </si>
+  <si>
+    <t>IMF</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1359,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1346,10 +1385,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyBorder="1"/>
@@ -1368,6 +1403,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1386,18 +1424,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1714,1263 +1764,1306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="46"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="12" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="26"/>
+      <c r="C2" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="1" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G3" s="53"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="31">
+      <c r="C4" s="27">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="2">
+      <c r="E4" s="47"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="2">
         <v>1999</v>
       </c>
-      <c r="H4" s="9">
-        <v>2012</v>
-      </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="9">
+        <v>2012</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="4">
+      <c r="L4" s="2"/>
+      <c r="M4" s="4">
         <v>2010</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="31">
+      <c r="C5" s="27">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="2">
+      <c r="E5" s="47"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="2">
         <v>2008</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="10">
         <v>41548</v>
       </c>
-      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="4">
+      <c r="L5" s="2"/>
+      <c r="M5" s="4">
         <v>2009</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="31">
+      <c r="C6" s="27">
         <v>6</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="2">
+      <c r="E6" s="47"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="2">
         <v>2008</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I6" s="9">
         <v>2008</v>
       </c>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="4">
+      <c r="L6" s="2"/>
+      <c r="M6" s="4">
         <v>2010</v>
       </c>
-      <c r="M6" s="17">
+      <c r="N6" s="17">
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="31">
+      <c r="C7" s="27">
         <v>9</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="2"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="4">
+      <c r="L7" s="2"/>
+      <c r="M7" s="4">
         <v>2010</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="31">
+      <c r="C8" s="27">
         <v>7</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="2">
+      <c r="E8" s="47"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="2">
         <v>2008</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="9">
         <v>2008</v>
       </c>
-      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="27">
         <v>20</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="E9" s="47"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I9" s="10">
         <v>41671</v>
       </c>
-      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
         <v>2008</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="31">
+      <c r="C10" s="27">
         <v>4</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="2">
+      <c r="E10" s="47"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="2">
         <v>2008</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I10" s="9">
         <v>2008</v>
       </c>
-      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
         <v>2008</v>
       </c>
-      <c r="M10" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="31">
+      <c r="C11" s="27">
         <v>13</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="13">
+      <c r="E11" s="47"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="13">
         <v>41426</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="10">
         <v>41395</v>
       </c>
-      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="4">
+      <c r="L11" s="2"/>
+      <c r="M11" s="4">
         <v>2010</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>2007</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="27">
         <v>17</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="13">
+      <c r="E12" s="47"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="13">
         <v>41548</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
         <v>2008</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="28">
         <v>38</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="13" t="s">
+      <c r="E13" s="47"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="4">
+      <c r="I13" s="7"/>
+      <c r="J13" s="4">
         <v>2001</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="4">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13" s="2"/>
+      <c r="L13" s="4">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="29">
         <v>25</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="2">
+      <c r="E14" s="47"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="2">
         <v>1999</v>
       </c>
-      <c r="H14" s="9">
+      <c r="I14" s="9">
         <v>2006</v>
       </c>
-      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="31">
+      <c r="C15" s="27">
         <v>15</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H15" s="9">
-        <v>2012</v>
-      </c>
-      <c r="I15" s="2"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I15" s="9">
+        <v>2012</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="4">
+      <c r="L15" s="2"/>
+      <c r="M15" s="4">
         <v>2011</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="28">
         <v>40</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="17">
+      <c r="L16" s="2"/>
+      <c r="M16" s="17">
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="31">
+      <c r="C17" s="27">
         <v>8</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H17" s="9">
-        <v>2012</v>
-      </c>
-      <c r="I17" s="2"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2012</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2">
         <v>2008</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>1999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="29">
         <v>30</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="2">
         <v>1999</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="4">
+      <c r="L18" s="2"/>
+      <c r="M18" s="4">
         <v>2011</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="30">
         <v>47</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="9"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="4">
+      <c r="E19" s="47"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="9"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="4">
         <v>2001</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="4">
-        <v>2012</v>
-      </c>
-      <c r="L19" s="17">
+      <c r="K19" s="2"/>
+      <c r="L19" s="4">
+        <v>2012</v>
+      </c>
+      <c r="M19" s="17">
         <v>2008</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="29">
         <v>24</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="9"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="2"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="9"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2">
         <v>2008</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="29">
         <v>28</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="2">
+      <c r="E21" s="47"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="2">
         <v>2004</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="13">
+      <c r="I21" s="7"/>
+      <c r="J21" s="13">
         <v>36404</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="4">
+      <c r="K21" s="2"/>
+      <c r="L21" s="4">
         <v>2009</v>
       </c>
-      <c r="L21" s="17">
+      <c r="M21" s="17">
         <v>2008</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="29">
         <v>29</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="2"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="4">
+      <c r="K22" s="2"/>
+      <c r="L22" s="4">
         <v>2008</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="29">
         <v>26</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H23" s="9">
-        <v>2012</v>
-      </c>
-      <c r="I23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I23" s="9">
+        <v>2012</v>
+      </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="4">
+      <c r="K23" s="2"/>
+      <c r="L23" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="30">
         <v>51</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H24" s="9">
-        <v>2012</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="E24" s="47"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I24" s="9">
+        <v>2012</v>
+      </c>
+      <c r="J24" s="4">
         <v>2001</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="4">
+      <c r="K24" s="2"/>
+      <c r="L24" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="31">
         <v>31</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I25" s="7"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2">
         <v>2008</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="30">
         <v>50</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="9"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="4">
+      <c r="E26" s="47"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="9"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="4">
         <v>2010</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="4">
+      <c r="K26" s="2"/>
+      <c r="L26" s="4">
         <v>2013</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="19"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="4">
+      <c r="E27" s="50"/>
+      <c r="F27" s="2"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="4">
         <v>2007</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="4">
+      <c r="K27" s="2"/>
+      <c r="L27" s="4">
         <v>2002</v>
       </c>
-      <c r="L27" s="2">
+      <c r="M27" s="2">
         <v>2008</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="2">
         <v>2001</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="36"/>
-      <c r="F28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="32"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="F29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="32"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="31">
+      <c r="C30" s="27">
         <v>2</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="2">
+      <c r="E30" s="55"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="2">
         <v>2005</v>
       </c>
-      <c r="H30" s="9">
-        <v>2012</v>
-      </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="9">
+        <v>2012</v>
+      </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="4">
-        <v>2011</v>
-      </c>
+      <c r="K30" s="2"/>
       <c r="L30" s="4">
         <v>2011</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="4">
         <v>2011</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="29">
         <v>21</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="2"/>
+      <c r="H31" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I31" s="7"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="4">
+      <c r="K31" s="2"/>
+      <c r="L31" s="4">
         <v>2000</v>
       </c>
-      <c r="L31" s="2">
+      <c r="M31" s="2">
         <v>2008</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="31">
+      <c r="C32" s="27">
         <v>5</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H32" s="9">
-        <v>2012</v>
-      </c>
-      <c r="I32" s="2"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I32" s="9">
+        <v>2012</v>
+      </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="4">
-        <v>2012</v>
-      </c>
-      <c r="L32" s="2">
+      <c r="K32" s="2"/>
+      <c r="L32" s="4">
+        <v>2012</v>
+      </c>
+      <c r="M32" s="2">
         <v>2008</v>
       </c>
-      <c r="M32" s="2">
+      <c r="N32" s="2">
         <v>2005</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="31">
+      <c r="C33" s="27">
         <v>12</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="13">
+      <c r="D33" s="13">
         <v>36281</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="2"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I33" s="7"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="4">
+      <c r="K33" s="2"/>
+      <c r="L33" s="4">
         <v>2000</v>
       </c>
-      <c r="L33" s="2">
+      <c r="M33" s="2">
         <v>2008</v>
       </c>
-      <c r="M33" s="2">
+      <c r="N33" s="2">
         <v>2007</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="31">
+      <c r="C34" s="27">
         <v>10</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H34" s="9">
-        <v>2012</v>
-      </c>
-      <c r="I34" s="2"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I34" s="9">
+        <v>2012</v>
+      </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="4">
+      <c r="K34" s="2"/>
+      <c r="L34" s="4">
         <v>2000</v>
       </c>
-      <c r="L34" s="2">
+      <c r="M34" s="2">
         <v>2008</v>
       </c>
-      <c r="M34" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="31">
+      <c r="C35" s="27">
         <v>18</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4">
+      <c r="D35" s="4">
         <v>2000</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="2"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="17">
+      <c r="K35" s="2"/>
+      <c r="L35" s="17">
         <v>2015</v>
       </c>
-      <c r="L35" s="17">
+      <c r="M35" s="17">
         <v>2019</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="32">
+      <c r="C36" s="28">
         <v>39</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="2"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="4">
+      <c r="K36" s="2"/>
+      <c r="L36" s="4">
         <v>2003</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="31">
+      <c r="C37" s="27">
         <v>14</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="2"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="4">
+      <c r="L37" s="2"/>
+      <c r="M37" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="29">
         <v>27</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="4">
+      <c r="D38" s="4">
         <v>2000</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="19"/>
+      <c r="I38" s="7"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="4">
+      <c r="K38" s="2"/>
+      <c r="L38" s="4">
         <v>2008</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>2011</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="31">
+      <c r="C39" s="27">
         <v>16</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4">
+      <c r="D39" s="4">
         <v>2005</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="2"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I39" s="7"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="4">
+      <c r="K39" s="2"/>
+      <c r="L39" s="4">
         <v>2010</v>
       </c>
-      <c r="L39" s="4">
+      <c r="M39" s="4">
         <v>2011</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="28">
         <v>35</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="19"/>
+      <c r="I40" s="7"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="4">
+      <c r="L40" s="2"/>
+      <c r="M40" s="4">
         <v>2011</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="28">
         <v>33</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="F41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="J41" s="13">
+      <c r="F41" s="4"/>
+      <c r="G41" s="11"/>
+      <c r="I41" s="7"/>
+      <c r="K41" s="13">
         <v>36192</v>
       </c>
-      <c r="K41" s="17">
+      <c r="L41" s="17">
         <v>2014</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="30">
         <v>54</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="F42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="17">
+      <c r="F42" s="4"/>
+      <c r="G42" s="11"/>
+      <c r="I42" s="7"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="17">
         <v>2014</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43" s="30">
         <v>57</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="F43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="17">
+      <c r="F43" s="4"/>
+      <c r="G43" s="11"/>
+      <c r="I43" s="7"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="17">
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="31">
+      <c r="C44" s="27">
         <v>19</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="4">
+      <c r="D44" s="4">
         <v>2002</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="2"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="4">
+      <c r="K44" s="2"/>
+      <c r="L44" s="4">
         <v>2008</v>
       </c>
-      <c r="L44" s="2">
+      <c r="M44" s="2">
         <v>2008</v>
       </c>
-      <c r="M44" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="28">
         <v>36</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="9"/>
+      <c r="I45" s="7"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="4">
+      <c r="K45" s="2"/>
+      <c r="L45" s="4">
         <v>2010</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>2011</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="29">
         <v>22</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="2"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I46" s="7"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="4">
+      <c r="K46" s="2"/>
+      <c r="L46" s="4">
         <v>2010</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M46" s="4">
         <v>2011</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="30">
         <v>43</v>
       </c>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="9"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="4">
+      <c r="E47" s="47"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="19"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="4">
         <v>2002</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>2007</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="34">
+      <c r="C48" s="30">
         <v>53</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4">
+      <c r="D48" s="4">
         <v>2001</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="4">
+      <c r="E48" s="47"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="4">
         <v>2001</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>2011</v>
       </c>
-      <c r="L48" s="2">
+      <c r="M48" s="2">
         <v>2008</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="34">
+      <c r="C49" s="30">
         <v>48</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="4">
+      <c r="D49" s="4">
         <v>2003</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="4">
+      <c r="F49" s="2"/>
+      <c r="G49" s="19"/>
+      <c r="I49" s="7"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="4">
         <v>2009</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="34">
+      <c r="C50" s="30">
         <v>56</v>
       </c>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="2">
+      <c r="E50" s="47"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="2">
         <v>1999</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="4">
+      <c r="I50" s="7"/>
+      <c r="J50" s="4">
         <v>2001</v>
       </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="17"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K50" s="2"/>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="34">
+      <c r="C51" s="30">
         <v>46</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="2"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I51" s="7"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17">
+      <c r="K51" s="2"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17">
         <v>2018</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="34">
+      <c r="C52" s="30">
         <v>41</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="F52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="4">
+      <c r="F52" s="2"/>
+      <c r="G52" s="19"/>
+      <c r="I52" s="7"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="34">
+      <c r="C53" s="30">
         <v>45</v>
       </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="19"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="4">
+      <c r="E53" s="50"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="19"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="4">
         <v>2000</v>
       </c>
-      <c r="J53" s="2"/>
-      <c r="K53" s="4">
+      <c r="K53" s="2"/>
+      <c r="L53" s="4">
         <v>2009</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C54" s="36"/>
-      <c r="F54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C54" s="32"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="36"/>
-      <c r="F55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C55" s="32"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B56" s="5"/>
-      <c r="C56" s="33">
+      <c r="C56" s="29">
         <v>23</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="23"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="4">
+      <c r="D56" s="2"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="19"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="4">
         <v>2000</v>
       </c>
-      <c r="K56" s="4">
+      <c r="L56" s="4">
         <v>2011</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="5"/>
-      <c r="C57" s="31">
+      <c r="C57" s="27">
         <v>11</v>
       </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H57" s="9">
-        <v>2012</v>
-      </c>
-      <c r="I57" s="2"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I57" s="9">
+        <v>2012</v>
+      </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="4">
+      <c r="K57" s="2"/>
+      <c r="L57" s="4">
         <v>2010</v>
       </c>
-      <c r="L57" s="17" t="s">
+      <c r="M57" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="M57" s="17" t="s">
+      <c r="N57" s="17" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2980,7 +3073,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
-  <dimension ref="A1:AT59"/>
+  <dimension ref="A1:AV59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -3001,119 +3094,122 @@
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="47" customWidth="1"/>
-    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" style="7" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="11.7109375" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" style="7" customWidth="1"/>
-    <col min="33" max="33" width="12" customWidth="1"/>
-    <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15" style="7" customWidth="1"/>
-    <col min="37" max="37" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="20" width="9.5703125" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" style="7" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="11.7109375" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" style="7" customWidth="1"/>
+    <col min="35" max="35" width="12" customWidth="1"/>
+    <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15" style="7" customWidth="1"/>
     <col min="39" max="39" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.7109375" customWidth="1"/>
-    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.28515625" style="37" customWidth="1"/>
-    <col min="45" max="45" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" customWidth="1"/>
+    <col min="45" max="45" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.28515625" style="33" customWidth="1"/>
     <col min="47" max="47" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="41" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="41" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="48" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="54" t="s">
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="X1" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="41" t="s">
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="41" t="s">
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="41" t="s">
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="29" t="s">
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="AR1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AR1" s="41" t="s">
+      <c r="AT1" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="20" t="s">
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="20" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -3153,104 +3249,110 @@
       <c r="N2" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="T2" t="s">
         <v>117</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="U2" t="s">
         <v>371</v>
       </c>
-      <c r="T2" s="56" t="s">
+      <c r="V2" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>137</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>77</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>81</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>83</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>118</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>90</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>102</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>104</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>123</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>125</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>91</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>365</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>367</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>93</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>128</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>131</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>135</v>
       </c>
-      <c r="AO2" s="37" t="s">
+      <c r="AQ2" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="AR2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>142</v>
       </c>
-      <c r="AR2" s="29" t="s">
+      <c r="AT2" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AT2" s="20" t="s">
+      <c r="AV2" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>51</v>
       </c>
@@ -3287,96 +3389,102 @@
       <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q3" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="R3" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>122</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="U3" t="s">
         <v>372</v>
       </c>
-      <c r="T3" s="56" t="s">
+      <c r="V3" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>138</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>78</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>82</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
         <v>82</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>119</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>127</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>103</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>103</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AF3" t="s">
         <v>124</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>124</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AI3" t="s">
         <v>92</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" t="s">
         <v>366</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AK3" t="s">
         <v>368</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AM3" t="s">
         <v>94</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AN3" t="s">
         <v>129</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AO3" t="s">
         <v>132</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AP3" t="s">
         <v>136</v>
       </c>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" t="s">
+      <c r="AR3" s="7"/>
+      <c r="AS3" t="s">
         <v>143</v>
       </c>
-      <c r="AR3" s="37" t="s">
+      <c r="AT3" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AU3" t="s">
         <v>55</v>
       </c>
-      <c r="AT3" s="7" t="s">
+      <c r="AV3" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -3395,46 +3503,48 @@
       <c r="L4" s="2"/>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="9"/>
+      <c r="O4" s="47"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="51"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="9"/>
+      <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
+      <c r="V4" s="9"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="9"/>
+      <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="9"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="9"/>
+      <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="AH4" s="9"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="9"/>
+      <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="AL4" s="9"/>
       <c r="AM4" s="2"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="38">
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="34">
         <v>1999</v>
       </c>
-      <c r="AS4" s="4">
+      <c r="AU4" s="4">
         <v>2010</v>
       </c>
-      <c r="AT4" s="9">
+      <c r="AV4" s="9">
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -3458,54 +3568,56 @@
       <c r="L5" s="2"/>
       <c r="M5" s="9"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="17" t="s">
+      <c r="O5" s="47"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="S5" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="R5" s="52" t="s">
+      <c r="T5" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="S5" s="17"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="4">
+      <c r="U5" s="17"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="4">
         <v>2002</v>
       </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="9"/>
+      <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="AB5" s="9"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="9"/>
+      <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="11"/>
       <c r="AM5" s="2"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="38">
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="34">
         <v>1999</v>
       </c>
-      <c r="AS5" s="4">
+      <c r="AU5" s="4">
         <v>2009</v>
       </c>
-      <c r="AT5" s="9">
+      <c r="AV5" s="9">
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -3524,52 +3636,58 @@
       <c r="L6" s="2"/>
       <c r="M6" s="9"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="4">
+      <c r="O6" s="47"/>
+      <c r="P6" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="4">
         <v>2008</v>
       </c>
-      <c r="T6" s="19">
+      <c r="V6" s="19">
         <v>2008</v>
       </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="9"/>
+      <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="9"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
-      <c r="AF6" s="9"/>
+      <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
+      <c r="AH6" s="9"/>
       <c r="AI6" s="2"/>
-      <c r="AJ6" s="19">
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="19">
         <v>2010</v>
       </c>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="38">
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="34"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="34">
         <v>1999</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="AU6" s="4">
         <v>2010</v>
       </c>
-      <c r="AT6" s="11">
+      <c r="AV6" s="11">
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -3588,46 +3706,48 @@
       <c r="L7" s="2"/>
       <c r="M7" s="9"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="9"/>
+      <c r="O7" s="47"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="51"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="9"/>
+      <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
+      <c r="V7" s="9"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="9"/>
+      <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="9"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="9"/>
+      <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
+      <c r="AH7" s="9"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="9"/>
+      <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
+      <c r="AL7" s="9"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="38">
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="34">
         <v>1999</v>
       </c>
-      <c r="AS7" s="4">
+      <c r="AU7" s="4">
         <v>2010</v>
       </c>
-      <c r="AT7" s="19">
+      <c r="AV7" s="19">
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -3646,44 +3766,48 @@
       <c r="L8" s="2"/>
       <c r="M8" s="9"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="9"/>
+      <c r="O8" s="47"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="51"/>
+      <c r="Q8" s="19">
+        <v>2003</v>
+      </c>
+      <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="9"/>
+      <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
+      <c r="V8" s="9"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="19"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
-      <c r="AF8" s="9"/>
+      <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
+      <c r="AH8" s="9"/>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="9"/>
+      <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="17"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="38"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="38">
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="34">
         <v>1999</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AU8" s="2">
         <v>2008</v>
       </c>
-      <c r="AT8" s="11"/>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV8" s="11"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -3702,56 +3826,60 @@
       <c r="L9" s="2"/>
       <c r="M9" s="9"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="9"/>
+      <c r="O9" s="47"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="4">
+      <c r="Q9" s="19">
+        <v>2010</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="4">
         <v>2002</v>
       </c>
-      <c r="T9" s="19">
+      <c r="V9" s="19">
         <v>2002</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="9"/>
+      <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
+      <c r="AB9" s="9"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="4">
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="4">
         <v>2011</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AJ9" s="4">
         <v>2010</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AK9" s="4">
         <v>2010</v>
       </c>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
+      <c r="AL9" s="11"/>
       <c r="AM9" s="2"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="38">
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="34">
         <v>1999</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="AU9" s="2">
         <v>2008</v>
       </c>
-      <c r="AT9" s="9">
+      <c r="AV9" s="9">
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -3770,46 +3898,50 @@
       <c r="L10" s="2"/>
       <c r="M10" s="9"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="9"/>
+      <c r="O10" s="47"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="51"/>
+      <c r="Q10" s="19">
+        <v>2005</v>
+      </c>
+      <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="9"/>
+      <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
+      <c r="V10" s="9"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="19"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
-      <c r="AF10" s="9"/>
+      <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
+      <c r="AH10" s="9"/>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="9"/>
+      <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
+      <c r="AL10" s="9"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="38"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="38">
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="34">
         <v>1999</v>
       </c>
-      <c r="AS10" s="2">
+      <c r="AU10" s="2">
         <v>2008</v>
       </c>
-      <c r="AT10" s="9">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV10" s="9">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
@@ -3834,46 +3966,48 @@
       <c r="L11" s="2"/>
       <c r="M11" s="9"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="52"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="11"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="9"/>
+      <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
+      <c r="AB11" s="9"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="9"/>
       <c r="AI11" s="17"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="11"/>
       <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="38">
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="34">
         <v>1999</v>
       </c>
-      <c r="AS11" s="4">
+      <c r="AU11" s="4">
         <v>2010</v>
       </c>
-      <c r="AT11" s="9">
+      <c r="AV11" s="9">
         <v>2007</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -3889,50 +4023,52 @@
       <c r="L12" s="2"/>
       <c r="M12" s="9"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="9"/>
+      <c r="O12" s="47"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="51"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="9"/>
+      <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
+      <c r="V12" s="9"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="4">
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="4">
         <v>2003</v>
       </c>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
-      <c r="AF12" s="9"/>
+      <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
+      <c r="AH12" s="9"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="19">
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="19">
         <v>2000</v>
       </c>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
-      <c r="AN12" s="17" t="s">
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="38">
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="34">
         <v>1999</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AU12" s="2">
         <v>2008</v>
       </c>
-      <c r="AT12" s="11"/>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV12" s="11"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
@@ -3948,47 +4084,49 @@
       <c r="L13" s="2"/>
       <c r="M13" s="9"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="9"/>
+      <c r="O13" s="47"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="17" t="s">
+      <c r="Q13" s="9"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="T13" s="9"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
+      <c r="V13" s="9"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="4">
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="4">
         <v>2005</v>
       </c>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
-      <c r="AF13" s="9"/>
+      <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
+      <c r="AH13" s="9"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="11"/>
+      <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
+      <c r="AL13" s="11"/>
       <c r="AM13" s="2"/>
-      <c r="AN13" s="17"/>
-      <c r="AP13" s="19">
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="17"/>
+      <c r="AR13" s="19">
         <v>2001</v>
       </c>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="40">
-        <v>2012</v>
-      </c>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="11"/>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="36">
+        <v>2012</v>
+      </c>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="11"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -4007,48 +4145,50 @@
       <c r="L14" s="2"/>
       <c r="M14" s="9"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="9"/>
+      <c r="O14" s="47"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="17" t="s">
+      <c r="Q14" s="9"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="9"/>
+      <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="9"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
-      <c r="AF14" s="9"/>
+      <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
+      <c r="AH14" s="9"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="9"/>
+      <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
+      <c r="AL14" s="9"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
-      <c r="AO14" s="40">
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="36">
         <v>2008</v>
       </c>
-      <c r="AP14" s="9">
+      <c r="AR14" s="9">
         <v>1999</v>
       </c>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="38">
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="34">
         <v>1999</v>
       </c>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="11"/>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU14" s="17"/>
+      <c r="AV14" s="11"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -4067,70 +4207,74 @@
       <c r="L15" s="2"/>
       <c r="M15" s="9"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="9"/>
+      <c r="O15" s="47"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="19">
+      <c r="Q15" s="9"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="19">
         <v>2000</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="19"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="9"/>
+      <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
+      <c r="AH15" s="9"/>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="9"/>
+      <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
+      <c r="AL15" s="9"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="38">
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="34">
         <v>1999</v>
       </c>
-      <c r="AS15" s="4">
+      <c r="AU15" s="4">
         <v>2011</v>
       </c>
-      <c r="AT15" s="19">
+      <c r="AV15" s="19">
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>2012</v>
       </c>
       <c r="N16" s="18"/>
-      <c r="O16" s="16"/>
-      <c r="U16" s="2"/>
-      <c r="X16" s="18"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="7"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="38">
+      <c r="O16" s="48"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="9"/>
+      <c r="W16" s="2"/>
+      <c r="Z16" s="18"/>
+      <c r="AQ16" s="34"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="34">
         <v>1999</v>
       </c>
-      <c r="AS16" s="17">
+      <c r="AU16" s="17">
         <v>2016</v>
       </c>
-      <c r="AT16" s="11"/>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV16" s="11"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
@@ -4149,70 +4293,78 @@
       <c r="L17" s="2"/>
       <c r="M17" s="9"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="9"/>
+      <c r="O17" s="47"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="4">
+      <c r="Q17" s="9"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="4">
         <v>2000</v>
       </c>
-      <c r="T17" s="19">
+      <c r="V17" s="19">
         <v>2000</v>
       </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="19"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="9"/>
+      <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
+      <c r="AH17" s="9"/>
       <c r="AI17" s="2"/>
-      <c r="AJ17" s="9"/>
+      <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
+      <c r="AL17" s="9"/>
       <c r="AM17" s="2"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="7"/>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="38">
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="17"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="34">
         <v>1999</v>
       </c>
-      <c r="AS17" s="2">
+      <c r="AU17" s="2">
         <v>2008</v>
       </c>
-      <c r="AT17" s="9">
+      <c r="AV17" s="9">
         <v>1999</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>1999</v>
       </c>
       <c r="N18" s="18"/>
-      <c r="O18" s="16"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="7"/>
-      <c r="AQ18" s="2"/>
-      <c r="AR18" s="38">
+      <c r="O18" s="48"/>
+      <c r="P18" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="34">
         <v>1999</v>
       </c>
-      <c r="AS18" s="4">
+      <c r="AU18" s="4">
         <v>2011</v>
       </c>
-      <c r="AT18" s="11"/>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV18" s="11"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>17</v>
       </c>
@@ -4226,48 +4378,50 @@
       <c r="L19" s="2"/>
       <c r="M19" s="9"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="9"/>
+      <c r="O19" s="47"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="51"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="9"/>
+      <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
+      <c r="V19" s="9"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="19"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="9"/>
+      <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
+      <c r="AH19" s="9"/>
       <c r="AI19" s="2"/>
-      <c r="AJ19" s="9"/>
+      <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
+      <c r="AL19" s="9"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
-      <c r="AO19" s="40">
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="36">
         <v>2013</v>
       </c>
-      <c r="AP19" s="19">
+      <c r="AR19" s="19">
         <v>2001</v>
       </c>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="40">
-        <v>2012</v>
-      </c>
-      <c r="AS19" s="17">
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="36">
+        <v>2012</v>
+      </c>
+      <c r="AU19" s="17">
         <v>2008</v>
       </c>
-      <c r="AT19" s="11"/>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV19" s="11"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>12</v>
       </c>
@@ -4281,52 +4435,54 @@
       <c r="L20" s="2"/>
       <c r="M20" s="9"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="9"/>
+      <c r="O20" s="47"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="17" t="s">
+      <c r="Q20" s="9"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="T20" s="19">
+      <c r="V20" s="19">
         <v>2001</v>
       </c>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="4">
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="4">
         <v>2003</v>
       </c>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="9"/>
+      <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
+      <c r="AH20" s="9"/>
       <c r="AI20" s="2"/>
-      <c r="AJ20" s="19">
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="19">
         <v>2000</v>
       </c>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="7"/>
-      <c r="AQ20" s="2"/>
-      <c r="AR20" s="38">
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="34"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="34">
         <v>1999</v>
       </c>
-      <c r="AS20" s="2">
+      <c r="AU20" s="2">
         <v>2008</v>
       </c>
-      <c r="AT20" s="11"/>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV20" s="11"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>16</v>
       </c>
@@ -4342,45 +4498,47 @@
       <c r="L21" s="2"/>
       <c r="M21" s="9"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="9"/>
+      <c r="O21" s="47"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="51"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="9"/>
+      <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
+      <c r="V21" s="9"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="9"/>
+      <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
+      <c r="AB21" s="9"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="9"/>
+      <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
+      <c r="AH21" s="9"/>
       <c r="AI21" s="2"/>
-      <c r="AJ21" s="11"/>
+      <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
+      <c r="AL21" s="11"/>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
-      <c r="AP21" s="10">
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AR21" s="10">
         <v>36404</v>
       </c>
-      <c r="AQ21" s="2"/>
-      <c r="AR21" s="40">
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="36">
         <v>2009</v>
       </c>
-      <c r="AS21" s="17">
+      <c r="AU21" s="17">
         <v>2008</v>
       </c>
-      <c r="AT21" s="11"/>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV21" s="11"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
@@ -4400,44 +4558,50 @@
       <c r="N22" s="4">
         <v>2012</v>
       </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="11"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="9"/>
+      <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
+      <c r="AB22" s="9"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
-      <c r="AF22" s="9"/>
+      <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
+      <c r="AH22" s="9"/>
       <c r="AI22" s="2"/>
-      <c r="AJ22" s="11"/>
+      <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="4">
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="4">
         <v>2004</v>
       </c>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="38"/>
-      <c r="AP22" s="7"/>
-      <c r="AQ22" s="2"/>
-      <c r="AR22" s="40">
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="34"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="36">
         <v>2008</v>
       </c>
-      <c r="AS22" s="17"/>
-      <c r="AT22" s="11"/>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="11"/>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
@@ -4456,46 +4620,48 @@
       <c r="L23" s="2"/>
       <c r="M23" s="9"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="9"/>
+      <c r="O23" s="47"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="51"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="9"/>
+      <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+      <c r="V23" s="9"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="4">
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="4">
         <v>2002</v>
       </c>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
-      <c r="AF23" s="9"/>
+      <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
+      <c r="AH23" s="9"/>
       <c r="AI23" s="2"/>
-      <c r="AJ23" s="11"/>
+      <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
-      <c r="AL23" s="4">
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="4">
         <v>2000</v>
       </c>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="38"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="2"/>
-      <c r="AR23" s="40">
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="34"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="36">
         <v>2010</v>
       </c>
-      <c r="AS23" s="17"/>
-      <c r="AT23" s="11"/>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="11"/>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
@@ -4514,48 +4680,50 @@
       <c r="L24" s="2"/>
       <c r="M24" s="9"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="52"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="17"/>
       <c r="S24" s="17"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="11"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="11" t="s">
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="9"/>
       <c r="AI24" s="17"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="11"/>
       <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="40">
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="36">
         <v>2003</v>
       </c>
-      <c r="AP24" s="19">
+      <c r="AR24" s="19">
         <v>2001</v>
       </c>
-      <c r="AQ24" s="2"/>
-      <c r="AR24" s="40">
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="36">
         <v>2010</v>
       </c>
-      <c r="AS24" s="17"/>
-      <c r="AT24" s="11"/>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="11"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>13</v>
       </c>
@@ -4571,48 +4739,50 @@
       <c r="L25" s="2"/>
       <c r="M25" s="9"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="9"/>
+      <c r="O25" s="47"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="4">
+      <c r="Q25" s="9"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="4">
         <v>2000</v>
       </c>
-      <c r="T25" s="19">
+      <c r="V25" s="19">
         <v>2000</v>
       </c>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="19"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
-      <c r="AF25" s="9"/>
+      <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
+      <c r="AH25" s="9"/>
       <c r="AI25" s="2"/>
-      <c r="AJ25" s="9"/>
+      <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
+      <c r="AL25" s="9"/>
       <c r="AM25" s="2"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="38"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="2"/>
-      <c r="AR25" s="38">
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="34"/>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="34">
         <v>1999</v>
       </c>
-      <c r="AS25" s="2">
+      <c r="AU25" s="2">
         <v>2008</v>
       </c>
-      <c r="AT25" s="11"/>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV25" s="11"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>18</v>
       </c>
@@ -4626,48 +4796,50 @@
       <c r="L26" s="2"/>
       <c r="M26" s="9"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="9"/>
+      <c r="O26" s="47"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="9"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="19"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
-      <c r="AF26" s="9"/>
+      <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
+      <c r="AH26" s="9"/>
       <c r="AI26" s="2"/>
-      <c r="AJ26" s="19">
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="19">
         <v>2000</v>
       </c>
-      <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
-      <c r="AO26" s="40">
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="36">
         <v>2013</v>
       </c>
-      <c r="AP26" s="19">
+      <c r="AR26" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ26" s="2"/>
-      <c r="AR26" s="40">
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="36">
         <v>2013</v>
       </c>
-      <c r="AS26" s="17"/>
-      <c r="AT26" s="11"/>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU26" s="17"/>
+      <c r="AV26" s="11"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>69</v>
       </c>
@@ -4687,64 +4859,66 @@
       <c r="L27" s="2"/>
       <c r="M27" s="9"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="11"/>
+      <c r="O27" s="49"/>
       <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="4">
+      <c r="Q27" s="11"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="4">
         <v>2000</v>
       </c>
-      <c r="T27" s="19">
+      <c r="V27" s="19">
         <v>2000</v>
       </c>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="9"/>
       <c r="AC27" s="17"/>
       <c r="AD27" s="17"/>
       <c r="AE27" s="17"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="11"/>
       <c r="AI27" s="2"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="17" t="s">
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="40">
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="36">
         <v>2007</v>
       </c>
-      <c r="AP27" s="7"/>
-      <c r="AQ27" s="2"/>
-      <c r="AR27" s="40">
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="36">
         <v>2002</v>
       </c>
-      <c r="AS27" s="2">
+      <c r="AU27" s="2">
         <v>2008</v>
       </c>
-      <c r="AT27" s="9">
+      <c r="AV27" s="9">
         <v>2001</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="AP28" s="7"/>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AR28" s="7"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="AP29" s="7"/>
-    </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AR29" s="7"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
@@ -4767,68 +4941,72 @@
       <c r="L30" s="2"/>
       <c r="M30" s="9"/>
       <c r="N30" s="17"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="11"/>
       <c r="W30" s="2"/>
-      <c r="X30" s="4">
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="4">
         <v>2014</v>
       </c>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="9"/>
       <c r="AA30" s="2"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="9"/>
       <c r="AI30" s="17"/>
-      <c r="AJ30" s="9"/>
+      <c r="AJ30" s="17"/>
       <c r="AK30" s="17"/>
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="17" t="s">
+      <c r="AL30" s="9"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="17"/>
+      <c r="AO30" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="AN30" s="17"/>
-      <c r="AO30" s="38"/>
-      <c r="AP30" s="7"/>
-      <c r="AQ30" s="2"/>
-      <c r="AR30" s="40">
+      <c r="AP30" s="17"/>
+      <c r="AQ30" s="34"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="36">
         <v>2011</v>
       </c>
-      <c r="AS30" s="4">
+      <c r="AU30" s="4">
         <v>2011</v>
       </c>
-      <c r="AT30" s="9">
+      <c r="AV30" s="9">
         <v>2011</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="2">
         <v>2012</v>
       </c>
-      <c r="AO31" s="38"/>
-      <c r="AP31" s="7"/>
-      <c r="AQ31" s="2"/>
-      <c r="AR31" s="40">
+      <c r="P31" s="17"/>
+      <c r="Q31" s="11"/>
+      <c r="AQ31" s="34"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="36">
         <v>2000</v>
       </c>
-      <c r="AS31" s="2">
+      <c r="AU31" s="2">
         <v>2008</v>
       </c>
-      <c r="AT31" s="11"/>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV31" s="11"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>25</v>
       </c>
@@ -4855,54 +5033,60 @@
         <v>79</v>
       </c>
       <c r="N32" s="17"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="4">
+      <c r="O32" s="49"/>
+      <c r="P32" s="4">
+        <v>2018</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>2017</v>
+      </c>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="4">
         <v>2011</v>
       </c>
-      <c r="X32" s="4">
+      <c r="Z32" s="4">
         <v>2011</v>
       </c>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="9"/>
       <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
+      <c r="AB32" s="9"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
-      <c r="AF32" s="9"/>
+      <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
+      <c r="AH32" s="9"/>
       <c r="AI32" s="2"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="4">
-        <v>2012</v>
-      </c>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17" t="s">
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="4">
+        <v>2012</v>
+      </c>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AN32" s="17"/>
-      <c r="AO32" s="38"/>
-      <c r="AP32" s="7"/>
-      <c r="AQ32" s="2"/>
-      <c r="AR32" s="40">
-        <v>2012</v>
-      </c>
-      <c r="AS32" s="2">
+      <c r="AP32" s="17"/>
+      <c r="AQ32" s="34"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="36">
+        <v>2012</v>
+      </c>
+      <c r="AU32" s="2">
         <v>2008</v>
       </c>
-      <c r="AT32" s="9">
+      <c r="AV32" s="9">
         <v>2005</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>26</v>
       </c>
@@ -4918,54 +5102,56 @@
       <c r="L33" s="2"/>
       <c r="M33" s="9"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="9"/>
+      <c r="O33" s="47"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="13">
+      <c r="Q33" s="9"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="13">
         <v>36281</v>
       </c>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="4">
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="4">
         <v>2000</v>
       </c>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="9"/>
       <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
+      <c r="AB33" s="9"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
-      <c r="AF33" s="9"/>
+      <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
+      <c r="AH33" s="9"/>
       <c r="AI33" s="2"/>
-      <c r="AJ33" s="19">
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="19">
         <v>2000</v>
       </c>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="17"/>
       <c r="AM33" s="2"/>
-      <c r="AN33" s="17" t="s">
+      <c r="AN33" s="17"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AO33" s="38"/>
-      <c r="AP33" s="7"/>
-      <c r="AQ33" s="2"/>
-      <c r="AR33" s="40">
+      <c r="AQ33" s="34"/>
+      <c r="AR33" s="7"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="36">
         <v>2000</v>
       </c>
-      <c r="AS33" s="2">
+      <c r="AU33" s="2">
         <v>2008</v>
       </c>
-      <c r="AT33" s="9">
+      <c r="AV33" s="9">
         <v>2007</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>98</v>
       </c>
@@ -4988,46 +5174,52 @@
         <v>79</v>
       </c>
       <c r="N34" s="17"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="17"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="2"/>
       <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="9"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
+      <c r="AB34" s="9"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
-      <c r="AF34" s="9"/>
+      <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
+      <c r="AH34" s="9"/>
       <c r="AI34" s="2"/>
-      <c r="AJ34" s="9"/>
+      <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
-      <c r="AL34" s="17"/>
+      <c r="AL34" s="9"/>
       <c r="AM34" s="2"/>
       <c r="AN34" s="17"/>
-      <c r="AO34" s="38"/>
-      <c r="AP34" s="7"/>
-      <c r="AQ34" s="2"/>
-      <c r="AR34" s="40">
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="34"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="36">
         <v>2000</v>
       </c>
-      <c r="AS34" s="2">
+      <c r="AU34" s="2">
         <v>2008</v>
       </c>
-      <c r="AT34" s="9">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV34" s="9">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>28</v>
       </c>
@@ -5053,54 +5245,60 @@
         <v>89</v>
       </c>
       <c r="N35" s="17"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="4">
+      <c r="O35" s="49"/>
+      <c r="P35" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="4">
         <v>2000</v>
       </c>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
       <c r="X35" s="17"/>
       <c r="Y35" s="17"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="4">
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="4">
         <v>2006</v>
       </c>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="4">
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="4">
         <v>2016</v>
       </c>
-      <c r="AE35" s="4">
+      <c r="AG35" s="4">
         <v>2014</v>
       </c>
-      <c r="AF35" s="19">
+      <c r="AH35" s="19">
         <v>2016</v>
       </c>
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="17"/>
       <c r="AI35" s="17"/>
-      <c r="AJ35" s="11"/>
+      <c r="AJ35" s="17"/>
       <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
+      <c r="AL35" s="11"/>
       <c r="AM35" s="17"/>
       <c r="AN35" s="17"/>
-      <c r="AO35" s="38"/>
-      <c r="AP35" s="7"/>
-      <c r="AQ35" s="2"/>
-      <c r="AR35" s="39">
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="17"/>
+      <c r="AQ35" s="34"/>
+      <c r="AR35" s="7"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="35">
         <v>2015</v>
       </c>
-      <c r="AS35" s="17">
+      <c r="AU35" s="17">
         <v>2019</v>
       </c>
-      <c r="AT35" s="11"/>
-    </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV35" s="11"/>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>29</v>
       </c>
@@ -5118,45 +5316,51 @@
       <c r="L36" s="2"/>
       <c r="M36" s="9"/>
       <c r="N36" s="17"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="4">
+        <v>2001</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>2008</v>
+      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="11"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="9"/>
+      <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
+      <c r="AB36" s="9"/>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
-      <c r="AF36" s="9"/>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="9"/>
       <c r="AI36" s="17"/>
-      <c r="AJ36" s="9"/>
-      <c r="AK36" s="2"/>
-      <c r="AL36" s="2"/>
-      <c r="AM36" s="17"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="2"/>
       <c r="AN36" s="2"/>
-      <c r="AP36" s="9">
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="2"/>
+      <c r="AR36" s="9">
         <v>1999</v>
       </c>
-      <c r="AQ36" s="2"/>
-      <c r="AR36" s="40">
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="36">
         <v>2003</v>
       </c>
-      <c r="AS36" s="4">
+      <c r="AU36" s="4">
         <v>2010</v>
       </c>
-      <c r="AT36" s="11"/>
-    </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV36" s="11"/>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>30</v>
       </c>
@@ -5176,71 +5380,83 @@
       <c r="L37" s="2"/>
       <c r="M37" s="9"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="11"/>
       <c r="W37" s="2"/>
-      <c r="X37" s="4">
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="4">
         <v>2001</v>
       </c>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="4">
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="4">
         <v>2006</v>
       </c>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="17"/>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="17" t="s">
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AJ37" s="9"/>
-      <c r="AK37" s="2"/>
-      <c r="AL37" s="17"/>
-      <c r="AM37" s="17"/>
+      <c r="AL37" s="9"/>
+      <c r="AM37" s="2"/>
       <c r="AN37" s="17"/>
-      <c r="AO37" s="38"/>
-      <c r="AP37" s="7"/>
-      <c r="AQ37" s="2"/>
-      <c r="AR37" s="38">
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="17"/>
+      <c r="AQ37" s="34"/>
+      <c r="AR37" s="7"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="34">
         <v>1999</v>
       </c>
-      <c r="AS37" s="4">
+      <c r="AU37" s="4">
         <v>2010</v>
       </c>
-      <c r="AT37" s="11"/>
-    </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="AV37" s="11"/>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="11">
         <v>2016</v>
       </c>
-      <c r="U38" s="4">
+      <c r="P38" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>2001</v>
+      </c>
+      <c r="W38" s="4">
         <v>2000</v>
       </c>
-      <c r="AO38" s="38"/>
-      <c r="AP38" s="7"/>
-      <c r="AQ38" s="2"/>
-      <c r="AR38" s="40">
+      <c r="AQ38" s="34"/>
+      <c r="AR38" s="7"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="36">
         <v>2008</v>
       </c>
-      <c r="AS38" s="4">
+      <c r="AU38" s="4">
         <v>2011</v>
       </c>
-      <c r="AT38" s="11"/>
-    </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV38" s="11"/>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>32</v>
       </c>
@@ -5260,121 +5476,141 @@
       <c r="L39" s="2"/>
       <c r="M39" s="9"/>
       <c r="N39" s="17"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="4">
+      <c r="O39" s="49"/>
+      <c r="P39" s="4">
+        <v>2009</v>
+      </c>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="4">
         <v>2005</v>
       </c>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="4">
-        <v>2012</v>
-      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="4">
+      <c r="Z39" s="4">
+        <v>2012</v>
+      </c>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="4">
         <v>2004</v>
       </c>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="17"/>
-      <c r="AH39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="9"/>
       <c r="AI39" s="17"/>
-      <c r="AJ39" s="11"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="17"/>
-      <c r="AM39" s="17"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="17"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="2"/>
       <c r="AN39" s="17"/>
-      <c r="AO39" s="38"/>
-      <c r="AP39" s="7"/>
-      <c r="AQ39" s="2"/>
-      <c r="AR39" s="40">
+      <c r="AO39" s="17"/>
+      <c r="AP39" s="17"/>
+      <c r="AQ39" s="34"/>
+      <c r="AR39" s="7"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="36">
         <v>2010</v>
       </c>
-      <c r="AS39" s="4">
+      <c r="AU39" s="4">
         <v>2011</v>
       </c>
-      <c r="AT39" s="11"/>
-    </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="AV39" s="11"/>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="11">
         <v>2015</v>
       </c>
-      <c r="U40" s="2"/>
-      <c r="AO40" s="38"/>
-      <c r="AP40" s="7"/>
-      <c r="AQ40" s="2"/>
-      <c r="AR40" s="38">
+      <c r="P40" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q40" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="W40" s="2"/>
+      <c r="AQ40" s="34"/>
+      <c r="AR40" s="7"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="34">
         <v>1999</v>
       </c>
-      <c r="AS40" s="4">
+      <c r="AU40" s="4">
         <v>2011</v>
       </c>
-      <c r="AT40" s="11"/>
-    </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="AV40" s="11"/>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="11">
         <v>2012</v>
       </c>
-      <c r="AP41" s="7">
+      <c r="P41" s="17"/>
+      <c r="Q41" s="11"/>
+      <c r="AR41" s="7">
         <v>2004</v>
       </c>
-      <c r="AQ41" s="13">
+      <c r="AS41" s="13">
         <v>36192</v>
       </c>
-      <c r="AR41" s="39">
+      <c r="AT41" s="35">
         <v>2014</v>
       </c>
-      <c r="AS41" s="17"/>
-      <c r="AT41" s="11"/>
-    </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="AU41" s="17"/>
+      <c r="AV41" s="11"/>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="11">
         <v>2017</v>
       </c>
-      <c r="AP42" s="7">
+      <c r="P42" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="AR42" s="7">
         <v>2001</v>
       </c>
-      <c r="AQ42" s="2"/>
-      <c r="AR42" s="39">
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="35">
         <v>2014</v>
       </c>
-      <c r="AS42" s="17"/>
-      <c r="AT42" s="11"/>
-    </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+      <c r="AU42" s="17"/>
+      <c r="AV42" s="11"/>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="11"/>
       <c r="E43" s="8"/>
-      <c r="AP43" s="7">
+      <c r="P43" s="17"/>
+      <c r="Q43" s="11"/>
+      <c r="AR43" s="7">
         <v>2010</v>
       </c>
-      <c r="AQ43" s="2"/>
-      <c r="AR43" s="39">
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="35">
         <v>2020</v>
       </c>
-      <c r="AS43" s="17"/>
-      <c r="AT43" s="11"/>
-    </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU43" s="17"/>
+      <c r="AV43" s="11"/>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>48</v>
       </c>
@@ -5397,75 +5633,81 @@
       <c r="N44" s="4">
         <v>2005</v>
       </c>
-      <c r="O44" s="19">
+      <c r="O44" s="50">
         <v>2005</v>
       </c>
       <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="4">
+      <c r="Q44" s="19">
+        <v>2000</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="4">
         <v>2002</v>
       </c>
-      <c r="V44" s="2"/>
-      <c r="W44" s="17" t="s">
+      <c r="X44" s="2"/>
+      <c r="Y44" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="9"/>
+      <c r="Z44" s="17"/>
       <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
+      <c r="AB44" s="9"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
-      <c r="AF44" s="9"/>
+      <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
+      <c r="AH44" s="9"/>
       <c r="AI44" s="2"/>
-      <c r="AJ44" s="11"/>
+      <c r="AJ44" s="2"/>
       <c r="AK44" s="2"/>
-      <c r="AL44" s="4">
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="4">
         <v>2010</v>
       </c>
-      <c r="AM44" s="2"/>
-      <c r="AN44" s="17" t="s">
+      <c r="AO44" s="2"/>
+      <c r="AP44" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AO44" s="38"/>
-      <c r="AP44" s="7"/>
-      <c r="AQ44" s="2"/>
-      <c r="AR44" s="40">
+      <c r="AQ44" s="34"/>
+      <c r="AR44" s="7"/>
+      <c r="AS44" s="2"/>
+      <c r="AT44" s="36">
         <v>2008</v>
       </c>
-      <c r="AS44" s="2">
+      <c r="AU44" s="2">
         <v>2008</v>
       </c>
-      <c r="AT44" s="9">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="AV44" s="9">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C45" s="11">
         <v>2018</v>
       </c>
-      <c r="U45" s="2"/>
-      <c r="AO45" s="38"/>
-      <c r="AP45" s="7"/>
-      <c r="AQ45" s="2"/>
-      <c r="AR45" s="40">
+      <c r="P45" s="2"/>
+      <c r="Q45" s="9"/>
+      <c r="W45" s="2"/>
+      <c r="AQ45" s="34"/>
+      <c r="AR45" s="7"/>
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="36">
         <v>2010</v>
       </c>
-      <c r="AS45" s="4">
+      <c r="AU45" s="4">
         <v>2011</v>
       </c>
-      <c r="AT45" s="11"/>
-    </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV45" s="11"/>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>37</v>
       </c>
@@ -5483,57 +5725,59 @@
       <c r="L46" s="2"/>
       <c r="M46" s="9"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="9"/>
+      <c r="O46" s="47"/>
       <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="4">
+      <c r="Q46" s="9"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="4">
         <v>2000</v>
       </c>
-      <c r="T46" s="9"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
+      <c r="V46" s="9"/>
       <c r="W46" s="2"/>
-      <c r="X46" s="4">
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="4">
         <v>2001</v>
       </c>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="4">
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="4">
         <v>2004</v>
       </c>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
-      <c r="AF46" s="9"/>
+      <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="2"/>
+      <c r="AH46" s="9"/>
       <c r="AI46" s="2"/>
-      <c r="AJ46" s="9"/>
+      <c r="AJ46" s="2"/>
       <c r="AK46" s="2"/>
-      <c r="AL46" s="17" t="s">
+      <c r="AL46" s="9"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AM46" s="4">
+      <c r="AO46" s="4">
         <v>2003</v>
       </c>
-      <c r="AN46" s="4">
+      <c r="AP46" s="4">
         <v>2000</v>
       </c>
-      <c r="AP46" s="9">
+      <c r="AR46" s="9">
         <v>1999</v>
       </c>
-      <c r="AQ46" s="2"/>
-      <c r="AR46" s="40">
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="36">
         <v>2010</v>
       </c>
-      <c r="AS46" s="4">
+      <c r="AU46" s="4">
         <v>2011</v>
       </c>
-      <c r="AT46" s="11"/>
-    </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV46" s="11"/>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>38</v>
       </c>
@@ -5551,55 +5795,61 @@
       <c r="L47" s="2"/>
       <c r="M47" s="9"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="4">
+      <c r="O47" s="47"/>
+      <c r="P47" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="4">
         <v>2009</v>
       </c>
-      <c r="T47" s="19">
+      <c r="V47" s="19">
         <v>2003</v>
       </c>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
       <c r="W47" s="2"/>
-      <c r="X47" s="4">
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="4">
         <v>2004</v>
       </c>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="4">
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="4">
         <v>2003</v>
       </c>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
-      <c r="AF47" s="9"/>
+      <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="2"/>
+      <c r="AH47" s="9"/>
       <c r="AI47" s="2"/>
-      <c r="AJ47" s="9"/>
+      <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
-      <c r="AL47" s="17" t="s">
+      <c r="AL47" s="9"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="AM47" s="17"/>
-      <c r="AN47" s="2"/>
-      <c r="AP47" s="9">
+      <c r="AO47" s="17"/>
+      <c r="AP47" s="2"/>
+      <c r="AR47" s="9">
         <v>1999</v>
       </c>
-      <c r="AQ47" s="4">
+      <c r="AS47" s="4">
         <v>2002</v>
       </c>
-      <c r="AR47" s="40">
+      <c r="AT47" s="36">
         <v>2007</v>
       </c>
-      <c r="AS47" s="17"/>
-      <c r="AT47" s="11"/>
-    </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU47" s="17"/>
+      <c r="AV47" s="11"/>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>39</v>
       </c>
@@ -5615,68 +5865,76 @@
       <c r="L48" s="2"/>
       <c r="M48" s="9"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="9"/>
+      <c r="O48" s="47"/>
       <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="51"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="2"/>
       <c r="S48" s="2"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="4">
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="4">
         <v>2001</v>
       </c>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
       <c r="X48" s="2"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="4">
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="4">
         <v>2002</v>
       </c>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
-      <c r="AF48" s="9"/>
+      <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="2"/>
+      <c r="AH48" s="9"/>
       <c r="AI48" s="2"/>
-      <c r="AJ48" s="11"/>
+      <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
-      <c r="AL48" s="2"/>
+      <c r="AL48" s="11"/>
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
-      <c r="AO48" s="38"/>
-      <c r="AP48" s="7"/>
-      <c r="AQ48" s="4">
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="34"/>
+      <c r="AR48" s="7"/>
+      <c r="AS48" s="4">
         <v>2001</v>
       </c>
-      <c r="AR48" s="40">
+      <c r="AT48" s="36">
         <v>2011</v>
       </c>
-      <c r="AS48" s="2">
+      <c r="AU48" s="2">
         <v>2008</v>
       </c>
-      <c r="AT48" s="11"/>
-    </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="AV48" s="11"/>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C49" s="11"/>
-      <c r="U49" s="4">
+      <c r="P49" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="W49" s="4">
         <v>2003</v>
       </c>
-      <c r="AP49" s="7">
+      <c r="AR49" s="7">
         <v>2011</v>
       </c>
-      <c r="AQ49" s="2"/>
-      <c r="AR49" s="40">
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="36">
         <v>2009</v>
       </c>
-      <c r="AS49" s="17"/>
-      <c r="AT49" s="11"/>
-    </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU49" s="17"/>
+      <c r="AV49" s="11"/>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>41</v>
       </c>
@@ -5692,43 +5950,45 @@
       <c r="L50" s="2"/>
       <c r="M50" s="9"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="9"/>
+      <c r="O50" s="47"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="51"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="2"/>
       <c r="S50" s="2"/>
-      <c r="T50" s="9"/>
+      <c r="T50" s="2"/>
       <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
+      <c r="V50" s="9"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
-      <c r="Z50" s="9"/>
+      <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
+      <c r="AB50" s="9"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
-      <c r="AF50" s="9"/>
+      <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="2"/>
+      <c r="AH50" s="9"/>
       <c r="AI50" s="2"/>
-      <c r="AJ50" s="9"/>
+      <c r="AJ50" s="2"/>
       <c r="AK50" s="2"/>
-      <c r="AL50" s="2"/>
-      <c r="AM50" s="4">
+      <c r="AL50" s="9"/>
+      <c r="AM50" s="2"/>
+      <c r="AN50" s="2"/>
+      <c r="AO50" s="4">
         <v>2003</v>
       </c>
-      <c r="AN50" s="2"/>
-      <c r="AP50" s="19">
+      <c r="AP50" s="2"/>
+      <c r="AR50" s="19">
         <v>2001</v>
       </c>
-      <c r="AQ50" s="2"/>
-      <c r="AR50" s="39"/>
-      <c r="AS50" s="17"/>
-      <c r="AT50" s="11"/>
-    </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AS50" s="2"/>
+      <c r="AT50" s="35"/>
+      <c r="AU50" s="17"/>
+      <c r="AV50" s="11"/>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>47</v>
       </c>
@@ -5744,67 +6004,75 @@
       <c r="L51" s="2"/>
       <c r="M51" s="9"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="9"/>
+      <c r="O51" s="47"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="51"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="2"/>
       <c r="S51" s="2"/>
-      <c r="T51" s="9"/>
+      <c r="T51" s="2"/>
       <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
+      <c r="V51" s="9"/>
       <c r="W51" s="2"/>
-      <c r="X51" s="4">
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="4">
         <v>2000</v>
       </c>
-      <c r="Y51" s="17" t="s">
+      <c r="AA51" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
+      <c r="AB51" s="9"/>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
-      <c r="AF51" s="9"/>
+      <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="2"/>
+      <c r="AH51" s="9"/>
       <c r="AI51" s="2"/>
-      <c r="AJ51" s="9"/>
+      <c r="AJ51" s="2"/>
       <c r="AK51" s="2"/>
-      <c r="AL51" s="2"/>
-      <c r="AM51" s="4">
+      <c r="AL51" s="9"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" s="4">
         <v>2003</v>
       </c>
-      <c r="AN51" s="17"/>
-      <c r="AP51" s="9">
+      <c r="AP51" s="17"/>
+      <c r="AR51" s="9">
         <v>1999</v>
       </c>
-      <c r="AQ51" s="2"/>
-      <c r="AR51" s="39"/>
-      <c r="AS51" s="17">
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="35"/>
+      <c r="AU51" s="17">
         <v>2018</v>
       </c>
-      <c r="AT51" s="11"/>
-    </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="AV51" s="11"/>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="11">
         <v>2013</v>
       </c>
-      <c r="AP52" s="7">
+      <c r="P52" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR52" s="7">
         <v>1999</v>
       </c>
-      <c r="AQ52" s="2"/>
-      <c r="AR52" s="40">
+      <c r="AS52" s="2"/>
+      <c r="AT52" s="36">
         <v>2010</v>
       </c>
-      <c r="AS52" s="17"/>
-      <c r="AT52" s="11"/>
-    </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="AU52" s="17"/>
+      <c r="AV52" s="11"/>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C53" s="11">
@@ -5829,69 +6097,75 @@
       <c r="N53" s="4">
         <v>2007</v>
       </c>
-      <c r="O53" s="19">
+      <c r="O53" s="50">
         <v>2007</v>
       </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
+      <c r="P53" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q53" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="9"/>
       <c r="W53" s="2"/>
-      <c r="X53" s="4">
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="4">
         <v>2003</v>
       </c>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="4">
+      <c r="AA53" s="17"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="4">
         <v>2005</v>
       </c>
-      <c r="AB53" s="4">
+      <c r="AD53" s="4">
         <v>2006</v>
       </c>
-      <c r="AC53" s="4">
+      <c r="AE53" s="4">
         <v>2006</v>
       </c>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="9"/>
+      <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
-      <c r="AH53" s="2"/>
+      <c r="AH53" s="9"/>
       <c r="AI53" s="2"/>
-      <c r="AJ53" s="11"/>
-      <c r="AK53" s="4">
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="4">
         <v>2006</v>
       </c>
-      <c r="AL53" s="17" t="s">
+      <c r="AN53" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AM53" s="17" t="s">
+      <c r="AO53" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="AN53" s="2"/>
-      <c r="AP53" s="19">
+      <c r="AP53" s="2"/>
+      <c r="AR53" s="19">
         <v>2000</v>
       </c>
-      <c r="AQ53" s="2"/>
-      <c r="AR53" s="40">
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="36">
         <v>2009</v>
       </c>
-      <c r="AS53" s="17"/>
-      <c r="AT53" s="11"/>
-    </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="AP54" s="7"/>
-    </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU53" s="17"/>
+      <c r="AV53" s="11"/>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AR54" s="7"/>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="AP55" s="7"/>
-    </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
+      <c r="AR55" s="7"/>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="11"/>
@@ -5908,54 +6182,60 @@
         <v>2004</v>
       </c>
       <c r="N56" s="17"/>
-      <c r="O56" s="11"/>
+      <c r="O56" s="49"/>
       <c r="P56" s="4">
+        <v>2004</v>
+      </c>
+      <c r="Q56" s="19">
+        <v>2003</v>
+      </c>
+      <c r="R56" s="4">
         <v>2017</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="S56" s="4">
         <v>2017</v>
       </c>
-      <c r="R56" s="52"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="2"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="17"/>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="4">
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="17"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="4">
         <v>2006</v>
       </c>
-      <c r="AB56" s="4">
+      <c r="AD56" s="4">
         <v>2005</v>
       </c>
-      <c r="AC56" s="4">
+      <c r="AE56" s="4">
         <v>2005</v>
       </c>
-      <c r="AD56" s="2"/>
-      <c r="AE56" s="2"/>
-      <c r="AF56" s="9"/>
-      <c r="AG56" s="17"/>
-      <c r="AH56" s="17"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="9"/>
       <c r="AI56" s="17"/>
-      <c r="AJ56" s="11"/>
+      <c r="AJ56" s="17"/>
       <c r="AK56" s="17"/>
-      <c r="AL56" s="17"/>
+      <c r="AL56" s="11"/>
       <c r="AM56" s="17"/>
       <c r="AN56" s="17"/>
-      <c r="AO56" s="38"/>
-      <c r="AP56" s="7"/>
-      <c r="AQ56" s="4">
+      <c r="AO56" s="17"/>
+      <c r="AP56" s="17"/>
+      <c r="AQ56" s="34"/>
+      <c r="AR56" s="7"/>
+      <c r="AS56" s="4">
         <v>2000</v>
       </c>
-      <c r="AR56" s="40">
+      <c r="AT56" s="36">
         <v>2011</v>
       </c>
-      <c r="AS56" s="17"/>
-      <c r="AT56" s="11"/>
-    </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU56" s="17"/>
+      <c r="AV56" s="11"/>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>45</v>
       </c>
@@ -5986,103 +6266,105 @@
         <v>79</v>
       </c>
       <c r="N57" s="17"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="17" t="s">
+      <c r="O57" s="49"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Q57" s="17" t="s">
+      <c r="S57" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R57" s="52" t="s">
+      <c r="T57" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="S57" s="17"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="17" t="s">
+      <c r="U57" s="17"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="W57" s="17" t="s">
+      <c r="Y57" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="X57" s="17" t="s">
+      <c r="Z57" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="17" t="s">
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AB57" s="17" t="s">
+      <c r="AD57" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="AC57" s="17" t="s">
+      <c r="AE57" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="2"/>
-      <c r="AF57" s="9"/>
-      <c r="AG57" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH57" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="9"/>
       <c r="AI57" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AJ57" s="11"/>
+      <c r="AJ57" s="17" t="s">
+        <v>89</v>
+      </c>
       <c r="AK57" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL57" s="11"/>
+      <c r="AM57" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="AL57" s="17"/>
-      <c r="AM57" s="17"/>
       <c r="AN57" s="17"/>
-      <c r="AO57" s="40">
+      <c r="AO57" s="17"/>
+      <c r="AP57" s="17"/>
+      <c r="AQ57" s="36">
         <v>2013</v>
       </c>
-      <c r="AP57" s="9">
+      <c r="AR57" s="9">
         <v>1999</v>
       </c>
-      <c r="AQ57" s="2"/>
-      <c r="AR57" s="40">
+      <c r="AS57" s="2"/>
+      <c r="AT57" s="36">
         <v>2010</v>
       </c>
-      <c r="AS57" s="17" t="s">
+      <c r="AU57" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="AT57" s="11" t="s">
+      <c r="AV57" s="11" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="AP58" s="7"/>
-    </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B59" s="44" t="s">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AR58" s="7"/>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B59" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="45"/>
-      <c r="D59" s="46" t="s">
+      <c r="C59" s="42"/>
+      <c r="D59" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="45"/>
-      <c r="AP59" s="7"/>
+      <c r="E59" s="42"/>
+      <c r="AR59" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AF1"/>
-    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6117,26 +6399,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
@@ -7600,7 +7882,7 @@
       <c r="M52" s="17"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C53" t="s">

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BE9A1E-6874-434C-B261-FC54EE5B740E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52759D73-0743-4629-8479-9B66AC0913B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="397">
   <si>
     <t>United States</t>
   </si>
@@ -1203,13 +1203,40 @@
   </si>
   <si>
     <t>IMF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unemployment </t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Rates (BIS)</t>
+  </si>
+  <si>
+    <t>rate (web scrapping)</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>Rather Not</t>
+  </si>
+  <si>
+    <t>Definitely No</t>
+  </si>
+  <si>
+    <t>Definitely Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1260,8 +1287,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1326,6 +1360,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1354,19 +1399,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1386,9 +1431,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1406,6 +1448,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1424,32 +1470,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1764,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1774,1296 +1809,1406 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="46"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22"/>
+      <c r="B1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="45" t="s">
+      <c r="D1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="26"/>
-      <c r="C2" s="37" t="s">
+      <c r="N1" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="O1" s="52" t="s">
+        <v>388</v>
+      </c>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="12" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="G3" s="53"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="27">
+      <c r="C4" s="23">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="2">
+      <c r="E4" s="2"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="2">
         <v>1999</v>
       </c>
-      <c r="I4" s="9">
-        <v>2012</v>
-      </c>
+      <c r="H4" s="8">
+        <v>2012</v>
+      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="4">
+      <c r="L4" s="4">
         <v>2010</v>
       </c>
-      <c r="N4" s="2">
+      <c r="M4" s="2">
         <v>2002</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="2"/>
+      <c r="O4" s="49"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="27">
+      <c r="C5" s="23">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="2">
+      <c r="E5" s="2"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="2">
         <v>2008</v>
       </c>
-      <c r="I5" s="10">
+      <c r="H5" s="9">
         <v>41548</v>
       </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="4">
+      <c r="L5" s="4">
         <v>2009</v>
       </c>
-      <c r="N5" s="2">
+      <c r="M5" s="2">
         <v>2006</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="2"/>
+      <c r="O5" s="49"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="27">
+      <c r="C6" s="23">
         <v>6</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="2">
+      <c r="E6" s="2"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="2">
         <v>2008</v>
       </c>
-      <c r="I6" s="9">
+      <c r="H6" s="8">
         <v>2008</v>
       </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="4">
+      <c r="L6" s="4">
         <v>2010</v>
       </c>
-      <c r="N6" s="17">
+      <c r="M6" s="16">
         <v>2011</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="2"/>
+      <c r="O6" s="49"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="27">
+      <c r="C7" s="23">
         <v>9</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I7" s="7"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="4">
+        <v>2010</v>
+      </c>
       <c r="M7" s="4">
-        <v>2010</v>
-      </c>
-      <c r="N7" s="4">
         <v>2016</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="2"/>
+      <c r="O7" s="49"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="27">
+      <c r="C8" s="23">
         <v>7</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="2">
+      <c r="E8" s="2"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="2">
         <v>2008</v>
       </c>
-      <c r="I8" s="9">
+      <c r="H8" s="8">
         <v>2008</v>
       </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2">
+      <c r="L8" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="2"/>
+      <c r="O8" s="49"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="23">
         <v>20</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="E9" s="2"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H9" s="9">
         <v>41671</v>
       </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2">
+        <v>2008</v>
+      </c>
       <c r="M9" s="2">
-        <v>2008</v>
-      </c>
-      <c r="N9" s="2">
         <v>2010</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="2"/>
+      <c r="O9" s="51"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="27">
+      <c r="C10" s="23">
         <v>4</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="2">
+      <c r="E10" s="2"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="2">
         <v>2008</v>
       </c>
-      <c r="I10" s="9">
+      <c r="H10" s="8">
         <v>2008</v>
       </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2">
+        <v>2008</v>
+      </c>
       <c r="M10" s="2">
-        <v>2008</v>
-      </c>
-      <c r="N10" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="49"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="27">
+      <c r="C11" s="23">
         <v>13</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="13">
+      <c r="E11" s="2"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12">
         <v>41426</v>
       </c>
-      <c r="I11" s="10">
+      <c r="H11" s="9">
         <v>41395</v>
       </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="4">
+      <c r="L11" s="4">
         <v>2010</v>
       </c>
-      <c r="N11" s="2">
+      <c r="M11" s="2">
         <v>2007</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="N11" s="2"/>
+      <c r="O11" s="49"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="23">
         <v>17</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="13">
+      <c r="E12" s="2"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="12">
         <v>41548</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2">
+      <c r="L12" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="N12" s="2"/>
+      <c r="O12" s="49"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="24">
         <v>38</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="13" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="4">
+      <c r="H13" s="6"/>
+      <c r="I13" s="4">
         <v>2001</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="4">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+      <c r="K13" s="4">
+        <v>2012</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="49"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="25">
         <v>25</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="2">
+      <c r="E14" s="2"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="2">
         <v>1999</v>
       </c>
-      <c r="I14" s="9">
+      <c r="H14" s="8">
         <v>2006</v>
       </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="2"/>
+      <c r="O14" s="49"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="27">
+      <c r="C15" s="23">
         <v>15</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I15" s="9">
-        <v>2012</v>
-      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2012</v>
+      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="4">
+        <v>2011</v>
+      </c>
       <c r="M15" s="4">
-        <v>2011</v>
-      </c>
-      <c r="N15" s="4">
         <v>2016</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="N15" s="2"/>
+      <c r="O15" s="49"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="24">
         <v>40</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I16" s="7"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="17">
+      <c r="L16" s="16">
         <v>2016</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="27">
+      <c r="C17" s="23">
         <v>8</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I17" s="9">
-        <v>2012</v>
-      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H17" s="8">
+        <v>2012</v>
+      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2">
+        <v>2008</v>
+      </c>
       <c r="M17" s="2">
-        <v>2008</v>
-      </c>
-      <c r="N17" s="2">
         <v>1999</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="N17" s="2"/>
+      <c r="O17" s="49"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="25">
         <v>30</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="2">
+      <c r="E18" s="2"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="2">
         <v>1999</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="4">
+      <c r="L18" s="4">
         <v>2011</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="26">
         <v>47</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="9"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="4">
+      <c r="E19" s="2"/>
+      <c r="F19" s="8"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="4">
         <v>2001</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="4">
-        <v>2012</v>
-      </c>
-      <c r="M19" s="17">
+      <c r="J19" s="2"/>
+      <c r="K19" s="4">
+        <v>2012</v>
+      </c>
+      <c r="L19" s="16">
         <v>2008</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="2"/>
+      <c r="O19" s="49"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="25">
         <v>24</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="9"/>
-      <c r="I20" s="7"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="8"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2">
+      <c r="L20" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="N20" s="2"/>
+      <c r="O20" s="49"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="25">
         <v>28</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="2">
+      <c r="E21" s="2"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="2">
         <v>2004</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="13">
+      <c r="H21" s="6"/>
+      <c r="I21" s="12">
         <v>36404</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="4">
+      <c r="J21" s="2"/>
+      <c r="K21" s="4">
         <v>2009</v>
       </c>
-      <c r="M21" s="17">
+      <c r="L21" s="16">
         <v>2008</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="N21" s="2"/>
+      <c r="O21" s="49"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="25">
         <v>29</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I22" s="7"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="4">
+      <c r="K22" s="4">
         <v>2008</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="N22" s="2"/>
+      <c r="O22" s="51"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="25">
         <v>26</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I23" s="9">
-        <v>2012</v>
-      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H23" s="8">
+        <v>2012</v>
+      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="4">
+      <c r="K23" s="4">
         <v>2010</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="N23" s="2"/>
+      <c r="O23" s="49"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="26">
         <v>51</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I24" s="9">
-        <v>2012</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="E24" s="2"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H24" s="8">
+        <v>2012</v>
+      </c>
+      <c r="I24" s="4">
         <v>2001</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="4">
+      <c r="J24" s="2"/>
+      <c r="K24" s="4">
         <v>2010</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="2"/>
+      <c r="O24" s="51"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="27">
         <v>31</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I25" s="7"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2">
+      <c r="L25" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="N25" s="2"/>
+      <c r="O25" s="49"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="26">
         <v>50</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="9"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="4">
+      <c r="E26" s="2"/>
+      <c r="F26" s="8"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="4">
         <v>2010</v>
       </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="4">
+      <c r="J26" s="2"/>
+      <c r="K26" s="4">
         <v>2013</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="N26" s="2"/>
+      <c r="O26" s="49"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="2"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="4">
+      <c r="C27" s="26"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="4">
         <v>2007</v>
       </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="4">
+      <c r="J27" s="2"/>
+      <c r="K27" s="4">
         <v>2002</v>
       </c>
+      <c r="L27" s="2">
+        <v>2008</v>
+      </c>
       <c r="M27" s="2">
-        <v>2008</v>
-      </c>
-      <c r="N27" s="2">
         <v>2001</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="32"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N27" s="2"/>
+      <c r="O27" s="49"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="28"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="28"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="27">
+      <c r="C30" s="23">
         <v>2</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="2">
+      <c r="D30" s="34"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="2">
         <v>2005</v>
       </c>
-      <c r="I30" s="9">
-        <v>2012</v>
-      </c>
+      <c r="H30" s="8">
+        <v>2012</v>
+      </c>
+      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="K30" s="4">
+        <v>2011</v>
+      </c>
       <c r="L30" s="4">
         <v>2011</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="2">
         <v>2011</v>
       </c>
-      <c r="N30" s="2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="N30" s="2"/>
+      <c r="O30" s="51">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="25">
         <v>21</v>
       </c>
-      <c r="H31" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I31" s="7"/>
+      <c r="G31" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="4">
+      <c r="K31" s="4">
         <v>2000</v>
       </c>
-      <c r="M31" s="2">
+      <c r="L31" s="2">
         <v>2008</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="27">
+      <c r="C32" s="23">
         <v>5</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I32" s="9">
-        <v>2012</v>
-      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H32" s="8">
+        <v>2012</v>
+      </c>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="4">
-        <v>2012</v>
+      <c r="K32" s="4">
+        <v>2012</v>
+      </c>
+      <c r="L32" s="2">
+        <v>2008</v>
       </c>
       <c r="M32" s="2">
-        <v>2008</v>
-      </c>
-      <c r="N32" s="2">
         <v>2005</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N32" s="2"/>
+      <c r="O32" s="51">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="27">
+      <c r="C33" s="23">
         <v>12</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L33" s="2">
+        <v>2008</v>
+      </c>
+      <c r="M33" s="2">
+        <v>2007</v>
+      </c>
+      <c r="N33" s="12">
         <v>36281</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="4">
-        <v>2000</v>
-      </c>
-      <c r="M33" s="2">
-        <v>2008</v>
-      </c>
-      <c r="N33" s="2">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="49"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="27">
+      <c r="C34" s="23">
         <v>10</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I34" s="9">
-        <v>2012</v>
-      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H34" s="8">
+        <v>2012</v>
+      </c>
+      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="4">
+      <c r="K34" s="4">
         <v>2000</v>
       </c>
+      <c r="L34" s="2">
+        <v>2008</v>
+      </c>
       <c r="M34" s="2">
-        <v>2008</v>
-      </c>
-      <c r="N34" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2012</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="51">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="27">
+      <c r="C35" s="23">
         <v>18</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="36"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="16">
+        <v>2015</v>
+      </c>
+      <c r="L35" s="16">
+        <v>2019</v>
+      </c>
+      <c r="N35" s="4">
         <v>2000</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="17">
-        <v>2015</v>
-      </c>
-      <c r="M35" s="17">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="O35" s="51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="28">
+      <c r="C36" s="24">
         <v>39</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I36" s="7"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="K36" s="4">
+        <v>2003</v>
+      </c>
       <c r="L36" s="4">
-        <v>2003</v>
-      </c>
-      <c r="M36" s="4">
         <v>2010</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="2"/>
+      <c r="O36" s="51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="27">
+      <c r="C37" s="23">
         <v>14</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I37" s="7"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="4">
+      <c r="L37" s="4">
         <v>2010</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="N37" s="2"/>
+      <c r="O37" s="49"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="25">
         <v>27</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="2"/>
+      <c r="F38" s="18"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="4">
+        <v>2008</v>
+      </c>
+      <c r="L38" s="4">
+        <v>2011</v>
+      </c>
+      <c r="N38" s="4">
         <v>2000</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="19"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="4">
-        <v>2008</v>
-      </c>
-      <c r="M38" s="4">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="23">
+        <v>16</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="4">
+        <v>2010</v>
+      </c>
+      <c r="L39" s="4">
         <v>2011</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="27">
-        <v>16</v>
-      </c>
-      <c r="D39" s="4">
+      <c r="N39" s="4">
         <v>2005</v>
       </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="4">
-        <v>2010</v>
-      </c>
-      <c r="M39" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="O39" s="51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="24">
         <v>35</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="19"/>
-      <c r="I40" s="7"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="18"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="4">
+      <c r="L40" s="4">
         <v>2011</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="24">
         <v>33</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="11"/>
-      <c r="I41" s="7"/>
-      <c r="K41" s="13">
+      <c r="E41" s="4"/>
+      <c r="F41" s="10"/>
+      <c r="H41" s="6"/>
+      <c r="J41" s="12">
         <v>36192</v>
       </c>
-      <c r="L41" s="17">
+      <c r="K41" s="16">
         <v>2014</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="26">
         <v>54</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="11"/>
-      <c r="I42" s="7"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="17">
+      <c r="E42" s="4"/>
+      <c r="F42" s="10"/>
+      <c r="H42" s="6"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="16">
         <v>2014</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="26">
         <v>57</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="11"/>
-      <c r="I43" s="7"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="17">
+      <c r="E43" s="4"/>
+      <c r="F43" s="10"/>
+      <c r="H43" s="6"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="16">
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="27">
+      <c r="C44" s="23">
         <v>19</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="4"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="4">
+        <v>2008</v>
+      </c>
+      <c r="L44" s="2">
+        <v>2008</v>
+      </c>
+      <c r="M44" s="2">
+        <v>2012</v>
+      </c>
+      <c r="N44" s="4">
         <v>2002</v>
       </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="4">
-        <v>2008</v>
-      </c>
-      <c r="M44" s="2">
-        <v>2008</v>
-      </c>
-      <c r="N44" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="O44" s="51">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="24">
         <v>36</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="9"/>
-      <c r="I45" s="7"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="8"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="K45" s="4">
+        <v>2010</v>
+      </c>
       <c r="L45" s="4">
-        <v>2010</v>
-      </c>
-      <c r="M45" s="4">
         <v>2011</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="25">
         <v>22</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I46" s="7"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="K46" s="4">
+        <v>2010</v>
+      </c>
       <c r="L46" s="4">
+        <v>2011</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="49"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="26">
+        <v>43</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="18"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="4">
+        <v>2002</v>
+      </c>
+      <c r="K47" s="4">
+        <v>2007</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="49"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="26">
+        <v>53</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="4">
+        <v>2001</v>
+      </c>
+      <c r="K48" s="4">
+        <v>2011</v>
+      </c>
+      <c r="L48" s="2">
+        <v>2008</v>
+      </c>
+      <c r="N48" s="4">
+        <v>2001</v>
+      </c>
+      <c r="O48" s="49"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="26">
+        <v>48</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="18"/>
+      <c r="H49" s="6"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="4">
+        <v>2009</v>
+      </c>
+      <c r="N49" s="4">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="26">
+        <v>56</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="2">
+        <v>1999</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="4">
+        <v>2001</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="16"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="49"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="26">
+        <v>46</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16">
+        <v>2018</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="49"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="26">
+        <v>41</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="18"/>
+      <c r="H52" s="6"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="4">
         <v>2010</v>
       </c>
-      <c r="M46" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="30">
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="19"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="4">
-        <v>2002</v>
-      </c>
-      <c r="L47" s="4">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="30">
-        <v>53</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="C53" s="26">
+        <v>45</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="18"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="4">
+        <v>2009</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="51">
         <v>2001</v>
       </c>
-      <c r="E48" s="47"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="4">
-        <v>2001</v>
-      </c>
-      <c r="L48" s="4">
-        <v>2011</v>
-      </c>
-      <c r="M48" s="2">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="30">
-        <v>48</v>
-      </c>
-      <c r="D49" s="4">
-        <v>2003</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="19"/>
-      <c r="I49" s="7"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="4">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="30">
-        <v>56</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="2">
-        <v>1999</v>
-      </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="4">
-        <v>2001</v>
-      </c>
-      <c r="K50" s="2"/>
-      <c r="L50" s="17"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="30">
-        <v>46</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="30">
-        <v>41</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="19"/>
-      <c r="I52" s="7"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="4">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="30">
-        <v>45</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="19"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="4">
-        <v>2000</v>
-      </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="4">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C54" s="32"/>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C54" s="28"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="C55" s="28"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B56" s="5"/>
-      <c r="C56" s="29">
+      <c r="C56" s="25">
         <v>23</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="19"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="2"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="18"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="4">
+        <v>2000</v>
+      </c>
       <c r="K56" s="4">
-        <v>2000</v>
-      </c>
-      <c r="L56" s="4">
         <v>2011</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="N56" s="2"/>
+      <c r="O56" s="51">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="5"/>
-      <c r="C57" s="27">
+      <c r="C57" s="23">
         <v>11</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I57" s="9">
-        <v>2012</v>
-      </c>
+      <c r="D57" s="36"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H57" s="8">
+        <v>2012</v>
+      </c>
+      <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="4">
+      <c r="K57" s="4">
         <v>2010</v>
       </c>
-      <c r="M57" s="17" t="s">
+      <c r="L57" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="N57" s="17" t="s">
+      <c r="M57" s="16" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="49"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>396</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>393</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>394</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>395</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3073,7 +3218,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
-  <dimension ref="A1:AV59"/>
+  <dimension ref="A1:AW59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -3082,53 +3227,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" customWidth="1"/>
-    <col min="19" max="20" width="9.5703125" customWidth="1"/>
-    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" style="7" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="11.7109375" customWidth="1"/>
-    <col min="34" max="34" width="11.7109375" style="7" customWidth="1"/>
-    <col min="35" max="35" width="12" customWidth="1"/>
-    <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15" style="7" customWidth="1"/>
-    <col min="39" max="39" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" customWidth="1"/>
-    <col min="45" max="45" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.28515625" style="33" customWidth="1"/>
-    <col min="47" max="47" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="48" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="21" width="9.5703125" customWidth="1"/>
+    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" style="6" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.7109375" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" style="6" customWidth="1"/>
+    <col min="36" max="36" width="12" customWidth="1"/>
+    <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15" style="6" customWidth="1"/>
+    <col min="40" max="40" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.7109375" customWidth="1"/>
+    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.28515625" style="29" customWidth="1"/>
+    <col min="48" max="48" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A1" s="22"/>
       <c r="B1" s="38" t="s">
         <v>63</v>
       </c>
@@ -3149,77 +3294,78 @@
       <c r="K1" s="39"/>
       <c r="L1" s="39"/>
       <c r="M1" s="40"/>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="52" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="47"/>
+      <c r="S1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="12" t="s">
+      <c r="V1" s="1"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="Y1" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" s="39"/>
       <c r="Z1" s="39"/>
       <c r="AA1" s="39"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="38" t="s">
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="AD1" s="39"/>
       <c r="AE1" s="39"/>
       <c r="AF1" s="39"/>
       <c r="AG1" s="39"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="39"/>
       <c r="AK1" s="39"/>
       <c r="AL1" s="39"/>
-      <c r="AM1" s="38" t="s">
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="AN1" s="39"/>
       <c r="AO1" s="39"/>
       <c r="AP1" s="39"/>
-      <c r="AQ1" s="25" t="s">
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="20" t="s">
+      <c r="AS1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AT1" s="38" t="s">
+      <c r="AU1" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="20" t="s">
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="19" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
       <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F2" t="s">
@@ -3228,7 +3374,7 @@
       <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>75</v>
       </c>
       <c r="I2" t="s">
@@ -3243,123 +3389,126 @@
       <c r="L2" t="s">
         <v>115</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N2" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" t="s">
         <v>85</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R2" t="s">
-        <v>88</v>
+      <c r="R2" s="46" t="s">
+        <v>388</v>
       </c>
       <c r="S2" t="s">
         <v>88</v>
       </c>
       <c r="T2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U2" t="s">
         <v>117</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>371</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>137</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>77</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>81</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>118</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>90</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>102</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>104</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>123</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>125</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>91</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>365</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>367</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>93</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>128</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>131</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>135</v>
       </c>
-      <c r="AQ2" s="33" t="s">
+      <c r="AR2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AS2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>142</v>
       </c>
-      <c r="AT2" s="25" t="s">
+      <c r="AU2" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AV2" s="20" t="s">
+      <c r="AW2" s="19" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F3" t="s">
@@ -3368,7 +3517,7 @@
       <c r="G3" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>76</v>
       </c>
       <c r="I3" t="s">
@@ -3383,109 +3532,112 @@
       <c r="L3" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>116</v>
       </c>
       <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" t="s">
         <v>375</v>
       </c>
-      <c r="Q3" s="53" t="s">
+      <c r="Q3" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="S3" t="s">
         <v>97</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>122</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>372</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>138</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>78</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>82</v>
       </c>
       <c r="Z3" t="s">
         <v>82</v>
       </c>
       <c r="AA3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB3" t="s">
         <v>119</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>127</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>103</v>
       </c>
       <c r="AE3" t="s">
         <v>103</v>
       </c>
       <c r="AF3" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AG3" t="s">
         <v>124</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AH3" t="s">
         <v>124</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>92</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>366</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>368</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AM3" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>94</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>129</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>132</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>136</v>
       </c>
-      <c r="AR3" s="7"/>
-      <c r="AS3" t="s">
+      <c r="AS3" s="6"/>
+      <c r="AT3" t="s">
         <v>143</v>
       </c>
-      <c r="AT3" s="33" t="s">
+      <c r="AU3" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>55</v>
       </c>
-      <c r="AV3" s="7" t="s">
+      <c r="AW3" s="6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2">
@@ -3496,56 +3648,57 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="9"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="47"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="2"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="8"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="8"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="8"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="8"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="8"/>
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="34">
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="30">
         <v>1999</v>
       </c>
-      <c r="AU4" s="4">
+      <c r="AV4" s="4">
         <v>2010</v>
       </c>
-      <c r="AV4" s="9">
+      <c r="AW4" s="8">
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2">
@@ -3554,71 +3707,72 @@
       <c r="D5" s="4">
         <v>2019</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>41548</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="4">
         <v>2007</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="9"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="47"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="17" t="s">
+      <c r="Q5" s="49"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="T5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="U5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="2"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="10"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="4">
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="4">
         <v>2002</v>
       </c>
-      <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="8"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="8"/>
       <c r="AJ5" s="2"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="10"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
-      <c r="AP5" s="17"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="34">
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="30"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="30">
         <v>1999</v>
       </c>
-      <c r="AU5" s="4">
+      <c r="AV5" s="4">
         <v>2009</v>
       </c>
-      <c r="AV5" s="9">
+      <c r="AW5" s="8">
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -3629,126 +3783,128 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="9"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="17" t="s">
+      <c r="O6" s="2"/>
+      <c r="P6" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="8"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="4">
+      <c r="U6" s="2"/>
+      <c r="V6" s="4">
         <v>2008</v>
       </c>
-      <c r="V6" s="19">
+      <c r="W6" s="18">
         <v>2008</v>
       </c>
-      <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="8"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="8"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
-      <c r="AL6" s="19">
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="18">
         <v>2010</v>
       </c>
-      <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="34"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="34">
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="30">
         <v>1999</v>
       </c>
-      <c r="AU6" s="4">
+      <c r="AV6" s="4">
         <v>2010</v>
       </c>
-      <c r="AV6" s="11">
+      <c r="AW6" s="10">
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>2021</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>2012</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="9"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="47"/>
+      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="2"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="8"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="8"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="8"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="8"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="8"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
-      <c r="AQ7" s="34"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="34">
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="30">
         <v>1999</v>
       </c>
-      <c r="AU7" s="4">
+      <c r="AV7" s="4">
         <v>2010</v>
       </c>
-      <c r="AV7" s="19">
+      <c r="AW7" s="18">
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -3759,128 +3915,130 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="9"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="47"/>
+      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="19">
+      <c r="Q8" s="51">
         <v>2003</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="8"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="8"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="18"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="8"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="8"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="34"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="34">
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="30"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="30">
         <v>1999</v>
       </c>
-      <c r="AU8" s="2">
+      <c r="AV8" s="2">
         <v>2008</v>
       </c>
-      <c r="AV8" s="11"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="AW8" s="10"/>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9">
-        <v>2012</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="C9" s="8">
+        <v>2012</v>
+      </c>
+      <c r="E9" s="9">
         <v>41671</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="47"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="19">
+      <c r="Q9" s="51">
         <v>2010</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="18"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="4">
+      <c r="U9" s="2"/>
+      <c r="V9" s="4">
         <v>2002</v>
       </c>
-      <c r="V9" s="19">
+      <c r="W9" s="18">
         <v>2002</v>
       </c>
-      <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="8"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="4">
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="4">
         <v>2011</v>
-      </c>
-      <c r="AJ9" s="4">
-        <v>2010</v>
       </c>
       <c r="AK9" s="4">
         <v>2010</v>
       </c>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="2"/>
+      <c r="AL9" s="4">
+        <v>2010</v>
+      </c>
+      <c r="AM9" s="10"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="34">
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="30">
         <v>1999</v>
       </c>
-      <c r="AU9" s="2">
+      <c r="AV9" s="2">
         <v>2008</v>
       </c>
-      <c r="AV9" s="9">
+      <c r="AW9" s="8">
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2">
@@ -3891,243 +4049,247 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="9"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="47"/>
+      <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="19">
+      <c r="Q10" s="51">
         <v>2005</v>
       </c>
-      <c r="R10" s="2"/>
+      <c r="R10" s="8"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="8"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="18"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="8"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="8"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
-      <c r="AQ10" s="34"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="34">
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="30"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="30">
         <v>1999</v>
       </c>
-      <c r="AU10" s="2">
+      <c r="AV10" s="2">
         <v>2008</v>
       </c>
-      <c r="AV10" s="9">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="AW10" s="8">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4">
         <v>2018</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>41426</v>
       </c>
       <c r="D11" s="4">
         <v>2018</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>41395</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="9"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="47"/>
+      <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="2"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="10"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="8"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="16"/>
       <c r="AP11" s="2"/>
-      <c r="AQ11" s="34"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="34">
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="30"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="30">
         <v>1999</v>
       </c>
-      <c r="AU11" s="4">
+      <c r="AV11" s="4">
         <v>2010</v>
       </c>
-      <c r="AV11" s="9">
+      <c r="AW11" s="8">
         <v>2007</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>41548</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="9"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="47"/>
+      <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="2"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="8"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="8"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="4">
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="4">
         <v>2003</v>
       </c>
-      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="8"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
-      <c r="AL12" s="19">
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="18">
         <v>2000</v>
       </c>
-      <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
-      <c r="AP12" s="17" t="s">
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AQ12" s="34"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="2"/>
-      <c r="AT12" s="34">
+      <c r="AR12" s="30"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="30">
         <v>1999</v>
       </c>
-      <c r="AU12" s="2">
+      <c r="AV12" s="2">
         <v>2008</v>
       </c>
-      <c r="AV12" s="11"/>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="AW12" s="10"/>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>65</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="11"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="9"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="47"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="2"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="8"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="17" t="s">
+      <c r="U13" s="2"/>
+      <c r="V13" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="V13" s="9"/>
-      <c r="W13" s="2"/>
+      <c r="W13" s="8"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="4">
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="4">
         <v>2005</v>
       </c>
-      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="8"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="10"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
-      <c r="AP13" s="17"/>
-      <c r="AR13" s="19">
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="16"/>
+      <c r="AS13" s="18">
         <v>2001</v>
       </c>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="36">
-        <v>2012</v>
-      </c>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="11"/>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="32">
+        <v>2012</v>
+      </c>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="10"/>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
@@ -4138,58 +4300,59 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="9"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="47"/>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="2"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="8"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="17" t="s">
+      <c r="U14" s="2"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="8"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="8"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="8"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
-      <c r="AQ14" s="36">
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="32">
         <v>2008</v>
       </c>
-      <c r="AR14" s="9">
+      <c r="AS14" s="8">
         <v>1999</v>
       </c>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="34">
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="30">
         <v>1999</v>
       </c>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="11"/>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="10"/>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="2">
@@ -4200,82 +4363,83 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="9"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="47"/>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="2"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="8"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="19">
+      <c r="U15" s="2"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="18">
         <v>2000</v>
       </c>
-      <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="18"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="8"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="8"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
-      <c r="AQ15" s="34"/>
-      <c r="AR15" s="7"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="34">
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="30"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="30">
         <v>1999</v>
       </c>
-      <c r="AU15" s="4">
+      <c r="AV15" s="4">
         <v>2011</v>
       </c>
-      <c r="AV15" s="19">
+      <c r="AW15" s="18">
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>2012</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="48"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="9"/>
-      <c r="W16" s="2"/>
-      <c r="Z16" s="18"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="7"/>
-      <c r="AS16" s="2"/>
-      <c r="AT16" s="34">
+      <c r="Q16" s="49"/>
+      <c r="X16" s="2"/>
+      <c r="AA16" s="17"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="30">
         <v>1999</v>
       </c>
-      <c r="AU16" s="17">
+      <c r="AV16" s="16">
         <v>2016</v>
       </c>
-      <c r="AV16" s="11"/>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="AW16" s="10"/>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2">
@@ -4286,323 +4450,328 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="9"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="47"/>
+      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="2"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="8"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="4">
+      <c r="U17" s="2"/>
+      <c r="V17" s="4">
         <v>2000</v>
       </c>
-      <c r="V17" s="19">
+      <c r="W17" s="18">
         <v>2000</v>
       </c>
-      <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="18"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="8"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="8"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="34"/>
-      <c r="AR17" s="7"/>
-      <c r="AS17" s="2"/>
-      <c r="AT17" s="34">
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="30"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="30">
         <v>1999</v>
       </c>
-      <c r="AU17" s="2">
+      <c r="AV17" s="2">
         <v>2008</v>
       </c>
-      <c r="AV17" s="9">
+      <c r="AW17" s="8">
         <v>1999</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>1999</v>
       </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="17" t="s">
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="AQ18" s="34"/>
-      <c r="AR18" s="7"/>
-      <c r="AS18" s="2"/>
-      <c r="AT18" s="34">
+      <c r="AR18" s="30"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="30">
         <v>1999</v>
       </c>
-      <c r="AU18" s="4">
+      <c r="AV18" s="4">
         <v>2011</v>
       </c>
-      <c r="AV18" s="11"/>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="AW18" s="10"/>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="10"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="11"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="9"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="47"/>
+      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="2"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="8"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="8"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="18"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="8"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="8"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
-      <c r="AQ19" s="36">
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="32">
         <v>2013</v>
       </c>
-      <c r="AR19" s="19">
+      <c r="AS19" s="18">
         <v>2001</v>
       </c>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="36">
-        <v>2012</v>
-      </c>
-      <c r="AU19" s="17">
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="32">
+        <v>2012</v>
+      </c>
+      <c r="AV19" s="16">
         <v>2008</v>
       </c>
-      <c r="AV19" s="11"/>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="AW19" s="10"/>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="10"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="9"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="47"/>
+      <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="2"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="8"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="17" t="s">
+      <c r="U20" s="2"/>
+      <c r="V20" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="V20" s="19">
+      <c r="W20" s="18">
         <v>2001</v>
       </c>
-      <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="4">
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="4">
         <v>2003</v>
       </c>
-      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="8"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
-      <c r="AL20" s="19">
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="18">
         <v>2000</v>
       </c>
-      <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
-      <c r="AQ20" s="34"/>
-      <c r="AR20" s="7"/>
-      <c r="AS20" s="2"/>
-      <c r="AT20" s="34">
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="30"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="30">
         <v>1999</v>
       </c>
-      <c r="AU20" s="2">
+      <c r="AV20" s="2">
         <v>2008</v>
       </c>
-      <c r="AV20" s="11"/>
-    </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="AW20" s="10"/>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="2">
         <v>2004</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="11"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="9"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="47"/>
+      <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="2"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="8"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="8"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="8"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="8"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="10"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
-      <c r="AR21" s="10">
+      <c r="AQ21" s="2"/>
+      <c r="AS21" s="9">
         <v>36404</v>
       </c>
-      <c r="AS21" s="2"/>
-      <c r="AT21" s="36">
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="32">
         <v>2009</v>
       </c>
-      <c r="AU21" s="17">
+      <c r="AV21" s="16">
         <v>2008</v>
       </c>
-      <c r="AV21" s="11"/>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="AW21" s="10"/>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>2012</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4">
         <v>2011</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="9"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="4">
         <v>2012</v>
       </c>
-      <c r="O22" s="47"/>
-      <c r="P22" s="17" t="s">
+      <c r="O22" s="2"/>
+      <c r="P22" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="R22" s="2"/>
+      <c r="R22" s="18"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="10"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="8"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="8"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="10"/>
       <c r="AN22" s="2"/>
-      <c r="AO22" s="4">
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="4">
         <v>2004</v>
       </c>
-      <c r="AP22" s="2"/>
-      <c r="AQ22" s="34"/>
-      <c r="AR22" s="7"/>
-      <c r="AS22" s="2"/>
-      <c r="AT22" s="36">
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="30"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="32">
         <v>2008</v>
       </c>
-      <c r="AU22" s="17"/>
-      <c r="AV22" s="11"/>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="AV22" s="16"/>
+      <c r="AW22" s="10"/>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="2">
@@ -4613,118 +4782,120 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="11"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="9"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="47"/>
+      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="2"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="8"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="8"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="4">
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="4">
         <v>2002</v>
       </c>
-      <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="8"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="4">
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="4">
         <v>2000</v>
       </c>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="17"/>
-      <c r="AQ23" s="34"/>
-      <c r="AR23" s="7"/>
-      <c r="AS23" s="2"/>
-      <c r="AT23" s="36">
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="32">
         <v>2010</v>
       </c>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="11"/>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="AV23" s="16"/>
+      <c r="AW23" s="10"/>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="9">
-        <v>2012</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="8">
+        <v>2012</v>
+      </c>
+      <c r="E24" s="8">
         <v>2012</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="11"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="47"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="2"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="10"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="11" t="s">
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="16"/>
       <c r="AP24" s="2"/>
-      <c r="AQ24" s="36">
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="32">
         <v>2003</v>
       </c>
-      <c r="AR24" s="19">
+      <c r="AS24" s="18">
         <v>2001</v>
       </c>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="36">
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="32">
         <v>2010</v>
       </c>
-      <c r="AU24" s="17"/>
-      <c r="AV24" s="11"/>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="AV24" s="16"/>
+      <c r="AW24" s="10"/>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="2">
@@ -4732,194 +4903,197 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="11"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="9"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="47"/>
+      <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="2"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="8"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="4">
+      <c r="U25" s="2"/>
+      <c r="V25" s="4">
         <v>2000</v>
       </c>
-      <c r="V25" s="19">
+      <c r="W25" s="18">
         <v>2000</v>
       </c>
-      <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="18"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="8"/>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="8"/>
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
-      <c r="AP25" s="17"/>
-      <c r="AQ25" s="34"/>
-      <c r="AR25" s="7"/>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="34">
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="16"/>
+      <c r="AR25" s="30"/>
+      <c r="AS25" s="6"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="30">
         <v>1999</v>
       </c>
-      <c r="AU25" s="2">
+      <c r="AV25" s="2">
         <v>2008</v>
       </c>
-      <c r="AV25" s="11"/>
-    </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="AW25" s="10"/>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="10"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="11"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="9"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="47"/>
+      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="2"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="8"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="8"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="18"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="8"/>
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
-      <c r="AL26" s="19">
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="18">
         <v>2000</v>
       </c>
-      <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
-      <c r="AQ26" s="36">
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="32">
         <v>2013</v>
       </c>
-      <c r="AR26" s="19">
+      <c r="AS26" s="18">
         <v>2010</v>
       </c>
-      <c r="AS26" s="2"/>
-      <c r="AT26" s="36">
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="32">
         <v>2013</v>
       </c>
-      <c r="AU26" s="17"/>
-      <c r="AV26" s="11"/>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="10"/>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="2">
         <v>2012</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="2">
         <v>2012</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="4">
+      <c r="M27" s="8"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="4">
         <v>2000</v>
       </c>
-      <c r="V27" s="19">
+      <c r="W27" s="18">
         <v>2000</v>
       </c>
-      <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="10"/>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
-      <c r="AL27" s="9"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="17" t="s">
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="16"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AP27" s="2"/>
-      <c r="AQ27" s="36">
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="32">
         <v>2007</v>
       </c>
-      <c r="AR27" s="7"/>
-      <c r="AS27" s="2"/>
-      <c r="AT27" s="36">
+      <c r="AS27" s="6"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="32">
         <v>2002</v>
       </c>
-      <c r="AU27" s="2">
+      <c r="AV27" s="2">
         <v>2008</v>
       </c>
-      <c r="AV27" s="9">
+      <c r="AW27" s="8">
         <v>2001</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="AR28" s="7"/>
-    </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AS28" s="6"/>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="AR29" s="7"/>
-    </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="C29" s="7"/>
+      <c r="AS29" s="6"/>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="2">
@@ -4932,82 +5106,85 @@
         <v>2000</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="2"/>
       <c r="J30" s="4">
         <v>2011</v>
       </c>
-      <c r="K30" s="17"/>
+      <c r="K30" s="16"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="2"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="18">
+        <v>2002</v>
+      </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="10"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="4">
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="4">
         <v>2014</v>
       </c>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
       <c r="AG30" s="2"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="17"/>
-      <c r="AL30" s="9"/>
-      <c r="AM30" s="17"/>
-      <c r="AN30" s="17"/>
-      <c r="AO30" s="17" t="s">
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="16"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="16"/>
+      <c r="AO30" s="16"/>
+      <c r="AP30" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="AP30" s="17"/>
-      <c r="AQ30" s="34"/>
-      <c r="AR30" s="7"/>
-      <c r="AS30" s="2"/>
-      <c r="AT30" s="36">
+      <c r="AQ30" s="16"/>
+      <c r="AR30" s="30"/>
+      <c r="AS30" s="6"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="32">
         <v>2011</v>
       </c>
-      <c r="AU30" s="4">
+      <c r="AV30" s="4">
         <v>2011</v>
       </c>
-      <c r="AV30" s="9">
+      <c r="AW30" s="8">
         <v>2011</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="2">
         <v>2012</v>
       </c>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="11"/>
-      <c r="AQ31" s="34"/>
-      <c r="AR31" s="7"/>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="36">
+      <c r="P31" s="16"/>
+      <c r="Q31" s="50"/>
+      <c r="AR31" s="30"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="32">
         <v>2000</v>
       </c>
-      <c r="AU31" s="2">
+      <c r="AV31" s="2">
         <v>2008</v>
       </c>
-      <c r="AV31" s="11"/>
-    </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="AW31" s="10"/>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="2">
@@ -5019,75 +5196,78 @@
       <c r="F32" s="4">
         <v>2000</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17" t="s">
+      <c r="K32" s="16"/>
+      <c r="L32" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="49"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
       <c r="P32" s="4">
         <v>2018</v>
       </c>
-      <c r="Q32" s="19">
+      <c r="Q32" s="51">
         <v>2017</v>
       </c>
-      <c r="R32" s="2"/>
+      <c r="R32" s="18">
+        <v>2018</v>
+      </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="10"/>
       <c r="X32" s="2"/>
-      <c r="Y32" s="4">
-        <v>2011</v>
-      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" s="4">
         <v>2011</v>
       </c>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="2"/>
+      <c r="AA32" s="4">
+        <v>2011</v>
+      </c>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="8"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="8"/>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
-      <c r="AL32" s="9"/>
-      <c r="AM32" s="4">
-        <v>2012</v>
-      </c>
-      <c r="AN32" s="17"/>
-      <c r="AO32" s="17" t="s">
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="4">
+        <v>2012</v>
+      </c>
+      <c r="AO32" s="16"/>
+      <c r="AP32" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="AP32" s="17"/>
-      <c r="AQ32" s="34"/>
-      <c r="AR32" s="7"/>
-      <c r="AS32" s="2"/>
-      <c r="AT32" s="36">
-        <v>2012</v>
-      </c>
-      <c r="AU32" s="2">
+      <c r="AQ32" s="16"/>
+      <c r="AR32" s="30"/>
+      <c r="AS32" s="6"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="32">
+        <v>2012</v>
+      </c>
+      <c r="AV32" s="2">
         <v>2008</v>
       </c>
-      <c r="AV32" s="9">
+      <c r="AW32" s="8">
         <v>2005</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="2">
@@ -5095,64 +5275,65 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="9"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="47"/>
+      <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="2"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="8"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="13">
+      <c r="U33" s="2"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="12">
         <v>36281</v>
       </c>
-      <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="4">
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="4">
         <v>2000</v>
       </c>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="8"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="8"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
-      <c r="AL33" s="19">
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="18">
         <v>2000</v>
       </c>
-      <c r="AM33" s="2"/>
-      <c r="AN33" s="17"/>
-      <c r="AO33" s="2"/>
-      <c r="AP33" s="17" t="s">
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AQ33" s="34"/>
-      <c r="AR33" s="7"/>
-      <c r="AS33" s="2"/>
-      <c r="AT33" s="36">
+      <c r="AR33" s="30"/>
+      <c r="AS33" s="6"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="32">
         <v>2000</v>
       </c>
-      <c r="AU33" s="2">
+      <c r="AV33" s="2">
         <v>2008</v>
       </c>
-      <c r="AV33" s="9">
+      <c r="AW33" s="8">
         <v>2007</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B34" s="2">
@@ -5163,143 +5344,149 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17" t="s">
+      <c r="K34" s="16"/>
+      <c r="L34" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N34" s="17"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="17" t="s">
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="50" t="s">
         <v>382</v>
       </c>
-      <c r="R34" s="2"/>
+      <c r="R34" s="18">
+        <v>2012</v>
+      </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="10"/>
       <c r="X34" s="2"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="16"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="8"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="8"/>
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
-      <c r="AL34" s="9"/>
-      <c r="AM34" s="2"/>
-      <c r="AN34" s="17"/>
-      <c r="AO34" s="2"/>
-      <c r="AP34" s="17"/>
-      <c r="AQ34" s="34"/>
-      <c r="AR34" s="7"/>
-      <c r="AS34" s="2"/>
-      <c r="AT34" s="36">
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="16"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="16"/>
+      <c r="AR34" s="30"/>
+      <c r="AS34" s="6"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="32">
         <v>2000</v>
       </c>
-      <c r="AU34" s="2">
+      <c r="AV34" s="2">
         <v>2008</v>
       </c>
-      <c r="AV34" s="9">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="AW34" s="8">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="9">
-        <v>2012</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="11"/>
+      <c r="C35" s="8">
+        <v>2012</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="4">
         <v>2011</v>
       </c>
       <c r="J35" s="4">
         <v>2010</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="K35" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="L35" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N35" s="17"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49" t="s">
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="R35" s="2"/>
+      <c r="R35" s="18">
+        <v>2000</v>
+      </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="4">
+      <c r="U35" s="2"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="4">
         <v>2000</v>
       </c>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="4">
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="4">
         <v>2006</v>
       </c>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="4">
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="4">
         <v>2016</v>
       </c>
-      <c r="AG35" s="4">
+      <c r="AH35" s="4">
         <v>2014</v>
       </c>
-      <c r="AH35" s="19">
+      <c r="AI35" s="18">
         <v>2016</v>
       </c>
-      <c r="AI35" s="17"/>
-      <c r="AJ35" s="17"/>
-      <c r="AK35" s="17"/>
-      <c r="AL35" s="11"/>
-      <c r="AM35" s="17"/>
-      <c r="AN35" s="17"/>
-      <c r="AO35" s="17"/>
-      <c r="AP35" s="17"/>
-      <c r="AQ35" s="34"/>
-      <c r="AR35" s="7"/>
-      <c r="AS35" s="2"/>
-      <c r="AT35" s="35">
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="16"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="16"/>
+      <c r="AQ35" s="16"/>
+      <c r="AR35" s="30"/>
+      <c r="AS35" s="6"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="31">
         <v>2015</v>
       </c>
-      <c r="AU35" s="17">
+      <c r="AV35" s="16">
         <v>2019</v>
       </c>
-      <c r="AV35" s="11"/>
-    </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="AW35" s="10"/>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="2">
@@ -5307,61 +5494,64 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2">
         <v>2008</v>
       </c>
       <c r="L36" s="2"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="49"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
       <c r="P36" s="4">
         <v>2001</v>
       </c>
-      <c r="Q36" s="19">
+      <c r="Q36" s="51">
         <v>2008</v>
       </c>
-      <c r="R36" s="2"/>
+      <c r="R36" s="18">
+        <v>2000</v>
+      </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="10"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="8"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="17"/>
-      <c r="AJ36" s="2"/>
-      <c r="AK36" s="17"/>
-      <c r="AL36" s="9"/>
-      <c r="AM36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="16"/>
+      <c r="AM36" s="8"/>
       <c r="AN36" s="2"/>
-      <c r="AO36" s="17"/>
-      <c r="AP36" s="2"/>
-      <c r="AR36" s="9">
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="16"/>
+      <c r="AQ36" s="2"/>
+      <c r="AS36" s="8">
         <v>1999</v>
       </c>
-      <c r="AS36" s="2"/>
-      <c r="AT36" s="36">
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="32">
         <v>2003</v>
       </c>
-      <c r="AU36" s="4">
+      <c r="AV36" s="4">
         <v>2010</v>
       </c>
-      <c r="AV36" s="11"/>
-    </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="AW36" s="10"/>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="2">
@@ -5371,93 +5561,94 @@
       <c r="G37" s="4">
         <v>2001</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2">
         <v>2005</v>
       </c>
       <c r="L37" s="2"/>
-      <c r="M37" s="9"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="17" t="s">
+      <c r="O37" s="2"/>
+      <c r="P37" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="Q37" s="11" t="s">
+      <c r="Q37" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="R37" s="2"/>
+      <c r="R37" s="8"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="10"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="4">
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="4">
         <v>2001</v>
       </c>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="4">
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="4">
         <v>2006</v>
       </c>
-      <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="17"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="17" t="s">
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AL37" s="9"/>
-      <c r="AM37" s="2"/>
-      <c r="AN37" s="17"/>
-      <c r="AO37" s="17"/>
-      <c r="AP37" s="17"/>
-      <c r="AQ37" s="34"/>
-      <c r="AR37" s="7"/>
-      <c r="AS37" s="2"/>
-      <c r="AT37" s="34">
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="16"/>
+      <c r="AP37" s="16"/>
+      <c r="AQ37" s="16"/>
+      <c r="AR37" s="30"/>
+      <c r="AS37" s="6"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="30">
         <v>1999</v>
       </c>
-      <c r="AU37" s="4">
+      <c r="AV37" s="4">
         <v>2010</v>
       </c>
-      <c r="AV37" s="11"/>
-    </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="AW37" s="10"/>
+    </row>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A38" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>2016</v>
       </c>
-      <c r="P38" s="17" t="s">
+      <c r="P38" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="Q38" s="11">
+      <c r="Q38" s="50">
         <v>2001</v>
       </c>
-      <c r="W38" s="4">
+      <c r="X38" s="4">
         <v>2000</v>
       </c>
-      <c r="AQ38" s="34"/>
-      <c r="AR38" s="7"/>
-      <c r="AS38" s="2"/>
-      <c r="AT38" s="36">
+      <c r="AR38" s="30"/>
+      <c r="AS38" s="6"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="32">
         <v>2008</v>
       </c>
-      <c r="AU38" s="4">
+      <c r="AV38" s="4">
         <v>2011</v>
       </c>
-      <c r="AV38" s="11"/>
-    </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="AW38" s="10"/>
+    </row>
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="2">
@@ -5469,246 +5660,252 @@
       <c r="G39" s="4">
         <v>2001</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="17"/>
+      <c r="K39" s="16"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="49"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
       <c r="P39" s="4">
         <v>2009</v>
       </c>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="2"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="18">
+        <v>2000</v>
+      </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="4">
+      <c r="U39" s="2"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="4">
         <v>2005</v>
       </c>
-      <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="4">
-        <v>2012</v>
-      </c>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="4">
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="4">
+        <v>2012</v>
+      </c>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="4">
         <v>2004</v>
       </c>
-      <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="17"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="17"/>
-      <c r="AL39" s="11"/>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="17"/>
-      <c r="AO39" s="17"/>
-      <c r="AP39" s="17"/>
-      <c r="AQ39" s="34"/>
-      <c r="AR39" s="7"/>
-      <c r="AS39" s="2"/>
-      <c r="AT39" s="36">
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="16"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="16"/>
+      <c r="AP39" s="16"/>
+      <c r="AQ39" s="16"/>
+      <c r="AR39" s="30"/>
+      <c r="AS39" s="6"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="32">
         <v>2010</v>
       </c>
-      <c r="AU39" s="4">
+      <c r="AV39" s="4">
         <v>2011</v>
       </c>
-      <c r="AV39" s="11"/>
-    </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="AW39" s="10"/>
+    </row>
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A40" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <v>2015</v>
       </c>
-      <c r="P40" s="17" t="s">
+      <c r="P40" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="Q40" s="11" t="s">
+      <c r="Q40" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="W40" s="2"/>
-      <c r="AQ40" s="34"/>
-      <c r="AR40" s="7"/>
-      <c r="AS40" s="2"/>
-      <c r="AT40" s="34">
+      <c r="X40" s="2"/>
+      <c r="AR40" s="30"/>
+      <c r="AS40" s="6"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="30">
         <v>1999</v>
       </c>
-      <c r="AU40" s="4">
+      <c r="AV40" s="4">
         <v>2011</v>
       </c>
-      <c r="AV40" s="11"/>
-    </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="AW40" s="10"/>
+    </row>
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A41" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="11">
-        <v>2012</v>
-      </c>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="11"/>
-      <c r="AR41" s="7">
+      <c r="C41" s="10">
+        <v>2012</v>
+      </c>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="50"/>
+      <c r="AS41" s="6">
         <v>2004</v>
       </c>
-      <c r="AS41" s="13">
+      <c r="AT41" s="12">
         <v>36192</v>
       </c>
-      <c r="AT41" s="35">
+      <c r="AU41" s="31">
         <v>2014</v>
       </c>
-      <c r="AU41" s="17"/>
-      <c r="AV41" s="11"/>
-    </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="AV41" s="16"/>
+      <c r="AW41" s="10"/>
+    </row>
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A42" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>2017</v>
       </c>
-      <c r="P42" s="17" t="s">
+      <c r="P42" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="Q42" s="11" t="s">
+      <c r="Q42" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="AR42" s="7">
+      <c r="AS42" s="6">
         <v>2001</v>
       </c>
-      <c r="AS42" s="2"/>
-      <c r="AT42" s="35">
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="31">
         <v>2014</v>
       </c>
-      <c r="AU42" s="17"/>
-      <c r="AV42" s="11"/>
-    </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="AV42" s="16"/>
+      <c r="AW42" s="10"/>
+    </row>
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A43" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="E43" s="8"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="11"/>
-      <c r="AR43" s="7">
+      <c r="C43" s="10"/>
+      <c r="E43" s="7"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="50"/>
+      <c r="AS43" s="6">
         <v>2010</v>
       </c>
-      <c r="AS43" s="2"/>
-      <c r="AT43" s="35">
+      <c r="AT43" s="2"/>
+      <c r="AU43" s="31">
         <v>2020</v>
       </c>
-      <c r="AU43" s="17"/>
-      <c r="AV43" s="11"/>
-    </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="AV43" s="16"/>
+      <c r="AW43" s="10"/>
+    </row>
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="4">
         <v>2015</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>2012</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="4">
         <v>2004</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="8"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="17"/>
+      <c r="K44" s="16"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="9"/>
+      <c r="M44" s="8"/>
       <c r="N44" s="4">
         <v>2005</v>
       </c>
-      <c r="O44" s="50">
+      <c r="O44" s="4">
         <v>2005</v>
       </c>
       <c r="P44" s="2"/>
-      <c r="Q44" s="19">
+      <c r="Q44" s="51">
         <v>2000</v>
       </c>
-      <c r="R44" s="2"/>
+      <c r="R44" s="18">
+        <v>2005</v>
+      </c>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="4">
+      <c r="U44" s="2"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="4">
         <v>2002</v>
       </c>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="17" t="s">
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="2"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="8"/>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="9"/>
-      <c r="AI44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="8"/>
       <c r="AJ44" s="2"/>
       <c r="AK44" s="2"/>
-      <c r="AL44" s="11"/>
-      <c r="AM44" s="2"/>
-      <c r="AN44" s="4">
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="2"/>
+      <c r="AO44" s="4">
         <v>2010</v>
       </c>
-      <c r="AO44" s="2"/>
-      <c r="AP44" s="17" t="s">
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AQ44" s="34"/>
-      <c r="AR44" s="7"/>
-      <c r="AS44" s="2"/>
-      <c r="AT44" s="36">
+      <c r="AR44" s="30"/>
+      <c r="AS44" s="6"/>
+      <c r="AT44" s="2"/>
+      <c r="AU44" s="32">
         <v>2008</v>
       </c>
-      <c r="AU44" s="2">
+      <c r="AV44" s="2">
         <v>2008</v>
       </c>
-      <c r="AV44" s="9">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+      <c r="AW44" s="8">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A45" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <v>2018</v>
       </c>
       <c r="P45" s="2"/>
-      <c r="Q45" s="9"/>
-      <c r="W45" s="2"/>
-      <c r="AQ45" s="34"/>
-      <c r="AR45" s="7"/>
-      <c r="AS45" s="2"/>
-      <c r="AT45" s="36">
+      <c r="Q45" s="49"/>
+      <c r="X45" s="2"/>
+      <c r="AR45" s="30"/>
+      <c r="AS45" s="6"/>
+      <c r="AT45" s="2"/>
+      <c r="AU45" s="32">
         <v>2010</v>
       </c>
-      <c r="AU45" s="4">
+      <c r="AV45" s="4">
         <v>2011</v>
       </c>
-      <c r="AV45" s="11"/>
-    </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="AW45" s="10"/>
+    </row>
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="2">
@@ -5718,139 +5915,141 @@
       <c r="G46" s="4">
         <v>2001</v>
       </c>
-      <c r="H46" s="11"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="9"/>
+      <c r="M46" s="8"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="47"/>
+      <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="2"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="8"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="4">
+      <c r="U46" s="2"/>
+      <c r="V46" s="4">
         <v>2000</v>
       </c>
-      <c r="V46" s="9"/>
-      <c r="W46" s="2"/>
+      <c r="W46" s="8"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
-      <c r="Z46" s="4">
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="4">
         <v>2001</v>
       </c>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="4">
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="4">
         <v>2004</v>
       </c>
-      <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="8"/>
       <c r="AJ46" s="2"/>
       <c r="AK46" s="2"/>
-      <c r="AL46" s="9"/>
-      <c r="AM46" s="2"/>
-      <c r="AN46" s="17" t="s">
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AO46" s="4">
+      <c r="AP46" s="4">
         <v>2003</v>
       </c>
-      <c r="AP46" s="4">
+      <c r="AQ46" s="4">
         <v>2000</v>
       </c>
-      <c r="AR46" s="9">
+      <c r="AS46" s="8">
         <v>1999</v>
       </c>
-      <c r="AS46" s="2"/>
-      <c r="AT46" s="36">
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="32">
         <v>2010</v>
       </c>
-      <c r="AU46" s="4">
+      <c r="AV46" s="4">
         <v>2011</v>
       </c>
-      <c r="AV46" s="11"/>
-    </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="AW46" s="10"/>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="11"/>
+      <c r="C47" s="10"/>
       <c r="F47" s="4">
         <v>2003</v>
       </c>
       <c r="G47" s="4">
         <v>2002</v>
       </c>
-      <c r="H47" s="11"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="9"/>
+      <c r="M47" s="8"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="17" t="s">
+      <c r="O47" s="2"/>
+      <c r="P47" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="R47" s="2"/>
+      <c r="R47" s="8"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-      <c r="U47" s="4">
+      <c r="U47" s="2"/>
+      <c r="V47" s="4">
         <v>2009</v>
       </c>
-      <c r="V47" s="19">
+      <c r="W47" s="18">
         <v>2003</v>
       </c>
-      <c r="W47" s="2"/>
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="4">
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="4">
         <v>2004</v>
       </c>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="9"/>
-      <c r="AC47" s="4">
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="4">
         <v>2003</v>
       </c>
-      <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="9"/>
-      <c r="AI47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="8"/>
       <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
-      <c r="AL47" s="9"/>
-      <c r="AM47" s="2"/>
-      <c r="AN47" s="17" t="s">
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="8"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="AO47" s="17"/>
-      <c r="AP47" s="2"/>
-      <c r="AR47" s="9">
+      <c r="AP47" s="16"/>
+      <c r="AQ47" s="2"/>
+      <c r="AS47" s="8">
         <v>1999</v>
       </c>
-      <c r="AS47" s="4">
+      <c r="AT47" s="4">
         <v>2002</v>
       </c>
-      <c r="AT47" s="36">
+      <c r="AU47" s="32">
         <v>2007</v>
       </c>
-      <c r="AU47" s="17"/>
-      <c r="AV47" s="11"/>
-    </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="AV47" s="16"/>
+      <c r="AW47" s="10"/>
+    </row>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B48" s="2">
@@ -5858,84 +6057,85 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="11"/>
+      <c r="H48" s="10"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="9"/>
+      <c r="M48" s="8"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="47"/>
+      <c r="O48" s="2"/>
       <c r="P48" s="2"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="2"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="8"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="4">
+      <c r="V48" s="2"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="4">
         <v>2001</v>
       </c>
-      <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="19"/>
-      <c r="AC48" s="4">
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="4">
         <v>2002</v>
       </c>
-      <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="9"/>
-      <c r="AI48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="8"/>
       <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
-      <c r="AL48" s="11"/>
-      <c r="AM48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="10"/>
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
-      <c r="AQ48" s="34"/>
-      <c r="AR48" s="7"/>
-      <c r="AS48" s="4">
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="30"/>
+      <c r="AS48" s="6"/>
+      <c r="AT48" s="4">
         <v>2001</v>
       </c>
-      <c r="AT48" s="36">
+      <c r="AU48" s="32">
         <v>2011</v>
       </c>
-      <c r="AU48" s="2">
+      <c r="AV48" s="2">
         <v>2008</v>
       </c>
-      <c r="AV48" s="11"/>
-    </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="AW48" s="10"/>
+    </row>
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A49" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="P49" s="17" t="s">
+      <c r="C49" s="10"/>
+      <c r="P49" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="Q49" s="11" t="s">
+      <c r="Q49" s="50" t="s">
         <v>386</v>
       </c>
-      <c r="W49" s="4">
+      <c r="X49" s="4">
         <v>2003</v>
       </c>
-      <c r="AR49" s="7">
+      <c r="AS49" s="6">
         <v>2011</v>
       </c>
-      <c r="AS49" s="2"/>
-      <c r="AT49" s="36">
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="32">
         <v>2009</v>
       </c>
-      <c r="AU49" s="17"/>
-      <c r="AV49" s="11"/>
-    </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+      <c r="AV49" s="16"/>
+      <c r="AW49" s="10"/>
+    </row>
+    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B50" s="2">
@@ -5943,146 +6143,148 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="11"/>
+      <c r="H50" s="10"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="9"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="47"/>
+      <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="2"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="8"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="8"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="8"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="9"/>
-      <c r="AI50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="8"/>
       <c r="AJ50" s="2"/>
       <c r="AK50" s="2"/>
-      <c r="AL50" s="9"/>
-      <c r="AM50" s="2"/>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="8"/>
       <c r="AN50" s="2"/>
-      <c r="AO50" s="4">
+      <c r="AO50" s="2"/>
+      <c r="AP50" s="4">
         <v>2003</v>
       </c>
-      <c r="AP50" s="2"/>
-      <c r="AR50" s="19">
+      <c r="AQ50" s="2"/>
+      <c r="AS50" s="18">
         <v>2001</v>
       </c>
-      <c r="AS50" s="2"/>
-      <c r="AT50" s="35"/>
-      <c r="AU50" s="17"/>
-      <c r="AV50" s="11"/>
-    </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+      <c r="AT50" s="2"/>
+      <c r="AU50" s="31"/>
+      <c r="AV50" s="16"/>
+      <c r="AW50" s="10"/>
+    </row>
+    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>2012</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="11"/>
+      <c r="H51" s="10"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="9"/>
+      <c r="M51" s="8"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="47"/>
+      <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="2"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="8"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="8"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
-      <c r="Z51" s="4">
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="4">
         <v>2000</v>
       </c>
-      <c r="AA51" s="17" t="s">
+      <c r="AB51" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AB51" s="9"/>
-      <c r="AC51" s="2"/>
+      <c r="AC51" s="8"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="9"/>
-      <c r="AI51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="8"/>
       <c r="AJ51" s="2"/>
       <c r="AK51" s="2"/>
-      <c r="AL51" s="9"/>
-      <c r="AM51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="8"/>
       <c r="AN51" s="2"/>
-      <c r="AO51" s="4">
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="4">
         <v>2003</v>
       </c>
-      <c r="AP51" s="17"/>
-      <c r="AR51" s="9">
+      <c r="AQ51" s="16"/>
+      <c r="AS51" s="8">
         <v>1999</v>
       </c>
-      <c r="AS51" s="2"/>
-      <c r="AT51" s="35"/>
-      <c r="AU51" s="17">
+      <c r="AT51" s="2"/>
+      <c r="AU51" s="31"/>
+      <c r="AV51" s="16">
         <v>2018</v>
       </c>
-      <c r="AV51" s="11"/>
-    </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="AW51" s="10"/>
+    </row>
+    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A52" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="10">
         <v>2013</v>
       </c>
-      <c r="P52" s="17" t="s">
+      <c r="P52" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="Q52" s="11" t="s">
+      <c r="Q52" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="AR52" s="7">
+      <c r="AS52" s="6">
         <v>1999</v>
       </c>
-      <c r="AS52" s="2"/>
-      <c r="AT52" s="36">
+      <c r="AT52" s="2"/>
+      <c r="AU52" s="32">
         <v>2010</v>
       </c>
-      <c r="AU52" s="17"/>
-      <c r="AV52" s="11"/>
-    </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
+      <c r="AV52" s="16"/>
+      <c r="AW52" s="10"/>
+    </row>
+    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="10">
         <v>2015</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="4">
         <v>2001</v>
       </c>
-      <c r="H53" s="11"/>
+      <c r="H53" s="10"/>
       <c r="I53" s="4">
         <v>2006</v>
       </c>
@@ -6093,150 +6295,156 @@
         <v>2001</v>
       </c>
       <c r="L53" s="2"/>
-      <c r="M53" s="9"/>
+      <c r="M53" s="8"/>
       <c r="N53" s="4">
         <v>2007</v>
       </c>
-      <c r="O53" s="50">
+      <c r="O53" s="4">
         <v>2007</v>
       </c>
-      <c r="P53" s="17" t="s">
+      <c r="P53" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="Q53" s="11" t="s">
+      <c r="Q53" s="50" t="s">
         <v>386</v>
       </c>
-      <c r="R53" s="2"/>
+      <c r="R53" s="18">
+        <v>2001</v>
+      </c>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="8"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
-      <c r="Z53" s="4">
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="4">
         <v>2003</v>
       </c>
-      <c r="AA53" s="17"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="4">
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="4">
         <v>2005</v>
-      </c>
-      <c r="AD53" s="4">
-        <v>2006</v>
       </c>
       <c r="AE53" s="4">
         <v>2006</v>
       </c>
-      <c r="AF53" s="2"/>
+      <c r="AF53" s="4">
+        <v>2006</v>
+      </c>
       <c r="AG53" s="2"/>
-      <c r="AH53" s="9"/>
-      <c r="AI53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="8"/>
       <c r="AJ53" s="2"/>
       <c r="AK53" s="2"/>
-      <c r="AL53" s="11"/>
-      <c r="AM53" s="4">
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="4">
         <v>2006</v>
       </c>
-      <c r="AN53" s="17" t="s">
+      <c r="AO53" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AO53" s="17" t="s">
+      <c r="AP53" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="AP53" s="2"/>
-      <c r="AR53" s="19">
+      <c r="AQ53" s="2"/>
+      <c r="AS53" s="18">
         <v>2000</v>
       </c>
-      <c r="AS53" s="2"/>
-      <c r="AT53" s="36">
+      <c r="AT53" s="2"/>
+      <c r="AU53" s="32">
         <v>2009</v>
       </c>
-      <c r="AU53" s="17"/>
-      <c r="AV53" s="11"/>
-    </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="AR54" s="7"/>
-    </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="AV53" s="16"/>
+      <c r="AW53" s="10"/>
+    </row>
+    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AS54" s="6"/>
+    </row>
+    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AR55" s="7"/>
-    </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="AS55" s="6"/>
+    </row>
+    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="11"/>
+      <c r="C56" s="10"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="17"/>
+      <c r="K56" s="16"/>
       <c r="L56" s="4">
         <v>2004</v>
       </c>
-      <c r="M56" s="19">
+      <c r="M56" s="18">
         <v>2004</v>
       </c>
-      <c r="N56" s="17"/>
-      <c r="O56" s="49"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
       <c r="P56" s="4">
         <v>2004</v>
       </c>
-      <c r="Q56" s="19">
+      <c r="Q56" s="51">
         <v>2003</v>
       </c>
-      <c r="R56" s="4">
-        <v>2017</v>
+      <c r="R56" s="18">
+        <v>2002</v>
       </c>
       <c r="S56" s="4">
         <v>2017</v>
       </c>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="17"/>
-      <c r="AB56" s="11"/>
-      <c r="AC56" s="4">
+      <c r="T56" s="4">
+        <v>2017</v>
+      </c>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="4">
         <v>2006</v>
-      </c>
-      <c r="AD56" s="4">
-        <v>2005</v>
       </c>
       <c r="AE56" s="4">
         <v>2005</v>
       </c>
-      <c r="AF56" s="2"/>
+      <c r="AF56" s="4">
+        <v>2005</v>
+      </c>
       <c r="AG56" s="2"/>
-      <c r="AH56" s="9"/>
-      <c r="AI56" s="17"/>
-      <c r="AJ56" s="17"/>
-      <c r="AK56" s="17"/>
-      <c r="AL56" s="11"/>
-      <c r="AM56" s="17"/>
-      <c r="AN56" s="17"/>
-      <c r="AO56" s="17"/>
-      <c r="AP56" s="17"/>
-      <c r="AQ56" s="34"/>
-      <c r="AR56" s="7"/>
-      <c r="AS56" s="4">
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="16"/>
+      <c r="AK56" s="16"/>
+      <c r="AL56" s="16"/>
+      <c r="AM56" s="10"/>
+      <c r="AN56" s="16"/>
+      <c r="AO56" s="16"/>
+      <c r="AP56" s="16"/>
+      <c r="AQ56" s="16"/>
+      <c r="AR56" s="30"/>
+      <c r="AS56" s="6"/>
+      <c r="AT56" s="4">
         <v>2000</v>
       </c>
-      <c r="AT56" s="36">
+      <c r="AU56" s="32">
         <v>2011</v>
       </c>
-      <c r="AU56" s="17"/>
-      <c r="AV56" s="11"/>
-    </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+      <c r="AV56" s="16"/>
+      <c r="AW56" s="10"/>
+    </row>
+    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="2">
@@ -6245,102 +6453,103 @@
       <c r="D57" s="2">
         <v>2012</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="16" t="s">
         <v>72</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="17" t="s">
+      <c r="H57" s="10"/>
+      <c r="I57" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="J57" s="17" t="s">
+      <c r="J57" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="K57" s="17" t="s">
+      <c r="K57" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="L57" s="17" t="s">
+      <c r="L57" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N57" s="17"/>
-      <c r="O57" s="49"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
       <c r="P57" s="2"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="17" t="s">
+      <c r="Q57" s="49"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="S57" s="17" t="s">
+      <c r="T57" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="T57" s="17" t="s">
+      <c r="U57" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="U57" s="17"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="17" t="s">
+      <c r="V57" s="16"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="Y57" s="17" t="s">
+      <c r="Z57" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="Z57" s="17" t="s">
+      <c r="AA57" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="9"/>
-      <c r="AC57" s="17" t="s">
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="AD57" s="17" t="s">
+      <c r="AE57" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="AE57" s="17" t="s">
+      <c r="AF57" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
-      <c r="AH57" s="9"/>
-      <c r="AI57" s="17" t="s">
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="AJ57" s="17" t="s">
+      <c r="AK57" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="AK57" s="17" t="s">
+      <c r="AL57" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="AL57" s="11"/>
-      <c r="AM57" s="17" t="s">
+      <c r="AM57" s="10"/>
+      <c r="AN57" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="AN57" s="17"/>
-      <c r="AO57" s="17"/>
-      <c r="AP57" s="17"/>
-      <c r="AQ57" s="36">
+      <c r="AO57" s="16"/>
+      <c r="AP57" s="16"/>
+      <c r="AQ57" s="16"/>
+      <c r="AR57" s="32">
         <v>2013</v>
       </c>
-      <c r="AR57" s="9">
+      <c r="AS57" s="8">
         <v>1999</v>
       </c>
-      <c r="AS57" s="2"/>
-      <c r="AT57" s="36">
+      <c r="AT57" s="2"/>
+      <c r="AU57" s="32">
         <v>2010</v>
       </c>
-      <c r="AU57" s="17" t="s">
+      <c r="AV57" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="AV57" s="11" t="s">
+      <c r="AW57" s="10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="AR58" s="7"/>
-    </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AS58" s="6"/>
+    </row>
+    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B59" s="41" t="s">
         <v>67</v>
       </c>
@@ -6349,22 +6558,21 @@
         <v>68</v>
       </c>
       <c r="E59" s="42"/>
-      <c r="AR59" s="7"/>
+      <c r="AS59" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AT1:AU1"/>
+  <mergeCells count="11">
+    <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="AD1:AI1"/>
+    <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="AJ1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6399,6 +6607,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="22"/>
       <c r="C1" s="39" t="s">
         <v>253</v>
       </c>
@@ -6421,6 +6630,7 @@
       <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
       <c r="C2" s="1" t="s">
         <v>146</v>
       </c>
@@ -6576,16 +6786,16 @@
       <c r="K6">
         <v>2010</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="16">
         <v>2011</v>
       </c>
     </row>
@@ -6617,16 +6827,16 @@
       <c r="K7">
         <v>2010</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="16">
         <v>2016</v>
       </c>
     </row>
@@ -6658,7 +6868,7 @@
       <c r="K8">
         <v>2008</v>
       </c>
-      <c r="M8" s="17"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -6743,7 +6953,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
@@ -6784,7 +6994,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
@@ -6811,10 +7021,10 @@
       <c r="K12">
         <v>2008</v>
       </c>
-      <c r="M12" s="17"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
@@ -6829,8 +7039,8 @@
       <c r="F13">
         <v>2012</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="H13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -6848,8 +7058,8 @@
       <c r="F14">
         <v>1999</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="H14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -6879,21 +7089,21 @@
       <c r="K15">
         <v>2011</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="N15" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="16">
         <v>2016</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
@@ -6908,19 +7118,19 @@
       <c r="F16">
         <v>1999</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="16">
         <v>2016</v>
       </c>
-      <c r="M16" s="17"/>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -6964,7 +7174,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
@@ -6991,10 +7201,10 @@
       <c r="K18">
         <v>2011</v>
       </c>
-      <c r="M18" s="17"/>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
@@ -7009,19 +7219,19 @@
       <c r="F19">
         <v>2012</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="16">
         <v>2008</v>
       </c>
-      <c r="M19" s="17"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -7051,10 +7261,10 @@
       <c r="K20">
         <v>2008</v>
       </c>
-      <c r="M20" s="17"/>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
@@ -7069,22 +7279,22 @@
       <c r="F21">
         <v>2009</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="16">
         <v>2008</v>
       </c>
-      <c r="M21" s="17"/>
+      <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
@@ -7099,11 +7309,11 @@
       <c r="F22">
         <v>2008</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="M22" s="17"/>
+      <c r="H22" s="16"/>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
@@ -7118,11 +7328,11 @@
       <c r="F23">
         <v>2010</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="M23" s="17"/>
+      <c r="H23" s="16"/>
+      <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
@@ -7137,8 +7347,8 @@
       <c r="F24">
         <v>2010</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="M24" s="17"/>
+      <c r="H24" s="16"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -7168,10 +7378,10 @@
       <c r="K25">
         <v>2008</v>
       </c>
-      <c r="M25" s="17"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C26" t="s">
@@ -7186,11 +7396,11 @@
       <c r="F26">
         <v>2013</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="M26" s="17"/>
+      <c r="H26" s="16"/>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C27" t="s">
@@ -7277,7 +7487,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C31" t="s">
@@ -7304,10 +7514,10 @@
       <c r="K31">
         <v>2008</v>
       </c>
-      <c r="M31" s="17"/>
+      <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C32" t="s">
@@ -7433,34 +7643,34 @@
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="16">
         <v>2015</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="16">
         <v>2019</v>
       </c>
-      <c r="M35" s="17"/>
+      <c r="M35" s="16"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C36" t="s">
@@ -7487,7 +7697,7 @@
       <c r="K36">
         <v>2010</v>
       </c>
-      <c r="M36" s="17"/>
+      <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -7517,10 +7727,10 @@
       <c r="K37">
         <v>2010</v>
       </c>
-      <c r="M37" s="17"/>
+      <c r="M37" s="16"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="53" t="s">
         <v>31</v>
       </c>
       <c r="C38" t="s">
@@ -7547,10 +7757,10 @@
       <c r="K38">
         <v>2011</v>
       </c>
-      <c r="M38" s="17"/>
+      <c r="M38" s="16"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
@@ -7577,10 +7787,10 @@
       <c r="K39">
         <v>2011</v>
       </c>
-      <c r="M39" s="17"/>
+      <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="53" t="s">
         <v>33</v>
       </c>
       <c r="C40" t="s">
@@ -7607,64 +7817,64 @@
       <c r="K40">
         <v>2011</v>
       </c>
-      <c r="M40" s="17"/>
+      <c r="M40" s="16"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="16">
         <v>2014</v>
       </c>
-      <c r="H41" s="17"/>
-      <c r="M41" s="17"/>
+      <c r="H41" s="16"/>
+      <c r="M41" s="16"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="16">
         <v>2014</v>
       </c>
-      <c r="H42" s="17"/>
-      <c r="M42" s="17"/>
+      <c r="H42" s="16"/>
+      <c r="M42" s="16"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="16">
         <v>2020</v>
       </c>
-      <c r="H43" s="17"/>
-      <c r="M43" s="17"/>
+      <c r="H43" s="16"/>
+      <c r="M43" s="16"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -7708,7 +7918,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="53" t="s">
         <v>36</v>
       </c>
       <c r="C45" t="s">
@@ -7735,7 +7945,7 @@
       <c r="K45">
         <v>2011</v>
       </c>
-      <c r="M45" s="17"/>
+      <c r="M45" s="16"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -7765,10 +7975,10 @@
       <c r="K46">
         <v>2011</v>
       </c>
-      <c r="M46" s="17"/>
+      <c r="M46" s="16"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C47" t="s">
@@ -7783,11 +7993,11 @@
       <c r="F47">
         <v>2007</v>
       </c>
-      <c r="H47" s="17"/>
-      <c r="M47" s="17"/>
+      <c r="H47" s="16"/>
+      <c r="M47" s="16"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C48" t="s">
@@ -7814,10 +8024,10 @@
       <c r="K48">
         <v>2008</v>
       </c>
-      <c r="M48" s="17"/>
+      <c r="M48" s="16"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="53" t="s">
         <v>40</v>
       </c>
       <c r="C49" t="s">
@@ -7832,38 +8042,38 @@
       <c r="F49">
         <v>2009</v>
       </c>
-      <c r="H49" s="17"/>
-      <c r="M49" s="17"/>
+      <c r="H49" s="16"/>
+      <c r="M49" s="16"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="M50" s="17"/>
+      <c r="C50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="M50" s="16"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="H51" s="17" t="s">
+      <c r="C51" s="16"/>
+      <c r="H51" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="I51" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="J51" s="17" t="s">
+      <c r="J51" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="16">
         <v>2018</v>
       </c>
-      <c r="M51" s="17"/>
+      <c r="M51" s="16"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="53" t="s">
         <v>42</v>
       </c>
       <c r="C52" t="s">
@@ -7878,11 +8088,11 @@
       <c r="F52">
         <v>2010</v>
       </c>
-      <c r="H52" s="17"/>
-      <c r="M52" s="17"/>
+      <c r="H52" s="16"/>
+      <c r="M52" s="16"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C53" t="s">
@@ -7897,11 +8107,11 @@
       <c r="F53">
         <v>2009</v>
       </c>
-      <c r="H53" s="17"/>
-      <c r="M53" s="17"/>
+      <c r="H53" s="16"/>
+      <c r="M53" s="16"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M54" s="17"/>
+      <c r="M54" s="16"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -7909,7 +8119,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C56" t="s">
@@ -7924,11 +8134,11 @@
       <c r="F56">
         <v>2011</v>
       </c>
-      <c r="H56" s="17"/>
-      <c r="M56" s="17"/>
+      <c r="H56" s="16"/>
+      <c r="M56" s="16"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C57" t="s">
@@ -7943,28 +8153,28 @@
       <c r="F57">
         <v>2010</v>
       </c>
-      <c r="H57" s="17" t="s">
+      <c r="H57" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="I57" s="17" t="s">
+      <c r="I57" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="J57" s="17" t="s">
+      <c r="J57" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="K57" s="17" t="s">
+      <c r="K57" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="M57" s="17" t="s">
+      <c r="M57" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="N57" s="17" t="s">
+      <c r="N57" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="O57" s="17" t="s">
+      <c r="O57" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="P57" s="17" t="s">
+      <c r="P57" s="16" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7981,9 +8191,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A262C-BF3B-4D84-B60A-8947EF3BFC30}">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8052,187 +8264,197 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A48">
-    <sortCondition ref="A1:A48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A50">
+    <sortCondition ref="A1:A50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52759D73-0743-4629-8479-9B66AC0913B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8229CD-9FBC-4D0C-97B8-85EF1E48D17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
-    <sheet name="Detailed indices" sheetId="3" r:id="rId2"/>
-    <sheet name="ETFs" sheetId="4" r:id="rId3"/>
-    <sheet name="Sorted countries" sheetId="2" r:id="rId4"/>
+    <sheet name="GBP ranking" sheetId="5" r:id="rId2"/>
+    <sheet name="Detailed indices" sheetId="3" r:id="rId3"/>
+    <sheet name="ETFs" sheetId="4" r:id="rId4"/>
+    <sheet name="Sorted countries" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="405">
   <si>
     <t>United States</t>
   </si>
@@ -1220,9 +1221,6 @@
     <t>rate (web scrapping)</t>
   </si>
   <si>
-    <t>Maybe</t>
-  </si>
-  <si>
     <t>Rather Not</t>
   </si>
   <si>
@@ -1230,6 +1228,33 @@
   </si>
   <si>
     <t>Definitely Yes</t>
+  </si>
+  <si>
+    <t>(World Bank 2022)</t>
+  </si>
+  <si>
+    <t>(UN 2021)</t>
+  </si>
+  <si>
+    <t>ACWI %</t>
+  </si>
+  <si>
+    <t>OECD Bussiness</t>
+  </si>
+  <si>
+    <t>PMI</t>
+  </si>
+  <si>
+    <t>(03/2023)</t>
+  </si>
+  <si>
+    <t>to 05/2023</t>
+  </si>
+  <si>
+    <t>To Include in TFM</t>
+  </si>
+  <si>
+    <t>Probably</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1430,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1435,30 +1460,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1470,18 +1504,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1799,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1809,27 +1831,29 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>56</v>
+        <v>398</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>46</v>
@@ -1841,1382 +1865,2546 @@
         <v>387</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>62</v>
+        <v>144</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>144</v>
+        <v>363</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>139</v>
+        <v>364</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="O1" s="52" t="s">
-        <v>388</v>
-      </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="11" t="s">
+      <c r="C2" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>391</v>
+      </c>
       <c r="M2" s="11" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="O2" s="52" t="s">
-        <v>389</v>
-      </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="23">
+      <c r="B4" s="32">
         <v>1</v>
+      </c>
+      <c r="C4" s="39">
+        <v>59.3</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="2">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4">
+        <v>2010</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2002</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2">
         <v>1999</v>
       </c>
-      <c r="H4" s="8">
-        <v>2012</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="4">
-        <v>2010</v>
-      </c>
-      <c r="M4" s="2">
-        <v>2002</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="49"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="23">
+      <c r="B5" s="32">
         <v>3</v>
+      </c>
+      <c r="C5" s="39">
+        <v>6.1</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="2">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="4">
+        <v>2009</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2006</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2">
         <v>2008</v>
       </c>
-      <c r="H5" s="9">
-        <v>41548</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="4">
-        <v>2009</v>
-      </c>
-      <c r="M5" s="2">
-        <v>2006</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="49"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="23">
+      <c r="B6" s="32">
         <v>6</v>
+      </c>
+      <c r="C6" s="39">
+        <v>3.9</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="2">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="4">
+        <v>2010</v>
+      </c>
+      <c r="K6" s="16">
+        <v>2011</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2">
         <v>2008</v>
       </c>
-      <c r="H6" s="8">
-        <v>2008</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="4">
-        <v>2010</v>
-      </c>
-      <c r="M6" s="16">
-        <v>2011</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="49"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="23">
+      <c r="B7" s="32">
         <v>9</v>
+      </c>
+      <c r="C7" s="39">
+        <v>3</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="2">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="4">
+        <v>2010</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2016</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2">
         <v>2012</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="4">
-        <v>2010</v>
-      </c>
-      <c r="M7" s="4">
-        <v>2016</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="49"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="23">
+      <c r="B8" s="32">
         <v>7</v>
+      </c>
+      <c r="C8" s="39">
+        <v>3</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="2">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
         <v>2008</v>
       </c>
-      <c r="H8" s="8">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2">
         <v>2008</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2">
-        <v>2008</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="49"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23">
+      <c r="B9" s="37">
         <v>20</v>
+      </c>
+      <c r="C9" s="39">
+        <v>2.4</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="2">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <v>2008</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2010</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2">
         <v>2012</v>
       </c>
-      <c r="H9" s="9">
-        <v>41671</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2">
-        <v>2008</v>
-      </c>
-      <c r="M9" s="2">
-        <v>2010</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="51"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="23">
+      <c r="B10" s="32">
         <v>4</v>
+      </c>
+      <c r="C10" s="39">
+        <v>2.1</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="2">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
         <v>2008</v>
       </c>
-      <c r="H10" s="8">
+      <c r="K10" s="2">
+        <v>2012</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2">
         <v>2008</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2">
-        <v>2008</v>
-      </c>
-      <c r="M10" s="2">
-        <v>2012</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="49"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="23">
+      <c r="B11" s="37">
         <v>13</v>
+      </c>
+      <c r="C11" s="39">
+        <v>2</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="12">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="4">
+        <v>2010</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2007</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="12">
         <v>41426</v>
       </c>
-      <c r="H11" s="9">
-        <v>41395</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="4">
-        <v>2010</v>
-      </c>
-      <c r="M11" s="2">
-        <v>2007</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="49"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="23">
+      <c r="B12" s="37">
         <v>17</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="12">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>2008</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="12">
         <v>41548</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <v>2008</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="49"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="24">
+      <c r="B13">
         <v>38</v>
+      </c>
+      <c r="C13" s="39">
+        <v>0.77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="6"/>
+      <c r="G13" s="4">
+        <v>2001</v>
+      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="4">
-        <v>2001</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="4">
         <v>2012</v>
       </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="49"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="O13" s="2"/>
+      <c r="P13" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="25">
+      <c r="B14" s="33">
         <v>25</v>
+      </c>
+      <c r="C14" s="39">
+        <v>1</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="2">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2">
         <v>1999</v>
       </c>
-      <c r="H14" s="8">
-        <v>2006</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="49"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="23">
+      <c r="B15" s="37">
         <v>15</v>
+      </c>
+      <c r="C15" s="39">
+        <v>0.66</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="2">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="4">
+        <v>2011</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2016</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2">
         <v>2012</v>
       </c>
-      <c r="H15" s="8">
-        <v>2012</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="4">
-        <v>2011</v>
-      </c>
-      <c r="M15" s="4">
-        <v>2016</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="49"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="24">
+      <c r="B16">
         <v>40</v>
+      </c>
+      <c r="C16" s="39">
+        <v>0.7</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="2">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="16">
+        <v>2016</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="P16" s="2">
         <v>2012</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="16">
-        <v>2016</v>
-      </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="23">
+      <c r="B17" s="32">
         <v>8</v>
+      </c>
+      <c r="C17" s="39">
+        <v>0.69</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="2">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2">
+        <v>2008</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1999</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2">
         <v>2012</v>
       </c>
-      <c r="H17" s="8">
-        <v>2012</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2">
-        <v>2008</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1999</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="49"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="25">
+      <c r="B18" s="33">
         <v>30</v>
+      </c>
+      <c r="C18" s="39">
+        <v>0.43</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="2">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="4">
+        <v>2011</v>
+      </c>
+      <c r="P18" s="2">
         <v>1999</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="26">
+      <c r="B19" s="34">
         <v>47</v>
+      </c>
+      <c r="C19" s="39">
+        <v>0.27</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="8"/>
-      <c r="H19" s="6"/>
+      <c r="G19" s="4">
+        <v>2001</v>
+      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="4">
-        <v>2001</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="4">
         <v>2012</v>
       </c>
-      <c r="L19" s="16">
+      <c r="J19" s="16">
         <v>2008</v>
       </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="49"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="25">
+      <c r="B20" s="33">
         <v>24</v>
+      </c>
+      <c r="C20" s="39">
+        <v>0.28999999999999998</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="8"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2">
+      <c r="J20" s="2">
         <v>2008</v>
       </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="49"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="25">
+      <c r="B21" s="33">
         <v>28</v>
+      </c>
+      <c r="C21" s="39">
+        <v>0.24</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="2">
+      <c r="G21" s="12">
+        <v>36404</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="4">
+        <v>2009</v>
+      </c>
+      <c r="J21" s="16">
+        <v>2008</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2">
         <v>2004</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="12">
-        <v>36404</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="4">
-        <v>2009</v>
-      </c>
-      <c r="L21" s="16">
-        <v>2008</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="49"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="25">
+      <c r="B22" s="33">
         <v>29</v>
+      </c>
+      <c r="C22" s="39">
+        <v>0.25</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="2">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="4">
+        <v>2008</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2">
         <v>2012</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="4">
-        <v>2008</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="51"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="25">
+      <c r="B23" s="33">
         <v>26</v>
+      </c>
+      <c r="C23" s="39">
+        <v>0.19</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="2">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="4">
+        <v>2010</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2">
         <v>2012</v>
       </c>
-      <c r="H23" s="8">
-        <v>2012</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="4">
-        <v>2010</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="49"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="26">
+      <c r="B24" s="34">
         <v>51</v>
+      </c>
+      <c r="C24" s="39">
+        <v>0.09</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="2">
+      <c r="G24" s="4">
+        <v>2001</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="4">
+        <v>2010</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2">
         <v>2012</v>
       </c>
-      <c r="H24" s="8">
-        <v>2012</v>
-      </c>
-      <c r="I24" s="4">
-        <v>2001</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="4">
-        <v>2010</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="51"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="27">
+      <c r="B25">
         <v>31</v>
+      </c>
+      <c r="C25" s="39">
+        <v>0.08</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="2">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2">
+        <v>2008</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2">
         <v>2012</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2">
-        <v>2008</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="49"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="26">
+      <c r="B26" s="34">
         <v>50</v>
+      </c>
+      <c r="C26" s="39">
+        <v>0.06</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="8"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="4">
+        <v>2010</v>
+      </c>
+      <c r="H26" s="2"/>
       <c r="I26" s="4">
-        <v>2010</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="4">
         <v>2013</v>
       </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="49"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="26"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="39">
+        <v>8.48</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
-      <c r="H27" s="6"/>
+      <c r="G27" s="4">
+        <v>2007</v>
+      </c>
+      <c r="H27" s="2"/>
       <c r="I27" s="4">
-        <v>2007</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="4">
         <v>2002</v>
       </c>
-      <c r="L27" s="2">
+      <c r="J27" s="2">
         <v>2008</v>
       </c>
-      <c r="M27" s="2">
+      <c r="K27" s="2">
         <v>2001</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="49"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="28"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="36"/>
+      <c r="C28" s="39"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="23">
+      <c r="B30" s="32">
         <v>2</v>
       </c>
-      <c r="D30" s="34"/>
+      <c r="C30" s="39">
+        <v>3.3</v>
+      </c>
+      <c r="D30" s="27"/>
       <c r="E30" s="2"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="2">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="4">
+        <v>2011</v>
+      </c>
+      <c r="J30" s="4">
+        <v>2011</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2011</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="4">
+        <v>2002</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2">
         <v>2005</v>
       </c>
-      <c r="H30" s="8">
-        <v>2012</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="4">
-        <v>2011</v>
-      </c>
-      <c r="L30" s="4">
-        <v>2011</v>
-      </c>
-      <c r="M30" s="2">
-        <v>2011</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="51">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q30" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="25">
+      <c r="B31" s="38">
         <v>21</v>
       </c>
-      <c r="G31" s="2">
+      <c r="C31" s="39">
+        <v>1.8</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2008</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="P31" s="2">
         <v>2012</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="4">
-        <v>2000</v>
-      </c>
-      <c r="L31" s="2">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="23">
+      <c r="B32" s="32">
         <v>5</v>
       </c>
-      <c r="D32" s="34"/>
+      <c r="C32" s="39">
+        <v>1.6</v>
+      </c>
+      <c r="D32" s="27"/>
       <c r="E32" s="2"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="2">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="4">
         <v>2012</v>
       </c>
-      <c r="H32" s="8">
+      <c r="J32" s="2">
+        <v>2008</v>
+      </c>
+      <c r="K32" s="2">
+        <v>2005</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="16">
+        <v>2018</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2">
         <v>2012</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="4">
-        <v>2012</v>
-      </c>
-      <c r="L32" s="2">
-        <v>2008</v>
-      </c>
-      <c r="M32" s="2">
-        <v>2005</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="51">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q32" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="23">
+      <c r="B33" s="37">
         <v>12</v>
+      </c>
+      <c r="C33" s="39">
+        <v>1.4</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="2">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2008</v>
+      </c>
+      <c r="K33" s="2">
+        <v>2007</v>
+      </c>
+      <c r="L33" s="12">
+        <v>36281</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2">
         <v>2012</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="4">
-        <v>2000</v>
-      </c>
-      <c r="L33" s="2">
-        <v>2008</v>
-      </c>
-      <c r="M33" s="2">
-        <v>2007</v>
-      </c>
-      <c r="N33" s="12">
-        <v>36281</v>
-      </c>
-      <c r="O33" s="49"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="23">
+      <c r="B34" s="32">
         <v>10</v>
       </c>
-      <c r="D34" s="35"/>
+      <c r="C34" s="39">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D34" s="28"/>
       <c r="E34" s="2"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="2">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2008</v>
+      </c>
+      <c r="K34" s="2">
         <v>2012</v>
       </c>
-      <c r="H34" s="8">
+      <c r="L34" s="2"/>
+      <c r="M34" s="4">
         <v>2012</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="4">
-        <v>2000</v>
-      </c>
-      <c r="L34" s="2">
-        <v>2008</v>
-      </c>
-      <c r="M34" s="2">
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2">
         <v>2012</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="51">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="23">
+      <c r="B35" s="37">
         <v>18</v>
       </c>
-      <c r="D35" s="36"/>
+      <c r="C35" s="39">
+        <v>0.43</v>
+      </c>
+      <c r="D35" s="29"/>
       <c r="E35" s="2"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="2">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="16">
+        <v>2015</v>
+      </c>
+      <c r="J35" s="16">
+        <v>2019</v>
+      </c>
+      <c r="L35" s="4">
+        <v>2000</v>
+      </c>
+      <c r="M35" s="4">
+        <v>2000</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="4">
+        <v>2011</v>
+      </c>
+      <c r="P35" s="2">
         <v>2012</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="16">
-        <v>2015</v>
-      </c>
-      <c r="L35" s="16">
-        <v>2019</v>
-      </c>
-      <c r="N35" s="4">
-        <v>2000</v>
-      </c>
-      <c r="O35" s="51">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="24">
+      <c r="B36">
         <v>39</v>
+      </c>
+      <c r="C36" s="39">
+        <v>0.39</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="2">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="4">
+        <v>2003</v>
+      </c>
+      <c r="J36" s="4">
+        <v>2010</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="4">
+        <v>2000</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2">
         <v>2012</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="4">
-        <v>2003</v>
-      </c>
-      <c r="L36" s="4">
-        <v>2010</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="51">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="23">
+      <c r="B37" s="37">
         <v>14</v>
+      </c>
+      <c r="C37" s="39">
+        <v>0.3</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="2">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="4">
+        <v>2010</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2">
         <v>2012</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="4">
-        <v>2010</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="49"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="25">
+      <c r="B38" s="33">
         <v>27</v>
+      </c>
+      <c r="C38" s="39">
+        <v>0.27</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="18"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="4">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="4">
         <v>2008</v>
       </c>
+      <c r="J38" s="4">
+        <v>2011</v>
+      </c>
       <c r="L38" s="4">
-        <v>2011</v>
-      </c>
-      <c r="N38" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="23">
+      <c r="B39" s="37">
         <v>16</v>
       </c>
-      <c r="D39" s="34"/>
+      <c r="C39" s="39">
+        <v>0.23</v>
+      </c>
+      <c r="D39" s="27"/>
       <c r="E39" s="2"/>
       <c r="F39" s="18"/>
-      <c r="G39" s="2">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="4">
+        <v>2010</v>
+      </c>
+      <c r="J39" s="4">
+        <v>2011</v>
+      </c>
+      <c r="L39" s="4">
+        <v>2005</v>
+      </c>
+      <c r="M39" s="4">
+        <v>2000</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2">
         <v>2012</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="4">
-        <v>2010</v>
-      </c>
-      <c r="L39" s="4">
-        <v>2011</v>
-      </c>
-      <c r="N39" s="4">
-        <v>2005</v>
-      </c>
-      <c r="O39" s="51">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="Q39" s="4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="24">
+      <c r="B40">
         <v>35</v>
+      </c>
+      <c r="C40" s="39">
+        <v>0.18</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="18"/>
-      <c r="H40" s="6"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="4">
+      <c r="J40" s="4">
         <v>2011</v>
       </c>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="24">
+      <c r="B41">
         <v>33</v>
+      </c>
+      <c r="C41" s="39">
+        <v>0.14000000000000001</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="10"/>
-      <c r="H41" s="6"/>
-      <c r="J41" s="12">
+      <c r="H41" s="12">
         <v>36192</v>
       </c>
-      <c r="K41" s="16">
+      <c r="I41" s="16">
         <v>2014</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="26">
+      <c r="B42" s="34">
         <v>54</v>
+      </c>
+      <c r="C42" s="39">
+        <v>0.1</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="10"/>
-      <c r="H42" s="6"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="16">
+      <c r="H42" s="2"/>
+      <c r="I42" s="16">
         <v>2014</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="26">
+      <c r="B43" s="34">
         <v>57</v>
+      </c>
+      <c r="C43" s="39">
+        <v>0.1</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="10"/>
-      <c r="H43" s="6"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="16">
+      <c r="H43" s="2"/>
+      <c r="I43" s="16">
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="23">
+      <c r="B44" s="37">
         <v>19</v>
+      </c>
+      <c r="C44" s="39">
+        <v>0.09</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="2"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="2">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="4">
+        <v>2008</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2008</v>
+      </c>
+      <c r="K44" s="2">
         <v>2012</v>
       </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="4">
-        <v>2008</v>
-      </c>
-      <c r="L44" s="2">
-        <v>2008</v>
-      </c>
-      <c r="M44" s="2">
+      <c r="L44" s="4">
+        <v>2002</v>
+      </c>
+      <c r="M44" s="4">
+        <v>2005</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2">
         <v>2012</v>
       </c>
-      <c r="N44" s="4">
-        <v>2002</v>
-      </c>
-      <c r="O44" s="51">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="53" t="s">
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="24">
+      <c r="B45">
         <v>36</v>
+      </c>
+      <c r="C45" s="39">
+        <v>0.09</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="8"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="4">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="4">
         <v>2010</v>
       </c>
-      <c r="L45" s="4">
+      <c r="J45" s="4">
         <v>2011</v>
       </c>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="25">
+      <c r="B46" s="33">
         <v>22</v>
+      </c>
+      <c r="C46" s="39">
+        <v>0.08</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="2">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="4">
+        <v>2010</v>
+      </c>
+      <c r="J46" s="4">
+        <v>2011</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2">
         <v>2012</v>
       </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="4">
-        <v>2010</v>
-      </c>
-      <c r="L46" s="4">
-        <v>2011</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="49"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="26">
+      <c r="B47" s="34">
         <v>43</v>
+      </c>
+      <c r="C47" s="39">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="18"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="4">
+      <c r="G47" s="2"/>
+      <c r="H47" s="4">
         <v>2002</v>
       </c>
-      <c r="K47" s="4">
+      <c r="I47" s="4">
         <v>2007</v>
       </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="49"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O47" s="2"/>
+      <c r="Q47" s="4">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="26">
+      <c r="B48" s="34">
         <v>53</v>
+      </c>
+      <c r="C48" s="39">
+        <v>0.04</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="2">
+      <c r="G48" s="2"/>
+      <c r="H48" s="4">
+        <v>2001</v>
+      </c>
+      <c r="I48" s="4">
+        <v>2011</v>
+      </c>
+      <c r="J48" s="2">
+        <v>2008</v>
+      </c>
+      <c r="L48" s="4">
+        <v>2001</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2">
         <v>2012</v>
       </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="4">
-        <v>2001</v>
-      </c>
-      <c r="K48" s="4">
-        <v>2011</v>
-      </c>
-      <c r="L48" s="2">
-        <v>2008</v>
-      </c>
-      <c r="N48" s="4">
-        <v>2001</v>
-      </c>
-      <c r="O48" s="49"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="26">
+      <c r="B49" s="34">
         <v>48</v>
+      </c>
+      <c r="C49" s="39">
+        <v>0.03</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="18"/>
-      <c r="H49" s="6"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="4">
+      <c r="H49" s="2"/>
+      <c r="I49" s="4">
         <v>2009</v>
       </c>
-      <c r="N49" s="4">
+      <c r="L49" s="4">
         <v>2003</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="26">
+      <c r="B50" s="34">
         <v>56</v>
+      </c>
+      <c r="C50" s="39">
+        <v>0.02</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="2">
+      <c r="G50" s="4">
+        <v>2001</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="16"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2">
         <v>1999</v>
       </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="4">
-        <v>2001</v>
-      </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="16"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="49"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="26">
+      <c r="B51" s="34">
         <v>46</v>
+      </c>
+      <c r="C51" s="39">
+        <v>0.02</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="2">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16">
+        <v>2018</v>
+      </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2">
         <v>2012</v>
       </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16">
-        <v>2018</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="49"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="53" t="s">
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="26">
+      <c r="B52" s="34">
         <v>41</v>
+      </c>
+      <c r="C52" s="39">
+        <v>0.01</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="18"/>
-      <c r="H52" s="6"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="4">
+      <c r="H52" s="2"/>
+      <c r="I52" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="26">
+      <c r="B53" s="34">
         <v>45</v>
+      </c>
+      <c r="C53" s="39">
+        <v>0.01</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="2"/>
       <c r="F53" s="18"/>
-      <c r="H53" s="6"/>
+      <c r="G53" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H53" s="2"/>
       <c r="I53" s="4">
-        <v>2000</v>
-      </c>
-      <c r="J53" s="2"/>
-      <c r="K53" s="4">
         <v>2009</v>
       </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="4">
+        <v>2001</v>
+      </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="51">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C54" s="28"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O53" s="4">
+        <v>2006</v>
+      </c>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="36"/>
+      <c r="C54" s="39"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="36"/>
+      <c r="C55" s="39"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="25">
+      <c r="B56" s="33">
         <v>23</v>
       </c>
-      <c r="D56" s="37"/>
+      <c r="C56" s="39">
+        <v>0</v>
+      </c>
+      <c r="D56" s="30"/>
       <c r="E56" s="4"/>
       <c r="F56" s="18"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="4">
+      <c r="G56" s="2"/>
+      <c r="H56" s="4">
         <v>2000</v>
       </c>
-      <c r="K56" s="4">
+      <c r="I56" s="4">
         <v>2011</v>
       </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="51">
+      <c r="L56" s="2"/>
+      <c r="M56" s="4">
         <v>2002</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="N56" s="4">
+        <v>2017</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="Q56" s="16"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="23">
+      <c r="B57" s="37">
         <v>11</v>
       </c>
-      <c r="D57" s="36"/>
+      <c r="C57" s="39">
+        <v>0</v>
+      </c>
+      <c r="D57" s="29"/>
       <c r="E57" s="2"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="2">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="4">
+        <v>2010</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O57" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P57" s="2">
         <v>2012</v>
       </c>
-      <c r="H57" s="8">
-        <v>2012</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="4">
-        <v>2010</v>
-      </c>
-      <c r="L57" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="M57" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="49"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>396</v>
-      </c>
-      <c r="C60">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="Q57" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P59" s="22"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="C61" s="46"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C62" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C63" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="C61">
+      <c r="C64" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="41" t="s">
         <v>394</v>
       </c>
-      <c r="C62">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>395</v>
-      </c>
-      <c r="C63">
-        <v>8</v>
+      <c r="C65" s="6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B61:C61"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B703FA39-2A94-42E5-99E2-495679D72086}">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="22"/>
+      <c r="B1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="32">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32">
+        <v>1</v>
+      </c>
+      <c r="F4" s="44">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="32">
+        <v>3</v>
+      </c>
+      <c r="D5" s="32">
+        <v>3</v>
+      </c>
+      <c r="E5" s="32">
+        <v>3</v>
+      </c>
+      <c r="F5" s="44">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="32">
+        <v>6</v>
+      </c>
+      <c r="D6" s="32">
+        <v>6</v>
+      </c>
+      <c r="E6" s="32">
+        <v>6</v>
+      </c>
+      <c r="F6" s="44">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="32">
+        <v>9</v>
+      </c>
+      <c r="D7" s="32">
+        <v>9</v>
+      </c>
+      <c r="E7" s="32">
+        <v>9</v>
+      </c>
+      <c r="F7" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="32">
+        <v>7</v>
+      </c>
+      <c r="D8" s="32">
+        <v>7</v>
+      </c>
+      <c r="E8" s="32">
+        <v>7</v>
+      </c>
+      <c r="F8" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="37">
+        <v>20</v>
+      </c>
+      <c r="D9" s="37">
+        <v>20</v>
+      </c>
+      <c r="E9" s="37">
+        <v>20</v>
+      </c>
+      <c r="F9" s="44">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="32">
+        <v>4</v>
+      </c>
+      <c r="D10" s="32">
+        <v>4</v>
+      </c>
+      <c r="E10" s="32">
+        <v>4</v>
+      </c>
+      <c r="F10" s="44">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="37">
+        <v>13</v>
+      </c>
+      <c r="D11" s="37">
+        <v>12</v>
+      </c>
+      <c r="E11" s="37">
+        <v>12</v>
+      </c>
+      <c r="F11" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="37">
+        <v>17</v>
+      </c>
+      <c r="D12" s="37">
+        <v>18</v>
+      </c>
+      <c r="E12" s="37">
+        <v>17</v>
+      </c>
+      <c r="F12" s="44">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>36</v>
+      </c>
+      <c r="F13" s="44">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="33">
+        <v>25</v>
+      </c>
+      <c r="D14" s="33">
+        <v>23</v>
+      </c>
+      <c r="E14" s="33">
+        <v>22</v>
+      </c>
+      <c r="F14" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="37">
+        <v>15</v>
+      </c>
+      <c r="D15" s="37">
+        <v>15</v>
+      </c>
+      <c r="E15" s="37">
+        <v>14</v>
+      </c>
+      <c r="F15" s="44">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16" s="44">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="32">
+        <v>8</v>
+      </c>
+      <c r="D17" s="32">
+        <v>10</v>
+      </c>
+      <c r="E17" s="32">
+        <v>8</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="33">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
+      </c>
+      <c r="F18" s="44">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="34">
+        <v>47</v>
+      </c>
+      <c r="D19" s="34">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>45</v>
+      </c>
+      <c r="F19" s="44">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="33">
+        <v>24</v>
+      </c>
+      <c r="D20" s="33">
+        <v>25</v>
+      </c>
+      <c r="E20" s="35">
+        <v>24</v>
+      </c>
+      <c r="F20" s="44">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="33">
+        <v>28</v>
+      </c>
+      <c r="D21" s="33">
+        <v>24</v>
+      </c>
+      <c r="E21" s="35">
+        <v>28</v>
+      </c>
+      <c r="F21" s="44">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="33">
+        <v>29</v>
+      </c>
+      <c r="D22" s="33">
+        <v>27</v>
+      </c>
+      <c r="E22" s="35">
+        <v>29</v>
+      </c>
+      <c r="F22" s="44">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="33">
+        <v>26</v>
+      </c>
+      <c r="D23" s="33">
+        <v>26</v>
+      </c>
+      <c r="E23" s="35">
+        <v>26</v>
+      </c>
+      <c r="F23" s="44">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="34">
+        <v>51</v>
+      </c>
+      <c r="D24" s="34">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>49</v>
+      </c>
+      <c r="F24" s="44">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
+      <c r="E25" s="35">
+        <v>30</v>
+      </c>
+      <c r="F25" s="44">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="34">
+        <v>50</v>
+      </c>
+      <c r="D26" s="34">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>48</v>
+      </c>
+      <c r="F26" s="44">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="F27" s="44">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="F28" s="44"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="F29" s="44"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="32">
+        <v>2</v>
+      </c>
+      <c r="D30" s="32">
+        <v>2</v>
+      </c>
+      <c r="E30" s="32">
+        <v>2</v>
+      </c>
+      <c r="F30" s="44">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="38">
+        <v>21</v>
+      </c>
+      <c r="F31" s="44">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="32">
+        <v>5</v>
+      </c>
+      <c r="D32" s="32">
+        <v>5</v>
+      </c>
+      <c r="E32" s="32">
+        <v>5</v>
+      </c>
+      <c r="F32" s="44">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="37">
+        <v>12</v>
+      </c>
+      <c r="D33" s="37">
+        <v>13</v>
+      </c>
+      <c r="E33" s="32">
+        <v>10</v>
+      </c>
+      <c r="F33" s="44">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="32">
+        <v>10</v>
+      </c>
+      <c r="D34" s="37">
+        <v>11</v>
+      </c>
+      <c r="E34" s="37">
+        <v>13</v>
+      </c>
+      <c r="F34" s="44">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="37">
+        <v>18</v>
+      </c>
+      <c r="D35" s="37">
+        <v>17</v>
+      </c>
+      <c r="E35" s="37">
+        <v>18</v>
+      </c>
+      <c r="F35" s="44">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36">
+        <v>39</v>
+      </c>
+      <c r="D36">
+        <v>37</v>
+      </c>
+      <c r="E36">
+        <v>33</v>
+      </c>
+      <c r="F36" s="44">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="37">
+        <v>14</v>
+      </c>
+      <c r="D37" s="37">
+        <v>14</v>
+      </c>
+      <c r="E37" s="37">
+        <v>15</v>
+      </c>
+      <c r="F37" s="44">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="33">
+        <v>27</v>
+      </c>
+      <c r="D38" s="33">
+        <v>29</v>
+      </c>
+      <c r="E38" s="33">
+        <v>25</v>
+      </c>
+      <c r="F38" s="44">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="37">
+        <v>16</v>
+      </c>
+      <c r="D39" s="37">
+        <v>16</v>
+      </c>
+      <c r="E39" s="37">
+        <v>16</v>
+      </c>
+      <c r="F39" s="44">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40">
+        <v>35</v>
+      </c>
+      <c r="D40">
+        <v>36</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40" s="44">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41">
+        <v>33</v>
+      </c>
+      <c r="D41" s="35">
+        <v>28</v>
+      </c>
+      <c r="E41">
+        <v>35</v>
+      </c>
+      <c r="F41" s="44">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="34">
+        <v>54</v>
+      </c>
+      <c r="D42" s="34">
+        <v>52</v>
+      </c>
+      <c r="E42">
+        <v>56</v>
+      </c>
+      <c r="F42" s="44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="34">
+        <v>57</v>
+      </c>
+      <c r="D43" s="34">
+        <v>56</v>
+      </c>
+      <c r="E43">
+        <v>59</v>
+      </c>
+      <c r="F43" s="44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="37">
+        <v>19</v>
+      </c>
+      <c r="D44" s="37">
+        <v>19</v>
+      </c>
+      <c r="E44" s="37">
+        <v>19</v>
+      </c>
+      <c r="F44" s="44">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45">
+        <v>36</v>
+      </c>
+      <c r="D45">
+        <v>38</v>
+      </c>
+      <c r="E45">
+        <v>38</v>
+      </c>
+      <c r="F45" s="44">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="33">
+        <v>22</v>
+      </c>
+      <c r="D46" s="33">
+        <v>21</v>
+      </c>
+      <c r="E46" s="33">
+        <v>21</v>
+      </c>
+      <c r="F46" s="44">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="34">
+        <v>43</v>
+      </c>
+      <c r="D47" s="34">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <v>43</v>
+      </c>
+      <c r="F47" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="34">
+        <v>53</v>
+      </c>
+      <c r="D48" s="34">
+        <v>54</v>
+      </c>
+      <c r="E48">
+        <v>51</v>
+      </c>
+      <c r="F48" s="44">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="34">
+        <v>48</v>
+      </c>
+      <c r="D49" s="34">
+        <v>51</v>
+      </c>
+      <c r="E49">
+        <v>50</v>
+      </c>
+      <c r="F49" s="44">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="34">
+        <v>56</v>
+      </c>
+      <c r="D50" s="34">
+        <v>57</v>
+      </c>
+      <c r="E50">
+        <v>55</v>
+      </c>
+      <c r="F50" s="44">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="34">
+        <v>46</v>
+      </c>
+      <c r="D51" s="34">
+        <v>46</v>
+      </c>
+      <c r="E51">
+        <v>47</v>
+      </c>
+      <c r="F51" s="44">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="34">
+        <v>41</v>
+      </c>
+      <c r="D52" s="34">
+        <v>31</v>
+      </c>
+      <c r="E52">
+        <v>32</v>
+      </c>
+      <c r="F52" s="44">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="34">
+        <v>45</v>
+      </c>
+      <c r="D53" s="34">
+        <v>43</v>
+      </c>
+      <c r="E53">
+        <v>44</v>
+      </c>
+      <c r="F53" s="44">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="F54" s="44"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="F55" s="44"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="33">
+        <v>23</v>
+      </c>
+      <c r="D56" s="33">
+        <v>22</v>
+      </c>
+      <c r="E56" s="35">
+        <v>27</v>
+      </c>
+      <c r="F56" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="37">
+        <v>11</v>
+      </c>
+      <c r="D57" s="32">
+        <v>8</v>
+      </c>
+      <c r="E57" s="38">
+        <v>11</v>
+      </c>
+      <c r="F57" s="44">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
   <dimension ref="A1:AW59"/>
   <sheetViews>
@@ -3238,8 +4426,7 @@
     <col min="9" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" style="48" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" customWidth="1"/>
     <col min="20" max="21" width="9.5703125" customWidth="1"/>
@@ -3263,10 +4450,10 @@
     <col min="41" max="41" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="11.7109375" customWidth="1"/>
     <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.28515625" style="29" customWidth="1"/>
+    <col min="47" max="47" width="10.28515625" style="23" customWidth="1"/>
     <col min="48" max="48" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -3274,32 +4461,32 @@
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="38" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="44" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="47"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
       <c r="S1" s="1" t="s">
         <v>112</v>
       </c>
@@ -3310,33 +4497,33 @@
       <c r="X1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="38" t="s">
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="38" t="s">
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="38" t="s">
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
       <c r="AR1" s="21" t="s">
         <v>54</v>
       </c>
@@ -3346,10 +4533,10 @@
       <c r="AT1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AU1" s="38" t="s">
+      <c r="AU1" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="AV1" s="39"/>
+      <c r="AV1" s="45"/>
       <c r="AW1" s="19" t="s">
         <v>358</v>
       </c>
@@ -3401,10 +4588,10 @@
       <c r="P2" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" t="s">
         <v>85</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="6" t="s">
         <v>388</v>
       </c>
       <c r="S2" t="s">
@@ -3482,7 +4669,7 @@
       <c r="AQ2" t="s">
         <v>135</v>
       </c>
-      <c r="AR2" s="29" t="s">
+      <c r="AR2" s="23" t="s">
         <v>55</v>
       </c>
       <c r="AS2" s="6" t="s">
@@ -3544,10 +4731,10 @@
       <c r="P3" t="s">
         <v>375</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="Q3" t="s">
         <v>381</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="R3" s="6" t="s">
         <v>392</v>
       </c>
       <c r="S3" t="s">
@@ -3626,7 +4813,7 @@
       <c r="AT3" t="s">
         <v>143</v>
       </c>
-      <c r="AU3" s="29" t="s">
+      <c r="AU3" s="23" t="s">
         <v>55</v>
       </c>
       <c r="AV3" t="s">
@@ -3657,7 +4844,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="49"/>
+      <c r="Q4" s="2"/>
       <c r="R4" s="8"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -3684,10 +4871,10 @@
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="16"/>
-      <c r="AR4" s="30"/>
+      <c r="AR4" s="24"/>
       <c r="AS4" s="6"/>
       <c r="AT4" s="2"/>
-      <c r="AU4" s="30">
+      <c r="AU4" s="24">
         <v>1999</v>
       </c>
       <c r="AV4" s="4">
@@ -3723,7 +4910,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="49"/>
+      <c r="Q5" s="2"/>
       <c r="R5" s="8"/>
       <c r="S5" s="16" t="s">
         <v>89</v>
@@ -3758,10 +4945,10 @@
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="16"/>
-      <c r="AR5" s="30"/>
+      <c r="AR5" s="24"/>
       <c r="AS5" s="6"/>
       <c r="AT5" s="2"/>
-      <c r="AU5" s="30">
+      <c r="AU5" s="24">
         <v>1999</v>
       </c>
       <c r="AV5" s="4">
@@ -3794,7 +4981,7 @@
       <c r="P6" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="50" t="s">
+      <c r="Q6" s="16" t="s">
         <v>79</v>
       </c>
       <c r="R6" s="8"/>
@@ -3829,10 +5016,10 @@
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="16"/>
-      <c r="AR6" s="30"/>
+      <c r="AR6" s="24"/>
       <c r="AS6" s="6"/>
       <c r="AT6" s="2"/>
-      <c r="AU6" s="30">
+      <c r="AU6" s="24">
         <v>1999</v>
       </c>
       <c r="AV6" s="4">
@@ -3863,7 +5050,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="49"/>
+      <c r="Q7" s="2"/>
       <c r="R7" s="8"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -3890,10 +5077,10 @@
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
-      <c r="AR7" s="30"/>
+      <c r="AR7" s="24"/>
       <c r="AS7" s="6"/>
       <c r="AT7" s="2"/>
-      <c r="AU7" s="30">
+      <c r="AU7" s="24">
         <v>1999</v>
       </c>
       <c r="AV7" s="4">
@@ -3924,7 +5111,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="51">
+      <c r="Q8" s="4">
         <v>2003</v>
       </c>
       <c r="R8" s="8"/>
@@ -3953,10 +5140,10 @@
       <c r="AO8" s="2"/>
       <c r="AP8" s="16"/>
       <c r="AQ8" s="2"/>
-      <c r="AR8" s="30"/>
+      <c r="AR8" s="24"/>
       <c r="AS8" s="6"/>
       <c r="AT8" s="2"/>
-      <c r="AU8" s="30">
+      <c r="AU8" s="24">
         <v>1999</v>
       </c>
       <c r="AV8" s="2">
@@ -3985,7 +5172,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="51">
+      <c r="Q9" s="4">
         <v>2010</v>
       </c>
       <c r="R9" s="18"/>
@@ -4024,10 +5211,10 @@
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="16"/>
-      <c r="AR9" s="30"/>
+      <c r="AR9" s="24"/>
       <c r="AS9" s="6"/>
       <c r="AT9" s="2"/>
-      <c r="AU9" s="30">
+      <c r="AU9" s="24">
         <v>1999</v>
       </c>
       <c r="AV9" s="2">
@@ -4058,7 +5245,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="51">
+      <c r="Q10" s="4">
         <v>2005</v>
       </c>
       <c r="R10" s="8"/>
@@ -4087,10 +5274,10 @@
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
-      <c r="AR10" s="30"/>
+      <c r="AR10" s="24"/>
       <c r="AS10" s="6"/>
       <c r="AT10" s="2"/>
-      <c r="AU10" s="30">
+      <c r="AU10" s="24">
         <v>1999</v>
       </c>
       <c r="AV10" s="2">
@@ -4127,7 +5314,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="49"/>
+      <c r="Q11" s="2"/>
       <c r="R11" s="8"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
@@ -4154,10 +5341,10 @@
       <c r="AO11" s="16"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2"/>
-      <c r="AR11" s="30"/>
+      <c r="AR11" s="24"/>
       <c r="AS11" s="6"/>
       <c r="AT11" s="2"/>
-      <c r="AU11" s="30">
+      <c r="AU11" s="24">
         <v>1999</v>
       </c>
       <c r="AV11" s="4">
@@ -4185,7 +5372,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="49"/>
+      <c r="Q12" s="2"/>
       <c r="R12" s="8"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -4218,10 +5405,10 @@
       <c r="AQ12" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AR12" s="30"/>
+      <c r="AR12" s="24"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="2"/>
-      <c r="AU12" s="30">
+      <c r="AU12" s="24">
         <v>1999</v>
       </c>
       <c r="AV12" s="2">
@@ -4247,7 +5434,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="49"/>
+      <c r="Q13" s="2"/>
       <c r="R13" s="8"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -4282,14 +5469,14 @@
         <v>2001</v>
       </c>
       <c r="AT13" s="2"/>
-      <c r="AU13" s="32">
+      <c r="AU13" s="26">
         <v>2012</v>
       </c>
       <c r="AV13" s="16"/>
       <c r="AW13" s="10"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
@@ -4309,7 +5496,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="49"/>
+      <c r="Q14" s="2"/>
       <c r="R14" s="8"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -4338,14 +5525,14 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
-      <c r="AR14" s="32">
+      <c r="AR14" s="26">
         <v>2008</v>
       </c>
       <c r="AS14" s="8">
         <v>1999</v>
       </c>
       <c r="AT14" s="2"/>
-      <c r="AU14" s="30">
+      <c r="AU14" s="24">
         <v>1999</v>
       </c>
       <c r="AV14" s="16"/>
@@ -4372,7 +5559,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="49"/>
+      <c r="Q15" s="2"/>
       <c r="R15" s="8"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -4401,10 +5588,10 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
-      <c r="AR15" s="30"/>
+      <c r="AR15" s="24"/>
       <c r="AS15" s="6"/>
       <c r="AT15" s="2"/>
-      <c r="AU15" s="30">
+      <c r="AU15" s="24">
         <v>1999</v>
       </c>
       <c r="AV15" s="4">
@@ -4424,13 +5611,13 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="49"/>
+      <c r="Q16" s="2"/>
       <c r="X16" s="2"/>
       <c r="AA16" s="17"/>
-      <c r="AR16" s="30"/>
+      <c r="AR16" s="24"/>
       <c r="AS16" s="6"/>
       <c r="AT16" s="2"/>
-      <c r="AU16" s="30">
+      <c r="AU16" s="24">
         <v>1999</v>
       </c>
       <c r="AV16" s="16">
@@ -4459,7 +5646,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="49"/>
+      <c r="Q17" s="2"/>
       <c r="R17" s="8"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -4490,10 +5677,10 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="16"/>
-      <c r="AR17" s="30"/>
+      <c r="AR17" s="24"/>
       <c r="AS17" s="6"/>
       <c r="AT17" s="2"/>
-      <c r="AU17" s="30">
+      <c r="AU17" s="24">
         <v>1999</v>
       </c>
       <c r="AV17" s="2">
@@ -4515,13 +5702,13 @@
       <c r="P18" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="Q18" s="50" t="s">
+      <c r="Q18" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AR18" s="30"/>
+      <c r="AR18" s="24"/>
       <c r="AS18" s="6"/>
       <c r="AT18" s="2"/>
-      <c r="AU18" s="30">
+      <c r="AU18" s="24">
         <v>1999</v>
       </c>
       <c r="AV18" s="4">
@@ -4545,7 +5732,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="49"/>
+      <c r="Q19" s="2"/>
       <c r="R19" s="8"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -4572,14 +5759,14 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
-      <c r="AR19" s="32">
+      <c r="AR19" s="26">
         <v>2013</v>
       </c>
       <c r="AS19" s="18">
         <v>2001</v>
       </c>
       <c r="AT19" s="2"/>
-      <c r="AU19" s="32">
+      <c r="AU19" s="26">
         <v>2012</v>
       </c>
       <c r="AV19" s="16">
@@ -4603,7 +5790,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="49"/>
+      <c r="Q20" s="2"/>
       <c r="R20" s="8"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
@@ -4638,10 +5825,10 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
-      <c r="AR20" s="30"/>
+      <c r="AR20" s="24"/>
       <c r="AS20" s="6"/>
       <c r="AT20" s="2"/>
-      <c r="AU20" s="30">
+      <c r="AU20" s="24">
         <v>1999</v>
       </c>
       <c r="AV20" s="2">
@@ -4667,7 +5854,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="49"/>
+      <c r="Q21" s="2"/>
       <c r="R21" s="8"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -4698,7 +5885,7 @@
         <v>36404</v>
       </c>
       <c r="AT21" s="2"/>
-      <c r="AU21" s="32">
+      <c r="AU21" s="26">
         <v>2009</v>
       </c>
       <c r="AV21" s="16">
@@ -4730,7 +5917,7 @@
       <c r="P22" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="Q22" s="50" t="s">
+      <c r="Q22" s="16" t="s">
         <v>89</v>
       </c>
       <c r="R22" s="18"/>
@@ -4761,10 +5948,10 @@
         <v>2004</v>
       </c>
       <c r="AQ22" s="2"/>
-      <c r="AR22" s="30"/>
+      <c r="AR22" s="24"/>
       <c r="AS22" s="6"/>
       <c r="AT22" s="2"/>
-      <c r="AU22" s="32">
+      <c r="AU22" s="26">
         <v>2008</v>
       </c>
       <c r="AV22" s="16"/>
@@ -4791,7 +5978,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="49"/>
+      <c r="Q23" s="2"/>
       <c r="R23" s="8"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -4822,10 +6009,10 @@
       </c>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="16"/>
-      <c r="AR23" s="30"/>
+      <c r="AR23" s="24"/>
       <c r="AS23" s="6"/>
       <c r="AT23" s="2"/>
-      <c r="AU23" s="32">
+      <c r="AU23" s="26">
         <v>2010</v>
       </c>
       <c r="AV23" s="16"/>
@@ -4852,7 +6039,7 @@
       <c r="N24" s="16"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="49"/>
+      <c r="Q24" s="2"/>
       <c r="R24" s="18"/>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
@@ -4881,21 +6068,21 @@
       <c r="AO24" s="16"/>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2"/>
-      <c r="AR24" s="32">
+      <c r="AR24" s="26">
         <v>2003</v>
       </c>
       <c r="AS24" s="18">
         <v>2001</v>
       </c>
       <c r="AT24" s="2"/>
-      <c r="AU24" s="32">
+      <c r="AU24" s="26">
         <v>2010</v>
       </c>
       <c r="AV24" s="16"/>
       <c r="AW24" s="10"/>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="2">
@@ -4912,7 +6099,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="49"/>
+      <c r="Q25" s="2"/>
       <c r="R25" s="8"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -4943,10 +6130,10 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="16"/>
-      <c r="AR25" s="30"/>
+      <c r="AR25" s="24"/>
       <c r="AS25" s="6"/>
       <c r="AT25" s="2"/>
-      <c r="AU25" s="30">
+      <c r="AU25" s="24">
         <v>1999</v>
       </c>
       <c r="AV25" s="2">
@@ -4970,7 +6157,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="49"/>
+      <c r="Q26" s="2"/>
       <c r="R26" s="8"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -4999,14 +6186,14 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2"/>
-      <c r="AR26" s="32">
+      <c r="AR26" s="26">
         <v>2013</v>
       </c>
       <c r="AS26" s="18">
         <v>2010</v>
       </c>
       <c r="AT26" s="2"/>
-      <c r="AU26" s="32">
+      <c r="AU26" s="26">
         <v>2013</v>
       </c>
       <c r="AV26" s="16"/>
@@ -5034,7 +6221,7 @@
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
-      <c r="Q27" s="50"/>
+      <c r="Q27" s="16"/>
       <c r="R27" s="8"/>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
@@ -5067,12 +6254,12 @@
         <v>72</v>
       </c>
       <c r="AQ27" s="2"/>
-      <c r="AR27" s="32">
+      <c r="AR27" s="26">
         <v>2007</v>
       </c>
       <c r="AS27" s="6"/>
       <c r="AT27" s="2"/>
-      <c r="AU27" s="32">
+      <c r="AU27" s="26">
         <v>2002</v>
       </c>
       <c r="AV27" s="2">
@@ -5117,7 +6304,7 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
-      <c r="Q30" s="50"/>
+      <c r="Q30" s="16"/>
       <c r="R30" s="18">
         <v>2002</v>
       </c>
@@ -5150,10 +6337,10 @@
         <v>133</v>
       </c>
       <c r="AQ30" s="16"/>
-      <c r="AR30" s="30"/>
+      <c r="AR30" s="24"/>
       <c r="AS30" s="6"/>
       <c r="AT30" s="2"/>
-      <c r="AU30" s="32">
+      <c r="AU30" s="26">
         <v>2011</v>
       </c>
       <c r="AV30" s="4">
@@ -5171,11 +6358,11 @@
         <v>2012</v>
       </c>
       <c r="P31" s="16"/>
-      <c r="Q31" s="50"/>
-      <c r="AR31" s="30"/>
+      <c r="Q31" s="16"/>
+      <c r="AR31" s="24"/>
       <c r="AS31" s="6"/>
       <c r="AT31" s="2"/>
-      <c r="AU31" s="32">
+      <c r="AU31" s="26">
         <v>2000</v>
       </c>
       <c r="AV31" s="2">
@@ -5184,7 +6371,7 @@
       <c r="AW31" s="10"/>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="2">
@@ -5214,7 +6401,7 @@
       <c r="P32" s="4">
         <v>2018</v>
       </c>
-      <c r="Q32" s="51">
+      <c r="Q32" s="4">
         <v>2017</v>
       </c>
       <c r="R32" s="18">
@@ -5253,10 +6440,10 @@
         <v>134</v>
       </c>
       <c r="AQ32" s="16"/>
-      <c r="AR32" s="30"/>
+      <c r="AR32" s="24"/>
       <c r="AS32" s="6"/>
       <c r="AT32" s="2"/>
-      <c r="AU32" s="32">
+      <c r="AU32" s="26">
         <v>2012</v>
       </c>
       <c r="AV32" s="2">
@@ -5284,7 +6471,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="49"/>
+      <c r="Q33" s="2"/>
       <c r="R33" s="8"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -5319,10 +6506,10 @@
       <c r="AQ33" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AR33" s="30"/>
+      <c r="AR33" s="24"/>
       <c r="AS33" s="6"/>
       <c r="AT33" s="2"/>
-      <c r="AU33" s="32">
+      <c r="AU33" s="26">
         <v>2000</v>
       </c>
       <c r="AV33" s="2">
@@ -5333,7 +6520,7 @@
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B34" s="2">
@@ -5359,7 +6546,7 @@
       <c r="P34" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="Q34" s="50" t="s">
+      <c r="Q34" s="16" t="s">
         <v>382</v>
       </c>
       <c r="R34" s="18">
@@ -5390,10 +6577,10 @@
       <c r="AO34" s="16"/>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="16"/>
-      <c r="AR34" s="30"/>
+      <c r="AR34" s="24"/>
       <c r="AS34" s="6"/>
       <c r="AT34" s="2"/>
-      <c r="AU34" s="32">
+      <c r="AU34" s="26">
         <v>2000</v>
       </c>
       <c r="AV34" s="2">
@@ -5433,7 +6620,7 @@
       <c r="P35" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="Q35" s="50" t="s">
+      <c r="Q35" s="16" t="s">
         <v>383</v>
       </c>
       <c r="R35" s="18">
@@ -5474,10 +6661,10 @@
       <c r="AO35" s="16"/>
       <c r="AP35" s="16"/>
       <c r="AQ35" s="16"/>
-      <c r="AR35" s="30"/>
+      <c r="AR35" s="24"/>
       <c r="AS35" s="6"/>
       <c r="AT35" s="2"/>
-      <c r="AU35" s="31">
+      <c r="AU35" s="25">
         <v>2015</v>
       </c>
       <c r="AV35" s="16">
@@ -5507,7 +6694,7 @@
       <c r="P36" s="4">
         <v>2001</v>
       </c>
-      <c r="Q36" s="51">
+      <c r="Q36" s="4">
         <v>2008</v>
       </c>
       <c r="R36" s="18">
@@ -5542,7 +6729,7 @@
         <v>1999</v>
       </c>
       <c r="AT36" s="2"/>
-      <c r="AU36" s="32">
+      <c r="AU36" s="26">
         <v>2003</v>
       </c>
       <c r="AV36" s="4">
@@ -5574,7 +6761,7 @@
       <c r="P37" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="Q37" s="50" t="s">
+      <c r="Q37" s="16" t="s">
         <v>384</v>
       </c>
       <c r="R37" s="8"/>
@@ -5609,10 +6796,10 @@
       <c r="AO37" s="16"/>
       <c r="AP37" s="16"/>
       <c r="AQ37" s="16"/>
-      <c r="AR37" s="30"/>
+      <c r="AR37" s="24"/>
       <c r="AS37" s="6"/>
       <c r="AT37" s="2"/>
-      <c r="AU37" s="30">
+      <c r="AU37" s="24">
         <v>1999</v>
       </c>
       <c r="AV37" s="4">
@@ -5621,7 +6808,7 @@
       <c r="AW37" s="10"/>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="10">
@@ -5630,16 +6817,16 @@
       <c r="P38" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="Q38" s="50">
+      <c r="Q38" s="16">
         <v>2001</v>
       </c>
       <c r="X38" s="4">
         <v>2000</v>
       </c>
-      <c r="AR38" s="30"/>
+      <c r="AR38" s="24"/>
       <c r="AS38" s="6"/>
       <c r="AT38" s="2"/>
-      <c r="AU38" s="32">
+      <c r="AU38" s="26">
         <v>2008</v>
       </c>
       <c r="AV38" s="4">
@@ -5671,7 +6858,7 @@
       <c r="P39" s="4">
         <v>2009</v>
       </c>
-      <c r="Q39" s="49"/>
+      <c r="Q39" s="2"/>
       <c r="R39" s="18">
         <v>2000</v>
       </c>
@@ -5706,10 +6893,10 @@
       <c r="AO39" s="16"/>
       <c r="AP39" s="16"/>
       <c r="AQ39" s="16"/>
-      <c r="AR39" s="30"/>
+      <c r="AR39" s="24"/>
       <c r="AS39" s="6"/>
       <c r="AT39" s="2"/>
-      <c r="AU39" s="32">
+      <c r="AU39" s="26">
         <v>2010</v>
       </c>
       <c r="AV39" s="4">
@@ -5718,7 +6905,7 @@
       <c r="AW39" s="10"/>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="10">
@@ -5727,14 +6914,14 @@
       <c r="P40" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="Q40" s="50" t="s">
+      <c r="Q40" s="16" t="s">
         <v>89</v>
       </c>
       <c r="X40" s="2"/>
-      <c r="AR40" s="30"/>
+      <c r="AR40" s="24"/>
       <c r="AS40" s="6"/>
       <c r="AT40" s="2"/>
-      <c r="AU40" s="30">
+      <c r="AU40" s="24">
         <v>1999</v>
       </c>
       <c r="AV40" s="4">
@@ -5743,28 +6930,28 @@
       <c r="AW40" s="10"/>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="10">
         <v>2012</v>
       </c>
       <c r="P41" s="16"/>
-      <c r="Q41" s="50"/>
+      <c r="Q41" s="16"/>
       <c r="AS41" s="6">
         <v>2004</v>
       </c>
       <c r="AT41" s="12">
         <v>36192</v>
       </c>
-      <c r="AU41" s="31">
+      <c r="AU41" s="25">
         <v>2014</v>
       </c>
       <c r="AV41" s="16"/>
       <c r="AW41" s="10"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="10">
@@ -5773,39 +6960,39 @@
       <c r="P42" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="Q42" s="50" t="s">
+      <c r="Q42" s="16" t="s">
         <v>385</v>
       </c>
       <c r="AS42" s="6">
         <v>2001</v>
       </c>
       <c r="AT42" s="2"/>
-      <c r="AU42" s="31">
+      <c r="AU42" s="25">
         <v>2014</v>
       </c>
       <c r="AV42" s="16"/>
       <c r="AW42" s="10"/>
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="10"/>
       <c r="E43" s="7"/>
       <c r="P43" s="16"/>
-      <c r="Q43" s="50"/>
+      <c r="Q43" s="16"/>
       <c r="AS43" s="6">
         <v>2010</v>
       </c>
       <c r="AT43" s="2"/>
-      <c r="AU43" s="31">
+      <c r="AU43" s="25">
         <v>2020</v>
       </c>
       <c r="AV43" s="16"/>
       <c r="AW43" s="10"/>
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="4">
@@ -5831,7 +7018,7 @@
         <v>2005</v>
       </c>
       <c r="P44" s="2"/>
-      <c r="Q44" s="51">
+      <c r="Q44" s="4">
         <v>2000</v>
       </c>
       <c r="R44" s="18">
@@ -5870,10 +7057,10 @@
       <c r="AQ44" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AR44" s="30"/>
+      <c r="AR44" s="24"/>
       <c r="AS44" s="6"/>
       <c r="AT44" s="2"/>
-      <c r="AU44" s="32">
+      <c r="AU44" s="26">
         <v>2008</v>
       </c>
       <c r="AV44" s="2">
@@ -5884,19 +7071,19 @@
       </c>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C45" s="10">
         <v>2018</v>
       </c>
       <c r="P45" s="2"/>
-      <c r="Q45" s="49"/>
+      <c r="Q45" s="2"/>
       <c r="X45" s="2"/>
-      <c r="AR45" s="30"/>
+      <c r="AR45" s="24"/>
       <c r="AS45" s="6"/>
       <c r="AT45" s="2"/>
-      <c r="AU45" s="32">
+      <c r="AU45" s="26">
         <v>2010</v>
       </c>
       <c r="AV45" s="4">
@@ -5905,7 +7092,7 @@
       <c r="AW45" s="10"/>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="2">
@@ -5924,7 +7111,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-      <c r="Q46" s="49"/>
+      <c r="Q46" s="2"/>
       <c r="R46" s="8"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
@@ -5967,7 +7154,7 @@
         <v>1999</v>
       </c>
       <c r="AT46" s="2"/>
-      <c r="AU46" s="32">
+      <c r="AU46" s="26">
         <v>2010</v>
       </c>
       <c r="AV46" s="4">
@@ -5997,7 +7184,7 @@
       <c r="P47" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="Q47" s="50" t="s">
+      <c r="Q47" s="16" t="s">
         <v>89</v>
       </c>
       <c r="R47" s="8"/>
@@ -6042,7 +7229,7 @@
       <c r="AT47" s="4">
         <v>2002</v>
       </c>
-      <c r="AU47" s="32">
+      <c r="AU47" s="26">
         <v>2007</v>
       </c>
       <c r="AV47" s="16"/>
@@ -6066,7 +7253,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
-      <c r="Q48" s="49"/>
+      <c r="Q48" s="2"/>
       <c r="R48" s="8"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
@@ -6097,12 +7284,12 @@
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
       <c r="AQ48" s="2"/>
-      <c r="AR48" s="30"/>
+      <c r="AR48" s="24"/>
       <c r="AS48" s="6"/>
       <c r="AT48" s="4">
         <v>2001</v>
       </c>
-      <c r="AU48" s="32">
+      <c r="AU48" s="26">
         <v>2011</v>
       </c>
       <c r="AV48" s="2">
@@ -6111,14 +7298,14 @@
       <c r="AW48" s="10"/>
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C49" s="10"/>
       <c r="P49" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="Q49" s="50" t="s">
+      <c r="Q49" s="16" t="s">
         <v>386</v>
       </c>
       <c r="X49" s="4">
@@ -6128,14 +7315,14 @@
         <v>2011</v>
       </c>
       <c r="AT49" s="2"/>
-      <c r="AU49" s="32">
+      <c r="AU49" s="26">
         <v>2009</v>
       </c>
       <c r="AV49" s="16"/>
       <c r="AW49" s="10"/>
     </row>
     <row r="50" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B50" s="2">
@@ -6152,7 +7339,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="49"/>
+      <c r="Q50" s="2"/>
       <c r="R50" s="8"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
@@ -6185,12 +7372,12 @@
         <v>2001</v>
       </c>
       <c r="AT50" s="2"/>
-      <c r="AU50" s="31"/>
+      <c r="AU50" s="25"/>
       <c r="AV50" s="16"/>
       <c r="AW50" s="10"/>
     </row>
     <row r="51" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="8">
@@ -6207,7 +7394,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="49"/>
+      <c r="Q51" s="2"/>
       <c r="R51" s="8"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
@@ -6244,14 +7431,14 @@
         <v>1999</v>
       </c>
       <c r="AT51" s="2"/>
-      <c r="AU51" s="31"/>
+      <c r="AU51" s="25"/>
       <c r="AV51" s="16">
         <v>2018</v>
       </c>
       <c r="AW51" s="10"/>
     </row>
     <row r="52" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="10">
@@ -6260,14 +7447,14 @@
       <c r="P52" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="Q52" s="50" t="s">
+      <c r="Q52" s="16" t="s">
         <v>101</v>
       </c>
       <c r="AS52" s="6">
         <v>1999</v>
       </c>
       <c r="AT52" s="2"/>
-      <c r="AU52" s="32">
+      <c r="AU52" s="26">
         <v>2010</v>
       </c>
       <c r="AV52" s="16"/>
@@ -6305,7 +7492,7 @@
       <c r="P53" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="Q53" s="50" t="s">
+      <c r="Q53" s="16" t="s">
         <v>386</v>
       </c>
       <c r="R53" s="18">
@@ -6354,7 +7541,7 @@
         <v>2000</v>
       </c>
       <c r="AT53" s="2"/>
-      <c r="AU53" s="32">
+      <c r="AU53" s="26">
         <v>2009</v>
       </c>
       <c r="AV53" s="16"/>
@@ -6391,7 +7578,7 @@
       <c r="P56" s="4">
         <v>2004</v>
       </c>
-      <c r="Q56" s="51">
+      <c r="Q56" s="4">
         <v>2003</v>
       </c>
       <c r="R56" s="18">
@@ -6432,19 +7619,19 @@
       <c r="AO56" s="16"/>
       <c r="AP56" s="16"/>
       <c r="AQ56" s="16"/>
-      <c r="AR56" s="30"/>
+      <c r="AR56" s="24"/>
       <c r="AS56" s="6"/>
       <c r="AT56" s="4">
         <v>2000</v>
       </c>
-      <c r="AU56" s="32">
+      <c r="AU56" s="26">
         <v>2011</v>
       </c>
       <c r="AV56" s="16"/>
       <c r="AW56" s="10"/>
     </row>
     <row r="57" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="2">
@@ -6476,7 +7663,7 @@
       <c r="N57" s="16"/>
       <c r="O57" s="16"/>
       <c r="P57" s="2"/>
-      <c r="Q57" s="49"/>
+      <c r="Q57" s="2"/>
       <c r="R57" s="8"/>
       <c r="S57" s="16" t="s">
         <v>72</v>
@@ -6529,14 +7716,14 @@
       <c r="AO57" s="16"/>
       <c r="AP57" s="16"/>
       <c r="AQ57" s="16"/>
-      <c r="AR57" s="32">
+      <c r="AR57" s="26">
         <v>2013</v>
       </c>
       <c r="AS57" s="8">
         <v>1999</v>
       </c>
       <c r="AT57" s="2"/>
-      <c r="AU57" s="32">
+      <c r="AU57" s="26">
         <v>2010</v>
       </c>
       <c r="AV57" s="16" t="s">
@@ -6550,14 +7737,14 @@
       <c r="AS58" s="6"/>
     </row>
     <row r="59" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="42"/>
-      <c r="D59" s="43" t="s">
+      <c r="C59" s="49"/>
+      <c r="D59" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="42"/>
+      <c r="E59" s="49"/>
       <c r="AS59" s="6"/>
     </row>
   </sheetData>
@@ -6578,7 +7765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC8819E-4998-4293-AE91-8A38F68283E5}">
   <dimension ref="A1:R57"/>
   <sheetViews>
@@ -6608,26 +7795,26 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="45" t="s">
         <v>357</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
@@ -7043,7 +8230,7 @@
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -7351,7 +8538,7 @@
       <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C25" t="s">
@@ -7517,7 +8704,7 @@
       <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C32" t="s">
@@ -7599,7 +8786,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C34" t="s">
@@ -7730,7 +8917,7 @@
       <c r="M37" s="16"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C38" t="s">
@@ -7790,7 +8977,7 @@
       <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C40" t="s">
@@ -7820,7 +9007,7 @@
       <c r="M40" s="16"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -7839,7 +9026,7 @@
       <c r="M41" s="16"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="16" t="s">
@@ -7858,7 +9045,7 @@
       <c r="M42" s="16"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="16" t="s">
@@ -7877,7 +9064,7 @@
       <c r="M43" s="16"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C44" t="s">
@@ -7918,7 +9105,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C45" t="s">
@@ -7948,7 +9135,7 @@
       <c r="M45" s="16"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C46" t="s">
@@ -8027,7 +9214,7 @@
       <c r="M48" s="16"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C49" t="s">
@@ -8046,7 +9233,7 @@
       <c r="M49" s="16"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="16"/>
@@ -8054,7 +9241,7 @@
       <c r="M50" s="16"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="16"/>
@@ -8073,7 +9260,7 @@
       <c r="M51" s="16"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C52" t="s">
@@ -8138,7 +9325,7 @@
       <c r="M56" s="16"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C57" t="s">
@@ -8189,7 +9376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A262C-BF3B-4D84-B60A-8947EF3BFC30}">
   <dimension ref="A1:A50"/>
   <sheetViews>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8229CD-9FBC-4D0C-97B8-85EF1E48D17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F68588D-E7EC-49F5-B6B7-E57C3B0B6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="411">
   <si>
     <t>United States</t>
   </si>
@@ -1255,6 +1255,24 @@
   </si>
   <si>
     <t>Probably</t>
+  </si>
+  <si>
+    <t>Total stock</t>
+  </si>
+  <si>
+    <t>market cap</t>
+  </si>
+  <si>
+    <t>(% in 2020 by WB)</t>
+  </si>
+  <si>
+    <t>% of global GDP</t>
+  </si>
+  <si>
+    <t>MSCI ACWI</t>
+  </si>
+  <si>
+    <t>(% in 03/2023)</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1448,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1486,6 +1504,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1825,7 +1847,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,8 +2664,6 @@
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2713,6 +2733,7 @@
         <v>2008</v>
       </c>
       <c r="M31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" s="2">
         <v>2012</v>
       </c>
@@ -2852,9 +2873,7 @@
         <v>2000</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="4">
-        <v>2011</v>
-      </c>
+      <c r="O35" s="4"/>
       <c r="P35" s="2">
         <v>2012</v>
       </c>
@@ -3396,9 +3415,7 @@
       <c r="N57" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="O57" s="16" t="s">
-        <v>95</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" s="2">
         <v>2012</v>
       </c>
@@ -3410,10 +3427,10 @@
       <c r="P59" s="22"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="47" t="s">
         <v>403</v>
       </c>
-      <c r="C61" s="46"/>
+      <c r="C61" s="48"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -3458,9 +3475,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B703FA39-2A94-42E5-99E2-495679D72086}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3469,10 +3488,12 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="11" t="s">
         <v>58</v>
@@ -3487,10 +3508,16 @@
         <v>56</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
@@ -3503,10 +3530,16 @@
         <v>397</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -3515,8 +3548,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3533,8 +3569,14 @@
       <c r="F4" s="44">
         <v>59.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="44">
+        <v>40.43</v>
+      </c>
+      <c r="H4" s="44">
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3551,8 +3593,14 @@
       <c r="F5" s="44">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="44">
+        <v>6.07</v>
+      </c>
+      <c r="H5" s="44">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -3569,8 +3617,14 @@
       <c r="F6" s="44">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="44">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H6" s="44">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3587,8 +3641,14 @@
       <c r="F7" s="44">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="44">
+        <v>2.39</v>
+      </c>
+      <c r="H7" s="44">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -3605,8 +3665,14 @@
       <c r="F8" s="44">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="44">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H8" s="44">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -3622,8 +3688,14 @@
       <c r="F9" s="44">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="44">
+        <v>1.81</v>
+      </c>
+      <c r="H9" s="44">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -3640,8 +3712,14 @@
       <c r="F10" s="44">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="44">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H10" s="44">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -3658,8 +3736,14 @@
       <c r="F11" s="44">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="44">
+        <v>1.56</v>
+      </c>
+      <c r="H11" s="44">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -3675,8 +3759,14 @@
       <c r="F12" s="44">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="44">
+        <v>1.44</v>
+      </c>
+      <c r="H12" s="44">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
@@ -3692,8 +3782,14 @@
       <c r="F13" s="44">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="44">
+        <v>0.61</v>
+      </c>
+      <c r="H13" s="44">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -3709,8 +3805,14 @@
       <c r="F14" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="44">
+        <v>0.83</v>
+      </c>
+      <c r="H14" s="44">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -3727,8 +3829,14 @@
       <c r="F15" s="44">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="44">
+        <v>0.82</v>
+      </c>
+      <c r="H15" s="44">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
@@ -3744,8 +3852,14 @@
       <c r="F16" s="44">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="44">
+        <v>5.54</v>
+      </c>
+      <c r="H16" s="44">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3762,8 +3876,14 @@
       <c r="F17" s="44">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="44">
+        <v>0.68</v>
+      </c>
+      <c r="H17" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
@@ -3779,8 +3899,14 @@
       <c r="F18" s="44">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="44">
+        <v>0.59</v>
+      </c>
+      <c r="H18" s="44">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
@@ -3796,8 +3922,14 @@
       <c r="F19" s="44">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="44">
+        <v>0.02</v>
+      </c>
+      <c r="H19" s="44">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -3813,8 +3945,14 @@
       <c r="F20" s="44">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="44">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H20" s="44">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -3830,8 +3968,14 @@
       <c r="F21" s="44">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="44">
+        <v>0.27</v>
+      </c>
+      <c r="H21" s="44">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -3847,8 +3991,14 @@
       <c r="F22" s="44">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="44">
+        <v>0.24</v>
+      </c>
+      <c r="H22" s="44">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -3864,8 +4014,14 @@
       <c r="F23" s="44">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="44">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
@@ -3881,8 +4037,14 @@
       <c r="F24" s="44">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="44">
+        <v>0.12</v>
+      </c>
+      <c r="H24" s="44">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -3898,8 +4060,14 @@
       <c r="F25" s="44">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="44">
+        <v>0.12</v>
+      </c>
+      <c r="H25" s="44">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>18</v>
       </c>
@@ -3915,31 +4083,50 @@
       <c r="F26" s="44">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="44">
+        <v>0.06</v>
+      </c>
+      <c r="H26" s="44">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="F27" s="44">
-        <v>8.48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <f>F8+F10+F12+F15+F17+F19+F20+F23+F25+F26+F48</f>
+        <v>8.4799999999999969</v>
+      </c>
+      <c r="G27" s="44">
+        <f>G8+G10+G12+G15+G17+G19+G20+G23+G25+G26+G48</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H27" s="44">
+        <f>H8+H10+H12+H15+H17+H19+H20+H23+H25+H26+H48</f>
+        <v>13.530000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="F28" s="44"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
       <c r="F29" s="44"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -3956,8 +4143,14 @@
       <c r="F30" s="44">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="44">
+        <v>11.95</v>
+      </c>
+      <c r="H30" s="44">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>24</v>
       </c>
@@ -3967,8 +4160,14 @@
       <c r="F31" s="44">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="44">
+        <v>1.82</v>
+      </c>
+      <c r="H31" s="44">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -3985,8 +4184,14 @@
       <c r="F32" s="44">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="44">
+        <v>3.27</v>
+      </c>
+      <c r="H32" s="44">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -4003,8 +4208,14 @@
       <c r="F33" s="44">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="44">
+        <v>1.97</v>
+      </c>
+      <c r="H33" s="44">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>98</v>
       </c>
@@ -4021,8 +4232,14 @@
       <c r="F34" s="44">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="44">
+        <v>0.89</v>
+      </c>
+      <c r="H34" s="44">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
@@ -4039,8 +4256,14 @@
       <c r="F35" s="44">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="44">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H35" s="44">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
@@ -4057,8 +4280,14 @@
       <c r="F36" s="44">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="H36" s="44">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -4075,8 +4304,14 @@
       <c r="F37" s="44">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="44">
+        <v>0.36</v>
+      </c>
+      <c r="H37" s="44">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>31</v>
       </c>
@@ -4092,8 +4327,14 @@
       <c r="F38" s="44">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="44">
+        <v>0.49</v>
+      </c>
+      <c r="H38" s="44">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>32</v>
       </c>
@@ -4110,8 +4351,14 @@
       <c r="F39" s="44">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="44">
+        <v>0.45</v>
+      </c>
+      <c r="H39" s="44">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>33</v>
       </c>
@@ -4127,8 +4374,14 @@
       <c r="F40" s="44">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="44">
+        <v>0.39</v>
+      </c>
+      <c r="H40" s="44">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>49</v>
       </c>
@@ -4144,8 +4397,14 @@
       <c r="F41" s="44">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="44">
+        <v>0.27</v>
+      </c>
+      <c r="H41" s="44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>34</v>
       </c>
@@ -4161,8 +4420,14 @@
       <c r="F42" s="44">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="H42" s="44">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>35</v>
       </c>
@@ -4178,8 +4443,14 @@
       <c r="F43" s="44">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="H43" s="44">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -4196,8 +4467,14 @@
       <c r="F44" s="44">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="44">
+        <v>0.21</v>
+      </c>
+      <c r="H44" s="44">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>36</v>
       </c>
@@ -4213,8 +4490,14 @@
       <c r="F45" s="44">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="H45" s="44">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>37</v>
       </c>
@@ -4230,8 +4513,14 @@
       <c r="F46" s="44">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="44">
+        <v>0.16</v>
+      </c>
+      <c r="H46" s="44">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>38</v>
       </c>
@@ -4247,8 +4536,14 @@
       <c r="F47" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="44">
+        <v>0.17</v>
+      </c>
+      <c r="H47" s="44">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>39</v>
       </c>
@@ -4264,8 +4559,14 @@
       <c r="F48" s="44">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="H48" s="44">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>40</v>
       </c>
@@ -4281,8 +4582,14 @@
       <c r="F49" s="44">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="44">
+        <v>0.08</v>
+      </c>
+      <c r="H49" s="44">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>41</v>
       </c>
@@ -4298,8 +4605,14 @@
       <c r="F50" s="44">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="44">
+        <v>0.03</v>
+      </c>
+      <c r="H50" s="44">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>47</v>
       </c>
@@ -4315,8 +4628,14 @@
       <c r="F51" s="44">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="44">
+        <v>0.02</v>
+      </c>
+      <c r="H51" s="44">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>42</v>
       </c>
@@ -4332,8 +4651,14 @@
       <c r="F52" s="44">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="H52" s="44">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>43</v>
       </c>
@@ -4349,21 +4674,43 @@
       <c r="F53" s="44">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="H53" s="44">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
-      <c r="F54" s="44"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F54" s="46">
+        <f>SUM(F4:F53)-F27</f>
+        <v>99.87</v>
+      </c>
+      <c r="G54" s="46">
+        <f>SUM(G4:G53)-G27</f>
+        <v>97.529999999999987</v>
+      </c>
+      <c r="H54" s="46">
+        <f>SUM(H4:H53)-H27</f>
+        <v>89.270000000000024</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
       <c r="F55" s="44"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>44</v>
       </c>
@@ -4380,8 +4727,14 @@
       <c r="F56" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="H56" s="44">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
@@ -4398,6 +4751,15 @@
       <c r="F57" s="44">
         <v>0</v>
       </c>
+      <c r="G57" s="44">
+        <v>0.63</v>
+      </c>
+      <c r="H57" s="44">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4410,7 +4772,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4461,32 +4823,33 @@
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="45" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="21" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
       <c r="S1" s="1" t="s">
         <v>112</v>
       </c>
@@ -4497,33 +4860,33 @@
       <c r="X1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="45" t="s">
+      <c r="Y1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="47" t="s">
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="47" t="s">
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="47" t="s">
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
       <c r="AR1" s="21" t="s">
         <v>54</v>
       </c>
@@ -4533,10 +4896,10 @@
       <c r="AT1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AU1" s="47" t="s">
+      <c r="AU1" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="AV1" s="45"/>
+      <c r="AV1" s="47"/>
       <c r="AW1" s="19" t="s">
         <v>358</v>
       </c>
@@ -6359,6 +6722,7 @@
       </c>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
+      <c r="R31" s="8"/>
       <c r="AR31" s="24"/>
       <c r="AS31" s="6"/>
       <c r="AT31" s="2"/>
@@ -7737,18 +8101,18 @@
       <c r="AS58" s="6"/>
     </row>
     <row r="59" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="49"/>
-      <c r="D59" s="50" t="s">
+      <c r="C59" s="51"/>
+      <c r="D59" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="49"/>
+      <c r="E59" s="51"/>
       <c r="AS59" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B59:C59"/>
@@ -7760,6 +8124,7 @@
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="N1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7795,26 +8160,26 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F68588D-E7EC-49F5-B6B7-E57C3B0B6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D999AABF-DAC7-493E-BE9E-FCE4F9ACEC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="415">
   <si>
     <t>United States</t>
   </si>
@@ -1273,6 +1273,18 @@
   </si>
   <si>
     <t>(% in 03/2023)</t>
+  </si>
+  <si>
+    <t>GDP Annual</t>
+  </si>
+  <si>
+    <t>Growth Rate</t>
+  </si>
+  <si>
+    <t>GDP Growth</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
@@ -1843,11 +1855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O35" sqref="O35"/>
+      <selection pane="topRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,12 +1876,13 @@
     <col min="12" max="12" width="11.140625" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="11" t="s">
         <v>56</v>
@@ -1911,16 +1924,19 @@
         <v>88</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>96</v>
+        <v>411</v>
       </c>
       <c r="P1" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="11" t="s">
         <v>57</v>
@@ -1952,16 +1968,19 @@
         <v>97</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>99</v>
+        <v>412</v>
       </c>
       <c r="P2" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1977,10 +1996,10 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2006,12 +2025,13 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2">
         <v>1999</v>
       </c>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2039,12 +2059,13 @@
         <v>89</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="P5" s="2">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2">
         <v>2008</v>
       </c>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2070,12 +2091,13 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2">
         <v>2008</v>
       </c>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2101,12 +2123,13 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2">
         <v>2012</v>
       </c>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2129,12 +2152,13 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2">
         <v>2008</v>
       </c>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2160,12 +2184,13 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2">
         <v>2012</v>
       </c>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2191,12 +2216,13 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2">
         <v>2008</v>
       </c>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2222,12 +2248,13 @@
       <c r="M11" s="2"/>
       <c r="N11" s="16"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="12">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="12">
         <v>41426</v>
       </c>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -2250,12 +2277,13 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="12">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="12">
         <v>41548</v>
       </c>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
@@ -2279,12 +2307,13 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="42" t="s">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -2304,12 +2333,13 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2">
         <v>1999</v>
       </c>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2335,12 +2365,13 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2">
         <v>2012</v>
       </c>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
@@ -2359,11 +2390,11 @@
         <v>2016</v>
       </c>
       <c r="L16" s="2"/>
-      <c r="P16" s="2">
+      <c r="Q16" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2389,12 +2420,13 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2">
         <v>2012</v>
       </c>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
@@ -2412,11 +2444,11 @@
       <c r="J18" s="4">
         <v>2011</v>
       </c>
-      <c r="P18" s="2">
+      <c r="Q18" s="2">
         <v>1999</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
@@ -2443,9 +2475,10 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -2468,9 +2501,10 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -2497,12 +2531,13 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2">
         <v>2004</v>
       </c>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -2524,12 +2559,13 @@
       <c r="M22" s="4"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2">
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2">
         <v>2012</v>
       </c>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -2551,12 +2587,13 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2">
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2">
         <v>2012</v>
       </c>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
@@ -2580,12 +2617,13 @@
       <c r="M24" s="4"/>
       <c r="N24" s="16"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2">
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2">
         <v>2012</v>
       </c>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -2608,12 +2646,13 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2">
         <v>2012</v>
       </c>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>18</v>
       </c>
@@ -2637,9 +2676,10 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>69</v>
       </c>
@@ -2664,20 +2704,20 @@
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="36"/>
       <c r="C28" s="39"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="39"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -2707,14 +2747,17 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2">
+      <c r="P30" s="4">
+        <v>2011</v>
+      </c>
+      <c r="Q30" s="2">
         <v>2005</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="R30" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>24</v>
       </c>
@@ -2734,11 +2777,12 @@
       </c>
       <c r="M31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2">
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -2768,14 +2812,15 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="2">
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2">
         <v>2012</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="R32" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -2805,12 +2850,13 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2">
         <v>2012</v>
       </c>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>98</v>
       </c>
@@ -2840,12 +2886,13 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2">
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2">
         <v>2012</v>
       </c>
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
@@ -2874,12 +2921,15 @@
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="2">
+      <c r="P35" s="4">
+        <v>2010</v>
+      </c>
+      <c r="Q35" s="2">
         <v>2012</v>
       </c>
-      <c r="Q35" s="16"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="16"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
@@ -2906,12 +2956,13 @@
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2">
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2">
         <v>2012</v>
       </c>
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -2934,12 +2985,13 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2">
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2">
         <v>2012</v>
       </c>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>31</v>
       </c>
@@ -2963,7 +3015,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>32</v>
       </c>
@@ -2992,14 +3044,15 @@
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="2">
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2">
         <v>2012</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="R39" s="4">
         <v>2002</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>33</v>
       </c>
@@ -3019,7 +3072,7 @@
       </c>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>49</v>
       </c>
@@ -3038,7 +3091,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>34</v>
       </c>
@@ -3055,7 +3108,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>35</v>
       </c>
@@ -3072,7 +3125,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -3104,12 +3157,13 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="2">
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2">
         <v>2012</v>
       </c>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>36</v>
       </c>
@@ -3131,7 +3185,7 @@
       </c>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>37</v>
       </c>
@@ -3156,12 +3210,13 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="2">
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2">
         <v>2012</v>
       </c>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>38</v>
       </c>
@@ -3185,11 +3240,12 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="Q47" s="4">
+      <c r="P47" s="2"/>
+      <c r="R47" s="4">
         <v>2003</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>39</v>
       </c>
@@ -3218,12 +3274,13 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="2">
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2">
         <v>2012</v>
       </c>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>40</v>
       </c>
@@ -3243,7 +3300,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>41</v>
       </c>
@@ -3265,12 +3322,13 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="2">
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2">
         <v>1999</v>
       </c>
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>47</v>
       </c>
@@ -3293,12 +3351,13 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="2">
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2">
         <v>2012</v>
       </c>
-      <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51" s="2"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>42</v>
       </c>
@@ -3315,7 +3374,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>43</v>
       </c>
@@ -3343,20 +3402,23 @@
       <c r="O53" s="4">
         <v>2006</v>
       </c>
-      <c r="Q53" s="2"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P53" s="4">
+        <v>2005</v>
+      </c>
+      <c r="R53" s="2"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B54" s="36"/>
       <c r="C54" s="39"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="36"/>
       <c r="C55" s="39"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>44</v>
       </c>
@@ -3384,9 +3446,10 @@
         <v>2017</v>
       </c>
       <c r="O56" s="2"/>
-      <c r="Q56" s="16"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P56" s="2"/>
+      <c r="R56" s="16"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
@@ -3416,23 +3479,26 @@
         <v>72</v>
       </c>
       <c r="O57" s="2"/>
-      <c r="P57" s="2">
+      <c r="P57" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q57" s="2">
         <v>2012</v>
       </c>
-      <c r="Q57" s="16" t="s">
+      <c r="R57" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P59" s="22"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q59" s="22"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B61" s="47" t="s">
         <v>403</v>
       </c>
       <c r="C61" s="48"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>395</v>
       </c>
@@ -3440,7 +3506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>404</v>
       </c>
@@ -3448,7 +3514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
         <v>393</v>
       </c>
@@ -4772,7 +4838,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I31" sqref="I31"/>
+      <selection pane="topRight" activeCell="J2" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE27FA6-0DCC-47E6-847C-4BC5FA01B218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84C7A7A-E990-4D8F-950B-0CEB2D8F0DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
@@ -1511,7 +1511,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1565,40 +1565,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -3555,10 +3533,10 @@
       <c r="Q59" s="17"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="45" t="s">
         <v>399</v>
       </c>
-      <c r="C61" s="42"/>
+      <c r="C61" s="46"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -4905,22 +4883,20 @@
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="43" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.85546875" style="6" customWidth="1"/>
     <col min="19" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="19.42578125" style="6" customWidth="1"/>
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
     <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -4940,11 +4916,10 @@
     <col min="43" max="43" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="12.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19" style="43" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="12.140625" customWidth="1"/>
-    <col min="48" max="48" width="19" style="43" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="12" customWidth="1"/>
     <col min="52" max="52" width="14" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="15" bestFit="1" customWidth="1"/>
@@ -4958,110 +4933,110 @@
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="50" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
       <c r="R1" s="12"/>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="50"/>
-      <c r="Y1" s="50" t="s">
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="Y1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="51"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="42"/>
       <c r="AE1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="48" t="s">
+      <c r="AF1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="47" t="s">
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="51"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="42"/>
       <c r="AQ1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AS1" s="47" t="s">
+      <c r="AS1" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="48" t="s">
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50" t="s">
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="49" t="s">
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
+      <c r="BD1" s="45"/>
+      <c r="BE1" s="45"/>
+      <c r="BF1" s="45"/>
+      <c r="BG1" s="45"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" t="s">
         <v>417</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" t="s">
         <v>418</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" t="s">
         <v>415</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" t="s">
         <v>419</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" t="s">
         <v>421</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -5079,16 +5054,16 @@
       <c r="N2" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" t="s">
         <v>114</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="43" t="s">
         <v>425</v>
       </c>
       <c r="S2" t="s">
@@ -5103,7 +5078,7 @@
       <c r="V2" t="s">
         <v>85</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" t="s">
         <v>384</v>
       </c>
       <c r="X2" s="6" t="s">
@@ -5172,19 +5147,19 @@
       <c r="AS2" t="s">
         <v>59</v>
       </c>
-      <c r="AT2" s="43" t="s">
+      <c r="AT2" t="s">
         <v>64</v>
       </c>
       <c r="AU2" t="s">
         <v>59</v>
       </c>
-      <c r="AV2" s="43" t="s">
+      <c r="AV2" t="s">
         <v>64</v>
       </c>
       <c r="AW2" t="s">
         <v>70</v>
       </c>
-      <c r="AX2" s="43" t="s">
+      <c r="AX2" t="s">
         <v>75</v>
       </c>
       <c r="AY2" t="s">
@@ -5219,28 +5194,28 @@
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" t="s">
         <v>416</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" t="s">
         <v>356</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" t="s">
         <v>420</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" t="s">
         <v>422</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -5258,16 +5233,16 @@
       <c r="N3" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="O3" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="P3" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="Q3" s="53" t="s">
+      <c r="Q3" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="R3" s="54" t="s">
+      <c r="R3" s="43" t="s">
         <v>426</v>
       </c>
       <c r="S3" t="s">
@@ -5282,7 +5257,7 @@
       <c r="V3" t="s">
         <v>377</v>
       </c>
-      <c r="W3" s="43" t="s">
+      <c r="W3" t="s">
         <v>388</v>
       </c>
       <c r="Y3" t="s">
@@ -5336,22 +5311,22 @@
       <c r="AP3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AQ3" s="59" t="s">
+      <c r="AQ3" t="s">
         <v>430</v>
       </c>
-      <c r="AR3" s="60" t="s">
+      <c r="AR3" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="AT3" s="43" t="s">
+      <c r="AT3" t="s">
         <v>66</v>
       </c>
-      <c r="AV3" s="43" t="s">
+      <c r="AV3" t="s">
         <v>66</v>
       </c>
       <c r="AW3" t="s">
         <v>71</v>
       </c>
-      <c r="AX3" s="43" t="s">
+      <c r="AX3" t="s">
         <v>76</v>
       </c>
       <c r="AY3" t="s">
@@ -5387,28 +5362,28 @@
         <v>0</v>
       </c>
       <c r="B4" s="19"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>1999</v>
       </c>
       <c r="F4" s="4">
         <v>2010</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="2">
         <v>2002</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="44"/>
+      <c r="W4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -5433,7 +5408,7 @@
         <v>2012</v>
       </c>
       <c r="AW4" s="2"/>
-      <c r="AX4" s="44"/>
+      <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
       <c r="AZ4" s="2"/>
       <c r="BA4" s="2"/>
@@ -5449,14 +5424,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="19"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
         <v>1999</v>
       </c>
       <c r="F5" s="4">
         <v>2009</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="2">
         <v>2006</v>
       </c>
       <c r="K5" s="2"/>
@@ -5465,14 +5440,14 @@
         <v>2007</v>
       </c>
       <c r="N5" s="2"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="44"/>
+      <c r="W5" s="2"/>
       <c r="Y5" s="13" t="s">
         <v>89</v>
       </c>
@@ -5504,11 +5479,11 @@
       <c r="AU5" s="4">
         <v>2019</v>
       </c>
-      <c r="AV5" s="52">
+      <c r="AV5" s="10">
         <v>41548</v>
       </c>
       <c r="AW5" s="2"/>
-      <c r="AX5" s="44"/>
+      <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
       <c r="BA5" s="13"/>
@@ -5524,23 +5499,23 @@
         <v>3</v>
       </c>
       <c r="B6" s="19"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
         <v>1999</v>
       </c>
       <c r="F6" s="4">
         <v>2010</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="13">
         <v>2011</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="13" t="s">
@@ -5549,7 +5524,7 @@
       <c r="V6" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="W6" s="44"/>
+      <c r="W6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
@@ -5578,7 +5553,7 @@
         <v>2008</v>
       </c>
       <c r="AW6" s="2"/>
-      <c r="AX6" s="44"/>
+      <c r="AX6" s="2"/>
       <c r="AY6" s="2"/>
       <c r="AZ6" s="2"/>
       <c r="BA6" s="2"/>
@@ -5596,28 +5571,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
         <v>1999</v>
       </c>
       <c r="F7" s="4">
         <v>2010</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="4">
         <v>2016</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="44"/>
+      <c r="W7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -5638,11 +5613,11 @@
       <c r="AS7" s="4">
         <v>2021</v>
       </c>
-      <c r="AT7" s="44">
+      <c r="AT7" s="2">
         <v>2012</v>
       </c>
       <c r="AW7" s="2"/>
-      <c r="AX7" s="44"/>
+      <c r="AX7" s="2"/>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
@@ -5658,28 +5633,28 @@
         <v>4</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
         <v>1999</v>
       </c>
       <c r="F8" s="2">
         <v>2008</v>
       </c>
-      <c r="G8" s="45"/>
+      <c r="G8" s="13"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="4">
         <v>2003</v>
       </c>
-      <c r="W8" s="44"/>
+      <c r="W8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -5704,7 +5679,7 @@
         <v>2008</v>
       </c>
       <c r="AW8" s="2"/>
-      <c r="AX8" s="44"/>
+      <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2"/>
       <c r="BA8" s="2"/>
@@ -5720,30 +5695,30 @@
         <v>10</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
         <v>1999</v>
       </c>
       <c r="F9" s="2">
         <v>2008</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="2">
         <v>2010</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
       <c r="S9" s="13"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="4">
         <v>2010</v>
       </c>
-      <c r="W9" s="46"/>
+      <c r="W9" s="4"/>
       <c r="Y9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -5765,14 +5740,14 @@
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
       <c r="AP9" s="7"/>
-      <c r="AT9" s="44">
+      <c r="AT9" s="2">
         <v>2012</v>
       </c>
-      <c r="AV9" s="52">
+      <c r="AV9" s="10">
         <v>41671</v>
       </c>
       <c r="AW9" s="2"/>
-      <c r="AX9" s="45"/>
+      <c r="AX9" s="13"/>
       <c r="AY9" s="4">
         <v>2011</v>
       </c>
@@ -5794,30 +5769,30 @@
         <v>2</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
         <v>1999</v>
       </c>
       <c r="F10" s="2">
         <v>2008</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="2">
         <v>2012</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="4">
         <v>2005</v>
       </c>
-      <c r="W10" s="44"/>
+      <c r="W10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -5842,7 +5817,7 @@
         <v>2008</v>
       </c>
       <c r="AW10" s="2"/>
-      <c r="AX10" s="44"/>
+      <c r="AX10" s="2"/>
       <c r="AY10" s="2"/>
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
@@ -5858,28 +5833,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
         <v>1999</v>
       </c>
       <c r="F11" s="4">
         <v>2010</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="2">
         <v>2007</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="44"/>
+      <c r="W11" s="2"/>
       <c r="Y11" s="13"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
@@ -5900,17 +5875,17 @@
       <c r="AS11" s="4">
         <v>2018</v>
       </c>
-      <c r="AT11" s="52">
+      <c r="AT11" s="10">
         <v>41426</v>
       </c>
       <c r="AU11" s="4">
         <v>2018</v>
       </c>
-      <c r="AV11" s="52">
+      <c r="AV11" s="10">
         <v>41395</v>
       </c>
       <c r="AW11" s="2"/>
-      <c r="AX11" s="44"/>
+      <c r="AX11" s="2"/>
       <c r="AY11" s="13"/>
       <c r="AZ11" s="13"/>
       <c r="BA11" s="13"/>
@@ -5926,26 +5901,26 @@
         <v>8</v>
       </c>
       <c r="B12" s="19"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
         <v>1999</v>
       </c>
       <c r="F12" s="2">
         <v>2008</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="13"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="44"/>
+      <c r="W12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -5965,11 +5940,11 @@
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="7"/>
-      <c r="AT12" s="52">
+      <c r="AT12" s="10">
         <v>41548</v>
       </c>
       <c r="AW12" s="2"/>
-      <c r="AX12" s="45"/>
+      <c r="AX12" s="13"/>
       <c r="AY12" s="2"/>
       <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
@@ -5988,27 +5963,27 @@
       <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="4">
         <v>2001</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="46">
+      <c r="D13" s="2"/>
+      <c r="E13" s="4">
         <v>2012</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="45"/>
+      <c r="G13" s="13"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="44"/>
+      <c r="W13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -6030,11 +6005,11 @@
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="7"/>
-      <c r="AT13" s="52" t="s">
+      <c r="AT13" s="10" t="s">
         <v>65</v>
       </c>
       <c r="AW13" s="2"/>
-      <c r="AX13" s="45"/>
+      <c r="AX13" s="13"/>
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
@@ -6052,27 +6027,27 @@
       <c r="B14" s="20">
         <v>2008</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="2">
         <v>1999</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
         <v>1999</v>
       </c>
       <c r="F14" s="13"/>
-      <c r="G14" s="45"/>
+      <c r="G14" s="13"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="44"/>
+      <c r="W14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
@@ -6099,7 +6074,7 @@
         <v>2006</v>
       </c>
       <c r="AW14" s="2"/>
-      <c r="AX14" s="45"/>
+      <c r="AX14" s="13"/>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
@@ -6115,28 +6090,28 @@
         <v>7</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
         <v>1999</v>
       </c>
       <c r="F15" s="4">
         <v>2011</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="4">
         <v>2016</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="44"/>
+      <c r="W15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
@@ -6163,7 +6138,7 @@
         <v>2012</v>
       </c>
       <c r="AW15" s="2"/>
-      <c r="AX15" s="44"/>
+      <c r="AX15" s="2"/>
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
@@ -6179,14 +6154,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="19"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
         <v>1999</v>
       </c>
       <c r="F16" s="13">
         <v>2016</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="13"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
       <c r="U16" s="2"/>
@@ -6202,28 +6177,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
         <v>1999</v>
       </c>
       <c r="F17" s="2">
         <v>2008</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="2">
         <v>1999</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="44"/>
+      <c r="W17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -6252,7 +6227,7 @@
         <v>2012</v>
       </c>
       <c r="AW17" s="2"/>
-      <c r="AX17" s="44"/>
+      <c r="AX17" s="2"/>
       <c r="AY17" s="2"/>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
@@ -6268,14 +6243,14 @@
         <v>21</v>
       </c>
       <c r="B18" s="19"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
         <v>1999</v>
       </c>
       <c r="F18" s="4">
         <v>2011</v>
       </c>
-      <c r="G18" s="45"/>
+      <c r="G18" s="13"/>
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
       <c r="U18" s="13" t="s">
@@ -6295,29 +6270,29 @@
       <c r="B19" s="20">
         <v>2013</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="4">
         <v>2001</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="46">
+      <c r="D19" s="2"/>
+      <c r="E19" s="4">
         <v>2012</v>
       </c>
       <c r="F19" s="13">
         <v>2008</v>
       </c>
-      <c r="G19" s="45"/>
+      <c r="G19" s="13"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="44"/>
+      <c r="W19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -6335,9 +6310,9 @@
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="7"/>
-      <c r="AT19" s="45"/>
+      <c r="AT19" s="13"/>
       <c r="AW19" s="2"/>
-      <c r="AX19" s="45"/>
+      <c r="AX19" s="13"/>
       <c r="AY19" s="2"/>
       <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
@@ -6353,26 +6328,26 @@
         <v>12</v>
       </c>
       <c r="B20" s="19"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
         <v>1999</v>
       </c>
       <c r="F20" s="2">
         <v>2008</v>
       </c>
-      <c r="G20" s="45"/>
+      <c r="G20" s="13"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="44"/>
+      <c r="W20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -6396,9 +6371,9 @@
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="7"/>
-      <c r="AT20" s="45"/>
+      <c r="AT20" s="13"/>
       <c r="AW20" s="2"/>
-      <c r="AX20" s="45"/>
+      <c r="AX20" s="13"/>
       <c r="AY20" s="2"/>
       <c r="AZ20" s="2"/>
       <c r="BA20" s="2"/>
@@ -6415,29 +6390,29 @@
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="10">
         <v>36404</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="46">
+      <c r="D21" s="2"/>
+      <c r="E21" s="4">
         <v>2009</v>
       </c>
       <c r="F21" s="13">
         <v>2008</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="13"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="44"/>
+      <c r="W21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -6459,7 +6434,7 @@
         <v>2004</v>
       </c>
       <c r="AW21" s="2"/>
-      <c r="AX21" s="45"/>
+      <c r="AX21" s="13"/>
       <c r="AY21" s="2"/>
       <c r="AZ21" s="2"/>
       <c r="BA21" s="2"/>
@@ -6475,19 +6450,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="46">
+      <c r="D22" s="2"/>
+      <c r="E22" s="4">
         <v>2008</v>
       </c>
       <c r="F22" s="13"/>
-      <c r="G22" s="45"/>
+      <c r="G22" s="13"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
       <c r="S22" s="4">
         <v>2012</v>
       </c>
@@ -6498,7 +6473,7 @@
       <c r="V22" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="W22" s="46"/>
+      <c r="W22" s="4"/>
       <c r="Y22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -6516,11 +6491,11 @@
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
       <c r="AP22" s="7"/>
-      <c r="AT22" s="44">
+      <c r="AT22" s="2">
         <v>2012</v>
       </c>
       <c r="AW22" s="2"/>
-      <c r="AX22" s="45"/>
+      <c r="AX22" s="13"/>
       <c r="AY22" s="2"/>
       <c r="AZ22" s="2"/>
       <c r="BA22" s="2"/>
@@ -6540,24 +6515,24 @@
         <v>20</v>
       </c>
       <c r="B23" s="19"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="46">
+      <c r="D23" s="2"/>
+      <c r="E23" s="4">
         <v>2010</v>
       </c>
       <c r="F23" s="13"/>
-      <c r="G23" s="45"/>
+      <c r="G23" s="13"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="44"/>
+      <c r="W23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
@@ -6584,7 +6559,7 @@
         <v>2012</v>
       </c>
       <c r="AW23" s="2"/>
-      <c r="AX23" s="45"/>
+      <c r="AX23" s="13"/>
       <c r="AY23" s="2"/>
       <c r="AZ23" s="2"/>
       <c r="BA23" s="2"/>
@@ -6604,27 +6579,27 @@
       <c r="B24" s="20">
         <v>2003</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="4">
         <v>2001</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="46">
+      <c r="D24" s="2"/>
+      <c r="E24" s="4">
         <v>2010</v>
       </c>
       <c r="F24" s="13"/>
-      <c r="G24" s="45"/>
+      <c r="G24" s="13"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
       <c r="S24" s="13"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="46"/>
+      <c r="W24" s="4"/>
       <c r="Y24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
@@ -6644,14 +6619,14 @@
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="7"/>
-      <c r="AT24" s="44">
+      <c r="AT24" s="2">
         <v>2012</v>
       </c>
-      <c r="AV24" s="44">
+      <c r="AV24" s="2">
         <v>2012</v>
       </c>
       <c r="AW24" s="2"/>
-      <c r="AX24" s="45"/>
+      <c r="AX24" s="13"/>
       <c r="AY24" s="13"/>
       <c r="AZ24" s="13"/>
       <c r="BA24" s="13"/>
@@ -6667,26 +6642,26 @@
         <v>13</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
         <v>1999</v>
       </c>
       <c r="F25" s="2">
         <v>2008</v>
       </c>
-      <c r="G25" s="45"/>
+      <c r="G25" s="13"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="44"/>
+      <c r="W25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
@@ -6712,7 +6687,7 @@
         <v>2012</v>
       </c>
       <c r="AW25" s="2"/>
-      <c r="AX25" s="45"/>
+      <c r="AX25" s="13"/>
       <c r="AY25" s="2"/>
       <c r="AZ25" s="2"/>
       <c r="BA25" s="2"/>
@@ -6730,27 +6705,27 @@
       <c r="B26" s="20">
         <v>2013</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="4">
         <v>2010</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="46">
+      <c r="D26" s="2"/>
+      <c r="E26" s="4">
         <v>2013</v>
       </c>
       <c r="F26" s="13"/>
-      <c r="G26" s="45"/>
+      <c r="G26" s="13"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="44"/>
+      <c r="W26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
@@ -6768,9 +6743,9 @@
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="7"/>
-      <c r="AT26" s="45"/>
+      <c r="AT26" s="13"/>
       <c r="AW26" s="2"/>
-      <c r="AX26" s="45"/>
+      <c r="AX26" s="13"/>
       <c r="AY26" s="2"/>
       <c r="AZ26" s="2"/>
       <c r="BA26" s="2"/>
@@ -6790,26 +6765,26 @@
       <c r="B27" s="20">
         <v>2007</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="46">
+      <c r="D27" s="2"/>
+      <c r="E27" s="4">
         <v>2002</v>
       </c>
       <c r="F27" s="2">
         <v>2008</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="2">
         <v>2001</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="44"/>
+      <c r="O27" s="2"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
-      <c r="W27" s="44"/>
+      <c r="W27" s="2"/>
       <c r="Y27" s="13"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
@@ -6834,12 +6809,12 @@
       <c r="AS27" s="2">
         <v>2012</v>
       </c>
-      <c r="AT27" s="61"/>
+      <c r="AT27" s="14"/>
       <c r="AU27" s="2">
         <v>2012</v>
       </c>
       <c r="AW27" s="2"/>
-      <c r="AX27" s="45"/>
+      <c r="AX27" s="13"/>
       <c r="AY27" s="2"/>
       <c r="AZ27" s="2"/>
       <c r="BA27" s="2"/>
@@ -6856,21 +6831,21 @@
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AT29" s="62"/>
+      <c r="AT29" s="44"/>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="19"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="46">
+      <c r="D30" s="2"/>
+      <c r="E30" s="4">
         <v>2011</v>
       </c>
       <c r="F30" s="4">
         <v>2011</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="2">
         <v>2011</v>
       </c>
       <c r="K30" s="2"/>
@@ -6879,16 +6854,16 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="46">
+      <c r="O30" s="2"/>
+      <c r="P30" s="4">
         <v>2011</v>
       </c>
-      <c r="Q30" s="44"/>
+      <c r="Q30" s="2"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
-      <c r="W30" s="46">
+      <c r="W30" s="4">
         <v>2002</v>
       </c>
       <c r="Y30" s="2"/>
@@ -6919,7 +6894,7 @@
       <c r="AW30" s="4">
         <v>2000</v>
       </c>
-      <c r="AX30" s="44"/>
+      <c r="AX30" s="2"/>
       <c r="AY30" s="13"/>
       <c r="AZ30" s="13"/>
       <c r="BA30" s="13"/>
@@ -6937,19 +6912,19 @@
         <v>24</v>
       </c>
       <c r="B31" s="19"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="46">
+      <c r="D31" s="2"/>
+      <c r="E31" s="4">
         <v>2000</v>
       </c>
       <c r="F31" s="2">
         <v>2008</v>
       </c>
-      <c r="G31" s="45"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
+      <c r="G31" s="13"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
-      <c r="W31" s="44"/>
+      <c r="W31" s="2"/>
       <c r="AS31" s="2">
         <v>2012</v>
       </c>
@@ -6959,14 +6934,14 @@
         <v>25</v>
       </c>
       <c r="B32" s="19"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="46">
+      <c r="D32" s="2"/>
+      <c r="E32" s="4">
         <v>2012</v>
       </c>
       <c r="F32" s="2">
         <v>2008</v>
       </c>
-      <c r="G32" s="44">
+      <c r="G32" s="2">
         <v>2005</v>
       </c>
       <c r="K32" s="2"/>
@@ -6975,11 +6950,11 @@
       <c r="N32" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O32" s="45" t="s">
+      <c r="O32" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
       <c r="U32" s="4">
@@ -6988,7 +6963,7 @@
       <c r="V32" s="4">
         <v>2017</v>
       </c>
-      <c r="W32" s="46">
+      <c r="W32" s="4">
         <v>2018</v>
       </c>
       <c r="Y32" s="2"/>
@@ -7021,7 +6996,7 @@
       <c r="AW32" s="4">
         <v>2000</v>
       </c>
-      <c r="AX32" s="44"/>
+      <c r="AX32" s="2"/>
       <c r="AY32" s="2"/>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
@@ -7043,28 +7018,28 @@
         <v>26</v>
       </c>
       <c r="B33" s="19"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="46">
+      <c r="D33" s="2"/>
+      <c r="E33" s="4">
         <v>2000</v>
       </c>
       <c r="F33" s="2">
         <v>2008</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="2">
         <v>2007</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-      <c r="W33" s="44"/>
+      <c r="W33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
@@ -7090,7 +7065,7 @@
         <v>2012</v>
       </c>
       <c r="AW33" s="2"/>
-      <c r="AX33" s="44"/>
+      <c r="AX33" s="2"/>
       <c r="AY33" s="2"/>
       <c r="AZ33" s="2"/>
       <c r="BA33" s="2"/>
@@ -7110,14 +7085,14 @@
         <v>98</v>
       </c>
       <c r="B34" s="19"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="46">
+      <c r="D34" s="2"/>
+      <c r="E34" s="4">
         <v>2000</v>
       </c>
       <c r="F34" s="2">
         <v>2008</v>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="2">
         <v>2012</v>
       </c>
       <c r="K34" s="2"/>
@@ -7126,11 +7101,11 @@
       <c r="N34" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O34" s="45" t="s">
+      <c r="O34" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
       <c r="U34" s="13" t="s">
@@ -7139,7 +7114,7 @@
       <c r="V34" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="W34" s="46">
+      <c r="W34" s="4">
         <v>2012</v>
       </c>
       <c r="Y34" s="2"/>
@@ -7166,7 +7141,7 @@
         <v>2012</v>
       </c>
       <c r="AW34" s="2"/>
-      <c r="AX34" s="44"/>
+      <c r="AX34" s="2"/>
       <c r="AY34" s="2"/>
       <c r="AZ34" s="2"/>
       <c r="BA34" s="2"/>
@@ -7182,14 +7157,14 @@
         <v>28</v>
       </c>
       <c r="B35" s="19"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45">
+      <c r="D35" s="2"/>
+      <c r="E35" s="13">
         <v>2015</v>
       </c>
       <c r="F35" s="13">
         <v>2019</v>
       </c>
-      <c r="G35" s="45"/>
+      <c r="G35" s="13"/>
       <c r="K35" s="4">
         <v>2011</v>
       </c>
@@ -7202,13 +7177,13 @@
       <c r="N35" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="O35" s="45" t="s">
+      <c r="O35" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="P35" s="46">
+      <c r="P35" s="4">
         <v>2010</v>
       </c>
-      <c r="Q35" s="46"/>
+      <c r="Q35" s="4"/>
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
       <c r="U35" s="13" t="s">
@@ -7217,7 +7192,7 @@
       <c r="V35" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="W35" s="46">
+      <c r="W35" s="4">
         <v>2000</v>
       </c>
       <c r="Y35" s="2"/>
@@ -7247,11 +7222,11 @@
       <c r="AP35" s="15">
         <v>2016</v>
       </c>
-      <c r="AT35" s="44">
+      <c r="AT35" s="2">
         <v>2012</v>
       </c>
       <c r="AW35" s="13"/>
-      <c r="AX35" s="45"/>
+      <c r="AX35" s="13"/>
       <c r="AY35" s="13"/>
       <c r="AZ35" s="13"/>
       <c r="BA35" s="13"/>
@@ -7266,26 +7241,26 @@
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C36" s="2">
         <v>1999</v>
       </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="46">
+      <c r="D36" s="2"/>
+      <c r="E36" s="4">
         <v>2003</v>
       </c>
       <c r="F36" s="4">
         <v>2010</v>
       </c>
-      <c r="G36" s="45"/>
+      <c r="G36" s="13"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2">
         <v>2008</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
       <c r="U36" s="4">
@@ -7294,7 +7269,7 @@
       <c r="V36" s="4">
         <v>2008</v>
       </c>
-      <c r="W36" s="46">
+      <c r="W36" s="4">
         <v>2000</v>
       </c>
       <c r="Y36" s="2"/>
@@ -7318,7 +7293,7 @@
         <v>2012</v>
       </c>
       <c r="AW36" s="2"/>
-      <c r="AX36" s="44"/>
+      <c r="AX36" s="2"/>
       <c r="AY36" s="13"/>
       <c r="AZ36" s="2"/>
       <c r="BA36" s="13"/>
@@ -7334,23 +7309,23 @@
         <v>30</v>
       </c>
       <c r="B37" s="19"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
         <v>1999</v>
       </c>
       <c r="F37" s="4">
         <v>2010</v>
       </c>
-      <c r="G37" s="45"/>
+      <c r="G37" s="13"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2">
         <v>2005</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="13" t="s">
@@ -7359,7 +7334,7 @@
       <c r="V37" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="W37" s="44"/>
+      <c r="W37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
@@ -7385,7 +7360,7 @@
         <v>2012</v>
       </c>
       <c r="AW37" s="2"/>
-      <c r="AX37" s="44"/>
+      <c r="AX37" s="2"/>
       <c r="AY37" s="13"/>
       <c r="AZ37" s="2"/>
       <c r="BA37" s="13" t="s">
@@ -7405,14 +7380,14 @@
         <v>31</v>
       </c>
       <c r="B38" s="19"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="46">
+      <c r="D38" s="2"/>
+      <c r="E38" s="4">
         <v>2008</v>
       </c>
       <c r="F38" s="4">
         <v>2011</v>
       </c>
-      <c r="G38" s="45"/>
+      <c r="G38" s="13"/>
       <c r="U38" s="13" t="s">
         <v>374</v>
       </c>
@@ -7422,7 +7397,7 @@
       <c r="AE38" s="4">
         <v>2000</v>
       </c>
-      <c r="AT38" s="45">
+      <c r="AT38" s="13">
         <v>2016</v>
       </c>
     </row>
@@ -7431,28 +7406,28 @@
         <v>32</v>
       </c>
       <c r="B39" s="19"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="46">
+      <c r="D39" s="2"/>
+      <c r="E39" s="4">
         <v>2010</v>
       </c>
       <c r="F39" s="4">
         <v>2011</v>
       </c>
-      <c r="G39" s="45"/>
+      <c r="G39" s="13"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="13"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
       <c r="U39" s="4">
         <v>2009</v>
       </c>
       <c r="V39" s="2"/>
-      <c r="W39" s="46">
+      <c r="W39" s="4">
         <v>2000</v>
       </c>
       <c r="Y39" s="2"/>
@@ -7484,7 +7459,7 @@
       <c r="AW39" s="4">
         <v>2002</v>
       </c>
-      <c r="AX39" s="44"/>
+      <c r="AX39" s="2"/>
       <c r="AY39" s="13"/>
       <c r="AZ39" s="2"/>
       <c r="BA39" s="13"/>
@@ -7502,14 +7477,14 @@
         <v>33</v>
       </c>
       <c r="B40" s="19"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
         <v>1999</v>
       </c>
       <c r="F40" s="4">
         <v>2011</v>
       </c>
-      <c r="G40" s="45"/>
+      <c r="G40" s="13"/>
       <c r="U40" s="13" t="s">
         <v>89</v>
       </c>
@@ -7517,7 +7492,7 @@
         <v>89</v>
       </c>
       <c r="AE40" s="2"/>
-      <c r="AT40" s="45">
+      <c r="AT40" s="13">
         <v>2015</v>
       </c>
     </row>
@@ -7525,20 +7500,20 @@
       <c r="A41" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41">
         <v>2004</v>
       </c>
-      <c r="D41" s="52">
+      <c r="D41" s="10">
         <v>36192</v>
       </c>
-      <c r="E41" s="45">
+      <c r="E41" s="13">
         <v>2014</v>
       </c>
       <c r="F41" s="13"/>
-      <c r="G41" s="45"/>
+      <c r="G41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
-      <c r="AT41" s="45">
+      <c r="AT41" s="13">
         <v>2012</v>
       </c>
     </row>
@@ -7546,22 +7521,22 @@
       <c r="A42" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42">
         <v>2001</v>
       </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45">
+      <c r="D42" s="2"/>
+      <c r="E42" s="13">
         <v>2014</v>
       </c>
       <c r="F42" s="13"/>
-      <c r="G42" s="45"/>
+      <c r="G42" s="13"/>
       <c r="U42" s="13" t="s">
         <v>375</v>
       </c>
       <c r="V42" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="AT42" s="45">
+      <c r="AT42" s="13">
         <v>2017</v>
       </c>
     </row>
@@ -7569,42 +7544,42 @@
       <c r="A43" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43">
         <v>2010</v>
       </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="45">
+      <c r="D43" s="2"/>
+      <c r="E43" s="13">
         <v>2020</v>
       </c>
       <c r="F43" s="13"/>
-      <c r="G43" s="45"/>
+      <c r="G43" s="13"/>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
-      <c r="AT43" s="45"/>
-      <c r="AV43" s="62"/>
+      <c r="AT43" s="13"/>
+      <c r="AV43" s="44"/>
     </row>
     <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="19"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="46">
+      <c r="D44" s="2"/>
+      <c r="E44" s="4">
         <v>2008</v>
       </c>
       <c r="F44" s="2">
         <v>2008</v>
       </c>
-      <c r="G44" s="44">
+      <c r="G44" s="2">
         <v>2012</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="13"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
       <c r="S44" s="4">
         <v>2005</v>
       </c>
@@ -7615,7 +7590,7 @@
       <c r="V44" s="4">
         <v>2000</v>
       </c>
-      <c r="W44" s="46">
+      <c r="W44" s="4">
         <v>2005</v>
       </c>
       <c r="Y44" s="2"/>
@@ -7642,11 +7617,11 @@
       <c r="AS44" s="4">
         <v>2015</v>
       </c>
-      <c r="AT44" s="44">
+      <c r="AT44" s="2">
         <v>2012</v>
       </c>
       <c r="AW44" s="2"/>
-      <c r="AX44" s="44"/>
+      <c r="AX44" s="2"/>
       <c r="AY44" s="2"/>
       <c r="AZ44" s="2"/>
       <c r="BA44" s="2"/>
@@ -7668,18 +7643,18 @@
         <v>36</v>
       </c>
       <c r="B45" s="19"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="46">
+      <c r="D45" s="2"/>
+      <c r="E45" s="4">
         <v>2010</v>
       </c>
       <c r="F45" s="4">
         <v>2011</v>
       </c>
-      <c r="G45" s="45"/>
+      <c r="G45" s="13"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
       <c r="AE45" s="2"/>
-      <c r="AT45" s="45">
+      <c r="AT45" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -7687,29 +7662,29 @@
       <c r="A46" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="44">
+      <c r="C46" s="2">
         <v>1999</v>
       </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="46">
+      <c r="D46" s="2"/>
+      <c r="E46" s="4">
         <v>2010</v>
       </c>
       <c r="F46" s="4">
         <v>2011</v>
       </c>
-      <c r="G46" s="45"/>
+      <c r="G46" s="13"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
-      <c r="W46" s="44"/>
+      <c r="W46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
@@ -7737,7 +7712,7 @@
         <v>2012</v>
       </c>
       <c r="AW46" s="2"/>
-      <c r="AX46" s="45"/>
+      <c r="AX46" s="13"/>
       <c r="AY46" s="2"/>
       <c r="AZ46" s="2"/>
       <c r="BA46" s="2"/>
@@ -7760,24 +7735,24 @@
       <c r="A47" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="44">
+      <c r="C47" s="2">
         <v>1999</v>
       </c>
-      <c r="D47" s="46">
+      <c r="D47" s="4">
         <v>2002</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="4">
         <v>2007</v>
       </c>
       <c r="F47" s="13"/>
-      <c r="G47" s="45"/>
+      <c r="G47" s="13"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="13" t="s">
@@ -7786,7 +7761,7 @@
       <c r="V47" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="W47" s="44"/>
+      <c r="W47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
@@ -7812,11 +7787,11 @@
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
       <c r="AP47" s="7"/>
-      <c r="AT47" s="45"/>
+      <c r="AT47" s="13"/>
       <c r="AW47" s="4">
         <v>2003</v>
       </c>
-      <c r="AX47" s="45"/>
+      <c r="AX47" s="13"/>
       <c r="AY47" s="2"/>
       <c r="AZ47" s="2"/>
       <c r="BA47" s="2"/>
@@ -7836,28 +7811,28 @@
         <v>39</v>
       </c>
       <c r="B48" s="19"/>
-      <c r="D48" s="46">
+      <c r="D48" s="4">
         <v>2001</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="4">
         <v>2011</v>
       </c>
       <c r="F48" s="2">
         <v>2008</v>
       </c>
-      <c r="G48" s="45"/>
+      <c r="G48" s="13"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="44"/>
+      <c r="W48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
@@ -7883,7 +7858,7 @@
         <v>2012</v>
       </c>
       <c r="AW48" s="2"/>
-      <c r="AX48" s="45"/>
+      <c r="AX48" s="13"/>
       <c r="AY48" s="2"/>
       <c r="AZ48" s="2"/>
       <c r="BA48" s="2"/>
@@ -7898,15 +7873,15 @@
       <c r="A49" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49">
         <v>2011</v>
       </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="46">
+      <c r="D49" s="2"/>
+      <c r="E49" s="4">
         <v>2009</v>
       </c>
       <c r="F49" s="13"/>
-      <c r="G49" s="45"/>
+      <c r="G49" s="13"/>
       <c r="U49" s="13" t="s">
         <v>376</v>
       </c>
@@ -7916,31 +7891,31 @@
       <c r="AE49" s="4">
         <v>2003</v>
       </c>
-      <c r="AT49" s="45"/>
+      <c r="AT49" s="13"/>
     </row>
     <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="4">
         <v>2001</v>
       </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="45"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="45"/>
+      <c r="G50" s="13"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-      <c r="W50" s="44"/>
+      <c r="W50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
@@ -7962,7 +7937,7 @@
         <v>1999</v>
       </c>
       <c r="AW50" s="2"/>
-      <c r="AX50" s="45"/>
+      <c r="AX50" s="13"/>
       <c r="AY50" s="2"/>
       <c r="AZ50" s="2"/>
       <c r="BA50" s="2"/>
@@ -7979,27 +7954,27 @@
       <c r="A51" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="44">
+      <c r="C51" s="2">
         <v>1999</v>
       </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="45"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="13">
         <v>2018</v>
       </c>
-      <c r="G51" s="45"/>
+      <c r="G51" s="13"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="44"/>
+      <c r="W51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
@@ -8021,11 +7996,11 @@
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
       <c r="AP51" s="7"/>
-      <c r="AT51" s="44">
+      <c r="AT51" s="2">
         <v>2012</v>
       </c>
       <c r="AW51" s="2"/>
-      <c r="AX51" s="45"/>
+      <c r="AX51" s="13"/>
       <c r="AY51" s="2"/>
       <c r="AZ51" s="2"/>
       <c r="BA51" s="2"/>
@@ -8042,22 +8017,22 @@
       <c r="A52" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="43">
+      <c r="C52">
         <v>1999</v>
       </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="46">
+      <c r="D52" s="2"/>
+      <c r="E52" s="4">
         <v>2010</v>
       </c>
       <c r="F52" s="13"/>
-      <c r="G52" s="45"/>
+      <c r="G52" s="13"/>
       <c r="U52" s="13" t="s">
         <v>95</v>
       </c>
       <c r="V52" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AT52" s="45">
+      <c r="AT52" s="13">
         <v>2013</v>
       </c>
     </row>
@@ -8065,15 +8040,15 @@
       <c r="A53" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="46">
+      <c r="C53" s="4">
         <v>2000</v>
       </c>
-      <c r="D53" s="44"/>
-      <c r="E53" s="46">
+      <c r="D53" s="2"/>
+      <c r="E53" s="4">
         <v>2009</v>
       </c>
       <c r="F53" s="13"/>
-      <c r="G53" s="45"/>
+      <c r="G53" s="13"/>
       <c r="K53" s="4">
         <v>2006</v>
       </c>
@@ -8084,11 +8059,11 @@
         <v>2001</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="46">
+      <c r="O53" s="2"/>
+      <c r="P53" s="4">
         <v>2005</v>
       </c>
-      <c r="Q53" s="46">
+      <c r="Q53" s="4">
         <v>2006</v>
       </c>
       <c r="S53" s="4">
@@ -8103,7 +8078,7 @@
       <c r="V53" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="W53" s="46">
+      <c r="W53" s="4">
         <v>2001</v>
       </c>
       <c r="Y53" s="2"/>
@@ -8131,11 +8106,11 @@
       <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
       <c r="AP53" s="7"/>
-      <c r="AT53" s="45">
+      <c r="AT53" s="13">
         <v>2015</v>
       </c>
       <c r="AW53" s="2"/>
-      <c r="AX53" s="45"/>
+      <c r="AX53" s="13"/>
       <c r="AY53" s="2"/>
       <c r="AZ53" s="2"/>
       <c r="BA53" s="2"/>
@@ -8164,25 +8139,25 @@
         <v>44</v>
       </c>
       <c r="B56" s="19"/>
-      <c r="D56" s="46">
+      <c r="D56" s="4">
         <v>2000</v>
       </c>
-      <c r="E56" s="46">
+      <c r="E56" s="4">
         <v>2011</v>
       </c>
       <c r="F56" s="13"/>
-      <c r="G56" s="45"/>
+      <c r="G56" s="13"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="13"/>
       <c r="N56" s="4">
         <v>2004</v>
       </c>
-      <c r="O56" s="46">
+      <c r="O56" s="4">
         <v>2004</v>
       </c>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="44"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
       <c r="U56" s="4">
@@ -8191,7 +8166,7 @@
       <c r="V56" s="4">
         <v>2003</v>
       </c>
-      <c r="W56" s="46">
+      <c r="W56" s="4">
         <v>2002</v>
       </c>
       <c r="Y56" s="4">
@@ -8221,9 +8196,9 @@
       <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
       <c r="AP56" s="7"/>
-      <c r="AT56" s="45"/>
+      <c r="AT56" s="13"/>
       <c r="AW56" s="13"/>
-      <c r="AX56" s="45"/>
+      <c r="AX56" s="13"/>
       <c r="AY56" s="13"/>
       <c r="AZ56" s="13"/>
       <c r="BA56" s="13"/>
@@ -8241,17 +8216,17 @@
       <c r="B57" s="20">
         <v>2013</v>
       </c>
-      <c r="C57" s="44">
+      <c r="C57" s="2">
         <v>1999</v>
       </c>
-      <c r="D57" s="44"/>
-      <c r="E57" s="46">
+      <c r="D57" s="2"/>
+      <c r="E57" s="4">
         <v>2010</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="G57" s="45" t="s">
+      <c r="G57" s="13" t="s">
         <v>352</v>
       </c>
       <c r="K57" s="13" t="s">
@@ -8266,18 +8241,18 @@
       <c r="N57" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O57" s="45" t="s">
+      <c r="O57" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P57" s="45" t="s">
+      <c r="P57" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q57" s="44"/>
+      <c r="Q57" s="2"/>
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
-      <c r="W57" s="44"/>
+      <c r="W57" s="2"/>
       <c r="Y57" s="13" t="s">
         <v>72</v>
       </c>
@@ -8322,7 +8297,7 @@
       <c r="AW57" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AX57" s="45"/>
+      <c r="AX57" s="13"/>
       <c r="AY57" s="13" t="s">
         <v>89</v>
       </c>
@@ -8342,14 +8317,12 @@
       <c r="BG57" s="13"/>
     </row>
     <row r="59" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AS59" s="63" t="s">
+      <c r="AS59" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AT59" s="64"/>
-      <c r="AU59" s="64" t="s">
+      <c r="AU59" t="s">
         <v>68</v>
       </c>
-      <c r="AV59" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8389,26 +8362,26 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
@@ -9974,7 +9947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A262C-BF3B-4D84-B60A-8947EF3BFC30}">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84C7A7A-E990-4D8F-950B-0CEB2D8F0DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF176D-0E4D-406A-91C8-ED1B587686B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
@@ -4945,7 +4945,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="42"/>
       <c r="K1" s="1" t="s">
-        <v>108</v>
+        <v>425</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -9947,7 +9947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A262C-BF3B-4D84-B60A-8947EF3BFC30}">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF176D-0E4D-406A-91C8-ED1B587686B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037E58BE-DFA6-4579-A2B1-53138D20B1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="431">
   <si>
     <t>United States</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>MSCI Emerging Markets:</t>
-  </si>
-  <si>
-    <t>BIS</t>
   </si>
   <si>
     <t xml:space="preserve">Full indexes </t>
@@ -1511,7 +1508,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1577,6 +1574,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1925,10 +1927,10 @@
     <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>46</v>
@@ -1937,87 +1939,87 @@
         <v>50</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>384</v>
-      </c>
       <c r="O1" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="12"/>
       <c r="G2" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -2096,9 +2098,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="13" t="s">
-        <v>89</v>
-      </c>
+      <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2">
         <v>2008</v>
@@ -2287,7 +2287,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="13"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="10">
         <v>41426</v>
@@ -2349,7 +2349,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -2656,7 +2656,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="13"/>
+      <c r="O24" s="4"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2">
         <v>2012</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="33">
@@ -2898,7 +2898,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="26">
         <v>10</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="30"/>
       <c r="C55" s="33"/>
@@ -3483,9 +3483,7 @@
       <c r="N56" s="4">
         <v>2002</v>
       </c>
-      <c r="O56" s="4">
-        <v>2017</v>
-      </c>
+      <c r="O56" s="4"/>
       <c r="P56" s="2"/>
       <c r="R56" s="13"/>
     </row>
@@ -3508,25 +3506,23 @@
         <v>2010</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L57" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
-      <c r="O57" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2">
         <v>2012</v>
       </c>
       <c r="R57" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -3534,13 +3530,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B61" s="45" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C61" s="46"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C62" s="6">
         <v>15</v>
@@ -3548,7 +3544,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C63" s="6">
         <v>15</v>
@@ -3556,7 +3552,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B64" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C64" s="6">
         <v>10</v>
@@ -3564,7 +3560,7 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C65" s="6">
         <v>10</v>
@@ -3600,47 +3596,47 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>393</v>
-      </c>
       <c r="F2" s="37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3653,7 +3649,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4196,7 +4192,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
@@ -4321,7 +4317,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="26">
@@ -4789,7 +4785,7 @@
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
       <c r="E54" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F54" s="40">
         <f>SUM(F4:F53)-F27</f>
@@ -4806,7 +4802,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
@@ -4899,10 +4895,10 @@
     <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="19.42578125" style="6" customWidth="1"/>
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
-    <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.5703125" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.5703125" customWidth="1"/>
+    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" style="48" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
@@ -4934,7 +4930,7 @@
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4945,7 +4941,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="42"/>
       <c r="K1" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -4955,31 +4951,28 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="12"/>
       <c r="S1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="Y1" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>109</v>
+      <c r="AC1" s="47"/>
+      <c r="AE1" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="42"/>
       <c r="AK1" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -4987,18 +4980,18 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="42"/>
       <c r="AQ1" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AS1" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AX1" s="1"/>
       <c r="AY1" s="1"/>
@@ -5006,7 +4999,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="42"/>
       <c r="BC1" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BD1" s="45"/>
       <c r="BE1" s="45"/>
@@ -5016,178 +5009,178 @@
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2" t="s">
         <v>417</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2" t="s">
         <v>418</v>
       </c>
-      <c r="G2" t="s">
-        <v>415</v>
-      </c>
-      <c r="H2" t="s">
-        <v>419</v>
-      </c>
       <c r="I2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P2" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q2" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="Q2" s="17" t="s">
-        <v>414</v>
-      </c>
       <c r="R2" s="43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="X2" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC2" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>428</v>
       </c>
-      <c r="Y2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="AR2" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY2" t="s">
         <v>90</v>
       </c>
-      <c r="AL2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>429</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>91</v>
-      </c>
       <c r="AZ2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BA2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="BB2" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BC2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BD2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BE2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BG2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -5195,166 +5188,166 @@
         <v>51</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" t="s">
         <v>99</v>
       </c>
-      <c r="L3" t="s">
-        <v>100</v>
-      </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q3" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="S3" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" t="s">
+        <v>370</v>
+      </c>
+      <c r="V3" t="s">
+        <v>376</v>
+      </c>
+      <c r="W3" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC3" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD3" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="R3" s="43" t="s">
-        <v>426</v>
-      </c>
-      <c r="S3" t="s">
-        <v>86</v>
-      </c>
-      <c r="T3" t="s">
-        <v>87</v>
-      </c>
-      <c r="U3" t="s">
-        <v>371</v>
-      </c>
-      <c r="V3" t="s">
-        <v>377</v>
-      </c>
-      <c r="W3" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>412</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>362</v>
-      </c>
       <c r="AE3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AK3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AM3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AO3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ3" t="s">
+        <v>429</v>
+      </c>
+      <c r="AR3" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="AR3" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="AT3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AV3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AW3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AX3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AZ3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BA3" t="s">
+        <v>363</v>
+      </c>
+      <c r="BB3" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="BB3" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="BC3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BD3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BE3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BF3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BG3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
@@ -5385,9 +5378,10 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
+      <c r="AC4" s="49"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -5449,16 +5443,17 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="Y5" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="7"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="4">
@@ -5519,21 +5514,22 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W6" s="2"/>
       <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="4">
+      <c r="AB6" s="4">
         <v>2008</v>
       </c>
-      <c r="AD6" s="15">
+      <c r="AC6" s="51">
         <v>2008</v>
       </c>
+      <c r="AD6" s="7"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -5594,9 +5590,10 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
+      <c r="AC7" s="49"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -5656,9 +5653,10 @@
       </c>
       <c r="W8" s="2"/>
       <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
+      <c r="AC8" s="49"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -5720,14 +5718,15 @@
       </c>
       <c r="W9" s="4"/>
       <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="4">
+      <c r="AB9" s="4">
         <v>2002</v>
       </c>
-      <c r="AD9" s="15">
+      <c r="AC9" s="51">
         <v>2002</v>
       </c>
+      <c r="AD9" s="7"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -5794,9 +5793,10 @@
       </c>
       <c r="W10" s="2"/>
       <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
+      <c r="AC10" s="49"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -5856,10 +5856,11 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="8"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="15"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -5922,9 +5923,10 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
+      <c r="AC12" s="49"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -5956,7 +5958,7 @@
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
       <c r="BG12" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
@@ -5985,11 +5987,12 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="13" t="s">
-        <v>369</v>
-      </c>
+      <c r="AB13" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC13" s="49"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -6006,7 +6009,7 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="7"/>
       <c r="AT13" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AW13" s="2"/>
       <c r="AX13" s="13"/>
@@ -6049,13 +6052,14 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="49"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -6113,12 +6117,13 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="15">
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="51">
         <v>2000</v>
       </c>
+      <c r="AD15" s="7"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -6200,14 +6205,15 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="4">
+      <c r="AB17" s="4">
         <v>2000</v>
       </c>
-      <c r="AD17" s="15">
+      <c r="AC17" s="51">
         <v>2000</v>
       </c>
+      <c r="AD17" s="7"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
@@ -6254,10 +6260,10 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
       <c r="U18" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V18" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS18" s="2">
         <v>1999</v>
@@ -6294,9 +6300,10 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
+      <c r="AC19" s="49"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
@@ -6349,14 +6356,15 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD20" s="15">
+      <c r="AB20" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC20" s="51">
         <v>2001</v>
       </c>
+      <c r="AD20" s="7"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
@@ -6414,9 +6422,10 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
+      <c r="AC21" s="49"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
@@ -6468,17 +6477,18 @@
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W22" s="4"/>
       <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="8"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="7"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -6534,9 +6544,10 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
+      <c r="AC23" s="49"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
@@ -6601,17 +6612,18 @@
       <c r="V24" s="2"/>
       <c r="W24" s="4"/>
       <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="8"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="15"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
@@ -6663,14 +6675,15 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="4">
+      <c r="AB25" s="4">
         <v>2000</v>
       </c>
-      <c r="AD25" s="15">
+      <c r="AC25" s="51">
         <v>2000</v>
       </c>
+      <c r="AD25" s="7"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -6727,9 +6740,10 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="49"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
@@ -6760,7 +6774,7 @@
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="20">
         <v>2007</v>
@@ -6786,12 +6800,12 @@
       <c r="V27" s="13"/>
       <c r="W27" s="2"/>
       <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="4">
+      <c r="AB27" s="4">
         <v>2000</v>
       </c>
-      <c r="AD27" s="15">
+      <c r="AC27" s="51">
         <v>2000</v>
       </c>
       <c r="AE27" s="2"/>
@@ -6823,7 +6837,7 @@
       <c r="BD27" s="13"/>
       <c r="BE27" s="2"/>
       <c r="BF27" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG27" s="2"/>
     </row>
@@ -6867,10 +6881,11 @@
         <v>2002</v>
       </c>
       <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="8"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="7"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
@@ -6903,7 +6918,7 @@
       <c r="BD30" s="13"/>
       <c r="BE30" s="13"/>
       <c r="BF30" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BG30" s="13"/>
     </row>
@@ -6948,10 +6963,10 @@
       <c r="L32" s="2"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -6967,10 +6982,11 @@
         <v>2018</v>
       </c>
       <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="8"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="7"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
       <c r="AG32" s="4">
@@ -7002,14 +7018,14 @@
       <c r="BA32" s="2"/>
       <c r="BB32" s="7"/>
       <c r="BC32" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BD32" s="4">
         <v>2012</v>
       </c>
       <c r="BE32" s="13"/>
       <c r="BF32" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BG32" s="13"/>
     </row>
@@ -7041,10 +7057,11 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="8"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="7"/>
       <c r="AE33" s="10">
         <v>36281</v>
       </c>
@@ -7077,12 +7094,12 @@
       <c r="BE33" s="13"/>
       <c r="BF33" s="2"/>
       <c r="BG33" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="19"/>
       <c r="D34" s="2"/>
@@ -7099,29 +7116,30 @@
       <c r="L34" s="2"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
       <c r="U34" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="V34" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="W34" s="4">
         <v>2012</v>
       </c>
       <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="8"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="7"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
       <c r="AG34" s="13"/>
@@ -7172,13 +7190,13 @@
         <v>2010</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P35" s="4">
         <v>2010</v>
@@ -7187,19 +7205,20 @@
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
       <c r="U35" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V35" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="W35" s="4">
         <v>2000</v>
       </c>
       <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="8"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="7"/>
       <c r="AE35" s="4">
         <v>2000</v>
       </c>
@@ -7273,10 +7292,11 @@
         <v>2000</v>
       </c>
       <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="8"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="7"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
@@ -7329,17 +7349,18 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V37" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W37" s="2"/>
       <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="8"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="7"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
@@ -7364,7 +7385,7 @@
       <c r="AY37" s="13"/>
       <c r="AZ37" s="2"/>
       <c r="BA37" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BB37" s="7"/>
       <c r="BC37" s="4">
@@ -7389,7 +7410,7 @@
       </c>
       <c r="G38" s="13"/>
       <c r="U38" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="V38" s="13">
         <v>2001</v>
@@ -7431,10 +7452,11 @@
         <v>2000</v>
       </c>
       <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="8"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="7"/>
       <c r="AE39" s="4">
         <v>2005</v>
       </c>
@@ -7486,10 +7508,10 @@
       </c>
       <c r="G40" s="13"/>
       <c r="U40" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V40" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE40" s="2"/>
       <c r="AT40" s="13">
@@ -7531,10 +7553,10 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="U42" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AT42" s="13">
         <v>2017</v>
@@ -7594,16 +7616,17 @@
         <v>2005</v>
       </c>
       <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="49"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="4">
         <v>2002</v>
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH44" s="13"/>
       <c r="AI44" s="2"/>
@@ -7635,7 +7658,7 @@
       </c>
       <c r="BF44" s="2"/>
       <c r="BG44" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:59" x14ac:dyDescent="0.25">
@@ -7686,11 +7709,12 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="4">
+      <c r="AB46" s="4">
         <v>2000</v>
       </c>
+      <c r="AC46" s="49"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
@@ -7722,7 +7746,7 @@
       </c>
       <c r="BD46" s="2"/>
       <c r="BE46" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BF46" s="4">
         <v>2003</v>
@@ -7756,21 +7780,22 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V47" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W47" s="2"/>
       <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="4">
+      <c r="AB47" s="4">
         <v>2009</v>
       </c>
-      <c r="AD47" s="15">
+      <c r="AC47" s="51">
         <v>2003</v>
       </c>
+      <c r="AD47" s="7"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
@@ -7801,7 +7826,7 @@
       </c>
       <c r="BD47" s="2"/>
       <c r="BE47" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BF47" s="13"/>
       <c r="BG47" s="2"/>
@@ -7834,9 +7859,10 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
+      <c r="AC48" s="49"/>
       <c r="AD48" s="7"/>
       <c r="AE48" s="4">
         <v>2001</v>
@@ -7883,10 +7909,10 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="U49" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="V49" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AE49" s="4">
         <v>2003</v>
@@ -7917,9 +7943,10 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
+      <c r="AC50" s="49"/>
       <c r="AD50" s="7"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
@@ -7976,9 +8003,10 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
+      <c r="AC51" s="49"/>
       <c r="AD51" s="7"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
@@ -7987,7 +8015,7 @@
         <v>2000</v>
       </c>
       <c r="AI51" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ51" s="7"/>
       <c r="AK51" s="2"/>
@@ -8027,10 +8055,10 @@
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
       <c r="U52" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V52" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT52" s="13">
         <v>2013</v>
@@ -8073,18 +8101,19 @@
         <v>2007</v>
       </c>
       <c r="U53" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="V53" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W53" s="4">
         <v>2001</v>
       </c>
       <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="13"/>
+      <c r="AB53" s="13"/>
+      <c r="AC53" s="49"/>
       <c r="AD53" s="7"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
@@ -8122,16 +8151,16 @@
         <v>2006</v>
       </c>
       <c r="BE53" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BF53" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BG53" s="2"/>
     </row>
     <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:59" x14ac:dyDescent="0.25">
@@ -8172,12 +8201,13 @@
       <c r="Y56" s="4">
         <v>2017</v>
       </c>
-      <c r="AA56" s="4">
+      <c r="Z56" s="4">
         <v>2017</v>
       </c>
+      <c r="AA56" s="13"/>
       <c r="AB56" s="13"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="8"/>
+      <c r="AC56" s="50"/>
+      <c r="AD56" s="15"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="13"/>
       <c r="AG56" s="13"/>
@@ -8224,28 +8254,28 @@
         <v>2010</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L57" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N57" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O57" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P57" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="S57" s="13"/>
@@ -8254,36 +8284,37 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="Y57" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="Z57" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="AA57" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB57" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC57" s="13"/>
-      <c r="AD57" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="AB57" s="13"/>
+      <c r="AC57" s="50"/>
+      <c r="AD57" s="7"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG57" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AH57" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI57" s="2"/>
       <c r="AJ57" s="7"/>
       <c r="AK57" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL57" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM57" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN57" s="2"/>
       <c r="AO57" s="2"/>
@@ -8295,22 +8326,22 @@
         <v>2012</v>
       </c>
       <c r="AW57" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX57" s="13"/>
       <c r="AY57" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AZ57" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BA57" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BB57" s="8"/>
       <c r="BC57" s="2"/>
       <c r="BD57" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BE57" s="13"/>
       <c r="BF57" s="13"/>
@@ -8318,10 +8349,10 @@
     </row>
     <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AS59" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU59" t="s">
         <v>67</v>
-      </c>
-      <c r="AU59" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -8363,21 +8394,21 @@
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="C1" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="1"/>
       <c r="H1" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
       <c r="K1" s="45"/>
       <c r="L1" s="1"/>
       <c r="M1" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N1" s="45"/>
       <c r="O1" s="45"/>
@@ -8386,42 +8417,42 @@
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="C2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="R2" s="1"/>
     </row>
@@ -8435,37 +8466,37 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
         <v>148</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>149</v>
-      </c>
-      <c r="E4" t="s">
-        <v>150</v>
       </c>
       <c r="F4">
         <v>1999</v>
       </c>
       <c r="H4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" t="s">
         <v>151</v>
       </c>
-      <c r="I4" t="s">
-        <v>152</v>
-      </c>
       <c r="J4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K4">
         <v>2010</v>
       </c>
       <c r="M4" t="s">
+        <v>320</v>
+      </c>
+      <c r="N4" t="s">
         <v>321</v>
       </c>
-      <c r="N4" t="s">
-        <v>322</v>
-      </c>
       <c r="O4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P4">
         <v>2002</v>
@@ -8476,37 +8507,37 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
         <v>153</v>
       </c>
-      <c r="D5" t="s">
-        <v>154</v>
-      </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5">
         <v>1999</v>
       </c>
       <c r="H5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K5">
         <v>2009</v>
       </c>
       <c r="M5" t="s">
+        <v>324</v>
+      </c>
+      <c r="N5" t="s">
         <v>325</v>
       </c>
-      <c r="N5" t="s">
-        <v>326</v>
-      </c>
       <c r="O5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P5">
         <v>2006</v>
@@ -8517,37 +8548,37 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" t="s">
         <v>169</v>
       </c>
-      <c r="D6" t="s">
-        <v>170</v>
-      </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6">
         <v>1999</v>
       </c>
       <c r="H6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" t="s">
         <v>155</v>
       </c>
-      <c r="I6" t="s">
-        <v>156</v>
-      </c>
       <c r="J6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K6">
         <v>2010</v>
       </c>
       <c r="M6" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="N6" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="N6" s="13" t="s">
-        <v>347</v>
-      </c>
       <c r="O6" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P6" s="13">
         <v>2011</v>
@@ -8558,37 +8589,37 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
         <v>157</v>
       </c>
-      <c r="D7" t="s">
-        <v>158</v>
-      </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7">
         <v>1999</v>
       </c>
       <c r="H7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" t="s">
         <v>159</v>
       </c>
-      <c r="I7" t="s">
-        <v>160</v>
-      </c>
       <c r="J7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K7">
         <v>2010</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P7" s="13">
         <v>2016</v>
@@ -8599,25 +8630,25 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
         <v>161</v>
       </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F8">
         <v>1999</v>
       </c>
       <c r="H8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" t="s">
         <v>163</v>
       </c>
-      <c r="I8" t="s">
-        <v>164</v>
-      </c>
       <c r="J8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K8">
         <v>2008</v>
@@ -8629,37 +8660,37 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" t="s">
         <v>167</v>
       </c>
-      <c r="D9" t="s">
-        <v>168</v>
-      </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9">
         <v>1999</v>
       </c>
       <c r="H9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K9">
         <v>2008</v>
       </c>
       <c r="M9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P9">
         <v>2010</v>
@@ -8670,37 +8701,37 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
         <v>171</v>
       </c>
-      <c r="D10" t="s">
-        <v>172</v>
-      </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10">
         <v>1999</v>
       </c>
       <c r="H10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" t="s">
         <v>173</v>
       </c>
-      <c r="I10" t="s">
-        <v>174</v>
-      </c>
       <c r="J10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K10">
         <v>2008</v>
       </c>
       <c r="M10" t="s">
+        <v>347</v>
+      </c>
+      <c r="N10" t="s">
         <v>348</v>
       </c>
-      <c r="N10" t="s">
-        <v>349</v>
-      </c>
       <c r="O10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P10">
         <v>2012</v>
@@ -8711,37 +8742,37 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
         <v>175</v>
       </c>
-      <c r="D11" t="s">
-        <v>176</v>
-      </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11">
         <v>1999</v>
       </c>
       <c r="H11" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" t="s">
         <v>177</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>178</v>
-      </c>
-      <c r="J11" t="s">
-        <v>179</v>
       </c>
       <c r="K11">
         <v>2010</v>
       </c>
       <c r="M11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P11">
         <v>2007</v>
@@ -8752,25 +8783,25 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" t="s">
         <v>180</v>
       </c>
-      <c r="D12" t="s">
-        <v>181</v>
-      </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12">
         <v>1999</v>
       </c>
       <c r="H12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12">
         <v>2008</v>
@@ -8782,13 +8813,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" t="s">
         <v>184</v>
       </c>
-      <c r="D13" t="s">
-        <v>185</v>
-      </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13">
         <v>2012</v>
@@ -8801,13 +8832,13 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" t="s">
         <v>188</v>
       </c>
-      <c r="D14" t="s">
-        <v>189</v>
-      </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F14">
         <v>1999</v>
@@ -8820,37 +8851,37 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" t="s">
         <v>190</v>
       </c>
-      <c r="D15" t="s">
-        <v>191</v>
-      </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F15">
         <v>1999</v>
       </c>
       <c r="H15" t="s">
+        <v>191</v>
+      </c>
+      <c r="I15" t="s">
         <v>192</v>
       </c>
-      <c r="I15" t="s">
-        <v>193</v>
-      </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K15">
         <v>2011</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P15" s="13">
         <v>2016</v>
@@ -8861,25 +8892,25 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" t="s">
         <v>194</v>
       </c>
-      <c r="D16" t="s">
-        <v>195</v>
-      </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F16">
         <v>1999</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K16" s="13">
         <v>2016</v>
@@ -8891,37 +8922,37 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F17">
         <v>1999</v>
       </c>
       <c r="H17" t="s">
+        <v>199</v>
+      </c>
+      <c r="I17" t="s">
         <v>200</v>
       </c>
-      <c r="I17" t="s">
-        <v>201</v>
-      </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K17">
         <v>2008</v>
       </c>
       <c r="M17" t="s">
+        <v>335</v>
+      </c>
+      <c r="N17" t="s">
         <v>336</v>
       </c>
-      <c r="N17" t="s">
-        <v>337</v>
-      </c>
       <c r="O17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P17">
         <v>1999</v>
@@ -8932,25 +8963,25 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" t="s">
         <v>202</v>
       </c>
-      <c r="D18" t="s">
-        <v>203</v>
-      </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F18">
         <v>1999</v>
       </c>
       <c r="H18" t="s">
+        <v>203</v>
+      </c>
+      <c r="I18" t="s">
         <v>204</v>
       </c>
-      <c r="I18" t="s">
-        <v>205</v>
-      </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K18">
         <v>2011</v>
@@ -8962,25 +8993,25 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" t="s">
         <v>206</v>
       </c>
-      <c r="D19" t="s">
-        <v>207</v>
-      </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F19">
         <v>2012</v>
       </c>
       <c r="H19" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>187</v>
-      </c>
       <c r="J19" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K19" s="13">
         <v>2008</v>
@@ -8992,25 +9023,25 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" t="s">
         <v>208</v>
       </c>
-      <c r="D20" t="s">
-        <v>209</v>
-      </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20">
         <v>1999</v>
       </c>
       <c r="H20" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" t="s">
         <v>210</v>
       </c>
-      <c r="I20" t="s">
-        <v>211</v>
-      </c>
       <c r="J20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K20">
         <v>2008</v>
@@ -9022,25 +9053,25 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F21">
         <v>2009</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I21" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>215</v>
       </c>
       <c r="K21" s="13">
         <v>2008</v>
@@ -9052,13 +9083,13 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" t="s">
         <v>216</v>
       </c>
-      <c r="D22" t="s">
-        <v>217</v>
-      </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22">
         <v>2008</v>
@@ -9071,13 +9102,13 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" t="s">
         <v>218</v>
       </c>
-      <c r="D23" t="s">
-        <v>219</v>
-      </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F23">
         <v>2010</v>
@@ -9090,13 +9121,13 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" t="s">
         <v>220</v>
       </c>
-      <c r="D24" t="s">
-        <v>221</v>
-      </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F24">
         <v>2010</v>
@@ -9109,25 +9140,25 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" t="s">
         <v>222</v>
       </c>
-      <c r="D25" t="s">
-        <v>223</v>
-      </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F25">
         <v>1999</v>
       </c>
       <c r="H25" t="s">
+        <v>223</v>
+      </c>
+      <c r="I25" t="s">
         <v>224</v>
       </c>
-      <c r="I25" t="s">
-        <v>225</v>
-      </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K25">
         <v>2008</v>
@@ -9139,13 +9170,13 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" t="s">
         <v>226</v>
       </c>
-      <c r="D26" t="s">
-        <v>227</v>
-      </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F26">
         <v>2013</v>
@@ -9155,40 +9186,40 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" t="s">
         <v>228</v>
       </c>
-      <c r="D27" t="s">
-        <v>229</v>
-      </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F27">
         <v>2002</v>
       </c>
       <c r="H27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K27">
         <v>2008</v>
       </c>
       <c r="M27" t="s">
+        <v>322</v>
+      </c>
+      <c r="N27" t="s">
         <v>323</v>
       </c>
-      <c r="N27" t="s">
-        <v>324</v>
-      </c>
       <c r="O27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P27">
         <v>2001</v>
@@ -9204,37 +9235,37 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" t="s">
         <v>232</v>
       </c>
-      <c r="D30" t="s">
-        <v>233</v>
-      </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F30">
         <v>2011</v>
       </c>
       <c r="H30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K30">
         <v>2011</v>
       </c>
       <c r="M30" t="s">
+        <v>326</v>
+      </c>
+      <c r="N30" t="s">
         <v>327</v>
       </c>
-      <c r="N30" t="s">
-        <v>328</v>
-      </c>
       <c r="O30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P30">
         <v>2011</v>
@@ -9245,25 +9276,25 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" t="s">
         <v>236</v>
       </c>
-      <c r="D31" t="s">
-        <v>237</v>
-      </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F31">
         <v>2000</v>
       </c>
       <c r="H31" t="s">
+        <v>237</v>
+      </c>
+      <c r="I31" t="s">
         <v>238</v>
       </c>
-      <c r="I31" t="s">
-        <v>239</v>
-      </c>
       <c r="J31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K31">
         <v>2008</v>
@@ -9275,37 +9306,37 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" t="s">
         <v>242</v>
       </c>
-      <c r="D32" t="s">
-        <v>243</v>
-      </c>
       <c r="E32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F32">
         <v>2012</v>
       </c>
       <c r="H32" t="s">
+        <v>239</v>
+      </c>
+      <c r="I32" t="s">
         <v>240</v>
       </c>
-      <c r="I32" t="s">
-        <v>241</v>
-      </c>
       <c r="J32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K32">
         <v>2008</v>
       </c>
       <c r="M32" t="s">
+        <v>328</v>
+      </c>
+      <c r="N32" t="s">
         <v>329</v>
       </c>
-      <c r="N32" t="s">
-        <v>330</v>
-      </c>
       <c r="O32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P32">
         <v>2005</v>
@@ -9316,37 +9347,37 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
+        <v>356</v>
+      </c>
+      <c r="D33" t="s">
         <v>357</v>
       </c>
-      <c r="D33" t="s">
-        <v>358</v>
-      </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F33">
         <v>2000</v>
       </c>
       <c r="H33" t="s">
+        <v>243</v>
+      </c>
+      <c r="I33" t="s">
         <v>244</v>
       </c>
-      <c r="I33" t="s">
-        <v>245</v>
-      </c>
       <c r="J33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K33">
         <v>2008</v>
       </c>
       <c r="M33" t="s">
+        <v>330</v>
+      </c>
+      <c r="N33" t="s">
         <v>331</v>
       </c>
-      <c r="N33" t="s">
-        <v>332</v>
-      </c>
       <c r="O33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P33">
         <v>2007</v>
@@ -9354,40 +9385,40 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" t="s">
         <v>246</v>
       </c>
-      <c r="D34" t="s">
-        <v>247</v>
-      </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F34">
         <v>2000</v>
       </c>
       <c r="H34" t="s">
+        <v>247</v>
+      </c>
+      <c r="I34" t="s">
         <v>248</v>
       </c>
-      <c r="I34" t="s">
-        <v>249</v>
-      </c>
       <c r="J34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K34">
         <v>2008</v>
       </c>
       <c r="M34" t="s">
+        <v>332</v>
+      </c>
+      <c r="N34" t="s">
         <v>333</v>
       </c>
-      <c r="N34" t="s">
-        <v>334</v>
-      </c>
       <c r="O34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P34">
         <v>2012</v>
@@ -9398,25 +9429,25 @@
         <v>28</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="E35" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>254</v>
       </c>
       <c r="F35" s="13">
         <v>2015</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K35" s="13">
         <v>2019</v>
@@ -9428,25 +9459,25 @@
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F36">
         <v>2003</v>
       </c>
       <c r="H36" t="s">
+        <v>256</v>
+      </c>
+      <c r="I36" t="s">
         <v>257</v>
       </c>
-      <c r="I36" t="s">
-        <v>258</v>
-      </c>
       <c r="J36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K36">
         <v>2010</v>
@@ -9458,25 +9489,25 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" t="s">
         <v>260</v>
       </c>
-      <c r="D37" t="s">
-        <v>261</v>
-      </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F37">
         <v>1999</v>
       </c>
       <c r="H37" t="s">
+        <v>262</v>
+      </c>
+      <c r="I37" t="s">
         <v>263</v>
       </c>
-      <c r="I37" t="s">
-        <v>264</v>
-      </c>
       <c r="J37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K37">
         <v>2010</v>
@@ -9488,25 +9519,25 @@
         <v>31</v>
       </c>
       <c r="C38" t="s">
+        <v>294</v>
+      </c>
+      <c r="D38" t="s">
         <v>295</v>
       </c>
-      <c r="D38" t="s">
-        <v>296</v>
-      </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F38">
         <v>2008</v>
       </c>
       <c r="H38" t="s">
+        <v>296</v>
+      </c>
+      <c r="I38" t="s">
         <v>297</v>
       </c>
-      <c r="I38" t="s">
-        <v>298</v>
-      </c>
       <c r="J38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K38">
         <v>2011</v>
@@ -9518,25 +9549,25 @@
         <v>32</v>
       </c>
       <c r="C39" t="s">
+        <v>264</v>
+      </c>
+      <c r="D39" t="s">
         <v>265</v>
       </c>
-      <c r="D39" t="s">
-        <v>266</v>
-      </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F39">
         <v>2010</v>
       </c>
       <c r="H39" t="s">
+        <v>266</v>
+      </c>
+      <c r="I39" t="s">
         <v>267</v>
       </c>
-      <c r="I39" t="s">
-        <v>268</v>
-      </c>
       <c r="J39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K39">
         <v>2011</v>
@@ -9548,25 +9579,25 @@
         <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F40">
         <v>1999</v>
       </c>
       <c r="H40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K40">
         <v>2011</v>
@@ -9578,13 +9609,13 @@
         <v>49</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>306</v>
-      </c>
       <c r="E41" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F41" s="13">
         <v>2014</v>
@@ -9597,13 +9628,13 @@
         <v>34</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>308</v>
-      </c>
       <c r="E42" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F42" s="13">
         <v>2014</v>
@@ -9616,13 +9647,13 @@
         <v>35</v>
       </c>
       <c r="C43" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>310</v>
-      </c>
       <c r="E43" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F43" s="13">
         <v>2020</v>
@@ -9635,37 +9666,37 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
+        <v>272</v>
+      </c>
+      <c r="D44" t="s">
         <v>273</v>
       </c>
-      <c r="D44" t="s">
-        <v>274</v>
-      </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F44">
         <v>2008</v>
       </c>
       <c r="H44" t="s">
+        <v>274</v>
+      </c>
+      <c r="I44" t="s">
         <v>275</v>
       </c>
-      <c r="I44" t="s">
-        <v>276</v>
-      </c>
       <c r="J44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K44">
         <v>2008</v>
       </c>
       <c r="M44" t="s">
+        <v>337</v>
+      </c>
+      <c r="N44" t="s">
         <v>338</v>
       </c>
-      <c r="N44" t="s">
-        <v>339</v>
-      </c>
       <c r="O44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P44">
         <v>2012</v>
@@ -9676,25 +9707,25 @@
         <v>36</v>
       </c>
       <c r="C45" t="s">
+        <v>310</v>
+      </c>
+      <c r="D45" t="s">
         <v>311</v>
       </c>
-      <c r="D45" t="s">
-        <v>312</v>
-      </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F45">
         <v>2010</v>
       </c>
       <c r="H45" t="s">
+        <v>312</v>
+      </c>
+      <c r="I45" t="s">
         <v>313</v>
       </c>
-      <c r="I45" t="s">
-        <v>314</v>
-      </c>
       <c r="J45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K45">
         <v>2011</v>
@@ -9706,25 +9737,25 @@
         <v>37</v>
       </c>
       <c r="C46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46" t="s">
         <v>271</v>
       </c>
-      <c r="D46" t="s">
-        <v>272</v>
-      </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F46">
         <v>2010</v>
       </c>
       <c r="H46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K46">
         <v>2011</v>
@@ -9736,13 +9767,13 @@
         <v>38</v>
       </c>
       <c r="C47" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" t="s">
         <v>277</v>
       </c>
-      <c r="D47" t="s">
-        <v>278</v>
-      </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F47">
         <v>2007</v>
@@ -9755,25 +9786,25 @@
         <v>39</v>
       </c>
       <c r="C48" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48" t="s">
         <v>281</v>
       </c>
-      <c r="D48" t="s">
-        <v>282</v>
-      </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F48">
         <v>2011</v>
       </c>
       <c r="H48" t="s">
+        <v>278</v>
+      </c>
+      <c r="I48" t="s">
         <v>279</v>
       </c>
-      <c r="I48" t="s">
-        <v>280</v>
-      </c>
       <c r="J48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K48">
         <v>2008</v>
@@ -9785,13 +9816,13 @@
         <v>40</v>
       </c>
       <c r="C49" t="s">
+        <v>314</v>
+      </c>
+      <c r="D49" t="s">
         <v>315</v>
       </c>
-      <c r="D49" t="s">
-        <v>316</v>
-      </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F49">
         <v>2009</v>
@@ -9813,13 +9844,13 @@
       </c>
       <c r="C51" s="13"/>
       <c r="H51" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="I51" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="I51" s="13" t="s">
-        <v>284</v>
-      </c>
       <c r="J51" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K51" s="13">
         <v>2018</v>
@@ -9831,13 +9862,13 @@
         <v>42</v>
       </c>
       <c r="C52" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" t="s">
         <v>317</v>
       </c>
-      <c r="D52" t="s">
-        <v>318</v>
-      </c>
       <c r="E52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F52">
         <v>2010</v>
@@ -9850,13 +9881,13 @@
         <v>43</v>
       </c>
       <c r="C53" t="s">
+        <v>284</v>
+      </c>
+      <c r="D53" t="s">
         <v>285</v>
       </c>
-      <c r="D53" t="s">
-        <v>286</v>
-      </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F53">
         <v>2009</v>
@@ -9869,7 +9900,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -9877,13 +9908,13 @@
         <v>44</v>
       </c>
       <c r="C56" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" t="s">
         <v>287</v>
       </c>
-      <c r="D56" t="s">
-        <v>288</v>
-      </c>
       <c r="E56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F56">
         <v>2011</v>
@@ -9896,40 +9927,40 @@
         <v>45</v>
       </c>
       <c r="C57" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" t="s">
         <v>289</v>
       </c>
-      <c r="D57" t="s">
-        <v>290</v>
-      </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F57">
         <v>2010</v>
       </c>
       <c r="H57" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="I57" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="J57" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K57" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="J57" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>293</v>
-      </c>
       <c r="M57" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="N57" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="N57" s="13" t="s">
+      <c r="O57" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P57" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="O57" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="P57" s="13" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -10018,7 +10049,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037E58BE-DFA6-4579-A2B1-53138D20B1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238FDFF3-5E9C-43F1-8B7A-857AF61DD0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="438">
   <si>
     <t>United States</t>
   </si>
@@ -1333,6 +1333,27 @@
   </si>
   <si>
     <t>Budget</t>
+  </si>
+  <si>
+    <t>2015 to 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government </t>
+  </si>
+  <si>
+    <t>expenditure</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>2000 to 2020</t>
+  </si>
+  <si>
+    <t>2009 to 2020</t>
+  </si>
+  <si>
+    <t>2011 to 2019</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1529,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1576,9 +1597,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1898,7 +1916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD81D1A-35C6-4C9D-B55B-751553A65962}">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -4868,9 +4886,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
-  <dimension ref="A1:BG59"/>
+  <dimension ref="A1:BI59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -4897,7 +4915,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
     <col min="26" max="27" width="9.5703125" customWidth="1"/>
     <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14" style="48" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14.140625" bestFit="1" customWidth="1"/>
@@ -4910,24 +4928,25 @@
     <col min="40" max="41" width="11.7109375" customWidth="1"/>
     <col min="42" max="42" width="11.7109375" style="6" customWidth="1"/>
     <col min="43" max="43" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.140625" customWidth="1"/>
+    <col min="44" max="45" width="12.28515625" customWidth="1"/>
+    <col min="46" max="46" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="19" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12" customWidth="1"/>
-    <col min="52" max="52" width="14" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15" style="6" customWidth="1"/>
-    <col min="55" max="56" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.140625" customWidth="1"/>
+    <col min="50" max="50" width="19" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12" customWidth="1"/>
+    <col min="54" max="54" width="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15" style="6" customWidth="1"/>
+    <col min="57" max="58" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="41" t="s">
         <v>418</v>
@@ -4963,7 +4982,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="47"/>
+      <c r="AC1" s="1"/>
       <c r="AE1" s="1" t="s">
         <v>108</v>
       </c>
@@ -4982,31 +5001,33 @@
       <c r="AQ1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AS1" s="41" t="s">
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AU1" s="47" t="s">
         <v>62</v>
-      </c>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
       <c r="AZ1" s="1"/>
       <c r="BA1" s="1"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="45" t="s">
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="BD1" s="45"/>
-      <c r="BE1" s="45"/>
       <c r="BF1" s="45"/>
       <c r="BG1" s="45"/>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH1" s="45"/>
+      <c r="BI1" s="45"/>
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
         <v>53</v>
@@ -5089,7 +5110,7 @@
       <c r="AB2" t="s">
         <v>366</v>
       </c>
-      <c r="AC2" s="48" t="s">
+      <c r="AC2" t="s">
         <v>365</v>
       </c>
       <c r="AD2" s="6" t="s">
@@ -5134,14 +5155,14 @@
       <c r="AQ2" t="s">
         <v>428</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AR2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AS2" t="s">
         <v>428</v>
       </c>
-      <c r="AS2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>63</v>
+      <c r="AT2" s="6" t="s">
+        <v>428</v>
       </c>
       <c r="AU2" t="s">
         <v>58</v>
@@ -5150,40 +5171,46 @@
         <v>63</v>
       </c>
       <c r="AW2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY2" t="s">
         <v>69</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>74</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>90</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" t="s">
         <v>360</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>362</v>
       </c>
-      <c r="BB2" s="6" t="s">
+      <c r="BD2" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>72</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>92</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>126</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>129</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -5262,7 +5289,7 @@
       <c r="AB3" t="s">
         <v>367</v>
       </c>
-      <c r="AC3" s="48" t="s">
+      <c r="AC3" t="s">
         <v>361</v>
       </c>
       <c r="AD3" s="6" t="s">
@@ -5307,50 +5334,56 @@
       <c r="AQ3" t="s">
         <v>429</v>
       </c>
-      <c r="AR3" s="6" t="s">
+      <c r="AR3" t="s">
+        <v>433</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>434</v>
+      </c>
+      <c r="AT3" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>65</v>
       </c>
       <c r="AV3" t="s">
         <v>65</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY3" t="s">
         <v>70</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AZ3" t="s">
         <v>75</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="BA3" t="s">
         <v>91</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BB3" t="s">
         <v>361</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BC3" t="s">
         <v>363</v>
       </c>
-      <c r="BB3" s="6" t="s">
+      <c r="BD3" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BE3" t="s">
         <v>70</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BF3" t="s">
         <v>93</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BG3" t="s">
         <v>127</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BH3" t="s">
         <v>130</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BI3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5381,7 +5414,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="49"/>
+      <c r="AC4" s="2"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -5395,25 +5428,29 @@
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="7"/>
-      <c r="AS4" s="2">
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="2">
         <v>1999</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AW4" s="2">
         <v>2012</v>
       </c>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
       <c r="AZ4" s="2"/>
       <c r="BA4" s="2"/>
-      <c r="BB4" s="7"/>
+      <c r="BB4" s="2"/>
       <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
+      <c r="BD4" s="7"/>
       <c r="BE4" s="2"/>
       <c r="BF4" s="2"/>
-      <c r="BG4" s="13"/>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="13"/>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -5452,7 +5489,7 @@
         <v>88</v>
       </c>
       <c r="AB5" s="13"/>
-      <c r="AC5" s="50"/>
+      <c r="AC5" s="13"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -5468,28 +5505,38 @@
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="7"/>
-      <c r="AS5" s="2">
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="4">
+        <v>2005</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>2005</v>
+      </c>
+      <c r="AT5" s="15">
+        <v>2005</v>
+      </c>
+      <c r="AU5" s="2">
         <v>2008</v>
       </c>
-      <c r="AU5" s="4">
+      <c r="AW5" s="4">
         <v>2019</v>
       </c>
-      <c r="AV5" s="10">
+      <c r="AX5" s="10">
         <v>41548</v>
       </c>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="8"/>
       <c r="BE5" s="2"/>
       <c r="BF5" s="2"/>
-      <c r="BG5" s="13"/>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="13"/>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5526,7 +5573,7 @@
       <c r="AB6" s="4">
         <v>2008</v>
       </c>
-      <c r="AC6" s="51">
+      <c r="AC6" s="4">
         <v>2008</v>
       </c>
       <c r="AD6" s="7"/>
@@ -5542,27 +5589,31 @@
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="7"/>
-      <c r="AS6" s="2">
-        <v>2008</v>
-      </c>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="7"/>
       <c r="AU6" s="2">
         <v>2008</v>
       </c>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
+      <c r="AW6" s="2">
+        <v>2008</v>
+      </c>
       <c r="AY6" s="2"/>
       <c r="AZ6" s="2"/>
       <c r="BA6" s="2"/>
-      <c r="BB6" s="15">
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="15">
         <v>2010</v>
       </c>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
-      <c r="BG6" s="13"/>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="13"/>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -5593,7 +5644,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="49"/>
+      <c r="AC7" s="2"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -5607,25 +5658,29 @@
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
       <c r="AP7" s="7"/>
-      <c r="AS7" s="4">
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="4">
         <v>2021</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="AV7" s="2">
         <v>2012</v>
       </c>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
-      <c r="BB7" s="7"/>
-      <c r="BC7" s="13"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="7"/>
+      <c r="BE7" s="13"/>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -5656,7 +5711,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="49"/>
+      <c r="AC8" s="2"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -5670,25 +5725,29 @@
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="7"/>
-      <c r="AS8" s="2">
-        <v>2008</v>
-      </c>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="7"/>
       <c r="AU8" s="2">
         <v>2008</v>
       </c>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
+      <c r="AW8" s="2">
+        <v>2008</v>
+      </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2"/>
       <c r="BA8" s="2"/>
-      <c r="BB8" s="7"/>
+      <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
+      <c r="BD8" s="7"/>
       <c r="BE8" s="2"/>
-      <c r="BF8" s="13"/>
+      <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH8" s="13"/>
+      <c r="BI8" s="2"/>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -5723,7 +5782,7 @@
       <c r="AB9" s="4">
         <v>2002</v>
       </c>
-      <c r="AC9" s="51">
+      <c r="AC9" s="4">
         <v>2002</v>
       </c>
       <c r="AD9" s="7"/>
@@ -5739,31 +5798,35 @@
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
       <c r="AP9" s="7"/>
-      <c r="AT9" s="2">
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="7"/>
+      <c r="AV9" s="2">
         <v>2012</v>
       </c>
-      <c r="AV9" s="10">
+      <c r="AX9" s="10">
         <v>41671</v>
       </c>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="13"/>
-      <c r="AY9" s="4">
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="4">
         <v>2011</v>
       </c>
-      <c r="AZ9" s="4">
+      <c r="BB9" s="4">
         <v>2010</v>
       </c>
-      <c r="BA9" s="4">
+      <c r="BC9" s="4">
         <v>2010</v>
       </c>
-      <c r="BB9" s="8"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
+      <c r="BD9" s="8"/>
       <c r="BE9" s="2"/>
       <c r="BF9" s="2"/>
-      <c r="BG9" s="13"/>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="13"/>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -5796,7 +5859,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="49"/>
+      <c r="AC10" s="2"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -5810,25 +5873,29 @@
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
       <c r="AP10" s="7"/>
-      <c r="AS10" s="2">
-        <v>2008</v>
-      </c>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="7"/>
       <c r="AU10" s="2">
         <v>2008</v>
       </c>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
+      <c r="AW10" s="2">
+        <v>2008</v>
+      </c>
       <c r="AY10" s="2"/>
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
-      <c r="BB10" s="7"/>
+      <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
+      <c r="BD10" s="7"/>
       <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -5859,7 +5926,7 @@
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
-      <c r="AC11" s="50"/>
+      <c r="AC11" s="13"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -5873,31 +5940,35 @@
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="7"/>
-      <c r="AS11" s="4">
-        <v>2018</v>
-      </c>
-      <c r="AT11" s="10">
-        <v>41426</v>
-      </c>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="7"/>
       <c r="AU11" s="4">
         <v>2018</v>
       </c>
       <c r="AV11" s="10">
+        <v>41426</v>
+      </c>
+      <c r="AW11" s="4">
+        <v>2018</v>
+      </c>
+      <c r="AX11" s="10">
         <v>41395</v>
       </c>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="13"/>
-      <c r="AZ11" s="13"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
       <c r="BA11" s="13"/>
-      <c r="BB11" s="8"/>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="13"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="8"/>
+      <c r="BE11" s="2"/>
       <c r="BF11" s="2"/>
-      <c r="BG11" s="2"/>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -5926,7 +5997,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="49"/>
+      <c r="AC12" s="2"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -5942,26 +6013,30 @@
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="7"/>
-      <c r="AT12" s="10">
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="7"/>
+      <c r="AV12" s="10">
         <v>41548</v>
       </c>
-      <c r="AW12" s="2"/>
-      <c r="AX12" s="13"/>
       <c r="AY12" s="2"/>
-      <c r="AZ12" s="2"/>
+      <c r="AZ12" s="13"/>
       <c r="BA12" s="2"/>
-      <c r="BB12" s="15">
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="15">
         <v>2000</v>
       </c>
-      <c r="BC12" s="2"/>
-      <c r="BD12" s="2"/>
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
-      <c r="BG12" s="13" t="s">
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
@@ -5992,7 +6067,7 @@
       <c r="AB13" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="AC13" s="49"/>
+      <c r="AC13" s="2"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -6008,22 +6083,26 @@
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="7"/>
-      <c r="AT13" s="10" t="s">
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="7"/>
+      <c r="AV13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="13"/>
       <c r="AY13" s="2"/>
-      <c r="AZ13" s="2"/>
+      <c r="AZ13" s="13"/>
       <c r="BA13" s="2"/>
-      <c r="BB13" s="8"/>
+      <c r="BB13" s="2"/>
       <c r="BC13" s="2"/>
-      <c r="BD13" s="2"/>
+      <c r="BD13" s="8"/>
       <c r="BE13" s="2"/>
       <c r="BF13" s="2"/>
-      <c r="BG13" s="13"/>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="13"/>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -6055,7 +6134,7 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="13"/>
-      <c r="AC14" s="49"/>
+      <c r="AC14" s="2"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="13" t="s">
@@ -6071,25 +6150,29 @@
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="7"/>
-      <c r="AS14" s="2">
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="2">
         <v>1999</v>
       </c>
-      <c r="AU14" s="2">
+      <c r="AW14" s="2">
         <v>2006</v>
       </c>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="13"/>
       <c r="AY14" s="2"/>
-      <c r="AZ14" s="2"/>
+      <c r="AZ14" s="13"/>
       <c r="BA14" s="2"/>
-      <c r="BB14" s="7"/>
+      <c r="BB14" s="2"/>
       <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
+      <c r="BD14" s="7"/>
       <c r="BE14" s="2"/>
       <c r="BF14" s="2"/>
       <c r="BG14" s="2"/>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -6120,7 +6203,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="13"/>
-      <c r="AC15" s="51">
+      <c r="AC15" s="4">
         <v>2000</v>
       </c>
       <c r="AD15" s="7"/>
@@ -6136,25 +6219,29 @@
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="7"/>
-      <c r="AS15" s="2">
-        <v>2012</v>
-      </c>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="7"/>
       <c r="AU15" s="2">
         <v>2012</v>
       </c>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
+      <c r="AW15" s="2">
+        <v>2012</v>
+      </c>
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
-      <c r="BB15" s="7"/>
+      <c r="BB15" s="2"/>
       <c r="BC15" s="2"/>
-      <c r="BD15" s="2"/>
+      <c r="BD15" s="7"/>
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
@@ -6173,11 +6260,11 @@
       <c r="V16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AH16" s="14"/>
-      <c r="AS16" s="2">
+      <c r="AU16" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -6210,7 +6297,7 @@
       <c r="AB17" s="4">
         <v>2000</v>
       </c>
-      <c r="AC17" s="51">
+      <c r="AC17" s="4">
         <v>2000</v>
       </c>
       <c r="AD17" s="7"/>
@@ -6226,25 +6313,29 @@
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
       <c r="AP17" s="7"/>
-      <c r="AS17" s="2">
-        <v>2012</v>
-      </c>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="7"/>
       <c r="AU17" s="2">
         <v>2012</v>
       </c>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="2"/>
+      <c r="AW17" s="2">
+        <v>2012</v>
+      </c>
       <c r="AY17" s="2"/>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
-      <c r="BB17" s="7"/>
+      <c r="BB17" s="2"/>
       <c r="BC17" s="2"/>
-      <c r="BD17" s="2"/>
+      <c r="BD17" s="7"/>
       <c r="BE17" s="2"/>
       <c r="BF17" s="2"/>
-      <c r="BG17" s="13"/>
-    </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="13"/>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
@@ -6265,11 +6356,11 @@
       <c r="V18" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AS18" s="2">
+      <c r="AU18" s="2">
         <v>1999</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
@@ -6303,7 +6394,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="49"/>
+      <c r="AC19" s="2"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
@@ -6317,20 +6408,24 @@
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="7"/>
-      <c r="AT19" s="13"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="13"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="7"/>
+      <c r="AV19" s="13"/>
       <c r="AY19" s="2"/>
-      <c r="AZ19" s="2"/>
+      <c r="AZ19" s="13"/>
       <c r="BA19" s="2"/>
-      <c r="BB19" s="7"/>
+      <c r="BB19" s="2"/>
       <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
+      <c r="BD19" s="7"/>
       <c r="BE19" s="2"/>
       <c r="BF19" s="2"/>
       <c r="BG19" s="2"/>
-    </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -6361,7 +6456,7 @@
       <c r="AB20" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="AC20" s="51">
+      <c r="AC20" s="4">
         <v>2001</v>
       </c>
       <c r="AD20" s="7"/>
@@ -6379,22 +6474,26 @@
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="7"/>
-      <c r="AT20" s="13"/>
-      <c r="AW20" s="2"/>
-      <c r="AX20" s="13"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="7"/>
+      <c r="AV20" s="13"/>
       <c r="AY20" s="2"/>
-      <c r="AZ20" s="2"/>
+      <c r="AZ20" s="13"/>
       <c r="BA20" s="2"/>
-      <c r="BB20" s="15">
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="15">
         <v>2000</v>
       </c>
-      <c r="BC20" s="2"/>
-      <c r="BD20" s="2"/>
       <c r="BE20" s="2"/>
       <c r="BF20" s="2"/>
       <c r="BG20" s="2"/>
-    </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -6425,7 +6524,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="49"/>
+      <c r="AC21" s="2"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
@@ -6439,22 +6538,26 @@
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="7"/>
-      <c r="AS21" s="2">
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="2">
         <v>2004</v>
       </c>
-      <c r="AW21" s="2"/>
-      <c r="AX21" s="13"/>
       <c r="AY21" s="2"/>
-      <c r="AZ21" s="2"/>
+      <c r="AZ21" s="13"/>
       <c r="BA21" s="2"/>
-      <c r="BB21" s="8"/>
-      <c r="BC21" s="13"/>
-      <c r="BD21" s="2"/>
-      <c r="BE21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="8"/>
+      <c r="BE21" s="13"/>
       <c r="BF21" s="2"/>
       <c r="BG21" s="2"/>
-    </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -6487,7 +6590,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="13"/>
-      <c r="AC22" s="50"/>
+      <c r="AC22" s="13"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
@@ -6501,26 +6604,32 @@
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
       <c r="AP22" s="7"/>
-      <c r="AT22" s="2">
+      <c r="AQ22" s="4">
+        <v>2001</v>
+      </c>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="7"/>
+      <c r="AV22" s="2">
         <v>2012</v>
       </c>
-      <c r="AW22" s="2"/>
-      <c r="AX22" s="13"/>
       <c r="AY22" s="2"/>
-      <c r="AZ22" s="2"/>
+      <c r="AZ22" s="13"/>
       <c r="BA22" s="2"/>
-      <c r="BB22" s="8"/>
-      <c r="BC22" s="4">
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="8"/>
+      <c r="BE22" s="4">
         <v>2011</v>
       </c>
-      <c r="BD22" s="2"/>
-      <c r="BE22" s="2"/>
-      <c r="BF22" s="4">
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="4">
         <v>2004</v>
       </c>
-      <c r="BG22" s="2"/>
-    </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BI22" s="2"/>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -6547,7 +6656,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
-      <c r="AC23" s="49"/>
+      <c r="AC23" s="2"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
@@ -6563,27 +6672,31 @@
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="7"/>
-      <c r="AS23" s="2">
-        <v>2012</v>
-      </c>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="7"/>
       <c r="AU23" s="2">
         <v>2012</v>
       </c>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="13"/>
+      <c r="AW23" s="2">
+        <v>2012</v>
+      </c>
       <c r="AY23" s="2"/>
-      <c r="AZ23" s="2"/>
+      <c r="AZ23" s="13"/>
       <c r="BA23" s="2"/>
-      <c r="BB23" s="8"/>
+      <c r="BB23" s="2"/>
       <c r="BC23" s="2"/>
-      <c r="BD23" s="2"/>
-      <c r="BE23" s="4">
+      <c r="BD23" s="8"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="4">
         <v>2000</v>
       </c>
-      <c r="BF23" s="2"/>
-      <c r="BG23" s="13"/>
-    </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="13"/>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>22</v>
       </c>
@@ -6615,7 +6728,7 @@
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
-      <c r="AC24" s="50"/>
+      <c r="AC24" s="13"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
@@ -6631,25 +6744,31 @@
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="7"/>
-      <c r="AT24" s="2">
-        <v>2012</v>
-      </c>
+      <c r="AQ24" s="4">
+        <v>2009</v>
+      </c>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="7"/>
       <c r="AV24" s="2">
         <v>2012</v>
       </c>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
+      <c r="AX24" s="2">
+        <v>2012</v>
+      </c>
+      <c r="AY24" s="2"/>
       <c r="AZ24" s="13"/>
       <c r="BA24" s="13"/>
-      <c r="BB24" s="8"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="13"/>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="13"/>
+      <c r="BD24" s="8"/>
+      <c r="BE24" s="2"/>
       <c r="BF24" s="2"/>
-      <c r="BG24" s="2"/>
-    </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG24" s="13"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -6680,7 +6799,7 @@
       <c r="AB25" s="4">
         <v>2000</v>
       </c>
-      <c r="AC25" s="51">
+      <c r="AC25" s="4">
         <v>2000</v>
       </c>
       <c r="AD25" s="7"/>
@@ -6696,22 +6815,26 @@
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="7"/>
-      <c r="AS25" s="2">
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="2">
         <v>2012</v>
       </c>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="13"/>
       <c r="AY25" s="2"/>
-      <c r="AZ25" s="2"/>
+      <c r="AZ25" s="13"/>
       <c r="BA25" s="2"/>
-      <c r="BB25" s="7"/>
+      <c r="BB25" s="2"/>
       <c r="BC25" s="2"/>
-      <c r="BD25" s="2"/>
+      <c r="BD25" s="7"/>
       <c r="BE25" s="2"/>
       <c r="BF25" s="2"/>
-      <c r="BG25" s="13"/>
-    </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="13"/>
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>18</v>
       </c>
@@ -6743,7 +6866,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="13"/>
-      <c r="AC26" s="49"/>
+      <c r="AC26" s="2"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
@@ -6757,22 +6880,26 @@
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="7"/>
-      <c r="AT26" s="13"/>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="13"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="7"/>
+      <c r="AV26" s="13"/>
       <c r="AY26" s="2"/>
-      <c r="AZ26" s="2"/>
+      <c r="AZ26" s="13"/>
       <c r="BA26" s="2"/>
-      <c r="BB26" s="15">
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="15">
         <v>2000</v>
       </c>
-      <c r="BC26" s="2"/>
-      <c r="BD26" s="2"/>
       <c r="BE26" s="2"/>
       <c r="BF26" s="2"/>
       <c r="BG26" s="2"/>
-    </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>68</v>
       </c>
@@ -6805,7 +6932,7 @@
       <c r="AB27" s="4">
         <v>2000</v>
       </c>
-      <c r="AC27" s="51">
+      <c r="AC27" s="4">
         <v>2000</v>
       </c>
       <c r="AE27" s="2"/>
@@ -6820,34 +6947,38 @@
       <c r="AN27" s="13"/>
       <c r="AO27" s="13"/>
       <c r="AP27" s="8"/>
-      <c r="AS27" s="2">
-        <v>2012</v>
-      </c>
-      <c r="AT27" s="14"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="7"/>
       <c r="AU27" s="2">
         <v>2012</v>
       </c>
-      <c r="AW27" s="2"/>
-      <c r="AX27" s="13"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="2">
+        <v>2012</v>
+      </c>
       <c r="AY27" s="2"/>
-      <c r="AZ27" s="2"/>
+      <c r="AZ27" s="13"/>
       <c r="BA27" s="2"/>
-      <c r="BB27" s="7"/>
+      <c r="BB27" s="2"/>
       <c r="BC27" s="2"/>
-      <c r="BD27" s="13"/>
+      <c r="BD27" s="7"/>
       <c r="BE27" s="2"/>
-      <c r="BF27" s="13" t="s">
+      <c r="BF27" s="13"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="BG27" s="2"/>
-    </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BI27" s="2"/>
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AT29" s="44"/>
-    </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AV29" s="44"/>
+    </row>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -6884,7 +7015,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="13"/>
-      <c r="AC30" s="50"/>
+      <c r="AC30" s="13"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
@@ -6900,29 +7031,33 @@
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="AP30" s="7"/>
-      <c r="AS30" s="2">
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="8"/>
+      <c r="AU30" s="2">
         <v>2005</v>
       </c>
-      <c r="AU30" s="2">
+      <c r="AW30" s="2">
         <v>2012</v>
       </c>
-      <c r="AW30" s="4">
+      <c r="AY30" s="4">
         <v>2000</v>
       </c>
-      <c r="AX30" s="2"/>
-      <c r="AY30" s="13"/>
-      <c r="AZ30" s="13"/>
+      <c r="AZ30" s="2"/>
       <c r="BA30" s="13"/>
-      <c r="BB30" s="7"/>
-      <c r="BC30" s="2"/>
-      <c r="BD30" s="13"/>
-      <c r="BE30" s="13"/>
-      <c r="BF30" s="13" t="s">
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="13"/>
+      <c r="BD30" s="7"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="13"/>
+      <c r="BG30" s="13"/>
+      <c r="BH30" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="BG30" s="13"/>
-    </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BI30" s="13"/>
+    </row>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>24</v>
       </c>
@@ -6940,11 +7075,11 @@
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
       <c r="W31" s="2"/>
-      <c r="AS31" s="2">
+      <c r="AU31" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -6985,7 +7120,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="13"/>
-      <c r="AC32" s="50"/>
+      <c r="AC32" s="13"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
@@ -7003,33 +7138,37 @@
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="7"/>
-      <c r="AS32" s="2">
-        <v>2012</v>
-      </c>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="13"/>
+      <c r="AS32" s="13"/>
+      <c r="AT32" s="8"/>
       <c r="AU32" s="2">
         <v>2012</v>
       </c>
-      <c r="AW32" s="4">
+      <c r="AW32" s="2">
+        <v>2012</v>
+      </c>
+      <c r="AY32" s="4">
         <v>2000</v>
       </c>
-      <c r="AX32" s="2"/>
-      <c r="AY32" s="2"/>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
-      <c r="BB32" s="7"/>
-      <c r="BC32" s="13" t="s">
+      <c r="BB32" s="2"/>
+      <c r="BC32" s="2"/>
+      <c r="BD32" s="7"/>
+      <c r="BE32" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="BD32" s="4">
+      <c r="BF32" s="4">
         <v>2012</v>
       </c>
-      <c r="BE32" s="13"/>
-      <c r="BF32" s="13" t="s">
+      <c r="BG32" s="13"/>
+      <c r="BH32" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="BG32" s="13"/>
-    </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BI32" s="13"/>
+    </row>
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -7060,7 +7199,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="13"/>
-      <c r="AC33" s="50"/>
+      <c r="AC33" s="13"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="10">
         <v>36281</v>
@@ -7078,26 +7217,32 @@
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
       <c r="AP33" s="7"/>
-      <c r="AS33" s="2">
+      <c r="AQ33" s="4">
+        <v>2008</v>
+      </c>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="7"/>
+      <c r="AU33" s="2">
         <v>2012</v>
       </c>
-      <c r="AW33" s="2"/>
-      <c r="AX33" s="2"/>
       <c r="AY33" s="2"/>
       <c r="AZ33" s="2"/>
       <c r="BA33" s="2"/>
-      <c r="BB33" s="15">
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="15">
         <v>2000</v>
       </c>
-      <c r="BC33" s="2"/>
-      <c r="BD33" s="2"/>
-      <c r="BE33" s="13"/>
+      <c r="BE33" s="2"/>
       <c r="BF33" s="2"/>
-      <c r="BG33" s="13" t="s">
+      <c r="BG33" s="13"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>97</v>
       </c>
@@ -7138,7 +7283,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="13"/>
-      <c r="AC34" s="50"/>
+      <c r="AC34" s="13"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
@@ -7152,25 +7297,35 @@
       <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
       <c r="AP34" s="7"/>
-      <c r="AS34" s="2">
-        <v>2012</v>
+      <c r="AQ34" s="13"/>
+      <c r="AR34" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="AS34" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="AT34" s="8" t="s">
+        <v>435</v>
       </c>
       <c r="AU34" s="2">
         <v>2012</v>
       </c>
-      <c r="AW34" s="2"/>
-      <c r="AX34" s="2"/>
+      <c r="AW34" s="2">
+        <v>2012</v>
+      </c>
       <c r="AY34" s="2"/>
       <c r="AZ34" s="2"/>
       <c r="BA34" s="2"/>
-      <c r="BB34" s="7"/>
+      <c r="BB34" s="2"/>
       <c r="BC34" s="2"/>
-      <c r="BD34" s="2"/>
-      <c r="BE34" s="13"/>
+      <c r="BD34" s="7"/>
+      <c r="BE34" s="2"/>
       <c r="BF34" s="2"/>
       <c r="BG34" s="13"/>
-    </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="13"/>
+    </row>
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
@@ -7217,7 +7372,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="13"/>
-      <c r="AC35" s="50"/>
+      <c r="AC35" s="13"/>
       <c r="AD35" s="7"/>
       <c r="AE35" s="4">
         <v>2000</v>
@@ -7241,22 +7396,26 @@
       <c r="AP35" s="15">
         <v>2016</v>
       </c>
-      <c r="AT35" s="2">
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="13"/>
+      <c r="AS35" s="13"/>
+      <c r="AT35" s="8"/>
+      <c r="AV35" s="2">
         <v>2012</v>
       </c>
-      <c r="AW35" s="13"/>
-      <c r="AX35" s="13"/>
       <c r="AY35" s="13"/>
       <c r="AZ35" s="13"/>
       <c r="BA35" s="13"/>
-      <c r="BB35" s="8"/>
+      <c r="BB35" s="13"/>
       <c r="BC35" s="13"/>
-      <c r="BD35" s="13"/>
+      <c r="BD35" s="8"/>
       <c r="BE35" s="13"/>
       <c r="BF35" s="13"/>
       <c r="BG35" s="13"/>
-    </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH35" s="13"/>
+      <c r="BI35" s="13"/>
+    </row>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
@@ -7295,7 +7454,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="13"/>
-      <c r="AC36" s="50"/>
+      <c r="AC36" s="13"/>
       <c r="AD36" s="7"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
@@ -7309,22 +7468,26 @@
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
       <c r="AP36" s="7"/>
-      <c r="AS36" s="2">
+      <c r="AQ36" s="13"/>
+      <c r="AR36" s="13"/>
+      <c r="AS36" s="13"/>
+      <c r="AT36" s="8"/>
+      <c r="AU36" s="2">
         <v>2012</v>
       </c>
-      <c r="AW36" s="2"/>
-      <c r="AX36" s="2"/>
-      <c r="AY36" s="13"/>
+      <c r="AY36" s="2"/>
       <c r="AZ36" s="2"/>
       <c r="BA36" s="13"/>
-      <c r="BB36" s="7"/>
-      <c r="BC36" s="2"/>
-      <c r="BD36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="13"/>
+      <c r="BD36" s="7"/>
       <c r="BE36" s="2"/>
-      <c r="BF36" s="13"/>
+      <c r="BF36" s="2"/>
       <c r="BG36" s="2"/>
-    </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH36" s="13"/>
+      <c r="BI36" s="2"/>
+    </row>
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -7359,7 +7522,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="13"/>
-      <c r="AC37" s="50"/>
+      <c r="AC37" s="13"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
@@ -7377,26 +7540,36 @@
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
       <c r="AP37" s="7"/>
-      <c r="AS37" s="2">
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="4">
+        <v>2003</v>
+      </c>
+      <c r="AS37" s="4">
+        <v>2003</v>
+      </c>
+      <c r="AT37" s="15">
+        <v>2003</v>
+      </c>
+      <c r="AU37" s="2">
         <v>2012</v>
       </c>
-      <c r="AW37" s="2"/>
-      <c r="AX37" s="2"/>
-      <c r="AY37" s="13"/>
+      <c r="AY37" s="2"/>
       <c r="AZ37" s="2"/>
-      <c r="BA37" s="13" t="s">
+      <c r="BA37" s="13"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BB37" s="7"/>
-      <c r="BC37" s="4">
+      <c r="BD37" s="7"/>
+      <c r="BE37" s="4">
         <v>2001</v>
       </c>
-      <c r="BD37" s="2"/>
-      <c r="BE37" s="13"/>
-      <c r="BF37" s="13"/>
+      <c r="BF37" s="2"/>
       <c r="BG37" s="13"/>
-    </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH37" s="13"/>
+      <c r="BI37" s="13"/>
+    </row>
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>31</v>
       </c>
@@ -7418,11 +7591,11 @@
       <c r="AE38" s="4">
         <v>2000</v>
       </c>
-      <c r="AT38" s="13">
+      <c r="AV38" s="13">
         <v>2016</v>
       </c>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>32</v>
       </c>
@@ -7455,7 +7628,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="13"/>
-      <c r="AC39" s="50"/>
+      <c r="AC39" s="13"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="4">
         <v>2005</v>
@@ -7475,26 +7648,36 @@
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
       <c r="AP39" s="7"/>
-      <c r="AS39" s="2">
+      <c r="AQ39" s="13"/>
+      <c r="AR39" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS39" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT39" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU39" s="2">
         <v>2012</v>
       </c>
-      <c r="AW39" s="4">
+      <c r="AY39" s="4">
         <v>2002</v>
       </c>
-      <c r="AX39" s="2"/>
-      <c r="AY39" s="13"/>
       <c r="AZ39" s="2"/>
       <c r="BA39" s="13"/>
-      <c r="BB39" s="8"/>
-      <c r="BC39" s="4">
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="13"/>
+      <c r="BD39" s="8"/>
+      <c r="BE39" s="4">
         <v>2001</v>
       </c>
-      <c r="BD39" s="2"/>
-      <c r="BE39" s="13"/>
-      <c r="BF39" s="13"/>
+      <c r="BF39" s="2"/>
       <c r="BG39" s="13"/>
-    </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH39" s="13"/>
+      <c r="BI39" s="13"/>
+    </row>
+    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>33</v>
       </c>
@@ -7514,11 +7697,11 @@
         <v>88</v>
       </c>
       <c r="AE40" s="2"/>
-      <c r="AT40" s="13">
+      <c r="AV40" s="13">
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>49</v>
       </c>
@@ -7535,11 +7718,11 @@
       <c r="G41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
-      <c r="AT41" s="13">
+      <c r="AV41" s="13">
         <v>2012</v>
       </c>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>34</v>
       </c>
@@ -7558,11 +7741,11 @@
       <c r="V42" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="AT42" s="13">
+      <c r="AV42" s="13">
         <v>2017</v>
       </c>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>35</v>
       </c>
@@ -7577,10 +7760,10 @@
       <c r="G43" s="13"/>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
-      <c r="AT43" s="13"/>
-      <c r="AV43" s="44"/>
-    </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AV43" s="13"/>
+      <c r="AX43" s="44"/>
+    </row>
+    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -7619,7 +7802,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="13"/>
-      <c r="AC44" s="49"/>
+      <c r="AC44" s="2"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="4">
         <v>2002</v>
@@ -7637,31 +7820,43 @@
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
       <c r="AP44" s="7"/>
-      <c r="AS44" s="4">
+      <c r="AQ44" s="4">
+        <v>2010</v>
+      </c>
+      <c r="AR44" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="AS44" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="AT44" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="AU44" s="4">
         <v>2015</v>
       </c>
-      <c r="AT44" s="2">
+      <c r="AV44" s="2">
         <v>2012</v>
       </c>
-      <c r="AW44" s="2"/>
-      <c r="AX44" s="2"/>
       <c r="AY44" s="2"/>
       <c r="AZ44" s="2"/>
       <c r="BA44" s="2"/>
-      <c r="BB44" s="8"/>
-      <c r="BC44" s="4">
+      <c r="BB44" s="2"/>
+      <c r="BC44" s="2"/>
+      <c r="BD44" s="8"/>
+      <c r="BE44" s="4">
         <v>2004</v>
       </c>
-      <c r="BD44" s="2"/>
-      <c r="BE44" s="4">
+      <c r="BF44" s="2"/>
+      <c r="BG44" s="4">
         <v>2010</v>
       </c>
-      <c r="BF44" s="2"/>
-      <c r="BG44" s="13" t="s">
+      <c r="BH44" s="2"/>
+      <c r="BI44" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>36</v>
       </c>
@@ -7677,11 +7872,11 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
       <c r="AE45" s="2"/>
-      <c r="AT45" s="13">
+      <c r="AV45" s="13">
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>37</v>
       </c>
@@ -7714,7 +7909,7 @@
       <c r="AB46" s="4">
         <v>2000</v>
       </c>
-      <c r="AC46" s="49"/>
+      <c r="AC46" s="2"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
@@ -7732,30 +7927,34 @@
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
       <c r="AP46" s="7"/>
-      <c r="AS46" s="2">
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="7"/>
+      <c r="AU46" s="2">
         <v>2012</v>
       </c>
-      <c r="AW46" s="2"/>
-      <c r="AX46" s="13"/>
       <c r="AY46" s="2"/>
-      <c r="AZ46" s="2"/>
+      <c r="AZ46" s="13"/>
       <c r="BA46" s="2"/>
-      <c r="BB46" s="7"/>
-      <c r="BC46" s="4">
+      <c r="BB46" s="2"/>
+      <c r="BC46" s="2"/>
+      <c r="BD46" s="7"/>
+      <c r="BE46" s="4">
         <v>2001</v>
       </c>
-      <c r="BD46" s="2"/>
-      <c r="BE46" s="13" t="s">
+      <c r="BF46" s="2"/>
+      <c r="BG46" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BF46" s="4">
+      <c r="BH46" s="4">
         <v>2003</v>
       </c>
-      <c r="BG46" s="4">
+      <c r="BI46" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>38</v>
       </c>
@@ -7792,7 +7991,7 @@
       <c r="AB47" s="4">
         <v>2009</v>
       </c>
-      <c r="AC47" s="51">
+      <c r="AC47" s="4">
         <v>2003</v>
       </c>
       <c r="AD47" s="7"/>
@@ -7812,26 +8011,38 @@
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
       <c r="AP47" s="7"/>
-      <c r="AT47" s="13"/>
-      <c r="AW47" s="4">
+      <c r="AQ47" s="4">
         <v>2003</v>
       </c>
-      <c r="AX47" s="13"/>
-      <c r="AY47" s="2"/>
-      <c r="AZ47" s="2"/>
+      <c r="AR47" s="4">
+        <v>2007</v>
+      </c>
+      <c r="AS47" s="4">
+        <v>2007</v>
+      </c>
+      <c r="AT47" s="15">
+        <v>2007</v>
+      </c>
+      <c r="AV47" s="13"/>
+      <c r="AY47" s="4">
+        <v>2003</v>
+      </c>
+      <c r="AZ47" s="13"/>
       <c r="BA47" s="2"/>
-      <c r="BB47" s="7"/>
-      <c r="BC47" s="4">
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="7"/>
+      <c r="BE47" s="4">
         <v>2002</v>
       </c>
-      <c r="BD47" s="2"/>
-      <c r="BE47" s="13" t="s">
+      <c r="BF47" s="2"/>
+      <c r="BG47" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="BF47" s="13"/>
-      <c r="BG47" s="2"/>
-    </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH47" s="13"/>
+      <c r="BI47" s="2"/>
+    </row>
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>39</v>
       </c>
@@ -7862,7 +8073,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
-      <c r="AC48" s="49"/>
+      <c r="AC48" s="2"/>
       <c r="AD48" s="7"/>
       <c r="AE48" s="4">
         <v>2001</v>
@@ -7880,22 +8091,26 @@
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
       <c r="AP48" s="7"/>
-      <c r="AS48" s="2">
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="7"/>
+      <c r="AU48" s="2">
         <v>2012</v>
       </c>
-      <c r="AW48" s="2"/>
-      <c r="AX48" s="13"/>
       <c r="AY48" s="2"/>
-      <c r="AZ48" s="2"/>
+      <c r="AZ48" s="13"/>
       <c r="BA48" s="2"/>
-      <c r="BB48" s="8"/>
+      <c r="BB48" s="2"/>
       <c r="BC48" s="2"/>
-      <c r="BD48" s="2"/>
+      <c r="BD48" s="8"/>
       <c r="BE48" s="2"/>
       <c r="BF48" s="2"/>
       <c r="BG48" s="2"/>
-    </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH48" s="2"/>
+      <c r="BI48" s="2"/>
+    </row>
+    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>40</v>
       </c>
@@ -7917,9 +8132,9 @@
       <c r="AE49" s="4">
         <v>2003</v>
       </c>
-      <c r="AT49" s="13"/>
-    </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AV49" s="13"/>
+    </row>
+    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>41</v>
       </c>
@@ -7946,7 +8161,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
-      <c r="AC50" s="49"/>
+      <c r="AC50" s="2"/>
       <c r="AD50" s="7"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
@@ -7960,24 +8175,28 @@
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
       <c r="AP50" s="7"/>
-      <c r="AS50" s="2">
+      <c r="AQ50" s="2"/>
+      <c r="AR50" s="2"/>
+      <c r="AS50" s="2"/>
+      <c r="AT50" s="7"/>
+      <c r="AU50" s="2">
         <v>1999</v>
       </c>
-      <c r="AW50" s="2"/>
-      <c r="AX50" s="13"/>
       <c r="AY50" s="2"/>
-      <c r="AZ50" s="2"/>
+      <c r="AZ50" s="13"/>
       <c r="BA50" s="2"/>
-      <c r="BB50" s="7"/>
+      <c r="BB50" s="2"/>
       <c r="BC50" s="2"/>
-      <c r="BD50" s="2"/>
+      <c r="BD50" s="7"/>
       <c r="BE50" s="2"/>
-      <c r="BF50" s="4">
+      <c r="BF50" s="2"/>
+      <c r="BG50" s="2"/>
+      <c r="BH50" s="4">
         <v>2003</v>
       </c>
-      <c r="BG50" s="2"/>
-    </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BI50" s="2"/>
+    </row>
+    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
         <v>47</v>
       </c>
@@ -8006,7 +8225,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
-      <c r="AC51" s="49"/>
+      <c r="AC51" s="2"/>
       <c r="AD51" s="7"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
@@ -8024,24 +8243,28 @@
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
       <c r="AP51" s="7"/>
-      <c r="AT51" s="2">
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="7"/>
+      <c r="AV51" s="2">
         <v>2012</v>
       </c>
-      <c r="AW51" s="2"/>
-      <c r="AX51" s="13"/>
       <c r="AY51" s="2"/>
-      <c r="AZ51" s="2"/>
+      <c r="AZ51" s="13"/>
       <c r="BA51" s="2"/>
-      <c r="BB51" s="7"/>
+      <c r="BB51" s="2"/>
       <c r="BC51" s="2"/>
-      <c r="BD51" s="2"/>
+      <c r="BD51" s="7"/>
       <c r="BE51" s="2"/>
-      <c r="BF51" s="4">
+      <c r="BF51" s="2"/>
+      <c r="BG51" s="2"/>
+      <c r="BH51" s="4">
         <v>2003</v>
       </c>
-      <c r="BG51" s="13"/>
-    </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BI51" s="13"/>
+    </row>
+    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>42</v>
       </c>
@@ -8060,11 +8283,11 @@
       <c r="V52" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AT52" s="13">
+      <c r="AV52" s="13">
         <v>2013</v>
       </c>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>43</v>
       </c>
@@ -8113,7 +8336,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="13"/>
-      <c r="AC53" s="49"/>
+      <c r="AC53" s="2"/>
       <c r="AD53" s="7"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
@@ -8135,35 +8358,47 @@
       <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
       <c r="AP53" s="7"/>
-      <c r="AT53" s="13">
+      <c r="AQ53" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="AR53" s="4">
+        <v>2005</v>
+      </c>
+      <c r="AS53" s="4">
+        <v>2005</v>
+      </c>
+      <c r="AT53" s="15">
+        <v>2005</v>
+      </c>
+      <c r="AV53" s="13">
         <v>2015</v>
       </c>
-      <c r="AW53" s="2"/>
-      <c r="AX53" s="13"/>
       <c r="AY53" s="2"/>
-      <c r="AZ53" s="2"/>
+      <c r="AZ53" s="13"/>
       <c r="BA53" s="2"/>
-      <c r="BB53" s="8"/>
-      <c r="BC53" s="4">
+      <c r="BB53" s="2"/>
+      <c r="BC53" s="2"/>
+      <c r="BD53" s="8"/>
+      <c r="BE53" s="4">
         <v>2001</v>
       </c>
-      <c r="BD53" s="4">
+      <c r="BF53" s="4">
         <v>2006</v>
       </c>
-      <c r="BE53" s="13" t="s">
+      <c r="BG53" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BF53" s="13" t="s">
+      <c r="BH53" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="BG53" s="2"/>
-    </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BI53" s="2"/>
+    </row>
+    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>44</v>
       </c>
@@ -8206,7 +8441,7 @@
       </c>
       <c r="AA56" s="13"/>
       <c r="AB56" s="13"/>
-      <c r="AC56" s="50"/>
+      <c r="AC56" s="13"/>
       <c r="AD56" s="15"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="13"/>
@@ -8226,20 +8461,24 @@
       <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
       <c r="AP56" s="7"/>
-      <c r="AT56" s="13"/>
-      <c r="AW56" s="13"/>
-      <c r="AX56" s="13"/>
+      <c r="AQ56" s="13"/>
+      <c r="AR56" s="13"/>
+      <c r="AS56" s="13"/>
+      <c r="AT56" s="8"/>
+      <c r="AV56" s="13"/>
       <c r="AY56" s="13"/>
       <c r="AZ56" s="13"/>
       <c r="BA56" s="13"/>
-      <c r="BB56" s="8"/>
+      <c r="BB56" s="13"/>
       <c r="BC56" s="13"/>
-      <c r="BD56" s="13"/>
+      <c r="BD56" s="8"/>
       <c r="BE56" s="13"/>
       <c r="BF56" s="13"/>
       <c r="BG56" s="13"/>
-    </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH56" s="13"/>
+      <c r="BI56" s="13"/>
+    </row>
+    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
@@ -8293,7 +8532,7 @@
         <v>71</v>
       </c>
       <c r="AB57" s="13"/>
-      <c r="AC57" s="50"/>
+      <c r="AC57" s="13"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="13" t="s">
@@ -8319,45 +8558,55 @@
       <c r="AN57" s="2"/>
       <c r="AO57" s="2"/>
       <c r="AP57" s="7"/>
-      <c r="AS57" s="2">
-        <v>2012</v>
+      <c r="AQ57" s="13"/>
+      <c r="AR57" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="AS57" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="AT57" s="8" t="s">
+        <v>437</v>
       </c>
       <c r="AU57" s="2">
         <v>2012</v>
       </c>
-      <c r="AW57" s="13" t="s">
+      <c r="AW57" s="2">
+        <v>2012</v>
+      </c>
+      <c r="AY57" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="AX57" s="13"/>
-      <c r="AY57" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ57" s="13" t="s">
-        <v>88</v>
-      </c>
+      <c r="AZ57" s="13"/>
       <c r="BA57" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="BB57" s="8"/>
-      <c r="BC57" s="2"/>
-      <c r="BD57" s="13" t="s">
+      <c r="BB57" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC57" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD57" s="8"/>
+      <c r="BE57" s="2"/>
+      <c r="BF57" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="BE57" s="13"/>
-      <c r="BF57" s="13"/>
       <c r="BG57" s="13"/>
-    </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AS59" s="18" t="s">
+      <c r="BH57" s="13"/>
+      <c r="BI57" s="13"/>
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="AU59" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="AU59" t="s">
+      <c r="AW59" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="BC1:BG1"/>
+    <mergeCell ref="BE1:BI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data Sources Coverage_ACWI.xlsx
+++ b/Data/Data Sources Coverage_ACWI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Master mAI-X\TFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238FDFF3-5E9C-43F1-8B7A-857AF61DD0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982CED4C-6404-47AF-B1B6-015ECCDE2295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{4D7359AC-8169-4D64-B280-A03E914C2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Data coverage" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="445">
   <si>
     <t>United States</t>
   </si>
@@ -1308,12 +1308,6 @@
     <t>Companies</t>
   </si>
   <si>
-    <t>Market Cap</t>
-  </si>
-  <si>
-    <t>as % of GDP</t>
-  </si>
-  <si>
     <t>GDP</t>
   </si>
   <si>
@@ -1354,6 +1348,33 @@
   </si>
   <si>
     <t>2011 to 2019</t>
+  </si>
+  <si>
+    <t>Stock Traded</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>GDP per Capita</t>
+  </si>
+  <si>
+    <t>Current Account</t>
+  </si>
+  <si>
+    <t>Govern Expense</t>
+  </si>
+  <si>
+    <t>to 2014</t>
+  </si>
+  <si>
+    <t>to 2017</t>
+  </si>
+  <si>
+    <t>to 2004</t>
+  </si>
+  <si>
+    <t>to 2003</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1550,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1595,8 +1616,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -4886,9 +4917,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBD188-E2E0-4927-8EED-FFEB431050C3}">
-  <dimension ref="A1:BI59"/>
+  <dimension ref="A1:BL59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -4903,50 +4934,53 @@
     <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="6" customWidth="1"/>
-    <col min="19" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" style="6" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" customWidth="1"/>
-    <col min="26" max="27" width="9.5703125" customWidth="1"/>
-    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12" customWidth="1"/>
-    <col min="35" max="35" width="11.140625" customWidth="1"/>
-    <col min="36" max="36" width="10.5703125" style="6" customWidth="1"/>
-    <col min="37" max="37" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="11.7109375" customWidth="1"/>
-    <col min="42" max="42" width="11.7109375" style="6" customWidth="1"/>
-    <col min="43" max="43" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="12.28515625" customWidth="1"/>
-    <col min="46" max="46" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="19" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.140625" customWidth="1"/>
-    <col min="50" max="50" width="19" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12" customWidth="1"/>
-    <col min="54" max="54" width="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15" style="6" customWidth="1"/>
-    <col min="57" max="58" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" customWidth="1"/>
+    <col min="27" max="28" width="9.5703125" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" customWidth="1"/>
+    <col min="37" max="37" width="10.5703125" style="6" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="11.7109375" customWidth="1"/>
+    <col min="43" max="43" width="11.7109375" style="50" customWidth="1"/>
+    <col min="44" max="44" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="12.28515625" customWidth="1"/>
+    <col min="48" max="48" width="12.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.140625" customWidth="1"/>
+    <col min="53" max="53" width="19" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12" customWidth="1"/>
+    <col min="57" max="57" width="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15" style="6" customWidth="1"/>
+    <col min="60" max="61" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="41" t="s">
         <v>418</v>
@@ -4960,7 +4994,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="42"/>
       <c r="K1" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -4968,66 +5002,67 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="1" t="s">
+      <c r="R1" s="47"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="Y1" s="1" t="s">
+      <c r="X1" s="1"/>
+      <c r="Z1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-      <c r="AE1" s="1" t="s">
+      <c r="AD1" s="1"/>
+      <c r="AF1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="41" t="s">
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AU1" s="47" t="s">
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="51"/>
+      <c r="AS1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AX1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
-      <c r="BD1" s="42"/>
-      <c r="BE1" s="45" t="s">
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="42"/>
+      <c r="BH1" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="BF1" s="45"/>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="45"/>
       <c r="BI1" s="45"/>
-    </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ1" s="45"/>
+      <c r="BK1" s="45"/>
+      <c r="BL1" s="45"/>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
         <v>53</v>
@@ -5054,7 +5089,7 @@
         <v>420</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="K2" t="s">
         <v>95</v>
@@ -5077,11 +5112,11 @@
       <c r="Q2" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="R2" s="43" t="s">
-        <v>424</v>
-      </c>
-      <c r="S2" t="s">
-        <v>84</v>
+      <c r="R2" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="S2" s="43" t="s">
+        <v>438</v>
       </c>
       <c r="T2" t="s">
         <v>84</v>
@@ -5093,124 +5128,133 @@
         <v>84</v>
       </c>
       <c r="W2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" t="s">
         <v>383</v>
       </c>
-      <c r="X2" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>87</v>
+      <c r="Y2" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="Z2" t="s">
         <v>87</v>
       </c>
       <c r="AA2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB2" t="s">
         <v>115</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>366</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>365</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ2" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR2" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="AS2" t="s">
         <v>426</v>
       </c>
-      <c r="AE2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>428</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>432</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>428</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>428</v>
+      <c r="AT2" t="s">
+        <v>430</v>
       </c>
       <c r="AU2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AV2" s="50" t="s">
+        <v>426</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AX2" t="s">
         <v>58</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>63</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
         <v>58</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>63</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BB2" t="s">
         <v>69</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BC2" t="s">
         <v>74</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BD2" t="s">
         <v>90</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BE2" t="s">
         <v>360</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BF2" t="s">
         <v>362</v>
       </c>
-      <c r="BD2" s="6" t="s">
+      <c r="BG2" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BH2" t="s">
         <v>72</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BI2" t="s">
         <v>92</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
         <v>126</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BK2" t="s">
         <v>129</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BL2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -5239,7 +5283,7 @@
         <v>421</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="K3" t="s">
         <v>98</v>
@@ -5262,128 +5306,140 @@
       <c r="Q3" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="R3" s="43" t="s">
-        <v>425</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="R3" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="T3" t="s">
         <v>85</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>86</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>370</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>376</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>387</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z3" t="s">
         <v>96</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>120</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>367</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>361</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>136</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>77</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>81</v>
       </c>
       <c r="AH3" t="s">
         <v>81</v>
       </c>
       <c r="AI3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>117</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>125</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>102</v>
       </c>
       <c r="AM3" t="s">
         <v>102</v>
       </c>
       <c r="AN3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="AO3" t="s">
         <v>122</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AP3" t="s">
         <v>122</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>429</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>433</v>
+      <c r="AQ3" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR3" s="54" t="s">
+        <v>423</v>
       </c>
       <c r="AS3" t="s">
-        <v>434</v>
-      </c>
-      <c r="AT3" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="AV3" t="s">
+        <v>427</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>431</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>432</v>
+      </c>
+      <c r="AV3" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="AY3" t="s">
         <v>65</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BA3" t="s">
         <v>65</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="BB3" t="s">
         <v>70</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BC3" t="s">
         <v>75</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BD3" t="s">
         <v>91</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BE3" t="s">
         <v>361</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BF3" t="s">
         <v>363</v>
       </c>
-      <c r="BD3" s="6" t="s">
+      <c r="BG3" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BH3" t="s">
         <v>70</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BI3" t="s">
         <v>93</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BJ3" t="s">
         <v>127</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BK3" t="s">
         <v>130</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BL3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5398,6 +5454,9 @@
       <c r="G4" s="2">
         <v>2002</v>
       </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -5405,52 +5464,57 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="7"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="7"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="7"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="7"/>
       <c r="AS4" s="2"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="2">
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="2">
         <v>1999</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AZ4" s="2">
         <v>2012</v>
       </c>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
       <c r="BC4" s="2"/>
-      <c r="BD4" s="7"/>
+      <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
       <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
+      <c r="BG4" s="7"/>
       <c r="BH4" s="2"/>
-      <c r="BI4" s="13"/>
-    </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="13"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -5465,6 +5529,9 @@
       <c r="G5" s="2">
         <v>2006</v>
       </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="4">
@@ -5474,69 +5541,74 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="7"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="Y5" s="13" t="s">
-        <v>88</v>
-      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="7"/>
       <c r="Z5" s="13" t="s">
         <v>88</v>
       </c>
       <c r="AA5" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AB5" s="13"/>
+      <c r="AB5" s="13" t="s">
+        <v>88</v>
+      </c>
       <c r="AC5" s="13"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="2"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="7"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="4">
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="4">
         <v>2002</v>
       </c>
-      <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="7"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="4">
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="4">
         <v>2005</v>
       </c>
-      <c r="AS5" s="4">
+      <c r="AU5" s="4">
         <v>2005</v>
       </c>
-      <c r="AT5" s="15">
+      <c r="AV5" s="53">
         <v>2005</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="2">
         <v>2008</v>
       </c>
-      <c r="AW5" s="4">
+      <c r="AZ5" s="4">
         <v>2019</v>
       </c>
-      <c r="AX5" s="10">
+      <c r="BA5" s="10">
         <v>41548</v>
       </c>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2"/>
       <c r="BB5" s="2"/>
-      <c r="BC5" s="13"/>
-      <c r="BD5" s="8"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="8"/>
       <c r="BH5" s="2"/>
-      <c r="BI5" s="13"/>
-    </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="13"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5550,6 +5622,15 @@
       </c>
       <c r="G6" s="13">
         <v>2011</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>441</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -5558,62 +5639,67 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="7"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="U6" s="2"/>
       <c r="V6" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="W6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="W6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="7"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="4">
-        <v>2008</v>
-      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" s="4">
         <v>2008</v>
       </c>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="2"/>
+      <c r="AD6" s="4">
+        <v>2008</v>
+      </c>
+      <c r="AE6" s="7"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="7"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="7"/>
       <c r="AS6" s="2"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="2">
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="2">
         <v>2008</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="AZ6" s="2">
         <v>2008</v>
       </c>
-      <c r="AY6" s="2"/>
-      <c r="AZ6" s="2"/>
-      <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
-      <c r="BD6" s="15">
-        <v>2010</v>
-      </c>
+      <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
+      <c r="BG6" s="15">
+        <v>2010</v>
+      </c>
       <c r="BH6" s="2"/>
-      <c r="BI6" s="13"/>
-    </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="13"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -5628,6 +5714,9 @@
       <c r="G7" s="4">
         <v>2016</v>
       </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -5635,52 +5724,57 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="7"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="7"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="7"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="7"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="7"/>
       <c r="AS7" s="2"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="4">
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="4">
         <v>2021</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="AY7" s="2">
         <v>2012</v>
       </c>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
       <c r="BB7" s="2"/>
       <c r="BC7" s="2"/>
-      <c r="BD7" s="7"/>
-      <c r="BE7" s="13"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
       <c r="BF7" s="2"/>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="2"/>
+      <c r="BG7" s="7"/>
+      <c r="BH7" s="13"/>
       <c r="BI7" s="2"/>
-    </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="2"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -5693,6 +5787,15 @@
         <v>2008</v>
       </c>
       <c r="G8" s="13"/>
+      <c r="H8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -5700,54 +5803,59 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="7"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="4">
+      <c r="V8" s="2"/>
+      <c r="W8" s="4">
         <v>2003</v>
       </c>
-      <c r="W8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="7"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="7"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="15"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="7"/>
       <c r="AS8" s="2"/>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="2">
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="2">
         <v>2008</v>
       </c>
-      <c r="AW8" s="2">
+      <c r="AZ8" s="2">
         <v>2008</v>
       </c>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2"/>
-      <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
-      <c r="BD8" s="7"/>
+      <c r="BD8" s="2"/>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2"/>
-      <c r="BG8" s="2"/>
-      <c r="BH8" s="13"/>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="2"/>
       <c r="BI8" s="2"/>
-    </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="13"/>
+      <c r="BL8" s="2"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -5762,6 +5870,9 @@
       <c r="G9" s="2">
         <v>2010</v>
       </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -5769,64 +5880,69 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="2"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="13"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="4">
+      <c r="V9" s="2"/>
+      <c r="W9" s="4">
         <v>2010</v>
       </c>
-      <c r="W9" s="4"/>
-      <c r="Y9" s="2"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="7"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="4">
-        <v>2002</v>
-      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" s="4">
         <v>2002</v>
       </c>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="2"/>
+      <c r="AD9" s="4">
+        <v>2002</v>
+      </c>
+      <c r="AE9" s="7"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="7"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="7"/>
       <c r="AS9" s="2"/>
-      <c r="AT9" s="7"/>
-      <c r="AV9" s="2">
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="7"/>
+      <c r="AY9" s="2">
         <v>2012</v>
       </c>
-      <c r="AX9" s="10">
+      <c r="BA9" s="10">
         <v>41671</v>
       </c>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="4">
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="4">
         <v>2011</v>
       </c>
-      <c r="BB9" s="4">
+      <c r="BE9" s="4">
         <v>2010</v>
       </c>
-      <c r="BC9" s="4">
+      <c r="BF9" s="4">
         <v>2010</v>
       </c>
-      <c r="BD9" s="8"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
+      <c r="BG9" s="8"/>
       <c r="BH9" s="2"/>
-      <c r="BI9" s="13"/>
-    </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="13"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -5841,6 +5957,9 @@
       <c r="G10" s="2">
         <v>2012</v>
       </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -5848,54 +5967,59 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="7"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="4">
+      <c r="V10" s="2"/>
+      <c r="W10" s="4">
         <v>2005</v>
       </c>
-      <c r="W10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="7"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="7"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="15"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="7"/>
       <c r="AS10" s="2"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="2">
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="49"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="2">
         <v>2008</v>
       </c>
-      <c r="AW10" s="2">
+      <c r="AZ10" s="2">
         <v>2008</v>
       </c>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
       <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
-      <c r="BD10" s="7"/>
+      <c r="BD10" s="2"/>
       <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
-      <c r="BG10" s="2"/>
+      <c r="BG10" s="7"/>
       <c r="BH10" s="2"/>
       <c r="BI10" s="2"/>
-    </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -5910,6 +6034,9 @@
       <c r="G11" s="2">
         <v>2007</v>
       </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -5917,58 +6044,63 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="7"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="Y11" s="13"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="7"/>
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="2"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="15"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="7"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="49"/>
+      <c r="AR11" s="7"/>
       <c r="AS11" s="2"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="4">
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="49"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="4">
         <v>2018</v>
       </c>
-      <c r="AV11" s="10">
+      <c r="AY11" s="10">
         <v>41426</v>
       </c>
-      <c r="AW11" s="4">
+      <c r="AZ11" s="4">
         <v>2018</v>
       </c>
-      <c r="AX11" s="10">
+      <c r="BA11" s="10">
         <v>41395</v>
       </c>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
-      <c r="BA11" s="13"/>
-      <c r="BB11" s="13"/>
-      <c r="BC11" s="13"/>
-      <c r="BD11" s="8"/>
-      <c r="BE11" s="2"/>
-      <c r="BF11" s="2"/>
-      <c r="BG11" s="13"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="13"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="8"/>
       <c r="BH11" s="2"/>
       <c r="BI11" s="2"/>
-    </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ11" s="13"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="2"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -5981,6 +6113,15 @@
         <v>2008</v>
       </c>
       <c r="G12" s="13"/>
+      <c r="H12" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>442</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -5988,55 +6129,60 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="7"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="7"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="7"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="4">
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="4">
         <v>2003</v>
       </c>
-      <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="7"/>
       <c r="AS12" s="2"/>
-      <c r="AT12" s="7"/>
-      <c r="AV12" s="10">
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="7"/>
+      <c r="AY12" s="10">
         <v>41548</v>
       </c>
-      <c r="AY12" s="2"/>
-      <c r="AZ12" s="13"/>
-      <c r="BA12" s="2"/>
       <c r="BB12" s="2"/>
-      <c r="BC12" s="2"/>
-      <c r="BD12" s="15">
-        <v>2000</v>
-      </c>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="2"/>
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
-      <c r="BG12" s="2"/>
+      <c r="BG12" s="15">
+        <v>2000</v>
+      </c>
       <c r="BH12" s="2"/>
-      <c r="BI12" s="13" t="s">
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
@@ -6049,6 +6195,15 @@
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>443</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -6056,53 +6211,58 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="7"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="7"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="13" t="s">
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="7"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="4">
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="4">
         <v>2005</v>
       </c>
-      <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="7"/>
       <c r="AS13" s="2"/>
-      <c r="AT13" s="7"/>
-      <c r="AV13" s="10" t="s">
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="49"/>
+      <c r="AW13" s="7"/>
+      <c r="AY13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AY13" s="2"/>
-      <c r="AZ13" s="13"/>
-      <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
-      <c r="BC13" s="2"/>
-      <c r="BD13" s="8"/>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="2"/>
       <c r="BE13" s="2"/>
       <c r="BF13" s="2"/>
-      <c r="BG13" s="2"/>
+      <c r="BG13" s="8"/>
       <c r="BH13" s="2"/>
-      <c r="BI13" s="13"/>
-    </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="13"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -6118,6 +6278,15 @@
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>444</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -6125,54 +6294,59 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="7"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="7"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="13" t="s">
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="7"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="7"/>
       <c r="AS14" s="2"/>
-      <c r="AT14" s="7"/>
-      <c r="AU14" s="2">
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="2">
         <v>1999</v>
       </c>
-      <c r="AW14" s="2">
+      <c r="AZ14" s="2">
         <v>2006</v>
       </c>
-      <c r="AY14" s="2"/>
-      <c r="AZ14" s="13"/>
-      <c r="BA14" s="2"/>
       <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="7"/>
+      <c r="BC14" s="13"/>
+      <c r="BD14" s="2"/>
       <c r="BE14" s="2"/>
       <c r="BF14" s="2"/>
-      <c r="BG14" s="2"/>
+      <c r="BG14" s="7"/>
       <c r="BH14" s="2"/>
       <c r="BI14" s="2"/>
-    </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -6187,6 +6361,9 @@
       <c r="G15" s="4">
         <v>2016</v>
       </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -6194,54 +6371,61 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="7"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="7"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="4">
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="4">
         <v>2000</v>
       </c>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="2"/>
+      <c r="AE15" s="7"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="15"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="49"/>
+      <c r="AR15" s="7"/>
       <c r="AS15" s="2"/>
-      <c r="AT15" s="7"/>
-      <c r="AU15" s="2">
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="49"/>
+      <c r="AW15" s="15">
         <v>2012</v>
       </c>
-      <c r="AW15" s="2">
+      <c r="AX15" s="2">
         <v>2012</v>
       </c>
-      <c r="AY15" s="2"/>
-      <c r="AZ15" s="2"/>
-      <c r="BA15" s="2"/>
+      <c r="AZ15" s="2">
+        <v>2012</v>
+      </c>
       <c r="BB15" s="2"/>
       <c r="BC15" s="2"/>
-      <c r="BD15" s="7"/>
+      <c r="BD15" s="2"/>
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
-      <c r="BG15" s="2"/>
+      <c r="BG15" s="7"/>
       <c r="BH15" s="2"/>
       <c r="BI15" s="2"/>
-    </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
@@ -6254,17 +6438,25 @@
         <v>2016</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="S16" s="14"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="7"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="7"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="2"/>
+      <c r="U16" s="14"/>
       <c r="V16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AH16" s="14"/>
-      <c r="AU16" s="2">
+      <c r="W16" s="2"/>
+      <c r="Y16" s="7"/>
+      <c r="AF16" s="2"/>
+      <c r="AI16" s="14"/>
+      <c r="AR16" s="7"/>
+      <c r="AW16" s="8"/>
+      <c r="AX16" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -6278,6 +6470,15 @@
       </c>
       <c r="G17" s="2">
         <v>1999</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>441</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -6286,56 +6487,61 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="7"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="7"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="4">
-        <v>2000</v>
-      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" s="4">
         <v>2000</v>
       </c>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="2"/>
+      <c r="AD17" s="4">
+        <v>2000</v>
+      </c>
+      <c r="AE17" s="7"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="15"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
-      <c r="AP17" s="7"/>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="7"/>
       <c r="AS17" s="2"/>
-      <c r="AT17" s="7"/>
-      <c r="AU17" s="2">
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="49"/>
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="2">
         <v>2012</v>
       </c>
-      <c r="AW17" s="2">
+      <c r="AZ17" s="2">
         <v>2012</v>
       </c>
-      <c r="AY17" s="2"/>
-      <c r="AZ17" s="2"/>
-      <c r="BA17" s="2"/>
       <c r="BB17" s="2"/>
       <c r="BC17" s="2"/>
-      <c r="BD17" s="7"/>
+      <c r="BD17" s="2"/>
       <c r="BE17" s="2"/>
       <c r="BF17" s="2"/>
-      <c r="BG17" s="2"/>
+      <c r="BG17" s="7"/>
       <c r="BH17" s="2"/>
-      <c r="BI17" s="13"/>
-    </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="13"/>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
@@ -6348,19 +6554,27 @@
         <v>2011</v>
       </c>
       <c r="G18" s="13"/>
-      <c r="S18" s="14"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="7"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="7"/>
       <c r="T18" s="14"/>
-      <c r="U18" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="U18" s="14"/>
       <c r="V18" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AU18" s="2">
+      <c r="W18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="2">
         <v>1999</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
@@ -6378,6 +6592,15 @@
         <v>2008</v>
       </c>
       <c r="G19" s="13"/>
+      <c r="H19" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>443</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -6385,47 +6608,52 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="7"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="7"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="7"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="15"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="7"/>
       <c r="AS19" s="2"/>
-      <c r="AT19" s="7"/>
-      <c r="AV19" s="13"/>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="13"/>
-      <c r="BA19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="49"/>
+      <c r="AW19" s="7"/>
+      <c r="AY19" s="13"/>
       <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="7"/>
+      <c r="BC19" s="13"/>
+      <c r="BD19" s="2"/>
       <c r="BE19" s="2"/>
       <c r="BF19" s="2"/>
-      <c r="BG19" s="2"/>
+      <c r="BG19" s="7"/>
       <c r="BH19" s="2"/>
       <c r="BI19" s="2"/>
-    </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -6438,6 +6666,15 @@
         <v>2008</v>
       </c>
       <c r="G20" s="13"/>
+      <c r="H20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -6445,55 +6682,62 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="S20" s="2"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="7"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="7"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="13" t="s">
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="AC20" s="4">
+      <c r="AD20" s="4">
         <v>2001</v>
       </c>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="2"/>
+      <c r="AE20" s="7"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="4">
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="4">
         <v>2003</v>
       </c>
-      <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
-      <c r="AP20" s="7"/>
-      <c r="AQ20" s="2"/>
-      <c r="AR20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="49"/>
+      <c r="AR20" s="15">
+        <v>2002</v>
+      </c>
       <c r="AS20" s="2"/>
-      <c r="AT20" s="7"/>
-      <c r="AV20" s="13"/>
-      <c r="AY20" s="2"/>
-      <c r="AZ20" s="13"/>
-      <c r="BA20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="49"/>
+      <c r="AW20" s="7"/>
+      <c r="AY20" s="13"/>
       <c r="BB20" s="2"/>
-      <c r="BC20" s="2"/>
-      <c r="BD20" s="15">
-        <v>2000</v>
-      </c>
+      <c r="BC20" s="13"/>
+      <c r="BD20" s="2"/>
       <c r="BE20" s="2"/>
       <c r="BF20" s="2"/>
-      <c r="BG20" s="2"/>
+      <c r="BG20" s="15">
+        <v>2000</v>
+      </c>
       <c r="BH20" s="2"/>
       <c r="BI20" s="2"/>
-    </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -6508,6 +6752,15 @@
         <v>2008</v>
       </c>
       <c r="G21" s="13"/>
+      <c r="H21" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>368</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -6515,49 +6768,54 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="7"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="7"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="7"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="7"/>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="2"/>
-      <c r="AR21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="49"/>
+      <c r="AR21" s="7"/>
       <c r="AS21" s="2"/>
-      <c r="AT21" s="7"/>
-      <c r="AU21" s="2">
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="49"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="2">
         <v>2004</v>
       </c>
-      <c r="AY21" s="2"/>
-      <c r="AZ21" s="13"/>
-      <c r="BA21" s="2"/>
       <c r="BB21" s="2"/>
-      <c r="BC21" s="2"/>
-      <c r="BD21" s="8"/>
-      <c r="BE21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
       <c r="BF21" s="2"/>
-      <c r="BG21" s="2"/>
-      <c r="BH21" s="2"/>
+      <c r="BG21" s="8"/>
+      <c r="BH21" s="13"/>
       <c r="BI21" s="2"/>
-    </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -6568,6 +6826,9 @@
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -6575,61 +6836,66 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="S22" s="4">
+      <c r="R22" s="49"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="4">
         <v>2012</v>
       </c>
-      <c r="T22" s="2"/>
-      <c r="U22" s="13" t="s">
-        <v>88</v>
-      </c>
+      <c r="U22" s="2"/>
       <c r="V22" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="W22" s="4"/>
-      <c r="Y22" s="2"/>
+      <c r="W22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="7"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="13"/>
+      <c r="AB22" s="2"/>
       <c r="AC22" s="13"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="2"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="7"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="7"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
-      <c r="AP22" s="7"/>
-      <c r="AQ22" s="4">
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="4">
         <v>2001</v>
       </c>
-      <c r="AR22" s="2"/>
-      <c r="AS22" s="2"/>
-      <c r="AT22" s="7"/>
-      <c r="AV22" s="2">
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="49"/>
+      <c r="AW22" s="7"/>
+      <c r="AY22" s="2">
         <v>2012</v>
       </c>
-      <c r="AY22" s="2"/>
-      <c r="AZ22" s="13"/>
-      <c r="BA22" s="2"/>
       <c r="BB22" s="2"/>
-      <c r="BC22" s="2"/>
-      <c r="BD22" s="8"/>
-      <c r="BE22" s="4">
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="8"/>
+      <c r="BH22" s="4">
         <v>2011</v>
       </c>
-      <c r="BF22" s="2"/>
-      <c r="BG22" s="2"/>
-      <c r="BH22" s="4">
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="4">
         <v>2004</v>
       </c>
-      <c r="BI22" s="2"/>
-    </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BL22" s="2"/>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -6640,6 +6906,15 @@
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
+      <c r="H23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -6647,56 +6922,63 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="S23" s="2"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="7"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="Y23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="7"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="7"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="4">
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="4">
         <v>2002</v>
       </c>
-      <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="2"/>
-      <c r="AR23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="15">
+        <v>2005</v>
+      </c>
       <c r="AS23" s="2"/>
-      <c r="AT23" s="7"/>
-      <c r="AU23" s="2">
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="7"/>
+      <c r="AX23" s="2">
         <v>2012</v>
       </c>
-      <c r="AW23" s="2">
+      <c r="AZ23" s="2">
         <v>2012</v>
       </c>
-      <c r="AY23" s="2"/>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="2"/>
       <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
-      <c r="BD23" s="8"/>
+      <c r="BC23" s="13"/>
+      <c r="BD23" s="2"/>
       <c r="BE23" s="2"/>
       <c r="BF23" s="2"/>
-      <c r="BG23" s="4">
+      <c r="BG23" s="8"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="4">
         <v>2000</v>
       </c>
-      <c r="BH23" s="2"/>
-      <c r="BI23" s="13"/>
-    </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="13"/>
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>22</v>
       </c>
@@ -6712,6 +6994,9 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -6719,56 +7004,65 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="2"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="13"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="4"/>
-      <c r="Y24" s="13"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="7"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="13"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="2"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="15"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-      <c r="AJ24" s="8" t="s">
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
-      <c r="AP24" s="7"/>
-      <c r="AQ24" s="4">
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="15">
+        <v>2000</v>
+      </c>
+      <c r="AS24" s="4">
         <v>2009</v>
       </c>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="7"/>
-      <c r="AV24" s="2">
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="49"/>
+      <c r="AW24" s="15">
+        <v>2001</v>
+      </c>
+      <c r="AY24" s="2">
         <v>2012</v>
       </c>
-      <c r="AX24" s="2">
+      <c r="BA24" s="2">
         <v>2012</v>
       </c>
-      <c r="AY24" s="2"/>
-      <c r="AZ24" s="13"/>
-      <c r="BA24" s="13"/>
-      <c r="BB24" s="13"/>
+      <c r="BB24" s="2"/>
       <c r="BC24" s="13"/>
-      <c r="BD24" s="8"/>
-      <c r="BE24" s="2"/>
-      <c r="BF24" s="2"/>
-      <c r="BG24" s="13"/>
+      <c r="BD24" s="13"/>
+      <c r="BE24" s="13"/>
+      <c r="BF24" s="13"/>
+      <c r="BG24" s="8"/>
       <c r="BH24" s="2"/>
       <c r="BI24" s="2"/>
-    </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ24" s="13"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -6781,6 +7075,9 @@
         <v>2008</v>
       </c>
       <c r="G25" s="13"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -6788,53 +7085,60 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="S25" s="2"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="7"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
-      <c r="Y25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="7"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="4">
-        <v>2000</v>
-      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" s="4">
         <v>2000</v>
       </c>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="2"/>
+      <c r="AD25" s="4">
+        <v>2000</v>
+      </c>
+      <c r="AE25" s="7"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="15"/>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="2"/>
-      <c r="AR25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="15">
+        <v>2005</v>
+      </c>
       <c r="AS25" s="2"/>
-      <c r="AT25" s="7"/>
-      <c r="AU25" s="2">
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="7"/>
+      <c r="AX25" s="2">
         <v>2012</v>
       </c>
-      <c r="AY25" s="2"/>
-      <c r="AZ25" s="13"/>
-      <c r="BA25" s="2"/>
       <c r="BB25" s="2"/>
-      <c r="BC25" s="2"/>
-      <c r="BD25" s="7"/>
+      <c r="BC25" s="13"/>
+      <c r="BD25" s="2"/>
       <c r="BE25" s="2"/>
       <c r="BF25" s="2"/>
-      <c r="BG25" s="2"/>
+      <c r="BG25" s="7"/>
       <c r="BH25" s="2"/>
-      <c r="BI25" s="13"/>
-    </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="13"/>
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>18</v>
       </c>
@@ -6850,6 +7154,15 @@
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
+      <c r="H26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -6857,49 +7170,53 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="7"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-      <c r="Y26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="7"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="7"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="15"/>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
-      <c r="AP26" s="7"/>
-      <c r="AQ26" s="2"/>
-      <c r="AR26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="49"/>
       <c r="AS26" s="2"/>
-      <c r="AT26" s="7"/>
-      <c r="AV26" s="13"/>
-      <c r="AY26" s="2"/>
-      <c r="AZ26" s="13"/>
-      <c r="BA26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="49"/>
+      <c r="AW26" s="7"/>
+      <c r="AY26" s="13"/>
       <c r="BB26" s="2"/>
-      <c r="BC26" s="2"/>
-      <c r="BD26" s="15">
-        <v>2000</v>
-      </c>
+      <c r="BC26" s="13"/>
+      <c r="BD26" s="2"/>
       <c r="BE26" s="2"/>
       <c r="BF26" s="2"/>
-      <c r="BG26" s="2"/>
+      <c r="BG26" s="15">
+        <v>2000</v>
+      </c>
       <c r="BH26" s="2"/>
       <c r="BI26" s="2"/>
-    </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>68</v>
       </c>
@@ -6915,70 +7232,84 @@
       </c>
       <c r="G27" s="2">
         <v>2001</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="S27" s="13"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="7"/>
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
-      <c r="W27" s="2"/>
-      <c r="Y27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="7"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
-      <c r="AB27" s="4">
-        <v>2000</v>
-      </c>
+      <c r="AB27" s="13"/>
       <c r="AC27" s="4">
         <v>2000</v>
       </c>
-      <c r="AE27" s="2"/>
+      <c r="AD27" s="4">
+        <v>2000</v>
+      </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="13"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="7"/>
       <c r="AL27" s="13"/>
       <c r="AM27" s="13"/>
       <c r="AN27" s="13"/>
       <c r="AO27" s="13"/>
-      <c r="AP27" s="8"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="2"/>
-      <c r="AS27" s="2"/>
-      <c r="AT27" s="7"/>
-      <c r="AU27" s="2">
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="52"/>
+      <c r="AR27" s="8"/>
+      <c r="AS27" s="13"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="49"/>
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="2">
         <v>2012</v>
       </c>
-      <c r="AV27" s="14"/>
-      <c r="AW27" s="2">
+      <c r="AY27" s="14"/>
+      <c r="AZ27" s="2">
         <v>2012</v>
       </c>
-      <c r="AY27" s="2"/>
-      <c r="AZ27" s="13"/>
-      <c r="BA27" s="2"/>
       <c r="BB27" s="2"/>
-      <c r="BC27" s="2"/>
-      <c r="BD27" s="7"/>
+      <c r="BC27" s="13"/>
+      <c r="BD27" s="2"/>
       <c r="BE27" s="2"/>
-      <c r="BF27" s="13"/>
-      <c r="BG27" s="2"/>
-      <c r="BH27" s="13" t="s">
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="7"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="13"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="BI27" s="2"/>
-    </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BL27" s="2"/>
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AV29" s="44"/>
-    </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="AY29" s="44"/>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -6992,6 +7323,15 @@
       </c>
       <c r="G30" s="2">
         <v>2011</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2003</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2003</v>
+      </c>
+      <c r="J30" s="15">
+        <v>2003</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4">
@@ -7004,60 +7344,65 @@
         <v>2011</v>
       </c>
       <c r="Q30" s="2"/>
-      <c r="S30" s="13"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="7"/>
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
-      <c r="W30" s="4">
+      <c r="W30" s="13"/>
+      <c r="X30" s="4">
         <v>2002</v>
       </c>
-      <c r="Y30" s="2"/>
+      <c r="Y30" s="7"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
-      <c r="AB30" s="13"/>
+      <c r="AB30" s="2"/>
       <c r="AC30" s="13"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="2"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="7"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
-      <c r="AH30" s="4">
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="4">
         <v>2014</v>
       </c>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="7"/>
-      <c r="AK30" s="2"/>
-      <c r="AL30" s="13"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="2"/>
       <c r="AM30" s="13"/>
-      <c r="AN30" s="2"/>
+      <c r="AN30" s="13"/>
       <c r="AO30" s="2"/>
-      <c r="AP30" s="7"/>
-      <c r="AQ30" s="13"/>
-      <c r="AR30" s="13"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="7"/>
       <c r="AS30" s="13"/>
-      <c r="AT30" s="8"/>
-      <c r="AU30" s="2">
+      <c r="AT30" s="13"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="52"/>
+      <c r="AW30" s="8"/>
+      <c r="AX30" s="2">
         <v>2005</v>
       </c>
-      <c r="AW30" s="2">
+      <c r="AZ30" s="2">
         <v>2012</v>
       </c>
-      <c r="AY30" s="4">
+      <c r="BB30" s="4">
         <v>2000</v>
       </c>
-      <c r="AZ30" s="2"/>
-      <c r="BA30" s="13"/>
-      <c r="BB30" s="13"/>
-      <c r="BC30" s="13"/>
-      <c r="BD30" s="7"/>
-      <c r="BE30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="13"/>
+      <c r="BE30" s="13"/>
       <c r="BF30" s="13"/>
-      <c r="BG30" s="13"/>
-      <c r="BH30" s="13" t="s">
+      <c r="BG30" s="7"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="13"/>
+      <c r="BJ30" s="13"/>
+      <c r="BK30" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="BI30" s="13"/>
-    </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BL30" s="13"/>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>24</v>
       </c>
@@ -7070,16 +7415,19 @@
         <v>2008</v>
       </c>
       <c r="G31" s="13"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="15"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="U31" s="13"/>
       <c r="V31" s="13"/>
-      <c r="W31" s="2"/>
-      <c r="AU31" s="2">
+      <c r="W31" s="13"/>
+      <c r="X31" s="2"/>
+      <c r="AX31" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -7093,6 +7441,15 @@
       </c>
       <c r="G32" s="2">
         <v>2005</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J32" s="15">
+        <v>2000</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -7105,70 +7462,77 @@
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="S32" s="13"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="7"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="4">
+      <c r="U32" s="13"/>
+      <c r="V32" s="4">
         <v>2018</v>
       </c>
-      <c r="V32" s="4">
+      <c r="W32" s="4">
         <v>2017</v>
       </c>
-      <c r="W32" s="4">
+      <c r="X32" s="4">
         <v>2018</v>
       </c>
-      <c r="Y32" s="2"/>
+      <c r="Y32" s="7"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
-      <c r="AB32" s="13"/>
+      <c r="AB32" s="2"/>
       <c r="AC32" s="13"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="2"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="7"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="4">
-        <v>2011</v>
-      </c>
+      <c r="AG32" s="2"/>
       <c r="AH32" s="4">
         <v>2011</v>
       </c>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="7"/>
-      <c r="AK32" s="2"/>
+      <c r="AI32" s="4">
+        <v>2011</v>
+      </c>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="7"/>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
-      <c r="AP32" s="7"/>
-      <c r="AQ32" s="13"/>
-      <c r="AR32" s="13"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="7"/>
       <c r="AS32" s="13"/>
-      <c r="AT32" s="8"/>
-      <c r="AU32" s="2">
+      <c r="AT32" s="13"/>
+      <c r="AU32" s="13"/>
+      <c r="AV32" s="52"/>
+      <c r="AW32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX32" s="2">
         <v>2012</v>
       </c>
-      <c r="AW32" s="2">
+      <c r="AZ32" s="2">
         <v>2012</v>
       </c>
-      <c r="AY32" s="4">
+      <c r="BB32" s="4">
         <v>2000</v>
       </c>
-      <c r="AZ32" s="2"/>
-      <c r="BA32" s="2"/>
-      <c r="BB32" s="2"/>
       <c r="BC32" s="2"/>
-      <c r="BD32" s="7"/>
-      <c r="BE32" s="13" t="s">
+      <c r="BD32" s="2"/>
+      <c r="BE32" s="2"/>
+      <c r="BF32" s="2"/>
+      <c r="BG32" s="7"/>
+      <c r="BH32" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="BF32" s="4">
+      <c r="BI32" s="4">
         <v>2012</v>
       </c>
-      <c r="BG32" s="13"/>
-      <c r="BH32" s="13" t="s">
+      <c r="BJ32" s="13"/>
+      <c r="BK32" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="BI32" s="13"/>
-    </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BL32" s="13"/>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -7183,6 +7547,9 @@
       <c r="G33" s="2">
         <v>2007</v>
       </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="7"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -7190,59 +7557,64 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="S33" s="2"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="7"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
-      <c r="Y33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="7"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
-      <c r="AB33" s="13"/>
+      <c r="AB33" s="2"/>
       <c r="AC33" s="13"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="10">
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="10">
         <v>36281</v>
       </c>
-      <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
-      <c r="AH33" s="4">
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="4">
         <v>2000</v>
       </c>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="7"/>
-      <c r="AK33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="7"/>
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
-      <c r="AP33" s="7"/>
-      <c r="AQ33" s="4">
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="7"/>
+      <c r="AS33" s="4">
         <v>2008</v>
       </c>
-      <c r="AR33" s="2"/>
-      <c r="AS33" s="2"/>
-      <c r="AT33" s="7"/>
-      <c r="AU33" s="2">
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="49"/>
+      <c r="AW33" s="7"/>
+      <c r="AX33" s="2">
         <v>2012</v>
       </c>
-      <c r="AY33" s="2"/>
-      <c r="AZ33" s="2"/>
-      <c r="BA33" s="2"/>
       <c r="BB33" s="2"/>
       <c r="BC33" s="2"/>
-      <c r="BD33" s="15">
-        <v>2000</v>
-      </c>
+      <c r="BD33" s="2"/>
       <c r="BE33" s="2"/>
       <c r="BF33" s="2"/>
-      <c r="BG33" s="13"/>
+      <c r="BG33" s="15">
+        <v>2000</v>
+      </c>
       <c r="BH33" s="2"/>
-      <c r="BI33" s="13" t="s">
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="13"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>97</v>
       </c>
@@ -7256,6 +7628,15 @@
       </c>
       <c r="G34" s="2">
         <v>2012</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J34" s="15">
+        <v>2000</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -7268,64 +7649,71 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="S34" s="13"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="7"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="13" t="s">
+      <c r="U34" s="13"/>
+      <c r="V34" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="V34" s="13" t="s">
+      <c r="W34" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="W34" s="4">
+      <c r="X34" s="4">
         <v>2012</v>
       </c>
-      <c r="Y34" s="2"/>
+      <c r="Y34" s="7"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="13"/>
+      <c r="AB34" s="2"/>
       <c r="AC34" s="13"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="2"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="7"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="13"/>
       <c r="AI34" s="2"/>
-      <c r="AJ34" s="7"/>
-      <c r="AK34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="7"/>
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
-      <c r="AP34" s="7"/>
-      <c r="AQ34" s="13"/>
-      <c r="AR34" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="AS34" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="AT34" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="AU34" s="2">
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="13"/>
+      <c r="AT34" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="AU34" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV34" s="52" t="s">
+        <v>433</v>
+      </c>
+      <c r="AW34" s="15">
+        <v>2010</v>
+      </c>
+      <c r="AX34" s="2">
         <v>2012</v>
       </c>
-      <c r="AW34" s="2">
+      <c r="AZ34" s="2">
         <v>2012</v>
       </c>
-      <c r="AY34" s="2"/>
-      <c r="AZ34" s="2"/>
-      <c r="BA34" s="2"/>
       <c r="BB34" s="2"/>
       <c r="BC34" s="2"/>
-      <c r="BD34" s="7"/>
+      <c r="BD34" s="2"/>
       <c r="BE34" s="2"/>
       <c r="BF34" s="2"/>
-      <c r="BG34" s="13"/>
+      <c r="BG34" s="7"/>
       <c r="BH34" s="2"/>
-      <c r="BI34" s="13"/>
-    </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="13"/>
+      <c r="BK34" s="2"/>
+      <c r="BL34" s="13"/>
+    </row>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
@@ -7338,6 +7726,15 @@
         <v>2019</v>
       </c>
       <c r="G35" s="13"/>
+      <c r="H35" s="4">
+        <v>2009</v>
+      </c>
+      <c r="I35" s="4">
+        <v>2009</v>
+      </c>
+      <c r="J35" s="15">
+        <v>2009</v>
+      </c>
       <c r="K35" s="4">
         <v>2011</v>
       </c>
@@ -7357,65 +7754,72 @@
         <v>2010</v>
       </c>
       <c r="Q35" s="4"/>
-      <c r="S35" s="13"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="7"/>
       <c r="T35" s="13"/>
-      <c r="U35" s="13" t="s">
+      <c r="U35" s="13"/>
+      <c r="V35" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="V35" s="13" t="s">
+      <c r="W35" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="W35" s="4">
+      <c r="X35" s="4">
         <v>2000</v>
       </c>
-      <c r="Y35" s="2"/>
+      <c r="Y35" s="7"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
-      <c r="AB35" s="13"/>
+      <c r="AB35" s="2"/>
       <c r="AC35" s="13"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="4">
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="4">
         <v>2000</v>
       </c>
-      <c r="AF35" s="13"/>
       <c r="AG35" s="13"/>
       <c r="AH35" s="13"/>
       <c r="AI35" s="13"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="4">
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="4">
         <v>2006</v>
       </c>
-      <c r="AL35" s="13"/>
       <c r="AM35" s="13"/>
-      <c r="AN35" s="4">
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="4">
         <v>2016</v>
       </c>
-      <c r="AO35" s="4">
+      <c r="AP35" s="4">
         <v>2014</v>
       </c>
-      <c r="AP35" s="15">
+      <c r="AQ35" s="53">
         <v>2016</v>
       </c>
-      <c r="AQ35" s="13"/>
-      <c r="AR35" s="13"/>
+      <c r="AR35" s="7"/>
       <c r="AS35" s="13"/>
-      <c r="AT35" s="8"/>
-      <c r="AV35" s="2">
+      <c r="AT35" s="13"/>
+      <c r="AU35" s="13"/>
+      <c r="AV35" s="52"/>
+      <c r="AW35" s="15">
+        <v>2010</v>
+      </c>
+      <c r="AY35" s="2">
         <v>2012</v>
       </c>
-      <c r="AY35" s="13"/>
-      <c r="AZ35" s="13"/>
-      <c r="BA35" s="13"/>
       <c r="BB35" s="13"/>
       <c r="BC35" s="13"/>
-      <c r="BD35" s="8"/>
+      <c r="BD35" s="13"/>
       <c r="BE35" s="13"/>
       <c r="BF35" s="13"/>
-      <c r="BG35" s="13"/>
+      <c r="BG35" s="8"/>
       <c r="BH35" s="13"/>
       <c r="BI35" s="13"/>
-    </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ35" s="13"/>
+      <c r="BK35" s="13"/>
+      <c r="BL35" s="13"/>
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
@@ -7430,6 +7834,9 @@
         <v>2010</v>
       </c>
       <c r="G36" s="13"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2">
@@ -7439,55 +7846,60 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="S36" s="13"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="7"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="4">
+      <c r="U36" s="13"/>
+      <c r="V36" s="4">
         <v>2001</v>
       </c>
-      <c r="V36" s="4">
+      <c r="W36" s="4">
         <v>2008</v>
       </c>
-      <c r="W36" s="4">
+      <c r="X36" s="4">
         <v>2000</v>
       </c>
-      <c r="Y36" s="2"/>
+      <c r="Y36" s="7"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
-      <c r="AB36" s="13"/>
+      <c r="AB36" s="2"/>
       <c r="AC36" s="13"/>
-      <c r="AD36" s="7"/>
-      <c r="AE36" s="2"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="7"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
-      <c r="AJ36" s="7"/>
-      <c r="AK36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="7"/>
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
-      <c r="AP36" s="7"/>
-      <c r="AQ36" s="13"/>
-      <c r="AR36" s="13"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="49"/>
+      <c r="AR36" s="7"/>
       <c r="AS36" s="13"/>
-      <c r="AT36" s="8"/>
-      <c r="AU36" s="2">
+      <c r="AT36" s="13"/>
+      <c r="AU36" s="13"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="7"/>
+      <c r="AX36" s="2">
         <v>2012</v>
       </c>
-      <c r="AY36" s="2"/>
-      <c r="AZ36" s="2"/>
-      <c r="BA36" s="13"/>
       <c r="BB36" s="2"/>
-      <c r="BC36" s="13"/>
-      <c r="BD36" s="7"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="13"/>
       <c r="BE36" s="2"/>
-      <c r="BF36" s="2"/>
-      <c r="BG36" s="2"/>
-      <c r="BH36" s="13"/>
+      <c r="BF36" s="13"/>
+      <c r="BG36" s="7"/>
+      <c r="BH36" s="2"/>
       <c r="BI36" s="2"/>
-    </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="13"/>
+      <c r="BL36" s="2"/>
+    </row>
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -7500,6 +7912,9 @@
         <v>2010</v>
       </c>
       <c r="G37" s="13"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2">
@@ -7509,67 +7924,72 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="S37" s="2"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="7"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="13" t="s">
+      <c r="U37" s="2"/>
+      <c r="V37" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="V37" s="13" t="s">
+      <c r="W37" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="W37" s="2"/>
-      <c r="Y37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="7"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
-      <c r="AB37" s="13"/>
+      <c r="AB37" s="2"/>
       <c r="AC37" s="13"/>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="2"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="7"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
-      <c r="AH37" s="4">
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="4">
         <v>2001</v>
       </c>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="7"/>
-      <c r="AK37" s="4">
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="4">
         <v>2006</v>
       </c>
-      <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
-      <c r="AP37" s="7"/>
-      <c r="AQ37" s="2"/>
-      <c r="AR37" s="4">
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="49"/>
+      <c r="AR37" s="7"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="4">
         <v>2003</v>
       </c>
-      <c r="AS37" s="4">
+      <c r="AU37" s="4">
         <v>2003</v>
       </c>
-      <c r="AT37" s="15">
+      <c r="AV37" s="53">
         <v>2003</v>
       </c>
-      <c r="AU37" s="2">
+      <c r="AW37" s="7"/>
+      <c r="AX37" s="2">
         <v>2012</v>
       </c>
-      <c r="AY37" s="2"/>
-      <c r="AZ37" s="2"/>
-      <c r="BA37" s="13"/>
       <c r="BB37" s="2"/>
-      <c r="BC37" s="13" t="s">
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="13"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BD37" s="7"/>
-      <c r="BE37" s="4">
+      <c r="BG37" s="7"/>
+      <c r="BH37" s="4">
         <v>2001</v>
       </c>
-      <c r="BF37" s="2"/>
-      <c r="BG37" s="13"/>
-      <c r="BH37" s="13"/>
-      <c r="BI37" s="13"/>
-    </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="13"/>
+      <c r="BK37" s="13"/>
+      <c r="BL37" s="13"/>
+    </row>
+    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>31</v>
       </c>
@@ -7582,20 +8002,28 @@
         <v>2011</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="U38" s="13" t="s">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="7"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="7"/>
+      <c r="V38" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="V38" s="13">
+      <c r="W38" s="13">
         <v>2001</v>
       </c>
-      <c r="AE38" s="4">
+      <c r="Y38" s="7"/>
+      <c r="AF38" s="4">
         <v>2000</v>
       </c>
-      <c r="AV38" s="13">
+      <c r="AR38" s="7"/>
+      <c r="AW38" s="7"/>
+      <c r="AY38" s="13">
         <v>2016</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>32</v>
       </c>
@@ -7608,6 +8036,9 @@
         <v>2011</v>
       </c>
       <c r="G39" s="13"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="13"/>
@@ -7615,69 +8046,74 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="S39" s="13"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="7"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="4">
+      <c r="U39" s="13"/>
+      <c r="V39" s="4">
         <v>2009</v>
       </c>
-      <c r="V39" s="2"/>
-      <c r="W39" s="4">
+      <c r="W39" s="2"/>
+      <c r="X39" s="4">
         <v>2000</v>
       </c>
-      <c r="Y39" s="2"/>
+      <c r="Y39" s="7"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
-      <c r="AB39" s="13"/>
+      <c r="AB39" s="2"/>
       <c r="AC39" s="13"/>
-      <c r="AD39" s="7"/>
-      <c r="AE39" s="4">
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="4">
         <v>2005</v>
       </c>
-      <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="4">
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="4">
         <v>2012</v>
       </c>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="7"/>
-      <c r="AK39" s="4">
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="4">
         <v>2004</v>
       </c>
-      <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
-      <c r="AP39" s="7"/>
-      <c r="AQ39" s="13"/>
-      <c r="AR39" s="13" t="s">
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="49"/>
+      <c r="AR39" s="7"/>
+      <c r="AS39" s="13"/>
+      <c r="AT39" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="AS39" s="13" t="s">
+      <c r="AU39" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="AT39" s="8" t="s">
+      <c r="AV39" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="AU39" s="2">
+      <c r="AW39" s="7"/>
+      <c r="AX39" s="2">
         <v>2012</v>
       </c>
-      <c r="AY39" s="4">
+      <c r="BB39" s="4">
         <v>2002</v>
       </c>
-      <c r="AZ39" s="2"/>
-      <c r="BA39" s="13"/>
-      <c r="BB39" s="2"/>
-      <c r="BC39" s="13"/>
-      <c r="BD39" s="8"/>
-      <c r="BE39" s="4">
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="13"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="13"/>
+      <c r="BG39" s="8"/>
+      <c r="BH39" s="4">
         <v>2001</v>
       </c>
-      <c r="BF39" s="2"/>
-      <c r="BG39" s="13"/>
-      <c r="BH39" s="13"/>
-      <c r="BI39" s="13"/>
-    </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="13"/>
+      <c r="BK39" s="13"/>
+      <c r="BL39" s="13"/>
+    </row>
+    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>33</v>
       </c>
@@ -7690,18 +8126,26 @@
         <v>2011</v>
       </c>
       <c r="G40" s="13"/>
-      <c r="U40" s="13" t="s">
-        <v>88</v>
-      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="7"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="7"/>
       <c r="V40" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AE40" s="2"/>
-      <c r="AV40" s="13">
+      <c r="W40" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y40" s="7"/>
+      <c r="AF40" s="2"/>
+      <c r="AR40" s="7"/>
+      <c r="AW40" s="7"/>
+      <c r="AY40" s="13">
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>49</v>
       </c>
@@ -7716,13 +8160,27 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="U41" s="13"/>
+      <c r="H41" s="4">
+        <v>2007</v>
+      </c>
+      <c r="I41" s="4">
+        <v>2007</v>
+      </c>
+      <c r="J41" s="15">
+        <v>2007</v>
+      </c>
+      <c r="R41" s="49"/>
+      <c r="S41" s="7"/>
       <c r="V41" s="13"/>
-      <c r="AV41" s="13">
+      <c r="W41" s="13"/>
+      <c r="Y41" s="7"/>
+      <c r="AR41" s="8"/>
+      <c r="AW41" s="7"/>
+      <c r="AY41" s="13">
         <v>2012</v>
       </c>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>34</v>
       </c>
@@ -7735,17 +8193,33 @@
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="U42" s="13" t="s">
+      <c r="H42" s="4">
+        <v>2007</v>
+      </c>
+      <c r="I42" s="4">
+        <v>2007</v>
+      </c>
+      <c r="J42" s="15">
+        <v>2007</v>
+      </c>
+      <c r="R42" s="49"/>
+      <c r="S42" s="7"/>
+      <c r="V42" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="V42" s="13" t="s">
+      <c r="W42" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="AV42" s="13">
+      <c r="Y42" s="7"/>
+      <c r="AR42" s="15">
+        <v>2011</v>
+      </c>
+      <c r="AW42" s="8"/>
+      <c r="AY42" s="13">
         <v>2017</v>
       </c>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>35</v>
       </c>
@@ -7758,12 +8232,20 @@
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="U43" s="13"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="15"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="7"/>
       <c r="V43" s="13"/>
-      <c r="AV43" s="13"/>
-      <c r="AX43" s="44"/>
-    </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="W43" s="13"/>
+      <c r="Y43" s="7"/>
+      <c r="AR43" s="7"/>
+      <c r="AW43" s="8"/>
+      <c r="AY43" s="13"/>
+      <c r="BA43" s="44"/>
+    </row>
+    <row r="44" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -7778,6 +8260,9 @@
       <c r="G44" s="2">
         <v>2012</v>
       </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="7"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="13"/>
@@ -7785,78 +8270,85 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="S44" s="4">
-        <v>2005</v>
-      </c>
+      <c r="R44" s="49"/>
+      <c r="S44" s="7"/>
       <c r="T44" s="4">
         <v>2005</v>
       </c>
-      <c r="U44" s="2"/>
-      <c r="V44" s="4">
+      <c r="U44" s="4">
+        <v>2005</v>
+      </c>
+      <c r="V44" s="2"/>
+      <c r="W44" s="4">
         <v>2000</v>
       </c>
-      <c r="W44" s="4">
+      <c r="X44" s="4">
         <v>2005</v>
       </c>
-      <c r="Y44" s="2"/>
+      <c r="Y44" s="7"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="7"/>
-      <c r="AE44" s="4">
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="4">
         <v>2002</v>
       </c>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="13" t="s">
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AH44" s="13"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="7"/>
-      <c r="AK44" s="2"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="7"/>
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
-      <c r="AP44" s="7"/>
-      <c r="AQ44" s="4">
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="49"/>
+      <c r="AR44" s="7"/>
+      <c r="AS44" s="4">
         <v>2010</v>
       </c>
-      <c r="AR44" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="AS44" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="AT44" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="AU44" s="4">
+      <c r="AT44" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="AU44" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="AV44" s="52" t="s">
+        <v>434</v>
+      </c>
+      <c r="AW44" s="15">
+        <v>2008</v>
+      </c>
+      <c r="AX44" s="4">
         <v>2015</v>
       </c>
-      <c r="AV44" s="2">
+      <c r="AY44" s="2">
         <v>2012</v>
       </c>
-      <c r="AY44" s="2"/>
-      <c r="AZ44" s="2"/>
-      <c r="BA44" s="2"/>
       <c r="BB44" s="2"/>
       <c r="BC44" s="2"/>
-      <c r="BD44" s="8"/>
-      <c r="BE44" s="4">
+      <c r="BD44" s="2"/>
+      <c r="BE44" s="2"/>
+      <c r="BF44" s="2"/>
+      <c r="BG44" s="8"/>
+      <c r="BH44" s="4">
         <v>2004</v>
       </c>
-      <c r="BF44" s="2"/>
-      <c r="BG44" s="4">
+      <c r="BI44" s="2"/>
+      <c r="BJ44" s="4">
         <v>2010</v>
       </c>
-      <c r="BH44" s="2"/>
-      <c r="BI44" s="13" t="s">
+      <c r="BK44" s="2"/>
+      <c r="BL44" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>36</v>
       </c>
@@ -7869,14 +8361,24 @@
         <v>2011</v>
       </c>
       <c r="G45" s="13"/>
-      <c r="U45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="7"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="7"/>
       <c r="V45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AV45" s="13">
+      <c r="W45" s="2"/>
+      <c r="Y45" s="7"/>
+      <c r="AF45" s="2"/>
+      <c r="AR45" s="7"/>
+      <c r="AW45" s="15">
+        <v>2000</v>
+      </c>
+      <c r="AY45" s="13">
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>37</v>
       </c>
@@ -7891,6 +8393,9 @@
         <v>2011</v>
       </c>
       <c r="G46" s="13"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -7898,63 +8403,68 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="S46" s="2"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="7"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
-      <c r="Y46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="7"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
-      <c r="AB46" s="4">
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="4">
         <v>2000</v>
       </c>
-      <c r="AC46" s="2"/>
-      <c r="AD46" s="7"/>
-      <c r="AE46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="7"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="4">
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="4">
         <v>2001</v>
       </c>
-      <c r="AI46" s="2"/>
-      <c r="AJ46" s="7"/>
-      <c r="AK46" s="4">
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="4">
         <v>2004</v>
       </c>
-      <c r="AL46" s="2"/>
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
-      <c r="AP46" s="7"/>
-      <c r="AQ46" s="2"/>
-      <c r="AR46" s="2"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="49"/>
+      <c r="AR46" s="7"/>
       <c r="AS46" s="2"/>
-      <c r="AT46" s="7"/>
-      <c r="AU46" s="2">
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="2"/>
+      <c r="AV46" s="49"/>
+      <c r="AW46" s="7"/>
+      <c r="AX46" s="2">
         <v>2012</v>
       </c>
-      <c r="AY46" s="2"/>
-      <c r="AZ46" s="13"/>
-      <c r="BA46" s="2"/>
       <c r="BB46" s="2"/>
-      <c r="BC46" s="2"/>
-      <c r="BD46" s="7"/>
-      <c r="BE46" s="4">
+      <c r="BC46" s="13"/>
+      <c r="BD46" s="2"/>
+      <c r="BE46" s="2"/>
+      <c r="BF46" s="2"/>
+      <c r="BG46" s="7"/>
+      <c r="BH46" s="4">
         <v>2001</v>
       </c>
-      <c r="BF46" s="2"/>
-      <c r="BG46" s="13" t="s">
+      <c r="BI46" s="2"/>
+      <c r="BJ46" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BH46" s="4">
+      <c r="BK46" s="4">
         <v>2003</v>
       </c>
-      <c r="BI46" s="4">
+      <c r="BL46" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>38</v>
       </c>
@@ -7969,6 +8479,9 @@
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -7976,73 +8489,78 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="S47" s="2"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="7"/>
       <c r="T47" s="2"/>
-      <c r="U47" s="13" t="s">
-        <v>88</v>
-      </c>
+      <c r="U47" s="2"/>
       <c r="V47" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="W47" s="2"/>
-      <c r="Y47" s="2"/>
+      <c r="W47" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="7"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
-      <c r="AB47" s="4">
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="4">
         <v>2009</v>
       </c>
-      <c r="AC47" s="4">
+      <c r="AD47" s="4">
         <v>2003</v>
       </c>
-      <c r="AD47" s="7"/>
-      <c r="AE47" s="2"/>
+      <c r="AE47" s="7"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="4">
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="4">
         <v>2004</v>
       </c>
-      <c r="AI47" s="2"/>
-      <c r="AJ47" s="7"/>
-      <c r="AK47" s="4">
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="4">
         <v>2003</v>
       </c>
-      <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
-      <c r="AP47" s="7"/>
-      <c r="AQ47" s="4">
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="49"/>
+      <c r="AR47" s="7"/>
+      <c r="AS47" s="4">
         <v>2003</v>
       </c>
-      <c r="AR47" s="4">
+      <c r="AT47" s="4">
         <v>2007</v>
       </c>
-      <c r="AS47" s="4">
+      <c r="AU47" s="4">
         <v>2007</v>
       </c>
-      <c r="AT47" s="15">
+      <c r="AV47" s="53">
         <v>2007</v>
       </c>
-      <c r="AV47" s="13"/>
-      <c r="AY47" s="4">
+      <c r="AW47" s="7"/>
+      <c r="AY47" s="13"/>
+      <c r="BB47" s="4">
         <v>2003</v>
       </c>
-      <c r="AZ47" s="13"/>
-      <c r="BA47" s="2"/>
-      <c r="BB47" s="2"/>
-      <c r="BC47" s="2"/>
-      <c r="BD47" s="7"/>
-      <c r="BE47" s="4">
+      <c r="BC47" s="13"/>
+      <c r="BD47" s="2"/>
+      <c r="BE47" s="2"/>
+      <c r="BF47" s="2"/>
+      <c r="BG47" s="7"/>
+      <c r="BH47" s="4">
         <v>2002</v>
       </c>
-      <c r="BF47" s="2"/>
-      <c r="BG47" s="13" t="s">
+      <c r="BI47" s="2"/>
+      <c r="BJ47" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="BH47" s="13"/>
-      <c r="BI47" s="2"/>
-    </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK47" s="13"/>
+      <c r="BL47" s="2"/>
+    </row>
+    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>39</v>
       </c>
@@ -8057,6 +8575,15 @@
         <v>2008</v>
       </c>
       <c r="G48" s="13"/>
+      <c r="H48" s="2">
+        <v>2001</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2001</v>
+      </c>
+      <c r="J48" s="7">
+        <v>2001</v>
+      </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -8064,53 +8591,58 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="S48" s="2"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="7"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
-      <c r="Y48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="7"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
-      <c r="AD48" s="7"/>
-      <c r="AE48" s="4">
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="4">
         <v>2001</v>
       </c>
-      <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
-      <c r="AI48" s="4"/>
-      <c r="AJ48" s="15"/>
-      <c r="AK48" s="4">
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="15"/>
+      <c r="AL48" s="4">
         <v>2002</v>
       </c>
-      <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
-      <c r="AP48" s="7"/>
-      <c r="AQ48" s="2"/>
-      <c r="AR48" s="2"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="49"/>
+      <c r="AR48" s="7"/>
       <c r="AS48" s="2"/>
-      <c r="AT48" s="7"/>
-      <c r="AU48" s="2">
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2"/>
+      <c r="AV48" s="49"/>
+      <c r="AW48" s="7"/>
+      <c r="AX48" s="2">
         <v>2012</v>
       </c>
-      <c r="AY48" s="2"/>
-      <c r="AZ48" s="13"/>
-      <c r="BA48" s="2"/>
       <c r="BB48" s="2"/>
-      <c r="BC48" s="2"/>
-      <c r="BD48" s="8"/>
+      <c r="BC48" s="13"/>
+      <c r="BD48" s="2"/>
       <c r="BE48" s="2"/>
       <c r="BF48" s="2"/>
-      <c r="BG48" s="2"/>
+      <c r="BG48" s="8"/>
       <c r="BH48" s="2"/>
       <c r="BI48" s="2"/>
-    </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ48" s="2"/>
+      <c r="BK48" s="2"/>
+      <c r="BL48" s="2"/>
+    </row>
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>40</v>
       </c>
@@ -8123,18 +8655,26 @@
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="U49" s="13" t="s">
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="7"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="7"/>
+      <c r="V49" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="V49" s="13" t="s">
+      <c r="W49" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="AE49" s="4">
+      <c r="Y49" s="7"/>
+      <c r="AF49" s="4">
         <v>2003</v>
       </c>
-      <c r="AV49" s="13"/>
-    </row>
-    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="AR49" s="7"/>
+      <c r="AW49" s="7"/>
+      <c r="AY49" s="13"/>
+    </row>
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>41</v>
       </c>
@@ -8145,6 +8685,15 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
+      <c r="H50" s="2">
+        <v>2002</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2002</v>
+      </c>
+      <c r="J50" s="7">
+        <v>2002</v>
+      </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -8152,51 +8701,56 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="S50" s="2"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="7"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
-      <c r="Y50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="7"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="7"/>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
-      <c r="AJ50" s="7"/>
-      <c r="AK50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="7"/>
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
-      <c r="AP50" s="7"/>
-      <c r="AQ50" s="2"/>
-      <c r="AR50" s="2"/>
+      <c r="AP50" s="2"/>
+      <c r="AQ50" s="49"/>
+      <c r="AR50" s="7"/>
       <c r="AS50" s="2"/>
-      <c r="AT50" s="7"/>
-      <c r="AU50" s="2">
+      <c r="AT50" s="2"/>
+      <c r="AU50" s="2"/>
+      <c r="AV50" s="49"/>
+      <c r="AW50" s="7"/>
+      <c r="AX50" s="2">
         <v>1999</v>
       </c>
-      <c r="AY50" s="2"/>
-      <c r="AZ50" s="13"/>
-      <c r="BA50" s="2"/>
       <c r="BB50" s="2"/>
-      <c r="BC50" s="2"/>
-      <c r="BD50" s="7"/>
+      <c r="BC50" s="13"/>
+      <c r="BD50" s="2"/>
       <c r="BE50" s="2"/>
       <c r="BF50" s="2"/>
-      <c r="BG50" s="2"/>
-      <c r="BH50" s="4">
+      <c r="BG50" s="7"/>
+      <c r="BH50" s="2"/>
+      <c r="BI50" s="2"/>
+      <c r="BJ50" s="2"/>
+      <c r="BK50" s="4">
         <v>2003</v>
       </c>
-      <c r="BI50" s="2"/>
-    </row>
-    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BL50" s="2"/>
+    </row>
+    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
         <v>47</v>
       </c>
@@ -8209,6 +8763,15 @@
         <v>2018</v>
       </c>
       <c r="G51" s="13"/>
+      <c r="H51" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I51" s="4">
+        <v>2005</v>
+      </c>
+      <c r="J51" s="15">
+        <v>2005</v>
+      </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -8216,55 +8779,60 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="S51" s="2"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="7"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
-      <c r="Y51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="7"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
-      <c r="AD51" s="7"/>
-      <c r="AE51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="7"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="4">
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="4">
         <v>2000</v>
       </c>
-      <c r="AI51" s="13" t="s">
+      <c r="AJ51" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AJ51" s="7"/>
-      <c r="AK51" s="2"/>
+      <c r="AK51" s="7"/>
       <c r="AL51" s="2"/>
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
-      <c r="AP51" s="7"/>
-      <c r="AQ51" s="2"/>
-      <c r="AR51" s="2"/>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="49"/>
+      <c r="AR51" s="7"/>
       <c r="AS51" s="2"/>
-      <c r="AT51" s="7"/>
-      <c r="AV51" s="2">
+      <c r="AT51" s="2"/>
+      <c r="AU51" s="2"/>
+      <c r="AV51" s="49"/>
+      <c r="AW51" s="7"/>
+      <c r="AY51" s="2">
         <v>2012</v>
       </c>
-      <c r="AY51" s="2"/>
-      <c r="AZ51" s="13"/>
-      <c r="BA51" s="2"/>
       <c r="BB51" s="2"/>
-      <c r="BC51" s="2"/>
-      <c r="BD51" s="7"/>
+      <c r="BC51" s="13"/>
+      <c r="BD51" s="2"/>
       <c r="BE51" s="2"/>
       <c r="BF51" s="2"/>
-      <c r="BG51" s="2"/>
-      <c r="BH51" s="4">
+      <c r="BG51" s="7"/>
+      <c r="BH51" s="2"/>
+      <c r="BI51" s="2"/>
+      <c r="BJ51" s="2"/>
+      <c r="BK51" s="4">
         <v>2003</v>
       </c>
-      <c r="BI51" s="13"/>
-    </row>
-    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BL51" s="13"/>
+    </row>
+    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>42</v>
       </c>
@@ -8277,17 +8845,25 @@
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="U52" s="13" t="s">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="15"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="7"/>
+      <c r="V52" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="V52" s="13" t="s">
+      <c r="W52" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AV52" s="13">
+      <c r="Y52" s="7"/>
+      <c r="AR52" s="7"/>
+      <c r="AW52" s="8"/>
+      <c r="AY52" s="13">
         <v>2013</v>
       </c>
     </row>
-    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>43</v>
       </c>
@@ -8300,6 +8876,9 @@
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="15"/>
       <c r="K53" s="4">
         <v>2006</v>
       </c>
@@ -8317,88 +8896,93 @@
       <c r="Q53" s="4">
         <v>2006</v>
       </c>
-      <c r="S53" s="4">
-        <v>2007</v>
-      </c>
+      <c r="R53" s="49"/>
+      <c r="S53" s="7"/>
       <c r="T53" s="4">
         <v>2007</v>
       </c>
-      <c r="U53" s="13" t="s">
+      <c r="U53" s="4">
+        <v>2007</v>
+      </c>
+      <c r="V53" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="V53" s="13" t="s">
+      <c r="W53" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="W53" s="4">
+      <c r="X53" s="4">
         <v>2001</v>
       </c>
-      <c r="Y53" s="2"/>
+      <c r="Y53" s="7"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
-      <c r="AB53" s="13"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="7"/>
-      <c r="AE53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="7"/>
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
-      <c r="AH53" s="4">
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="4">
         <v>2003</v>
       </c>
-      <c r="AI53" s="13"/>
-      <c r="AJ53" s="8"/>
-      <c r="AK53" s="4">
+      <c r="AJ53" s="13"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="4">
         <v>2005</v>
-      </c>
-      <c r="AL53" s="4">
-        <v>2006</v>
       </c>
       <c r="AM53" s="4">
         <v>2006</v>
       </c>
-      <c r="AN53" s="2"/>
+      <c r="AN53" s="4">
+        <v>2006</v>
+      </c>
       <c r="AO53" s="2"/>
-      <c r="AP53" s="7"/>
-      <c r="AQ53" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="AR53" s="4">
+      <c r="AP53" s="2"/>
+      <c r="AQ53" s="49"/>
+      <c r="AR53" s="7"/>
+      <c r="AS53" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="AT53" s="4">
         <v>2005</v>
       </c>
-      <c r="AS53" s="4">
+      <c r="AU53" s="4">
         <v>2005</v>
       </c>
-      <c r="AT53" s="15">
+      <c r="AV53" s="53">
         <v>2005</v>
       </c>
-      <c r="AV53" s="13">
+      <c r="AW53" s="7"/>
+      <c r="AY53" s="13">
         <v>2015</v>
       </c>
-      <c r="AY53" s="2"/>
-      <c r="AZ53" s="13"/>
-      <c r="BA53" s="2"/>
       <c r="BB53" s="2"/>
-      <c r="BC53" s="2"/>
-      <c r="BD53" s="8"/>
-      <c r="BE53" s="4">
+      <c r="BC53" s="13"/>
+      <c r="BD53" s="2"/>
+      <c r="BE53" s="2"/>
+      <c r="BF53" s="2"/>
+      <c r="BG53" s="8"/>
+      <c r="BH53" s="4">
         <v>2001</v>
       </c>
-      <c r="BF53" s="4">
+      <c r="BI53" s="4">
         <v>2006</v>
       </c>
-      <c r="BG53" s="13" t="s">
+      <c r="BJ53" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BH53" s="13" t="s">
+      <c r="BK53" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="BI53" s="2"/>
-    </row>
-    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BL53" s="2"/>
+    </row>
+    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>44</v>
       </c>
@@ -8411,6 +8995,15 @@
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
+      <c r="H56" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>368</v>
+      </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="13"/>
@@ -8422,63 +9015,68 @@
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-      <c r="S56" s="13"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="7"/>
       <c r="T56" s="13"/>
-      <c r="U56" s="4">
+      <c r="U56" s="13"/>
+      <c r="V56" s="4">
         <v>2004</v>
       </c>
-      <c r="V56" s="4">
+      <c r="W56" s="4">
         <v>2003</v>
       </c>
-      <c r="W56" s="4">
+      <c r="X56" s="4">
         <v>2002</v>
       </c>
-      <c r="Y56" s="4">
-        <v>2017</v>
-      </c>
+      <c r="Y56" s="7"/>
       <c r="Z56" s="4">
         <v>2017</v>
       </c>
-      <c r="AA56" s="13"/>
+      <c r="AA56" s="4">
+        <v>2017</v>
+      </c>
       <c r="AB56" s="13"/>
       <c r="AC56" s="13"/>
-      <c r="AD56" s="15"/>
-      <c r="AE56" s="2"/>
-      <c r="AF56" s="13"/>
+      <c r="AD56" s="13"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="2"/>
       <c r="AG56" s="13"/>
       <c r="AH56" s="13"/>
       <c r="AI56" s="13"/>
-      <c r="AJ56" s="8"/>
-      <c r="AK56" s="4">
+      <c r="AJ56" s="13"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="4">
         <v>2006</v>
-      </c>
-      <c r="AL56" s="4">
-        <v>2005</v>
       </c>
       <c r="AM56" s="4">
         <v>2005</v>
       </c>
-      <c r="AN56" s="2"/>
+      <c r="AN56" s="4">
+        <v>2005</v>
+      </c>
       <c r="AO56" s="2"/>
-      <c r="AP56" s="7"/>
-      <c r="AQ56" s="13"/>
-      <c r="AR56" s="13"/>
+      <c r="AP56" s="2"/>
+      <c r="AQ56" s="49"/>
+      <c r="AR56" s="7"/>
       <c r="AS56" s="13"/>
-      <c r="AT56" s="8"/>
-      <c r="AV56" s="13"/>
+      <c r="AT56" s="13"/>
+      <c r="AU56" s="13"/>
+      <c r="AV56" s="52"/>
+      <c r="AW56" s="7"/>
       <c r="AY56" s="13"/>
-      <c r="AZ56" s="13"/>
-      <c r="BA56" s="13"/>
       <c r="BB56" s="13"/>
       <c r="BC56" s="13"/>
-      <c r="BD56" s="8"/>
+      <c r="BD56" s="13"/>
       <c r="BE56" s="13"/>
       <c r="BF56" s="13"/>
-      <c r="BG56" s="13"/>
+      <c r="BG56" s="8"/>
       <c r="BH56" s="13"/>
       <c r="BI56" s="13"/>
-    </row>
-    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ56" s="13"/>
+      <c r="BK56" s="13"/>
+      <c r="BL56" s="13"/>
+    </row>
+    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
@@ -8498,6 +9096,15 @@
       <c r="G57" s="13" t="s">
         <v>351</v>
       </c>
+      <c r="H57" s="4">
+        <v>2009</v>
+      </c>
+      <c r="I57" s="4">
+        <v>2009</v>
+      </c>
+      <c r="J57" s="15">
+        <v>2009</v>
+      </c>
       <c r="K57" s="13" t="s">
         <v>94</v>
       </c>
@@ -8517,96 +9124,101 @@
         <v>88</v>
       </c>
       <c r="Q57" s="2"/>
-      <c r="S57" s="13"/>
+      <c r="R57" s="49"/>
+      <c r="S57" s="7"/>
       <c r="T57" s="13"/>
-      <c r="U57" s="2"/>
+      <c r="U57" s="13"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
-      <c r="Y57" s="13" t="s">
-        <v>71</v>
-      </c>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="7"/>
       <c r="Z57"